--- a/xlsx/Old/studies.xlsx
+++ b/xlsx/Old/studies.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emckclac-my.sharepoint.com/personal/k1780970_kcl_ac_uk/Documents/1. Catalogue + work documents/1. Catalogue shared files/1. Catalogue/3. Catalogue web development + updates/Contents folders/cmhm_20Jan2022/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emckclac-my.sharepoint.com/personal/k1780970_kcl_ac_uk/Documents/1. Catalogue + work documents/1. Catalogue shared files/1. Catalogue/2. Catalogue study updates/Resource folders/cmhm_18Feb2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{0BBEB508-D442-2344-A8EB-A5F35EEE28E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF6A3F42-79B6-0748-9630-777E8E1B76DC}"/>
+  <xr:revisionPtr revIDLastSave="70" documentId="13_ncr:1_{0BBEB508-D442-2344-A8EB-A5F35EEE28E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E835179-B213-C944-9E60-D4AD04384F8B}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13920" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="768">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="769">
   <si>
     <t>Code</t>
   </si>
@@ -88,9 +88,6 @@
   </si>
   <si>
     <t>Genetic data collected</t>
-  </si>
-  <si>
-    <t>Linkage to administrative data</t>
   </si>
   <si>
     <t>Notes</t>
@@ -243,10 +240,6 @@
     <t>~3,400 (cohort members) (Life at 27+)</t>
   </si>
   <si>
-    <t>Cohort members: birth &lt;br&gt;
-Mothers: 16 - 45 years</t>
-  </si>
-  <si>
     <t>April 1991 - December 1992</t>
   </si>
   <si>
@@ -271,30 +264,6 @@
     <t>MRC Wellcome BristolUni</t>
   </si>
   <si>
-    <t>Covid-19 data collection,
-Biomarkers,
-Cognitive measures,
-Diet and nutrition,
-Education,
-Ethnicity and race,
-Sexuality and gender identity,
-Housing,
-Socioeconomic status and deprivation,
-Language and literacy,
-Loneliness and social isolation,
-Neighbourhood,
-Personality,
-Physical health assessment,
-Political and social attitudes,
-Digital technology and social media,
-Victimisation and life events,
-Puberty,
-Reproductive health,
-Work and employment,
-Parenting and family,
-Sleep problems</t>
-  </si>
-  <si>
     <t>Linked administrative data,
 Genetic/genomic data,
 Mapping/spatial data,
@@ -363,22 +332,6 @@
   </si>
   <si>
     <t>DoHSC NHSdigital</t>
-  </si>
-  <si>
-    <t>Cognitive measures,
-Ethnicity and race,
-Sexuality and gender identity,
-Housing,
-Socioeconomic status and deprivation,
-Language and literacy,
-Loneliness and social isolation,
-Migration and immigration,
-Neighbourhood,
-Physical health assessment,
-Victimisation and life events,
-Reproductive health,
-Work and employment,
-Sleep problems</t>
   </si>
   <si>
     <t>England, Scotland, Wales, National</t>
@@ -457,17 +410,6 @@
     <t>DoHSC NHSdigital Scot Welsh</t>
   </si>
   <si>
-    <t>Education,
-Housing,
-Socioeconomic status and deprivation,
-Loneliness and social isolation,
-Physical health assessment,
-Victimisation and life events,
-Reproductive health,
-Work and employment,
-Sleep problems</t>
-  </si>
-  <si>
     <t>Vulnerable groups</t>
   </si>
   <si>
@@ -513,28 +455,6 @@
   <si>
     <t>ESRC RCOG&lt;br&gt;
 National Birthday Trust Fund</t>
-  </si>
-  <si>
-    <t>Covid-19 data collection,
-Biomarkers,
-Cognitive measures,
-Diet and nutrition,
-Education,
-Sexuality and gender identity,
-Housing,
-Socioeconomic status and deprivation,
-Language and literacy,
-Migration and immigration,
-Neighbourhood,
-Personality,
-Physical health assessment,
-Political and social attitudes,
-Victimisation and life events,
-Puberty,
-Reproductive health,
-Work and employment,
-Parenting and family,
-Sleep problems</t>
   </si>
   <si>
     <t>Linked administrative data,
@@ -596,25 +516,6 @@
     <t>NIHR</t>
   </si>
   <si>
-    <t>Covid-19 data collection,
-Biomarkers,
-Cognitive measures,
-Diet and nutrition,
-Education,
-Ethnicity and race,
-Housing,
-Socioeconomic status and deprivation,
-Language and literacy,
-Migration and immigration,
-Neighbourhood,
-Physical health assessment,
-Digital technology and social media,
-Reproductive health,
-Work and employment,
-Parenting and family,
-Sleep problems</t>
-  </si>
-  <si>
     <t>Ethnicity and race</t>
   </si>
   <si>
@@ -653,19 +554,6 @@
   </si>
   <si>
     <t>BLF</t>
-  </si>
-  <si>
-    <t>Covid-19 data collection,
-Biomarkers,
-Diet and nutrition,
-Socioeconomic status and deprivation,
-Language and literacy,
-Loneliness and social isolation,
-Migration and immigration,
-Neighbourhood,
-Physical health assessment,
-Work and employment,
-Parenting and family</t>
   </si>
   <si>
     <t>Linked administrative data,
@@ -792,19 +680,6 @@
     <t>MRC AlzhSoc</t>
   </si>
   <si>
-    <t>Covid-19 data collection,
-Biomarkers,
-Cognitive measures,
-Cognitive decline,
-Diet and nutrition,
-Socioeconomic status and deprivation,
-Language and literacy,
-Loneliness and social isolation,
-Physical health assessment,
-Work and employment,
-Sleep problems</t>
-  </si>
-  <si>
     <t>Genetic/genomic data</t>
   </si>
   <si>
@@ -932,18 +807,6 @@
 &lt;a href="https://doi.org/10.1093/ije/dym094"&gt;doi.org/10.1093/ije/dym094&lt;/a&gt; </t>
   </si>
   <si>
-    <t>Diet and nutrition,
-Ethnicity and race, 
-Housing,
-Loneliness and social isolation,
-Migration and immigration,
-Neighbourhood,
-Physical health assessment,
-Victimisation and life events,
-Work and employment,
-Parenting and family</t>
-  </si>
-  <si>
     <t>ELSA</t>
   </si>
   <si>
@@ -979,27 +842,6 @@
   </si>
   <si>
     <t>NIA DfT DoHSC DfWP</t>
-  </si>
-  <si>
-    <t>Covid-19 data collection,
-Biomarkers,
-Cognitive measures,
-Cognitive decline,
-Diet and nutrition,
-Sexuality and gender identity,
-Housing,
-Socioeconomic status and deprivation,
-Language and literacy,
-Loneliness and social isolation,
-Migration and immigration,
-Neighbourhood,
-Personality,
-Physical health assessment,
-Digital technology and social media,
-Victimisation and life events,
-Reproductive health,
-Work and employment,
-Sleep problems</t>
   </si>
   <si>
     <t>England, National</t>
@@ -1052,15 +894,6 @@
 Eurofound is an agency of the European Union</t>
   </si>
   <si>
-    <t>Housing,
-Socioeconomic status and deprivation,
-Loneliness and social isolation,
-Neighbourhood,
-Political and social attitudes,
-Digital technology and social media,
-Work and employment</t>
-  </si>
-  <si>
     <t>European cross-national sample</t>
   </si>
   <si>
@@ -1112,28 +945,6 @@
   </si>
   <si>
     <t>MRC NIH_NICHD Jacobs NSPCC BBSRC Avielle AsthmaUSA MQ Nuffield</t>
-  </si>
-  <si>
-    <t>Covid-19 data collection,
-Biomarkers,
-Cognitive measures,
-Diet and nutrition,
-Education,
-Ethnicity and race,
-Sexuality and gender identity,
-Housing,
-Socioeconomic status and deprivation,
-Language and literacy,
-Loneliness and social isolation,
-Neighbourhood,
-Personality,
-Physical health assessment,
-Digital technology and social media,
-Victimisation and life events,
-Puberty,
-Work and employment,
-Parenting and family,
-Sleep problems</t>
   </si>
   <si>
     <t>Twin study, Birth cohort</t>
@@ -1248,24 +1059,6 @@
     <t>Scot SFC</t>
   </si>
   <si>
-    <t>Covid-19 data collection,
-Biomarkers,
-Cognitive measures,
-Diet and nutrition,
-Housing,
-Socioeconomic status and deprivation,
-Language and literacy,
-Loneliness and social isolation,
-Migration and immigration,
-Neighbourhood,
-Personality,
-Physical health assessment,
-Victimisation and life events,
-Puberty,
-Reproductive health,
-Work and employment</t>
-  </si>
-  <si>
     <t>Scotland, National</t>
   </si>
   <si>
@@ -1319,27 +1112,6 @@
     <t>Scot</t>
   </si>
   <si>
-    <t>Cognitive measures,
-Diet and nutrition,
-Education,
-Ethnicity and race,
-Sexuality and gender identity,
-Housing,
-Socioeconomic status and deprivation,
-Language and literacy,
-Loneliness and social isolation,
-Neighbourhood,
-Physical health assessment,
-Political and social attitudes,
-Digital technology and social media,
-Victimisation and life events,
-Puberty,
-Reproductive health,
-Work and employment,
-Parenting and family,
-Sleep problems</t>
-  </si>
-  <si>
     <t>GUSBC2</t>
   </si>
   <si>
@@ -1362,22 +1134,6 @@
     <t>2010-11</t>
   </si>
   <si>
-    <t>Cognitive measures,
-Diet and nutrition,
-Education,
-Housing,
-Socioeconomic status and deprivation,
-Language and literacy,
-Loneliness and social isolation,
-Neighbourhood,
-Physical health assessment,
-Digital technology and social media,
-Reproductive health,
-Work and employment,
-Parenting and family,
-Sleep problems</t>
-  </si>
-  <si>
     <t>GUSCC1</t>
   </si>
   <si>
@@ -1453,24 +1209,6 @@
     <t>MRC BHF ARUK ROS Wellcome SOTON</t>
   </si>
   <si>
-    <t>Covid-19 data collection,
-Biomarkers,
-Cognitive measures,
-Cognitive decline,
-Diet and nutrition,
-Housing,
-Socioeconomic status and deprivation,
-Language and literacy,
-Loneliness and social isolation,
-Neighbourhood,
-Personality,
-Physical health assessment,
-Digital technology and social media,
-Reproductive health,
-Work and employment,
-Sleep problems</t>
-  </si>
-  <si>
     <t>HEAF</t>
   </si>
   <si>
@@ -1515,14 +1253,6 @@
   </si>
   <si>
     <t>ESRC MRC ARUK</t>
-  </si>
-  <si>
-    <t>Diet and nutrition,
-Housing,
-Socioeconomic status and deprivation,
-Physical health assessment,
-Work and employment,
-Sleep problems</t>
   </si>
   <si>
     <t>Ageing cohort, Occupational cohort</t>
@@ -1758,19 +1488,6 @@
     <t>BBSRC Scot MRC</t>
   </si>
   <si>
-    <t>Biomarkers,
-Cognitive measures,
-Cognitive decline,
-Education,
-Housing,
-Socioeconomic status and deprivation,
-Language and literacy,
-Loneliness and social isolation,
-Neighbourhood,
-Physical health assessment,
-Work and employment</t>
-  </si>
-  <si>
     <t>Scotland, Local area</t>
   </si>
   <si>
@@ -1805,23 +1522,6 @@
     <t>AgeUK MRC ASDRC BBSRC Wellcome Edin UQ NIH</t>
   </si>
   <si>
-    <t>Covid-19 data collection,
-Biomarkers,
-Cognitive measures,
-Cognitive decline,
-Diet and nutrition,
-Education,
-Housing,
-Socioeconomic status and deprivation,
-Language and literacy,
-Loneliness and social isolation,
-Neighbourhood,
-Physical health assessment,
-Reproductive health,
-Work and employment,
-Sleep problems</t>
-  </si>
-  <si>
     <t>LSYPE</t>
   </si>
   <si>
@@ -1857,25 +1557,6 @@
   </si>
   <si>
     <t>ESRC DfE</t>
-  </si>
-  <si>
-    <t>Covid-19 data collection,
-Cognitive measures,
-Diet and nutrition,
-Education,
-Sexuality and gender identity,
-Housing,
-Socioeconomic status and deprivation,
-Loneliness and social isolation,
-Neighbourhood,
-Personality,
-Political and social attitudes,
-Digital technology and social media,
-Victimisation and life events,
-Reproductive health,
-Work and employment,
-Parenting and family,
-Sleep problems</t>
   </si>
   <si>
     <t>MCS</t>
@@ -1916,30 +1597,6 @@
 International Centre for Child Studies</t>
   </si>
   <si>
-    <t>Covid-19 data collection,
-Cognitive measures,
-Diet and nutrition,
-Education,
-Ethnicity and race,
-Sexuality and gender identity,
-Housing,
-Socioeconomic status and deprivation,
-Language and literacy,
-Loneliness and social isolation,
-Migration and immigration,
-Neighbourhood,
-Personality,
-Physical health assessment,
-Political and social attitudes,
-Digital technology and social media,
-Victimisation and life events,
-Puberty,
-Reproductive health,
-Work and employment,
-Parenting and family,
-Sleep problems</t>
-  </si>
-  <si>
     <t>&lt;a href="https://web.www.healthdatagateway.org/dataset/2b09ea87-5b22-4049-b7dd-de0889699115"&gt;https://web.www.healthdatagateway.org/dataset/2b09ea87-5b22-4049-b7dd-de0889699115&lt;/a&gt;</t>
   </si>
   <si>
@@ -1988,15 +1645,6 @@
     <t>NHSdigital DoHSC</t>
   </si>
   <si>
-    <t>Education,
-Housing,
-Socioeconomic status and deprivation,
-Loneliness and social isolation,
-Victimisation and life events,
-Work and employment,
-Sleep problems</t>
-  </si>
-  <si>
     <t>MWS</t>
   </si>
   <si>
@@ -2040,17 +1688,6 @@
     <t>MRC CRUK</t>
   </si>
   <si>
-    <t>Diet and nutrition,
-Housing,
-Socioeconomic status and deprivation,
-Loneliness and social isolation,
-Physical health assessment,
-Digital technology and social media,
-Reproductive health,
-Work and employment,
-Sleep problems</t>
-  </si>
-  <si>
     <t>N85</t>
   </si>
   <si>
@@ -2090,18 +1727,6 @@
     <t xml:space="preserve">MRC BBSRC Dunhill NIHR </t>
   </si>
   <si>
-    <t>Biomarkers,
-Cognitive measures,
-Cognitive decline,
-Diet and nutrition,
-Housing,
-Socioeconomic status and deprivation,
-Loneliness and social isolation,
-Physical health assessment,
-Work and employment,
-Sleep problems</t>
-  </si>
-  <si>
     <t>NCDS</t>
   </si>
   <si>
@@ -2137,27 +1762,6 @@
   <si>
     <t>ESRC MRC NIH DfWP Wellcome&lt;br&gt;
 National Birthday Trust Fund</t>
-  </si>
-  <si>
-    <t>Covid-19 data collection,
-Biomarkers,
-Cognitive measures,
-Diet and nutrition,
-Education,
-Sexuality and gender identity,
-Housing,
-Socioeconomic status and deprivation,
-Language and literacy,
-Loneliness and social isolation,
-Migration and immigration,
-Personality,
-Physical health assessment,
-Political and social attitudes,
-Victimisation and life events,
-Reproductive health,
-Work and employment,
-Parenting and family,
-Sleep problems</t>
   </si>
   <si>
     <t>NICOLA</t>
@@ -2280,23 +1884,6 @@
     </r>
   </si>
   <si>
-    <t>Covid-19 data collection,
-Biomarkers,
-Cognitive measures,
-Cognitive decline,
-Diet and nutrition,
-Socioeconomic status and deprivation,
-Loneliness and social isolation,
-Neighbourhood,
-Personality,
-Physical health assessment,
-Digital technology and social media,
-Victimisation and life events,
-Reproductive health,
-Work and employment,
-Sleep problems</t>
-  </si>
-  <si>
     <t>Northern Ireland, National</t>
   </si>
   <si>
@@ -2334,29 +1921,6 @@
 Full list of cohort profile papers available at &lt;a href="https://www.nshd.mrc.ac.uk/about-us/cohort-profile/"&gt;nshd.mrc.ac.uk/about-us/cohort-profile&lt;/a&gt; </t>
   </si>
   <si>
-    <t>Covid-19 data collection,
-Biomarkers,
-Cognitive measures,
-Cognitive decline,
-Diet and nutrition,
-Education,
-Housing,
-Socioeconomic status and deprivation,
-Language and literacy,
-Loneliness and social isolation,
-Migration and immigration,
-Neighbourhood,
-Personality,
-Physical health assessment,
-Political and social attitudes,
-Digital technology and social media,
-Victimisation and life events,
-Reproductive health,
-Work and employment,
-Parenting and family,
-Sleep problems</t>
-  </si>
-  <si>
     <t>Linked administrative data,
 Genetic/genomic data,
 Brain activity and structures</t>
@@ -2397,21 +1961,6 @@
     <t>NIHR_BRC</t>
   </si>
   <si>
-    <t>Covid-19 data collection,
-Cognitive measures,
-Diet and nutrition,
-Ethnicity and race,
-Sexuality and gender identity,
-Loneliness and social isolation,
-Neighbourhood,
-Personality,
-Digital technology and social media,
-Victimisation and life events,
-Reproductive health,
-Work and employment,
-Sleep problems</t>
-  </si>
-  <si>
     <t>REACH</t>
   </si>
   <si>
@@ -2450,24 +1999,6 @@
   </si>
   <si>
     <t>ERC</t>
-  </si>
-  <si>
-    <t>Covid-19 data collection,
-Cognitive measures,
-Diet and nutrition,
-Education,
-Ethnicity and race,
-Housing,
-Socioeconomic status and deprivation,
-Loneliness and social isolation,
-Migration and immigration,
-Neighbourhood,
-Personality,
-Political and social attitudes,
-Digital technology and social media,
-Victimisation and life events,
-Parenting and family,
-Sleep problems</t>
   </si>
   <si>
     <t>Accelerated cohort study</t>
@@ -2585,20 +2116,6 @@
     <t>Wellcome BHF</t>
   </si>
   <si>
-    <t>Covid-19 data collection,
-Diet and nutrition,
-Ethnicity and race,
-Housing,
-Socioeconomic status and deprivation,
-Loneliness and social isolation,
-Migration and immigration,
-Physical health assessment,
-Victimisation and life events,
-Reproductive health,
-Work and employment,
-Sleep problems</t>
-  </si>
-  <si>
     <t>Ageing cohort,
 Ethnicity and race,</t>
   </si>
@@ -2636,19 +2153,6 @@
   </si>
   <si>
     <t>NIHR_BRC GSTC ESRC</t>
-  </si>
-  <si>
-    <t>Biomarkers,
-Diet and nutrition,
-Ethnicity and race,
-Sexuality and gender identity,
-Housing,
-Socioeconomic status and deprivation,
-Neighbourhood,
-Physical health assessment,
-Victimisation and life events,
-Work and employment,
-Sleep problems</t>
   </si>
   <si>
     <t>Ethnicity and race, 
@@ -2729,22 +2233,6 @@
     </r>
   </si>
   <si>
-    <t>Covid-19 data collection,
-Biomarkers,
-Cognitive measures,
-Diet and nutrition,
-Housing,
-Socioeconomic status and deprivation,
-Language and literacy,
-Neighbourhood,
-Physical health assessment,
-Digital technology and social media,
-Reproductive health,
-Work and employment,
-Parenting and family,
-Sleep problems</t>
-  </si>
-  <si>
     <t>TEDS</t>
   </si>
   <si>
@@ -2920,30 +2408,6 @@
   <si>
     <t>ESRC DfWP DfT DoHSC DfE DCMS DCLG DEFRA Scot Welsh ONS FSA&lt;br&gt;
 Large Facilities Capital Fund</t>
-  </si>
-  <si>
-    <t>Covid-19 data collection,
-Biomarkers,
-Cognitive measures,
-Diet and nutrition,
-Education,
-Ethnicity and race,
-Sexuality and gender identity,
-Housing,
-Socioeconomic status and deprivation,
-Language and literacy,
-Loneliness and social isolation,
-Migration and immigration,
-Neighbourhood,
-Personality,
-Physical health assessment,
-Political and social attitudes,
-Digital technology and social media,
-Victimisation and life events,
-Reproductive health,
-Work and employment,
-Parenting and family,
-Sleep problems</t>
   </si>
   <si>
     <t>Household panel study</t>
@@ -3090,6 +2554,1009 @@
 National Heart, Lung &amp; Blood Institute</t>
   </si>
   <si>
+    <t>WOS</t>
+  </si>
+  <si>
+    <t>West of Scotland Twenty-07</t>
+  </si>
+  <si>
+    <t>The West of Scotland Twenty-07 Study is a population-based multi-cohort study which has followed three cohorts of men and women in the West of Scotland across twenty years. Set up in 1986, the study was designed to investigate the differences in health by socio-economic circumstances, gender, the place where people live, age, ethnic group and family type. Through tracking three cohorts of volunteers, each born roughly twenty years apart, the study provides data at critical points in the lifespan, as participants make the transition from adolescence to working life; through the main part of working life; and from working life to retirement. Additionally, the study was designed to explore the effect of the historical context of people’s lives on their health and circumstances by comparing the different cohorts at the same age at different points in time.</t>
+  </si>
+  <si>
+    <t>MRC Social and Public Health Sciences Unit, University of Glasgow</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://2007study.sphsu.mrc.ac.uk/"&gt;http://2007study.sphsu.mrc.ac.uk/&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Central Clydeside Conurbation, West of Scotland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The West of Scotland Twenty-07 Study followed three cohorts each born roughly twenty years apart, in 1932, 1952 and 1972. In the initial sweep, the cohort members were approximately 15, 35 and 55 years old. Cohort members were followed up three times, in 1990/1991, 1995, and 2000/2004, before the final sweep of data collection took place in 2007/2008, when the cohort members were approximately 35, 55 and 75 years old. 
+&lt;br&gt;&lt;br&gt;
+Each cohort comprises two distinct but connected samples: a regional sample and a localities sample. The regional sample is a two-stage stratified random sample of people living in the Central Clydeside Conurbation - a socially mixed and mainly urban area - and the localities sample is comprised of people from two areas within the city of Glasgow. The sampling frame used for the regional sample was Strathclyde Regional Council’s 1986 Voluntary Population Survey, an enhanced electoral register that provides details of the age and sex of all household members. The locality sample was designed for more intensive study of the relationship between people’s personal and health circumstances and the environment in which they lived. Ten postcode sectors in two areas of the city of Glasgow were selected purposefully to capture different socio-economic experiences and environments. </t>
+  </si>
+  <si>
+    <t>4,510 total&lt;br&gt;
+1,551 - 1930s cohort&lt;br&gt;
+1,444 - 1950s cohort&lt;br&gt;
+1,515 - 1970s cohort</t>
+  </si>
+  <si>
+    <t>2,580 total (Wave 5, 2008)&lt;br&gt;
+633 - 1930s cohort&lt;br&gt;
+994 - 1950s cohort&lt;br&gt;
+923 - 1970s cohort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15, 35, and 55 years </t>
+  </si>
+  <si>
+    <t>1932, 1952, 1972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contact study team - proposal
+&lt;a href="http://2007study.sphsu.mrc.ac.uk/Information-on-data-sharing.html"&gt;http://2007study.sphsu.mrc.ac.uk/Information-on-data-sharing.html&lt;/a&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benzeval, M., Der, G., Ellaway, A., Hunt, K., Sweeting, H., West, P., &amp; Macintyre, S. (2009). Cohort profile: West of Scotland Twenty-07 study: health in the community. International Journal of Epidemiology, 38(5), 1215-1223 
+&lt;br&gt;
+&lt;a href="https://doi.org/10.1093/ije/dyn213"&gt;doi.org/10.1093/ije/dyn213
+&lt;/a&gt; 
+</t>
+  </si>
+  <si>
+    <t>SCAMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Study of Cognition, Adolescents and Mobile Phones (SCAMP) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Study of Cognition, Adolescents and Mobile Phones (SCAMP) was designed to provide insights into the long-term impacts of mobile phone and wireless technology use. It is a prospective school-based cohort study following several thousand pupils. It aims to examine associations between the use of mobile phones and other wireless devices that emit radio-frequency electromagnetic fields (RF-EMF) and cognitive, behavioural, educational, physical and mental health outcomes during adolescence.  
+</t>
+  </si>
+  <si>
+    <t>Imperial College London</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.scampstudy.org/"&gt;https://www.scampstudy.org/&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Greater London</t>
+  </si>
+  <si>
+    <t>Secondary school pupils from 39 eligible schools from within the Greater London area were invited to participate. Eligible schools were selected from the Department for Education’s register of educational establishments (EduBase) and from the January 2012 school census. Pupils completed computerised assessments at school, which were complemented by online questionnaires that could be completed in any environment by both and pupils and their parents.</t>
+  </si>
+  <si>
+    <t>11 years</t>
+  </si>
+  <si>
+    <t>2002-2003</t>
+  </si>
+  <si>
+    <t>Contact study team &lt;br&gt;
+&lt;a href="https://www.scampstudy.org/research-opportunities/"&gt;https://www.scampstudy.org/research-opportunities/&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DoHSC MRC </t>
+  </si>
+  <si>
+    <t>Covid-19 data collection,
+Biomarkers,
+Cognitive measures,
+Diet and nutrition,
+Education,
+Housing,
+Socioeconomic status and deprivation,
+Language and literacy,
+Neighbourhood,
+Digital technology and social media,
+Victimisation and life events,
+Puberty,
+Reproductive health,
+Sleep problems</t>
+  </si>
+  <si>
+    <t>AHMS</t>
+  </si>
+  <si>
+    <t>The Airwave Health Monitoring Study</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Airwave Health Monitoring Study is an occupational cohort study which was established to evaluate the possible health risks associated with use of Terrestrial Trunked Radio (TETRA), a digital communication system used by the police force. Due to the collection of extensive phenotypic data, biological samples, and the availability of linked health data, the study has been broadened to investigate more generally the health and social outcomes of working in the police force in Great Britain. </t>
+  </si>
+  <si>
+    <t>&lt;a href="https://police-health.org.uk/"&gt;https://police-health.org.uk/&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Employees of all 54 police forces as well as police-related agencies within Great Britain were invited to participate. Since the commencement of the study, a total of 28 forces have agreed to participate. Participants completed enrolment questionnaires during the first phase of the study. The second phase of the study consisted of a health screening performed locally by trained nurses. Overall, 16% of participants completed only phase one, 58% completed only phase two, and 26% completed both phases. Additionally, 62.9% of the participants are men, and the average age at enrolment was 40.9 years for men and 38.5 years for women.</t>
+  </si>
+  <si>
+    <t>18+</t>
+  </si>
+  <si>
+    <t>Contact study team &lt;br&gt;
+&lt;a href="https://police-health.org.uk/applying-access-resource"&gt;https://police-health.org.uk/applying-access-resource&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Biomarkers,
+Cognitive measures,
+Diet and nutrition,
+Socioeconomic status and deprivation,
+Language and literacy,
+Personality,
+Physical health assessment,
+Digital technology and social media,
+Victimisation and life events,
+Reproductive health,
+Work and employment,
+Sleep problems</t>
+  </si>
+  <si>
+    <t>EWCS</t>
+  </si>
+  <si>
+    <t>European Working Conditions Survey (EWCS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The European Working Conditions Survey is a unique pan-European survey carried out every 5 years to assess and quantify working conditions of both employees and the self-employed across Europe. It aims to provide a comprehensive picture of the everyday reality of men and women at work, and to do so covers a wide range of themes such as employment status, working time duration, learning and training, physical and psychosocial risk factors, health and safety, work-life balance, financial security and worker participation. The survey has also allowed researchers to analyse relationships between different aspects of working conditions, identify risk groups and issues of concern as well as progress, and monitor the trends of these issues. </t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.eurofound.europa.eu/surveys/european-working-conditions-surveys-ewcs"&gt;https://www.eurofound.europa.eu/surveys/european-working-conditions-surveys-ewcs&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">England, Scotland, Wales, Northern Ireland &lt;br&gt;
+Europe - 28 European Union Member States, the five candidate countries for EU membership (Albania, the former Yugoslav Republic of Macedonia, Montenegro, Serbia and Turkey) and Norway and Switzerland (EWCS 2015). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In each wave a new sample of the adult population is selected randomly for a face-to-face interview. In view of the growth of the EU and interest from the EFTA countries, the geographical coverage of the survey has expanded over time.
+&lt;br&gt;&lt;br&gt;
+The target population for each survey consists of all persons aged 15 and above (for Bulgaria, Norway, Spain and the UK, this is anyone aged 16 and above) who are residents of the country and are employed or self-employed at the time of data collection. Those considered to be in employment are those who have worked for pay or profit for at least an hour in the week preceding the interview. For most countries, the target sample size is 1,000, but to reflect the larger workforce in bigger countries, the target was increased proportionately. 
+&lt;br&gt;&lt;br&gt;
+For the EWCS 2015, a stratified, multi-stage, random sampling method was used to select participants from the working population of each country. Depending on the availability of high-quality registers, sampling was carried out using individual-level, household-level and address-level registers, or through enumeration using a random-walk approach. Country-level samples were stratified by region and degree of urbanisation. In each stratum, primary sampling units (PSUs) were randomly selected proportional to size. Subsequently, a random sample of households was drawn in each PSU. Finally, unless individual-level registers were used, in each household the selected respondent was the person in work who would have their birthday next.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,600 – UK sample, EWCS 2015
+&lt;br&gt;&lt;br&gt;
+43,850 – Total European sample, EWCS 2015
+</t>
+  </si>
+  <si>
+    <t>"UK Data Service&lt;br&gt;
+&lt;a href=""https://www.eurofound.europa.eu/surveys/about-eurofound-surveys/data-availability""&gt;eurofound.europa.eu/surveys/about-eurofound-surveys/data-availability&lt;/a&gt;&lt;br&gt;
+&lt;a href=""https://beta.ukdataservice.ac.uk/datacatalogue/studies/study?id=7348""&gt;beta.ukdataservice.ac.uk/datacatalogue/studies/study?id=7348&lt;/a&gt;"</t>
+  </si>
+  <si>
+    <t>Gemini</t>
+  </si>
+  <si>
+    <t> </t>
+  </si>
+  <si>
+    <t>Gemini is a large population-based study of twins designed to investigate the genetic and environmental influences on obesity risk, weight gain, and early growth. Gemini have followed twins and their families for over a decade, collecting detailed information about the twins’ growth, eating behaviours, appetite, and the home environment. A key aim of the Gemini study is to create a rich resource of data on early childhood exposures that can be used to assess the determinants of long-term health.</t>
+  </si>
+  <si>
+    <t>University College London</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;a href="https://www.geministudy.co.uk/"&gt;https://www.geministudy.co.uk/&lt;/a&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Families with twins born in England and Wales between March and December 2007 were approached on behalf of Gemini by the Office for National Statistics (N = 6,754) in January 2008. 3,435 families agreed to be contacted by the research team, with 2,402 families (36% of the target population) returning a completed baseline questionnaire. The sample comprises of 1,586 same-sex and 816 opposite-sex twin pairs. 
+&lt;br&gt;&lt;br&gt;
+Gemini families live across the whole of England and Wales, and the distribution mirrors the population density. The Gemini study includes twins that are comparable in sex, zygosity, gestational age, and birthweight to national averages of twins. However, mothers are somewhat older, and both parents are on average slightly healthier than the national population. As in many cohort studies, there is an over-representation of White–British families within the Gemini cohort. </t>
+  </si>
+  <si>
+    <t>2,402 families</t>
+  </si>
+  <si>
+    <t>8 months</t>
+  </si>
+  <si>
+    <t>987 twins, 492 parents (Time 9)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Researchers wishing to access Gemini data should contact the Gemini team via email on gemini@ucl.ac.uk </t>
+  </si>
+  <si>
+    <t>Covid-19 data collection,
+Diet and nutrition,
+Education,
+Housing,
+Socioeconomic status and deprivation,
+Neighbourhood,
+Personality,
+Physical health assessment,
+Digital technology and social media,
+Puberty,
+Parenting and family,
+Sleep problems</t>
+  </si>
+  <si>
+    <t>Genetic/genomic data,
+Observational/qualitative data</t>
+  </si>
+  <si>
+    <t>Education data,
+Environmental data,
+Social media data</t>
+  </si>
+  <si>
+    <t>Education data,
+Environmental data,
+Health data,
+Social media data</t>
+  </si>
+  <si>
+    <t>Education data,
+Environmental data,
+Health data</t>
+  </si>
+  <si>
+    <t>ADVANCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Armed Services Trauma Rehabilitation Outcome (ADVANCE) Study is a prospective longitudinal cohort study investigating the long-term physical and psychosocial outcomes of UK military personnel who sustained severe combat-related trauma during the Afghanistan conflict. ADVANCE aims to study the incidence of a wide variety of outcomes, including cardiovascular and musculoskeletal disease, mental health, functional and social outcomes, quality of life, employment, and mortality. Data is collected using various methods, including self-report questionnaires and clinical assessments. </t>
+  </si>
+  <si>
+    <t>Academic Department of Military Rehabilitation (Ministry of Defence); Imperial College London; King’s College London.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">England, Scotland, Wales, Northern Ireland &lt;br&gt;
+Some participants now reside outside of the United Kingdom (e.g., South Africa, North America) </t>
+  </si>
+  <si>
+    <t>Cohort study; Occupational cohort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Participants are serving and former UK military personnel who deployed on combat operations to Afghanistan between 2003 and 2014. Half are personnel who sustained combat trauma; a comparison group of the same size has been frequency matched based on deployment to Afghanistan, age, sex, service, regiment, rank, and role-in-theatre. 
+&lt;br&gt;&lt;br&gt;
+Participants were initially identified through various tracking systems and databases before being recruited through postal mailouts, e-mail invitations and telephone calls, and where necessary traced via Joint Personnel Administration (JPA) contacts, if still serving, and through electoral roll data, social media or advertising via military charities. Participants will be followed up after baseline data collection at 3, 6, 10, 15 and 20 years.
+&lt;br&gt;&lt;br&gt;
+ADVANCE’s sample does not include female participants due to very few female UK military combat casualties in Afghanistan. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The first follow up is currently in progress. </t>
+  </si>
+  <si>
+    <t>Men only</t>
+  </si>
+  <si>
+    <t>18-50 years (age at sampling)</t>
+  </si>
+  <si>
+    <t>Biomarkers,
+Physical health assessment,
+Victimisation and life events,
+Work and employment,
+Sleep problems</t>
+  </si>
+  <si>
+    <t>Toledano, M. B., Mutz, J., Röösli, M., Thomas, M. S., Dumontheil, I., &amp; Elliott, P. (2019). Cohort profile: the study of cognition, adolescents and mobile phones (SCAMP). International journal of epidemiology, 48(1), 25-26l.
+&lt;br&gt;
+&lt;a href="https://doi.org/10.1093/ije/dyy192"&gt;https://doi.org/10.1093/ije/dyy192&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Elliott, P., Vergnaud, A. C., Singh, D., Neasham, D., Spear, J., &amp; Heard, A. (2014). The Airwave Health Monitoring Study of police officers and staff in Great Britain: rationale, design and methods. Environmental research, 134, 280-285
+&lt;br&gt;
+&lt;a href="https://doi.org/10.1016/j.envres.2014.07.025"&gt;https://doi.org/10.1016/j.envres.2014.07.025&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Eurofound (2017). Sixth European Working Conditions Survey – Overview report (2017 update). Publications Office of the European Union, Luxembourg.
+&lt;br&gt;
+&lt;a href="https://doi.org/10.2806/422172"&gt;https://doi.org/10.2806/422172&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Van Jaarsveld, C. H., Johnson, L., Llewellyn, C., &amp; Wardle, J. (2010). Gemini: a UK twin birth cohort with a focus on early childhood weight trajectories, appetite and the family environment. Twin Research and Human Genetics, 13(1), 72-78. 
+&lt;br&gt;
+&lt;a href="https://doi.org/10.1375/twin.13.1.72"&gt;https://doi.org/10.1375/twin.13.1.72&lt;/a&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bennett, A. N., Dyball, D. M., Boos, C. J., Fear, N. T., Schofield, S., Bull, A. M., &amp; Cullinan, P. (2020). Study protocol for a prospective, longitudinal cohort study investigating the medical and psychosocial outcomes of UK combat casualties from the Afghanistan war: the ADVANCE Study. BMJ open, 10(10), e037850.
+&lt;br&gt;
+&lt;a href="https://doi.org/10.1136/bmjopen-2020-037850"&gt;https://doi.org/10.1136/bmjopen-2020-037850&lt;/a&gt;
+</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.advancestudydmrc.org.uk/"&gt;https:/www.advancestudydmrc.org.uk/&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Education data,
+Health data,
+Digital footprint data</t>
+  </si>
+  <si>
+    <t>HFH MoD Nuffield_Crown Blesma FIMT</t>
+  </si>
+  <si>
+    <t>Researchers wishing to access ADVANCE data should contact the ADVANCE team via email on dmrc-advancestudyteam@mod.gov.uk</t>
+  </si>
+  <si>
+    <t>1,145 participants total
+579 injured personnel, 565 comparison group</t>
+  </si>
+  <si>
+    <t>18,000 (ongoing)</t>
+  </si>
+  <si>
+    <t>HOUK Imperial_BRC MRC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,000 (approx.) – UK sample, EWCS 1991
+&lt;br&gt;&lt;br&gt;
+12,500 – Total European sample, EWCS 1991
+</t>
+  </si>
+  <si>
+    <t>Health data,
+Income/tax and benefits</t>
+  </si>
+  <si>
+    <t>Environmental data,
+Health data,
+Income/tax and benefits</t>
+  </si>
+  <si>
+    <t>Education data,
+Income/tax and benefits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Education data,
+Environmental data,
+Health data,
+Income/tax and benefits,
+Social media data
+</t>
+  </si>
+  <si>
+    <t>Linked data</t>
+  </si>
+  <si>
+    <t>Covid-19 data collection,
+Biomarkers,
+Cognitive measures,
+Diet and nutrition,
+Education,
+Ethnicity and race,
+Sexuality and gender identity,
+Housing,
+Socioeconomic status and deprivation,
+Language and literacy,
+Loneliness and social isolation,
+Neighbourhood,
+Personality,
+Physical health assessment,
+Political and social attitudes,
+Digital technology and social media,
+Victimisation and life events,
+Puberty,
+Reproductive health,
+Work and employment,
+Parenting and family,
+Sleep problems, 
+Social care - receipt,
+Social care - provision,
+Social care - need</t>
+  </si>
+  <si>
+    <t>Cognitive measures,
+Ethnicity and race,
+Sexuality and gender identity,
+Housing,
+Socioeconomic status and deprivation,
+Language and literacy,
+Loneliness and social isolation,
+Migration and immigration,
+Neighbourhood,
+Physical health assessment,
+Victimisation and life events,
+Reproductive health,
+Work and employment,
+Sleep problems,
+Social care - receipt,
+Social care - provision,
+Social care - need</t>
+  </si>
+  <si>
+    <t>Education,
+Housing,
+Socioeconomic status and deprivation,
+Loneliness and social isolation,
+Physical health assessment,
+Victimisation and life events,
+Reproductive health,
+Work and employment,
+Sleep problems,
+Social care - receipt,
+Social care - provision,
+Social care - need</t>
+  </si>
+  <si>
+    <t>Covid-19 data collection,
+Biomarkers,
+Cognitive measures,
+Diet and nutrition,
+Education,
+Sexuality and gender identity,
+Housing,
+Socioeconomic status and deprivation,
+Language and literacy,
+Migration and immigration,
+Neighbourhood,
+Personality,
+Physical health assessment,
+Political and social attitudes,
+Victimisation and life events,
+Puberty,
+Reproductive health,
+Work and employment,
+Parenting and family,
+Sleep problems,
+Social care - receipt,
+Social care - provision,
+Social care - need</t>
+  </si>
+  <si>
+    <t>Covid-19 data collection,
+Biomarkers,
+Cognitive measures,
+Diet and nutrition,
+Education,
+Ethnicity and race,
+Housing,
+Socioeconomic status and deprivation,
+Language and literacy,
+Migration and immigration,
+Neighbourhood,
+Physical health assessment,
+Digital technology and social media,
+Reproductive health,
+Work and employment,
+Parenting and family,
+Sleep problems,
+Social care - receipt,
+Social care - need</t>
+  </si>
+  <si>
+    <t>Covid-19 data collection,
+Biomarkers,
+Diet and nutrition,
+Socioeconomic status and deprivation,
+Language and literacy,
+Loneliness and social isolation,
+Migration and immigration,
+Neighbourhood,
+Physical health assessment,
+Work and employment,
+Parenting and family,
+Social care - receipt,
+Social care - need</t>
+  </si>
+  <si>
+    <t>Covid-19 data collection,
+Biomarkers,
+Cognitive measures,
+Cognitive decline,
+Diet and nutrition,
+Socioeconomic status and deprivation,
+Language and literacy,
+Loneliness and social isolation,
+Physical health assessment,
+Work and employment,
+Sleep problems,
+Social care - receipt,
+Social care - provision,
+Social care - need</t>
+  </si>
+  <si>
+    <t>Covid-19 data collection,
+Biomarkers,
+Cognitive measures,
+Cognitive decline,
+Diet and nutrition,
+Socioeconomic status and deprivation,
+Language and literacy,
+Loneliness and social isolation,
+Physical health assessment,
+Work and employment,
+Sleep problems,
+Social care - receipt,
+Social care - need</t>
+  </si>
+  <si>
+    <t>Diet and nutrition,
+Ethnicity and race, 
+Housing,
+Loneliness and social isolation,
+Migration and immigration,
+Neighbourhood,
+Physical health assessment,
+Victimisation and life events,
+Work and employment,
+Parenting and family,
+Social care - need</t>
+  </si>
+  <si>
+    <t>Covid-19 data collection,
+Biomarkers,
+Cognitive measures,
+Cognitive decline,
+Diet and nutrition,
+Sexuality and gender identity,
+Housing,
+Socioeconomic status and deprivation,
+Language and literacy,
+Loneliness and social isolation,
+Migration and immigration,
+Neighbourhood,
+Personality,
+Physical health assessment,
+Digital technology and social media,
+Victimisation and life events,
+Reproductive health,
+Work and employment,
+Sleep problems,
+Social care - receipt,
+Social care - provision,
+Social care - need</t>
+  </si>
+  <si>
+    <t>Housing,
+Socioeconomic status and deprivation,
+Loneliness and social isolation,
+Neighbourhood,
+Political and social attitudes,
+Digital technology and social media,
+Work and employment,
+Social care - receipt,
+Social care - provision,
+Social care - need</t>
+  </si>
+  <si>
+    <t>Covid-19 data collection,
+Biomarkers,
+Cognitive measures,
+Diet and nutrition,
+Education,
+Ethnicity and race,
+Sexuality and gender identity,
+Housing,
+Socioeconomic status and deprivation,
+Language and literacy,
+Loneliness and social isolation,
+Neighbourhood,
+Personality,
+Physical health assessment,
+Digital technology and social media,
+Victimisation and life events,
+Puberty,
+Work and employment,
+Parenting and family,
+Sleep problems,
+Social care - receipt</t>
+  </si>
+  <si>
+    <t>Covid-19 data collection,
+Biomarkers,
+Cognitive measures,
+Diet and nutrition,
+Housing,
+Socioeconomic status and deprivation,
+Language and literacy,
+Loneliness and social isolation,
+Migration and immigration,
+Neighbourhood,
+Personality,
+Physical health assessment,
+Victimisation and life events,
+Puberty,
+Reproductive health,
+Work and employment,
+Social care - receipt,
+Social care - need</t>
+  </si>
+  <si>
+    <t>Cognitive measures,
+Diet and nutrition,
+Education,
+Ethnicity and race,
+Sexuality and gender identity,
+Housing,
+Socioeconomic status and deprivation,
+Language and literacy,
+Loneliness and social isolation,
+Neighbourhood,
+Physical health assessment,
+Political and social attitudes,
+Digital technology and social media,
+Victimisation and life events,
+Puberty,
+Reproductive health,
+Work and employment,
+Parenting and family,
+Sleep problems,
+Social care - receipt,
+Social care - need</t>
+  </si>
+  <si>
+    <t>Cognitive measures,
+Diet and nutrition,
+Education,
+Housing,
+Socioeconomic status and deprivation,
+Language and literacy,
+Loneliness and social isolation,
+Neighbourhood,
+Physical health assessment,
+Digital technology and social media,
+Reproductive health,
+Work and employment,
+Parenting and family,
+Sleep problems,
+Social care - receipt,
+Social care - provision,
+Social care - need</t>
+  </si>
+  <si>
+    <t>Cognitive measures,
+Diet and nutrition,
+Education,
+Housing,
+Socioeconomic status and deprivation,
+Language and literacy,
+Loneliness and social isolation,
+Neighbourhood,
+Physical health assessment,
+Digital technology and social media,
+Reproductive health,
+Work and employment,
+Parenting and family,
+Sleep problems,
+Social care - receipt,
+Social care - need</t>
+  </si>
+  <si>
+    <t>Covid-19 data collection,
+Biomarkers,
+Cognitive measures,
+Cognitive decline,
+Diet and nutrition,
+Housing,
+Socioeconomic status and deprivation,
+Language and literacy,
+Loneliness and social isolation,
+Neighbourhood,
+Personality,
+Physical health assessment,
+Digital technology and social media,
+Reproductive health,
+Work and employment,
+Sleep problems,
+Social care - receipt,
+Social care - need</t>
+  </si>
+  <si>
+    <t>Diet and nutrition,
+Housing,
+Socioeconomic status and deprivation,
+Physical health assessment,
+Work and employment,
+Sleep problems,
+Social care - provision,
+Social care - need</t>
+  </si>
+  <si>
+    <t>Biomarkers,
+Cognitive measures,
+Cognitive decline,
+Education,
+Housing,
+Socioeconomic status and deprivation,
+Language and literacy,
+Loneliness and social isolation,
+Neighbourhood,
+Physical health assessment,
+Work and employment,
+Social care - receipt,
+Social care - need</t>
+  </si>
+  <si>
+    <t>Covid-19 data collection,
+Biomarkers,
+Cognitive measures,
+Cognitive decline,
+Diet and nutrition,
+Education,
+Housing,
+Socioeconomic status and deprivation,
+Language and literacy,
+Loneliness and social isolation,
+Neighbourhood,
+Physical health assessment,
+Reproductive health,
+Work and employment,
+Sleep problems,
+Social care - receipt,
+Social care - need</t>
+  </si>
+  <si>
+    <t>Covid-19 data collection,
+Cognitive measures,
+Diet and nutrition,
+Education,
+Sexuality and gender identity,
+Housing,
+Socioeconomic status and deprivation,
+Loneliness and social isolation,
+Neighbourhood,
+Personality,
+Political and social attitudes,
+Digital technology and social media,
+Victimisation and life events,
+Reproductive health,
+Work and employment,
+Parenting and family,
+Sleep problems,
+Social care - receipt,
+Social care - provision,
+Social care - need</t>
+  </si>
+  <si>
+    <t>Covid-19 data collection,
+Cognitive measures,
+Diet and nutrition,
+Education,
+Ethnicity and race,
+Sexuality and gender identity,
+Housing,
+Socioeconomic status and deprivation,
+Language and literacy,
+Loneliness and social isolation,
+Migration and immigration,
+Neighbourhood,
+Personality,
+Physical health assessment,
+Political and social attitudes,
+Digital technology and social media,
+Victimisation and life events,
+Puberty,
+Reproductive health,
+Work and employment,
+Parenting and family,
+Sleep problems,
+Social care - receipt,
+Social care - provision,
+Social care - need</t>
+  </si>
+  <si>
+    <t>Education,
+Housing,
+Socioeconomic status and deprivation,
+Loneliness and social isolation,
+Victimisation and life events,
+Work and employment,
+Sleep problems,
+Social care - receipt,
+Social care - provision,
+Social care - need</t>
+  </si>
+  <si>
+    <t>Diet and nutrition,
+Housing,
+Socioeconomic status and deprivation,
+Loneliness and social isolation,
+Physical health assessment,
+Digital technology and social media,
+Reproductive health,
+Work and employment,
+Sleep problems,
+Social care - receipt,
+Social care - provision,
+Social care - need</t>
+  </si>
+  <si>
+    <t>Biomarkers,
+Cognitive measures,
+Cognitive decline,
+Diet and nutrition,
+Housing,
+Socioeconomic status and deprivation,
+Loneliness and social isolation,
+Physical health assessment,
+Work and employment,
+Sleep problems,
+Social care - receipt,
+Social care - need</t>
+  </si>
+  <si>
+    <t>Covid-19 data collection,
+Biomarkers,
+Cognitive measures,
+Diet and nutrition,
+Education,
+Sexuality and gender identity,
+Housing,
+Socioeconomic status and deprivation,
+Language and literacy,
+Loneliness and social isolation,
+Migration and immigration,
+Personality,
+Physical health assessment,
+Political and social attitudes,
+Victimisation and life events,
+Reproductive health,
+Work and employment,
+Parenting and family,
+Sleep problems,
+Social care - receipt,
+Social care - provision,
+Social care - need</t>
+  </si>
+  <si>
+    <t>Covid-19 data collection,
+Biomarkers,
+Cognitive measures,
+Cognitive decline,
+Diet and nutrition,
+Socioeconomic status and deprivation,
+Loneliness and social isolation,
+Neighbourhood,
+Personality,
+Physical health assessment,
+Digital technology and social media,
+Victimisation and life events,
+Reproductive health,
+Work and employment,
+Sleep problems,
+Social care - receipt,
+Social care - provision,
+Social care - need</t>
+  </si>
+  <si>
+    <t>Covid-19 data collection,
+Biomarkers,
+Cognitive measures,
+Cognitive decline,
+Diet and nutrition,
+Education,
+Housing,
+Socioeconomic status and deprivation,
+Language and literacy,
+Loneliness and social isolation,
+Migration and immigration,
+Neighbourhood,
+Personality,
+Physical health assessment,
+Political and social attitudes,
+Digital technology and social media,
+Victimisation and life events,
+Reproductive health,
+Work and employment,
+Parenting and family,
+Sleep problems,
+Social care - receipt,
+Social care - provision,
+Social care - need</t>
+  </si>
+  <si>
+    <t>Covid-19 data collection,
+Cognitive measures,
+Diet and nutrition,
+Ethnicity and race,
+Sexuality and gender identity,
+Loneliness and social isolation,
+Neighbourhood,
+Personality,
+Digital technology and social media,
+Victimisation and life events,
+Reproductive health,
+Work and employment,
+Sleep problems,
+Social care - receipt,
+Social care - provision,
+Social care - need</t>
+  </si>
+  <si>
+    <t>Covid-19 data collection,
+Cognitive measures,
+Diet and nutrition,
+Education,
+Ethnicity and race,
+Housing,
+Socioeconomic status and deprivation,
+Loneliness and social isolation,
+Migration and immigration,
+Neighbourhood,
+Personality,
+Political and social attitudes,
+Digital technology and social media,
+Victimisation and life events,
+Parenting and family,
+Sleep problems,
+Social care - need</t>
+  </si>
+  <si>
+    <t>Covid-19 data collection,
+Diet and nutrition,
+Ethnicity and race,
+Housing,
+Socioeconomic status and deprivation,
+Loneliness and social isolation,
+Migration and immigration,
+Physical health assessment,
+Victimisation and life events,
+Reproductive health,
+Work and employment,
+Sleep problems,
+Social care - receipt,
+Social care - provision,
+Social care - need</t>
+  </si>
+  <si>
+    <t>Biomarkers,
+Diet and nutrition,
+Ethnicity and race,
+Sexuality and gender identity,
+Housing,
+Socioeconomic status and deprivation,
+Neighbourhood,
+Physical health assessment,
+Victimisation and life events,
+Work and employment,
+Sleep problems,
+Social care - receipt,
+Social care - provision,
+Social care - need</t>
+  </si>
+  <si>
+    <t>Covid-19 data collection,
+Biomarkers,
+Cognitive measures,
+Diet and nutrition,
+Housing,
+Socioeconomic status and deprivation,
+Language and literacy,
+Neighbourhood,
+Physical health assessment,
+Digital technology and social media,
+Reproductive health,
+Work and employment,
+Parenting and family,
+Sleep problems,
+Social care - receipt,
+Social care - provision,
+Social care - need</t>
+  </si>
+  <si>
+    <t>Covid-19 data collection,
+Biomarkers,
+Cognitive measures,
+Diet and nutrition,
+Education,
+Ethnicity and race,
+Sexuality and gender identity,
+Housing,
+Socioeconomic status and deprivation,
+Language and literacy,
+Loneliness and social isolation,
+Migration and immigration,
+Neighbourhood,
+Personality,
+Physical health assessment,
+Political and social attitudes,
+Digital technology and social media,
+Victimisation and life events,
+Reproductive health,
+Work and employment,
+Parenting and family,
+Sleep problems,
+Social care - receipt,
+Social care - provision,
+Social care - need</t>
+  </si>
+  <si>
     <t>Biomarkers,
 Cognitive measures,
 Cognitive decline,
@@ -3105,60 +3572,10 @@
 Reproductive health,
 Work and employment,
 Parenting and family,
-Sleep problems</t>
-  </si>
-  <si>
-    <t>WOS</t>
-  </si>
-  <si>
-    <t>West of Scotland Twenty-07</t>
-  </si>
-  <si>
-    <t>The West of Scotland Twenty-07 Study is a population-based multi-cohort study which has followed three cohorts of men and women in the West of Scotland across twenty years. Set up in 1986, the study was designed to investigate the differences in health by socio-economic circumstances, gender, the place where people live, age, ethnic group and family type. Through tracking three cohorts of volunteers, each born roughly twenty years apart, the study provides data at critical points in the lifespan, as participants make the transition from adolescence to working life; through the main part of working life; and from working life to retirement. Additionally, the study was designed to explore the effect of the historical context of people’s lives on their health and circumstances by comparing the different cohorts at the same age at different points in time.</t>
-  </si>
-  <si>
-    <t>MRC Social and Public Health Sciences Unit, University of Glasgow</t>
-  </si>
-  <si>
-    <t>&lt;a href="http://2007study.sphsu.mrc.ac.uk/"&gt;http://2007study.sphsu.mrc.ac.uk/&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>Central Clydeside Conurbation, West of Scotland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The West of Scotland Twenty-07 Study followed three cohorts each born roughly twenty years apart, in 1932, 1952 and 1972. In the initial sweep, the cohort members were approximately 15, 35 and 55 years old. Cohort members were followed up three times, in 1990/1991, 1995, and 2000/2004, before the final sweep of data collection took place in 2007/2008, when the cohort members were approximately 35, 55 and 75 years old. 
-&lt;br&gt;&lt;br&gt;
-Each cohort comprises two distinct but connected samples: a regional sample and a localities sample. The regional sample is a two-stage stratified random sample of people living in the Central Clydeside Conurbation - a socially mixed and mainly urban area - and the localities sample is comprised of people from two areas within the city of Glasgow. The sampling frame used for the regional sample was Strathclyde Regional Council’s 1986 Voluntary Population Survey, an enhanced electoral register that provides details of the age and sex of all household members. The locality sample was designed for more intensive study of the relationship between people’s personal and health circumstances and the environment in which they lived. Ten postcode sectors in two areas of the city of Glasgow were selected purposefully to capture different socio-economic experiences and environments. </t>
-  </si>
-  <si>
-    <t>4,510 total&lt;br&gt;
-1,551 - 1930s cohort&lt;br&gt;
-1,444 - 1950s cohort&lt;br&gt;
-1,515 - 1970s cohort</t>
-  </si>
-  <si>
-    <t>2,580 total (Wave 5, 2008)&lt;br&gt;
-633 - 1930s cohort&lt;br&gt;
-994 - 1950s cohort&lt;br&gt;
-923 - 1970s cohort</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15, 35, and 55 years </t>
-  </si>
-  <si>
-    <t>1932, 1952, 1972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contact study team - proposal
-&lt;a href="http://2007study.sphsu.mrc.ac.uk/Information-on-data-sharing.html"&gt;http://2007study.sphsu.mrc.ac.uk/Information-on-data-sharing.html&lt;/a&gt;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benzeval, M., Der, G., Ellaway, A., Hunt, K., Sweeting, H., West, P., &amp; Macintyre, S. (2009). Cohort profile: West of Scotland Twenty-07 study: health in the community. International Journal of Epidemiology, 38(5), 1215-1223 
-&lt;br&gt;
-&lt;a href="https://doi.org/10.1093/ije/dyn213"&gt;doi.org/10.1093/ije/dyn213
-&lt;/a&gt; 
-</t>
+Sleep problems,
+Social care - receipt,
+Social care - provision,
+Social care - need</t>
   </si>
   <si>
     <t>Biomarkers,
@@ -3177,317 +3594,19 @@
 Reproductive health,
 Work and employment,
 Parenting and family,
-Sleep problems</t>
-  </si>
-  <si>
-    <t>SCAMP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Study of Cognition, Adolescents and Mobile Phones (SCAMP) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Study of Cognition, Adolescents and Mobile Phones (SCAMP) was designed to provide insights into the long-term impacts of mobile phone and wireless technology use. It is a prospective school-based cohort study following several thousand pupils. It aims to examine associations between the use of mobile phones and other wireless devices that emit radio-frequency electromagnetic fields (RF-EMF) and cognitive, behavioural, educational, physical and mental health outcomes during adolescence.  
-</t>
-  </si>
-  <si>
-    <t>Imperial College London</t>
-  </si>
-  <si>
-    <t>&lt;a href="https://www.scampstudy.org/"&gt;https://www.scampstudy.org/&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>Greater London</t>
-  </si>
-  <si>
-    <t>Secondary school pupils from 39 eligible schools from within the Greater London area were invited to participate. Eligible schools were selected from the Department for Education’s register of educational establishments (EduBase) and from the January 2012 school census. Pupils completed computerised assessments at school, which were complemented by online questionnaires that could be completed in any environment by both and pupils and their parents.</t>
-  </si>
-  <si>
-    <t>11 years</t>
-  </si>
-  <si>
-    <t>2002-2003</t>
-  </si>
-  <si>
-    <t>Contact study team &lt;br&gt;
-&lt;a href="https://www.scampstudy.org/research-opportunities/"&gt;https://www.scampstudy.org/research-opportunities/&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DoHSC MRC </t>
-  </si>
-  <si>
-    <t>Covid-19 data collection,
-Biomarkers,
-Cognitive measures,
-Diet and nutrition,
-Education,
-Housing,
-Socioeconomic status and deprivation,
-Language and literacy,
-Neighbourhood,
-Digital technology and social media,
-Victimisation and life events,
-Puberty,
-Reproductive health,
-Sleep problems</t>
-  </si>
-  <si>
-    <t>AHMS</t>
-  </si>
-  <si>
-    <t>The Airwave Health Monitoring Study</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Airwave Health Monitoring Study is an occupational cohort study which was established to evaluate the possible health risks associated with use of Terrestrial Trunked Radio (TETRA), a digital communication system used by the police force. Due to the collection of extensive phenotypic data, biological samples, and the availability of linked health data, the study has been broadened to investigate more generally the health and social outcomes of working in the police force in Great Britain. </t>
-  </si>
-  <si>
-    <t>&lt;a href="https://police-health.org.uk/"&gt;https://police-health.org.uk/&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>Employees of all 54 police forces as well as police-related agencies within Great Britain were invited to participate. Since the commencement of the study, a total of 28 forces have agreed to participate. Participants completed enrolment questionnaires during the first phase of the study. The second phase of the study consisted of a health screening performed locally by trained nurses. Overall, 16% of participants completed only phase one, 58% completed only phase two, and 26% completed both phases. Additionally, 62.9% of the participants are men, and the average age at enrolment was 40.9 years for men and 38.5 years for women.</t>
-  </si>
-  <si>
-    <t>18+</t>
-  </si>
-  <si>
-    <t>Contact study team &lt;br&gt;
-&lt;a href="https://police-health.org.uk/applying-access-resource"&gt;https://police-health.org.uk/applying-access-resource&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>Biomarkers,
-Cognitive measures,
-Diet and nutrition,
-Socioeconomic status and deprivation,
-Language and literacy,
-Personality,
-Physical health assessment,
-Digital technology and social media,
-Victimisation and life events,
-Reproductive health,
-Work and employment,
-Sleep problems</t>
-  </si>
-  <si>
-    <t>EWCS</t>
-  </si>
-  <si>
-    <t>European Working Conditions Survey (EWCS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The European Working Conditions Survey is a unique pan-European survey carried out every 5 years to assess and quantify working conditions of both employees and the self-employed across Europe. It aims to provide a comprehensive picture of the everyday reality of men and women at work, and to do so covers a wide range of themes such as employment status, working time duration, learning and training, physical and psychosocial risk factors, health and safety, work-life balance, financial security and worker participation. The survey has also allowed researchers to analyse relationships between different aspects of working conditions, identify risk groups and issues of concern as well as progress, and monitor the trends of these issues. </t>
-  </si>
-  <si>
-    <t>&lt;a href="https://www.eurofound.europa.eu/surveys/european-working-conditions-surveys-ewcs"&gt;https://www.eurofound.europa.eu/surveys/european-working-conditions-surveys-ewcs&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">England, Scotland, Wales, Northern Ireland &lt;br&gt;
-Europe - 28 European Union Member States, the five candidate countries for EU membership (Albania, the former Yugoslav Republic of Macedonia, Montenegro, Serbia and Turkey) and Norway and Switzerland (EWCS 2015). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">In each wave a new sample of the adult population is selected randomly for a face-to-face interview. In view of the growth of the EU and interest from the EFTA countries, the geographical coverage of the survey has expanded over time.
-&lt;br&gt;&lt;br&gt;
-The target population for each survey consists of all persons aged 15 and above (for Bulgaria, Norway, Spain and the UK, this is anyone aged 16 and above) who are residents of the country and are employed or self-employed at the time of data collection. Those considered to be in employment are those who have worked for pay or profit for at least an hour in the week preceding the interview. For most countries, the target sample size is 1,000, but to reflect the larger workforce in bigger countries, the target was increased proportionately. 
-&lt;br&gt;&lt;br&gt;
-For the EWCS 2015, a stratified, multi-stage, random sampling method was used to select participants from the working population of each country. Depending on the availability of high-quality registers, sampling was carried out using individual-level, household-level and address-level registers, or through enumeration using a random-walk approach. Country-level samples were stratified by region and degree of urbanisation. In each stratum, primary sampling units (PSUs) were randomly selected proportional to size. Subsequently, a random sample of households was drawn in each PSU. Finally, unless individual-level registers were used, in each household the selected respondent was the person in work who would have their birthday next.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,600 – UK sample, EWCS 2015
-&lt;br&gt;&lt;br&gt;
-43,850 – Total European sample, EWCS 2015
-</t>
-  </si>
-  <si>
-    <t>"UK Data Service&lt;br&gt;
-&lt;a href=""https://www.eurofound.europa.eu/surveys/about-eurofound-surveys/data-availability""&gt;eurofound.europa.eu/surveys/about-eurofound-surveys/data-availability&lt;/a&gt;&lt;br&gt;
-&lt;a href=""https://beta.ukdataservice.ac.uk/datacatalogue/studies/study?id=7348""&gt;beta.ukdataservice.ac.uk/datacatalogue/studies/study?id=7348&lt;/a&gt;"</t>
+Sleep problems,
+Social care - receipt,
+Social care - provision,
+Social care - need</t>
   </si>
   <si>
     <t>Education,
 Housing,
 Socioeconomic status and deprivation,
 Victimisation and life events,
-Work and employment</t>
-  </si>
-  <si>
-    <t>Gemini</t>
-  </si>
-  <si>
-    <t> </t>
-  </si>
-  <si>
-    <t>Gemini is a large population-based study of twins designed to investigate the genetic and environmental influences on obesity risk, weight gain, and early growth. Gemini have followed twins and their families for over a decade, collecting detailed information about the twins’ growth, eating behaviours, appetite, and the home environment. A key aim of the Gemini study is to create a rich resource of data on early childhood exposures that can be used to assess the determinants of long-term health.</t>
-  </si>
-  <si>
-    <t>University College London</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;a href="https://www.geministudy.co.uk/"&gt;https://www.geministudy.co.uk/&lt;/a&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Families with twins born in England and Wales between March and December 2007 were approached on behalf of Gemini by the Office for National Statistics (N = 6,754) in January 2008. 3,435 families agreed to be contacted by the research team, with 2,402 families (36% of the target population) returning a completed baseline questionnaire. The sample comprises of 1,586 same-sex and 816 opposite-sex twin pairs. 
-&lt;br&gt;&lt;br&gt;
-Gemini families live across the whole of England and Wales, and the distribution mirrors the population density. The Gemini study includes twins that are comparable in sex, zygosity, gestational age, and birthweight to national averages of twins. However, mothers are somewhat older, and both parents are on average slightly healthier than the national population. As in many cohort studies, there is an over-representation of White–British families within the Gemini cohort. </t>
-  </si>
-  <si>
-    <t>2,402 families</t>
-  </si>
-  <si>
-    <t>8 months</t>
-  </si>
-  <si>
-    <t>987 twins, 492 parents (Time 9)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Researchers wishing to access Gemini data should contact the Gemini team via email on gemini@ucl.ac.uk </t>
-  </si>
-  <si>
-    <t>Covid-19 data collection,
-Diet and nutrition,
-Education,
-Housing,
-Socioeconomic status and deprivation,
-Neighbourhood,
-Personality,
-Physical health assessment,
-Digital technology and social media,
-Puberty,
-Parenting and family,
-Sleep problems</t>
-  </si>
-  <si>
-    <t>Genetic/genomic data,
-Observational/qualitative data</t>
-  </si>
-  <si>
-    <t>Education data,
-Income, tax, and benefits</t>
-  </si>
-  <si>
-    <t>Education data,
-Environmental data,
-Social media data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Education data,
-Environmental data,
-Health data,
-Income, tax, and benefits,
-Social media data
-</t>
-  </si>
-  <si>
-    <t>Health data,
-Income, tax, and benefits</t>
-  </si>
-  <si>
-    <t>Education data,
-Environmental data,
-Health data,
-Social media data</t>
-  </si>
-  <si>
-    <t>Environmental data,
-Health data,
-Income, tax, and benefits</t>
-  </si>
-  <si>
-    <t>Education data,
-Environmental data,
-Health data</t>
-  </si>
-  <si>
-    <t>ADVANCE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Armed Services Trauma Rehabilitation Outcome (ADVANCE) Study is a prospective longitudinal cohort study investigating the long-term physical and psychosocial outcomes of UK military personnel who sustained severe combat-related trauma during the Afghanistan conflict. ADVANCE aims to study the incidence of a wide variety of outcomes, including cardiovascular and musculoskeletal disease, mental health, functional and social outcomes, quality of life, employment, and mortality. Data is collected using various methods, including self-report questionnaires and clinical assessments. </t>
-  </si>
-  <si>
-    <t>Academic Department of Military Rehabilitation (Ministry of Defence); Imperial College London; King’s College London.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">England, Scotland, Wales, Northern Ireland &lt;br&gt;
-Some participants now reside outside of the United Kingdom (e.g., South Africa, North America) </t>
-  </si>
-  <si>
-    <t>Cohort study; Occupational cohort</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Participants are serving and former UK military personnel who deployed on combat operations to Afghanistan between 2003 and 2014. Half are personnel who sustained combat trauma; a comparison group of the same size has been frequency matched based on deployment to Afghanistan, age, sex, service, regiment, rank, and role-in-theatre. 
-&lt;br&gt;&lt;br&gt;
-Participants were initially identified through various tracking systems and databases before being recruited through postal mailouts, e-mail invitations and telephone calls, and where necessary traced via Joint Personnel Administration (JPA) contacts, if still serving, and through electoral roll data, social media or advertising via military charities. Participants will be followed up after baseline data collection at 3, 6, 10, 15 and 20 years.
-&lt;br&gt;&lt;br&gt;
-ADVANCE’s sample does not include female participants due to very few female UK military combat casualties in Afghanistan. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The first follow up is currently in progress. </t>
-  </si>
-  <si>
-    <t>Men only</t>
-  </si>
-  <si>
-    <t>18-50 years (age at sampling)</t>
-  </si>
-  <si>
-    <t>Biomarkers,
-Physical health assessment,
-Victimisation and life events,
 Work and employment,
-Sleep problems</t>
-  </si>
-  <si>
-    <t>Toledano, M. B., Mutz, J., Röösli, M., Thomas, M. S., Dumontheil, I., &amp; Elliott, P. (2019). Cohort profile: the study of cognition, adolescents and mobile phones (SCAMP). International journal of epidemiology, 48(1), 25-26l.
-&lt;br&gt;
-&lt;a href="https://doi.org/10.1093/ije/dyy192"&gt;https://doi.org/10.1093/ije/dyy192&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>Elliott, P., Vergnaud, A. C., Singh, D., Neasham, D., Spear, J., &amp; Heard, A. (2014). The Airwave Health Monitoring Study of police officers and staff in Great Britain: rationale, design and methods. Environmental research, 134, 280-285
-&lt;br&gt;
-&lt;a href="https://doi.org/10.1016/j.envres.2014.07.025"&gt;https://doi.org/10.1016/j.envres.2014.07.025&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>Eurofound (2017). Sixth European Working Conditions Survey – Overview report (2017 update). Publications Office of the European Union, Luxembourg.
-&lt;br&gt;
-&lt;a href="https://doi.org/10.2806/422172"&gt;https://doi.org/10.2806/422172&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Van Jaarsveld, C. H., Johnson, L., Llewellyn, C., &amp; Wardle, J. (2010). Gemini: a UK twin birth cohort with a focus on early childhood weight trajectories, appetite and the family environment. Twin Research and Human Genetics, 13(1), 72-78. 
-&lt;br&gt;
-&lt;a href="https://doi.org/10.1375/twin.13.1.72"&gt;https://doi.org/10.1375/twin.13.1.72&lt;/a&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bennett, A. N., Dyball, D. M., Boos, C. J., Fear, N. T., Schofield, S., Bull, A. M., &amp; Cullinan, P. (2020). Study protocol for a prospective, longitudinal cohort study investigating the medical and psychosocial outcomes of UK combat casualties from the Afghanistan war: the ADVANCE Study. BMJ open, 10(10), e037850.
-&lt;br&gt;
-&lt;a href="https://doi.org/10.1136/bmjopen-2020-037850"&gt;https://doi.org/10.1136/bmjopen-2020-037850&lt;/a&gt;
-</t>
-  </si>
-  <si>
-    <t>&lt;a href="https://www.advancestudydmrc.org.uk/"&gt;https:/www.advancestudydmrc.org.uk/&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>Education data,
-Health data,
-Digital footprint data</t>
-  </si>
-  <si>
-    <t>HFH MoD Nuffield_Crown Blesma FIMT</t>
-  </si>
-  <si>
-    <t>Researchers wishing to access ADVANCE data should contact the ADVANCE team via email on dmrc-advancestudyteam@mod.gov.uk</t>
-  </si>
-  <si>
-    <t>1,145 participants total
-579 injured personnel, 565 comparison group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,000 (approx.) – UK sample, EWCS 1991
-12,500 – Total European sample, EWCS 1991
-</t>
-  </si>
-  <si>
-    <t>18,000 (ongoing)</t>
-  </si>
-  <si>
-    <t>HOUK Imperial_BRC MRC</t>
+Social care - provision,
+Social care - need</t>
   </si>
 </sst>
 </file>
@@ -3655,7 +3774,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3774,6 +3893,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4160,11 +4282,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="S47" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="140" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="V1" sqref="V1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S49" sqref="S49"/>
+      <selection pane="bottomRight" activeCell="U57" sqref="U57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4185,7 +4307,7 @@
     <col min="15" max="15" width="15.33203125" style="2" customWidth="1"/>
     <col min="16" max="16" width="28" style="2" customWidth="1"/>
     <col min="17" max="17" width="17.33203125" style="2" customWidth="1"/>
-    <col min="18" max="18" width="22" style="2" customWidth="1"/>
+    <col min="18" max="18" width="28.83203125" style="2" customWidth="1"/>
     <col min="19" max="19" width="55.33203125" style="2" customWidth="1"/>
     <col min="20" max="20" width="55.1640625" style="2" customWidth="1"/>
     <col min="21" max="21" width="49.6640625" style="2" customWidth="1"/>
@@ -4252,34 +4374,34 @@
         <v>16</v>
       </c>
       <c r="R1" s="24" t="s">
+        <v>731</v>
+      </c>
+      <c r="S1" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="24" t="s">
+      <c r="T1" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="24" t="s">
+      <c r="U1" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="24" t="s">
+      <c r="V1" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="26" t="s">
+      <c r="W1" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="27" t="s">
+      <c r="X1" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="27" t="s">
+      <c r="Y1" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="26" t="s">
+      <c r="Z1" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="27" t="s">
+      <c r="AA1" s="38" t="s">
         <v>25</v>
-      </c>
-      <c r="AA1" s="38" t="s">
-        <v>26</v>
       </c>
       <c r="AB1" s="28"/>
       <c r="AC1" s="28"/>
@@ -4292,80 +4414,80 @@
     </row>
     <row r="2" spans="1:1024" s="11" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="C2" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="D2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="H2" s="8">
         <v>2007</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="P2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="S2" s="2"/>
       <c r="T2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="W2" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="X2" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="W2" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="X2" s="10" t="s">
+      <c r="Y2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Z2" s="10" t="s">
         <v>48</v>
-      </c>
-      <c r="Z2" s="10" t="s">
-        <v>49</v>
       </c>
       <c r="AA2" s="39"/>
       <c r="AB2" s="8"/>
@@ -4379,83 +4501,83 @@
     </row>
     <row r="3" spans="1:1024" s="14" customFormat="1" ht="101" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="C3" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="D3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="H3" s="8">
         <v>1990</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N3" s="2" t="s">
+      <c r="P3" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="S3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P3" s="15" t="s">
+      <c r="T3" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="Q3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>742</v>
-      </c>
-      <c r="S3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="T3" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="V3" s="3" t="s">
-        <v>66</v>
+        <v>732</v>
       </c>
       <c r="W3" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="X3" s="4"/>
       <c r="Y3" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Z3" s="10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="AA3" s="40" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="AB3" s="5"/>
       <c r="AC3" s="5"/>
@@ -4468,80 +4590,80 @@
     </row>
     <row r="4" spans="1:1024" s="14" customFormat="1" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="E4" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="F4" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="H4" s="8">
         <v>1993</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N4" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N4" s="2" t="s">
+      <c r="Q4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R4" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="S4" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="T4" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="R4" s="2" t="s">
+      <c r="U4" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="S4" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="V4" s="3" t="s">
-        <v>86</v>
+        <v>733</v>
       </c>
       <c r="W4" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="X4" s="4"/>
       <c r="Y4" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="Z4" s="10" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AA4" s="40"/>
       <c r="AB4" s="5"/>
@@ -4555,76 +4677,76 @@
     </row>
     <row r="5" spans="1:1024" s="2" customFormat="1" ht="110" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="F5" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="G5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="I5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="L5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H5" s="2" t="s">
+      <c r="O5" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J5" s="2" t="s">
+      <c r="P5" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="Q5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="T5" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="L5" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N5" s="2" t="s">
+      <c r="U5" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="V5" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="X5" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="P5" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="W5" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="X5" s="4" t="s">
-        <v>104</v>
-      </c>
       <c r="Y5" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="Z5" s="4"/>
       <c r="AA5" s="40"/>
@@ -4637,82 +4759,82 @@
       <c r="AH5" s="5"/>
       <c r="AMJ5"/>
     </row>
-    <row r="6" spans="1:1024" s="14" customFormat="1" ht="260" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1024" s="14" customFormat="1" ht="296" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H6" s="8">
         <v>1970</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="O6" s="8">
         <v>1970</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>741</v>
+        <v>727</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>119</v>
+        <v>735</v>
       </c>
       <c r="W6" s="10" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="X6" s="10"/>
       <c r="Y6" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="Z6" s="10" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="AA6" s="40"/>
       <c r="AB6" s="2"/>
@@ -4726,80 +4848,80 @@
     </row>
     <row r="7" spans="1:1024" s="16" customFormat="1" ht="131" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="H7" s="8">
         <v>2007</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="L7" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R7" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="L7" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="O7" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="S7" s="2"/>
       <c r="T7" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="V7" s="3" t="s">
-        <v>136</v>
+        <v>736</v>
       </c>
       <c r="W7" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="X7" s="10" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="Y7" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Z7" s="10" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="AA7" s="40"/>
       <c r="AB7" s="2"/>
@@ -4813,80 +4935,80 @@
     </row>
     <row r="8" spans="1:1024" s="14" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="H8" s="8">
         <v>2016</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="S8" s="2"/>
       <c r="T8" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="V8" s="3" t="s">
-        <v>149</v>
+        <v>737</v>
       </c>
       <c r="W8" s="10" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="X8" s="10" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="Y8" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Z8" s="10" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="AA8" s="40"/>
       <c r="AB8" s="2"/>
@@ -4900,80 +5022,80 @@
     </row>
     <row r="9" spans="1:1024" s="14" customFormat="1" ht="124" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H9" s="8">
         <v>2006</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="S9" s="2"/>
       <c r="T9" s="2" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="W9" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X9" s="4" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="Y9" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="Z9" s="10" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="AA9" s="40"/>
       <c r="AB9" s="5"/>
@@ -4987,80 +5109,80 @@
     </row>
     <row r="10" spans="1:1024" s="14" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="H10" s="8">
         <v>2008</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="K10" s="13">
         <v>7762</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="Q10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R10" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="S10" s="2"/>
       <c r="T10" s="2" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>181</v>
+        <v>738</v>
       </c>
       <c r="W10" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X10" s="4" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="Y10" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Z10" s="4" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="AA10" s="40"/>
       <c r="AB10" s="5"/>
@@ -5074,80 +5196,80 @@
     </row>
     <row r="11" spans="1:1024" s="14" customFormat="1" ht="155" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="H11" s="8">
         <v>1989</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="K11" s="13">
         <v>7365</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="Q11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R11" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="S11" s="2"/>
       <c r="T11" s="2" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="V11" s="3" t="s">
-        <v>181</v>
+        <v>739</v>
       </c>
       <c r="W11" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X11" s="4" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="Y11" s="3" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="Z11" s="4" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="AA11" s="40"/>
       <c r="AB11" s="5"/>
@@ -5161,80 +5283,80 @@
     </row>
     <row r="12" spans="1:1024" s="14" customFormat="1" ht="208" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="H12" s="8">
         <v>2011</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="K12" s="13">
         <v>2197</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="Q12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R12" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="S12" s="2"/>
       <c r="T12" s="2" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>181</v>
+        <v>738</v>
       </c>
       <c r="W12" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X12" s="4" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="Y12" s="3" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="Z12" s="4" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="AA12" s="40"/>
       <c r="AB12" s="5"/>
@@ -5248,77 +5370,77 @@
     </row>
     <row r="13" spans="1:1024" s="14" customFormat="1" ht="142" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="K13" s="13">
         <v>6643</v>
       </c>
       <c r="L13" s="13" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="O13" s="8" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S13" s="2"/>
       <c r="T13" s="2" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="V13" s="3" t="s">
-        <v>221</v>
+        <v>740</v>
       </c>
       <c r="W13" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X13" s="10" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="Y13" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Z13" s="10"/>
       <c r="AA13" s="40"/>
@@ -5333,80 +5455,80 @@
     </row>
     <row r="14" spans="1:1024" s="16" customFormat="1" ht="115" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H14" s="8">
         <v>2002</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="K14" s="13" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="L14" s="13">
         <v>7222</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="O14" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="Q14" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R14" s="15" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="S14" s="2"/>
       <c r="T14" s="2" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="V14" s="3" t="s">
-        <v>234</v>
+        <v>741</v>
       </c>
       <c r="W14" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X14" s="10" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="Y14" s="3" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="Z14" s="10" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="AA14" s="40"/>
       <c r="AB14" s="2"/>
@@ -5420,77 +5542,77 @@
     </row>
     <row r="15" spans="1:1024" s="2" customFormat="1" ht="130" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="18" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H15" s="8">
         <v>2003</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="O15" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S15" s="5"/>
       <c r="T15" s="2" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="V15" s="3" t="s">
-        <v>249</v>
+        <v>742</v>
       </c>
       <c r="W15" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="X15" s="4" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="Y15" s="3" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="Z15" s="4"/>
       <c r="AA15" s="40"/>
@@ -5505,78 +5627,78 @@
     </row>
     <row r="16" spans="1:1024" s="14" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H16" s="8">
         <v>1998</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="S16" s="2"/>
       <c r="T16" s="2" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>266</v>
+        <v>743</v>
       </c>
       <c r="W16" s="4" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="X16" s="4"/>
       <c r="Y16" s="3" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="Z16" s="10" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="AA16" s="40"/>
       <c r="AB16" s="5"/>
@@ -5590,77 +5712,77 @@
     </row>
     <row r="17" spans="1:1024" s="14" customFormat="1" ht="184" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H17" s="8">
         <v>2002</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S17" s="2"/>
       <c r="T17" s="2" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="W17" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="X17" s="4" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="Y17" s="3" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="Z17" s="4"/>
       <c r="AA17" s="40"/>
@@ -5675,81 +5797,81 @@
     </row>
     <row r="18" spans="1:1024" s="14" customFormat="1" ht="140" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="C18" s="35" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="O18" s="8" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="S18" s="2"/>
       <c r="T18" s="2" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="V18" s="3" t="s">
-        <v>299</v>
+        <v>744</v>
       </c>
       <c r="W18" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X18" s="10"/>
       <c r="Y18" s="3" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="Z18" s="10" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="AA18" s="40" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="AB18" s="2"/>
       <c r="AC18" s="2"/>
@@ -5762,80 +5884,80 @@
     </row>
     <row r="19" spans="1:1024" s="14" customFormat="1" ht="140" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H19" s="8">
         <v>2005</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="O19" s="8" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>316</v>
+        <v>745</v>
       </c>
       <c r="W19" s="10" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="X19" s="10"/>
       <c r="Y19" s="3" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="Z19" s="10" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AA19" s="40"/>
       <c r="AB19" s="2"/>
@@ -5849,80 +5971,80 @@
     </row>
     <row r="20" spans="1:1024" s="14" customFormat="1" ht="190" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H20" s="8">
         <v>2005</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="U20" s="2" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="V20" s="3" t="s">
-        <v>324</v>
+        <v>746</v>
       </c>
       <c r="W20" s="10" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="X20" s="4"/>
       <c r="Y20" s="3" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="Z20" s="10" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AA20" s="40"/>
       <c r="AB20" s="5"/>
@@ -5936,80 +6058,80 @@
     </row>
     <row r="21" spans="1:1024" s="14" customFormat="1" ht="233" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="C21" s="35" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H21" s="8">
         <v>2005</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="O21" s="8" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="U21" s="2" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="V21" s="3" t="s">
-        <v>324</v>
+        <v>747</v>
       </c>
       <c r="W21" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X21" s="10"/>
       <c r="Y21" s="3" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="Z21" s="10" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AA21" s="40"/>
       <c r="AB21" s="2"/>
@@ -6023,80 +6145,80 @@
     </row>
     <row r="22" spans="1:1024" s="6" customFormat="1" ht="199" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="O22" s="8" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="S22" s="2"/>
       <c r="T22" s="2" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="U22" s="2" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="V22" s="3" t="s">
-        <v>348</v>
+        <v>748</v>
       </c>
       <c r="W22" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X22" s="4" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="Y22" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Z22" s="10" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="AA22" s="40"/>
       <c r="AB22" s="5"/>
@@ -6110,80 +6232,80 @@
     </row>
     <row r="23" spans="1:1024" s="6" customFormat="1" ht="153" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
       <c r="O23" s="8" t="s">
-        <v>360</v>
+        <v>343</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="S23" s="2"/>
       <c r="T23" s="2" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="U23" s="2" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="V23" s="3" t="s">
-        <v>364</v>
+        <v>749</v>
       </c>
       <c r="W23" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X23" s="10" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="Y23" s="3" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="Z23" s="10" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AA23" s="40"/>
       <c r="AB23" s="2"/>
@@ -6197,80 +6319,80 @@
     </row>
     <row r="24" spans="1:1024" s="6" customFormat="1" ht="187" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="C24" s="35" t="s">
-        <v>367</v>
+        <v>349</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>368</v>
+        <v>350</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>369</v>
+        <v>351</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>370</v>
+        <v>352</v>
       </c>
       <c r="H24" s="8">
         <v>2007</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="K24" s="13">
         <v>2000</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="O24" s="8">
         <v>1993</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="Q24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R24" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="R24" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="S24" s="2"/>
       <c r="T24" s="2" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
       <c r="U24" s="2" t="s">
-        <v>376</v>
+        <v>358</v>
       </c>
       <c r="V24" s="3" t="s">
-        <v>377</v>
+        <v>359</v>
       </c>
       <c r="W24" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X24" s="10" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="Y24" s="3" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="Z24" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA24" s="40"/>
       <c r="AB24" s="2"/>
@@ -6284,34 +6406,34 @@
     </row>
     <row r="25" spans="1:1024" s="6" customFormat="1" ht="216" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H25" s="8">
         <v>2003</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>385</v>
+        <v>367</v>
       </c>
       <c r="K25" s="13">
         <v>10272</v>
@@ -6320,44 +6442,44 @@
         <v>8093</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
       <c r="S25" s="2"/>
       <c r="T25" s="2" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="U25" s="2" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="V25" s="3" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="W25" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X25" s="4" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="Y25" s="3" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="Z25" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AA25" s="40"/>
       <c r="AB25" s="5"/>
@@ -6371,82 +6493,82 @@
     </row>
     <row r="26" spans="1:1024" s="6" customFormat="1" ht="228" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="C26" s="35" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="H26" s="8">
         <v>1932</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>399</v>
+        <v>381</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="O26" s="8">
         <v>1921</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="U26" s="2" t="s">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="V26" s="3" t="s">
-        <v>406</v>
+        <v>750</v>
       </c>
       <c r="W26" s="10" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="X26" s="10" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="Y26" s="3" t="s">
-        <v>407</v>
+        <v>388</v>
       </c>
       <c r="Z26" s="10" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="AA26" s="40"/>
       <c r="AB26" s="2"/>
@@ -6460,82 +6582,82 @@
     </row>
     <row r="27" spans="1:1024" s="6" customFormat="1" ht="202" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>408</v>
+        <v>389</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>409</v>
+        <v>390</v>
       </c>
       <c r="C27" s="35" t="s">
-        <v>410</v>
+        <v>391</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="H27" s="8">
         <v>1947</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>411</v>
+        <v>392</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>412</v>
+        <v>393</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>413</v>
+        <v>394</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="O27" s="8">
         <v>1936</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>414</v>
+        <v>395</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>415</v>
+        <v>396</v>
       </c>
       <c r="U27" s="2" t="s">
-        <v>416</v>
+        <v>397</v>
       </c>
       <c r="V27" s="3" t="s">
-        <v>417</v>
+        <v>751</v>
       </c>
       <c r="W27" s="10" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="X27" s="10" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="Y27" s="3" t="s">
-        <v>407</v>
+        <v>388</v>
       </c>
       <c r="Z27" s="10" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="AA27" s="40"/>
       <c r="AB27" s="2"/>
@@ -6549,80 +6671,80 @@
     </row>
     <row r="28" spans="1:1024" s="6" customFormat="1" ht="215" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
-        <v>418</v>
+        <v>398</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>419</v>
+        <v>399</v>
       </c>
       <c r="C28" s="35" t="s">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>421</v>
+        <v>401</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H28" s="8">
         <v>2004</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>422</v>
+        <v>402</v>
       </c>
       <c r="K28" s="13">
         <v>15770</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>424</v>
+        <v>404</v>
       </c>
       <c r="O28" s="8" t="s">
-        <v>425</v>
+        <v>405</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>427</v>
+        <v>407</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>428</v>
+        <v>408</v>
       </c>
       <c r="U28" s="2" t="s">
-        <v>429</v>
+        <v>409</v>
       </c>
       <c r="V28" s="3" t="s">
-        <v>430</v>
+        <v>752</v>
       </c>
       <c r="W28" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X28" s="10"/>
       <c r="Y28" s="3" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="Z28" s="10" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AA28" s="40"/>
       <c r="AB28" s="2"/>
@@ -6636,85 +6758,85 @@
     </row>
     <row r="29" spans="1:1024" s="6" customFormat="1" ht="221" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="B29" s="32" t="s">
-        <v>432</v>
+        <v>411</v>
       </c>
       <c r="C29" s="35" t="s">
-        <v>433</v>
+        <v>412</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>434</v>
+        <v>413</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H29" s="8">
         <v>2000</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>435</v>
+        <v>414</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>436</v>
+        <v>415</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>437</v>
+        <v>416</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="O29" s="8">
         <v>2000</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>426</v>
+        <v>406</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>438</v>
+        <v>417</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
       <c r="U29" s="2" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
       <c r="V29" s="3" t="s">
-        <v>441</v>
+        <v>753</v>
       </c>
       <c r="W29" s="10" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="X29" s="10" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="Y29" s="3" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="Z29" s="10" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="AA29" s="41" t="s">
-        <v>442</v>
+        <v>420</v>
       </c>
       <c r="AB29" s="12"/>
       <c r="AC29" s="12"/>
@@ -6727,74 +6849,74 @@
     </row>
     <row r="30" spans="1:1024" s="2" customFormat="1" ht="140" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>443</v>
+        <v>421</v>
       </c>
       <c r="B30" s="32" t="s">
-        <v>444</v>
+        <v>422</v>
       </c>
       <c r="C30" s="35" t="s">
-        <v>445</v>
+        <v>423</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>446</v>
+        <v>424</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>447</v>
+        <v>425</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>448</v>
+        <v>426</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H30" s="8">
         <v>1999</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>449</v>
+        <v>427</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>450</v>
+        <v>428</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>451</v>
+        <v>429</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>452</v>
+        <v>430</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>453</v>
+        <v>431</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>454</v>
+        <v>432</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>455</v>
+        <v>433</v>
       </c>
       <c r="U30" s="2" t="s">
-        <v>456</v>
+        <v>434</v>
       </c>
       <c r="V30" s="3" t="s">
-        <v>457</v>
+        <v>754</v>
       </c>
       <c r="W30" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="X30" s="4"/>
       <c r="Y30" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="Z30" s="4"/>
       <c r="AA30" s="40"/>
@@ -6809,77 +6931,77 @@
     </row>
     <row r="31" spans="1:1024" s="6" customFormat="1" ht="152" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>458</v>
+        <v>435</v>
       </c>
       <c r="B31" s="32" t="s">
-        <v>459</v>
+        <v>436</v>
       </c>
       <c r="C31" s="35" t="s">
-        <v>460</v>
+        <v>437</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>461</v>
+        <v>438</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>462</v>
+        <v>439</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>463</v>
+        <v>440</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H31" s="8">
         <v>1996</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J31" s="15" t="s">
-        <v>464</v>
+        <v>441</v>
       </c>
       <c r="K31" s="13">
         <v>1319475</v>
       </c>
       <c r="L31" s="13" t="s">
-        <v>465</v>
+        <v>442</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>466</v>
+        <v>443</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
       <c r="O31" s="8" t="s">
-        <v>467</v>
+        <v>444</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>468</v>
+        <v>445</v>
       </c>
       <c r="Q31" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="S31" s="2"/>
       <c r="T31" s="2" t="s">
-        <v>469</v>
+        <v>446</v>
       </c>
       <c r="U31" s="2" t="s">
-        <v>470</v>
+        <v>447</v>
       </c>
       <c r="V31" s="3" t="s">
-        <v>471</v>
+        <v>755</v>
       </c>
       <c r="W31" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X31" s="10" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="Y31" s="3" t="s">
-        <v>463</v>
+        <v>440</v>
       </c>
       <c r="Z31" s="10"/>
       <c r="AA31" s="39"/>
@@ -6894,79 +7016,79 @@
     </row>
     <row r="32" spans="1:1024" s="2" customFormat="1" ht="294" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
-        <v>472</v>
+        <v>448</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>473</v>
+        <v>449</v>
       </c>
       <c r="C32" s="35" t="s">
-        <v>474</v>
+        <v>450</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>475</v>
+        <v>451</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>476</v>
+        <v>452</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>477</v>
+        <v>453</v>
       </c>
       <c r="H32" s="17">
         <v>2006</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J32" s="15" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
       <c r="O32" s="8">
         <v>1921</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>481</v>
+        <v>457</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>482</v>
+        <v>458</v>
       </c>
       <c r="U32" s="2" t="s">
-        <v>483</v>
+        <v>459</v>
       </c>
       <c r="V32" s="3" t="s">
-        <v>484</v>
+        <v>756</v>
       </c>
       <c r="W32" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X32" s="4" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="Y32" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Z32" s="4" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="AA32" s="40"/>
       <c r="AB32" s="5"/>
@@ -6978,82 +7100,82 @@
       <c r="AH32" s="5"/>
       <c r="AMJ32"/>
     </row>
-    <row r="33" spans="1:1024" s="6" customFormat="1" ht="247" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1024" s="6" customFormat="1" ht="284" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
-        <v>485</v>
+        <v>460</v>
       </c>
       <c r="B33" s="32" t="s">
-        <v>486</v>
+        <v>461</v>
       </c>
       <c r="C33" s="35" t="s">
-        <v>487</v>
+        <v>462</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>488</v>
+        <v>463</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H33" s="8">
         <v>1958</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>489</v>
+        <v>464</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>490</v>
+        <v>465</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>491</v>
+        <v>466</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="O33" s="8">
         <v>1958</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>492</v>
+        <v>467</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>493</v>
+        <v>468</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>494</v>
+        <v>469</v>
       </c>
       <c r="U33" s="2" t="s">
-        <v>495</v>
+        <v>470</v>
       </c>
       <c r="V33" s="3" t="s">
-        <v>496</v>
+        <v>757</v>
       </c>
       <c r="W33" s="10" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="X33" s="10"/>
       <c r="Y33" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="Z33" s="10" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="AA33" s="40"/>
       <c r="AB33" s="2"/>
@@ -7065,84 +7187,84 @@
       <c r="AH33" s="2"/>
       <c r="AMJ33"/>
     </row>
-    <row r="34" spans="1:1024" s="6" customFormat="1" ht="208" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1024" s="6" customFormat="1" ht="234" x14ac:dyDescent="0.2">
       <c r="A34" s="18" t="s">
-        <v>497</v>
+        <v>471</v>
       </c>
       <c r="B34" s="32" t="s">
-        <v>498</v>
+        <v>472</v>
       </c>
       <c r="C34" s="35" t="s">
-        <v>499</v>
+        <v>473</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>500</v>
+        <v>474</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>501</v>
+        <v>475</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>502</v>
+        <v>476</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H34" s="8">
         <v>2014</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>503</v>
+        <v>477</v>
       </c>
       <c r="K34" s="13">
         <v>8504</v>
       </c>
       <c r="L34" s="13" t="s">
-        <v>504</v>
+        <v>478</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>505</v>
+        <v>479</v>
       </c>
       <c r="O34" s="8" t="s">
-        <v>506</v>
+        <v>480</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>507</v>
+        <v>481</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>508</v>
+        <v>482</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>509</v>
+        <v>483</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>510</v>
+        <v>484</v>
       </c>
       <c r="U34" s="2" t="s">
-        <v>511</v>
+        <v>485</v>
       </c>
       <c r="V34" s="3" t="s">
-        <v>512</v>
+        <v>758</v>
       </c>
       <c r="W34" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X34" s="4" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="Y34" s="3" t="s">
-        <v>513</v>
+        <v>486</v>
       </c>
       <c r="Z34" s="10" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="AA34" s="40"/>
       <c r="AB34" s="5"/>
@@ -7154,84 +7276,84 @@
       <c r="AH34" s="5"/>
       <c r="AMJ34"/>
     </row>
-    <row r="35" spans="1:1024" s="6" customFormat="1" ht="272" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1024" s="6" customFormat="1" ht="308" x14ac:dyDescent="0.2">
       <c r="A35" s="18" t="s">
-        <v>514</v>
+        <v>487</v>
       </c>
       <c r="B35" s="32" t="s">
-        <v>515</v>
+        <v>488</v>
       </c>
       <c r="C35" s="35" t="s">
-        <v>516</v>
+        <v>489</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>517</v>
+        <v>490</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>518</v>
+        <v>491</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H35" s="8">
         <v>1946</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>519</v>
+        <v>492</v>
       </c>
       <c r="K35" s="13">
         <v>5362</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>520</v>
+        <v>493</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8">
         <v>1946</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>521</v>
+        <v>494</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R35" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>522</v>
+        <v>495</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>523</v>
+        <v>496</v>
       </c>
       <c r="U35" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="V35" s="3" t="s">
-        <v>524</v>
+        <v>759</v>
       </c>
       <c r="W35" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="X35" s="4" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="Y35" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="Z35" s="10" t="s">
-        <v>525</v>
+        <v>497</v>
       </c>
       <c r="AA35" s="40"/>
       <c r="AB35" s="5"/>
@@ -7243,36 +7365,36 @@
       <c r="AH35" s="5"/>
       <c r="AMJ35"/>
     </row>
-    <row r="36" spans="1:1024" ht="169" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1024" ht="208" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>526</v>
+        <v>498</v>
       </c>
       <c r="B36" s="32" t="s">
-        <v>527</v>
+        <v>499</v>
       </c>
       <c r="C36" s="35" t="s">
-        <v>528</v>
+        <v>500</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>529</v>
+        <v>501</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>530</v>
+        <v>502</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H36" s="8">
         <v>2014</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>531</v>
+        <v>503</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>532</v>
+        <v>504</v>
       </c>
       <c r="K36" s="13">
         <v>14000</v>
@@ -7281,120 +7403,120 @@
         <v>25000</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N36" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="O36" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="O36" s="2" t="s">
-        <v>533</v>
-      </c>
       <c r="P36" s="2" t="s">
-        <v>534</v>
+        <v>506</v>
       </c>
       <c r="Q36" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R36" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R36" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="T36" s="2" t="s">
-        <v>535</v>
+        <v>507</v>
       </c>
       <c r="U36" s="2" t="s">
-        <v>536</v>
+        <v>508</v>
       </c>
       <c r="V36" s="3" t="s">
-        <v>537</v>
+        <v>760</v>
       </c>
       <c r="W36" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X36" s="4" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="Y36" s="3" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="Z36" s="4" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
-    <row r="37" spans="1:1024" ht="208" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1024" ht="221" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>538</v>
+        <v>509</v>
       </c>
       <c r="B37" s="32" t="s">
-        <v>539</v>
+        <v>510</v>
       </c>
       <c r="C37" s="35" t="s">
-        <v>540</v>
+        <v>511</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>541</v>
+        <v>512</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>542</v>
+        <v>513</v>
       </c>
       <c r="H37" s="8">
         <v>2015</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>543</v>
+        <v>514</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>544</v>
+        <v>515</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>545</v>
+        <v>516</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>546</v>
+        <v>517</v>
       </c>
       <c r="O37" s="8" t="s">
-        <v>547</v>
+        <v>518</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>548</v>
+        <v>519</v>
       </c>
       <c r="Q37" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R37" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R37" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="T37" s="2" t="s">
-        <v>549</v>
+        <v>520</v>
       </c>
       <c r="U37" s="2" t="s">
-        <v>550</v>
+        <v>521</v>
       </c>
       <c r="V37" s="3" t="s">
-        <v>551</v>
+        <v>761</v>
       </c>
       <c r="W37" s="10" t="s">
-        <v>552</v>
+        <v>522</v>
       </c>
       <c r="X37" s="10" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="Y37" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Z37" s="10" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="AB37" s="2"/>
       <c r="AC37" s="2"/>
@@ -7406,231 +7528,231 @@
     </row>
     <row r="38" spans="1:1024" ht="169" x14ac:dyDescent="0.2">
       <c r="A38" s="18" t="s">
-        <v>553</v>
+        <v>523</v>
       </c>
       <c r="B38" s="32" t="s">
-        <v>554</v>
+        <v>524</v>
       </c>
       <c r="C38" s="35" t="s">
-        <v>555</v>
+        <v>525</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>556</v>
+        <v>526</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>557</v>
+        <v>527</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>558</v>
+        <v>528</v>
       </c>
       <c r="H38" s="8">
         <v>2006</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>559</v>
+        <v>529</v>
       </c>
       <c r="K38" s="13" t="s">
-        <v>560</v>
+        <v>530</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>561</v>
+        <v>531</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="O38" s="8" t="s">
-        <v>562</v>
+        <v>532</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>563</v>
+        <v>533</v>
       </c>
       <c r="Q38" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R38" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="R38" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="S38" s="5"/>
       <c r="T38" s="2" t="s">
-        <v>564</v>
+        <v>534</v>
       </c>
       <c r="U38" s="2" t="s">
-        <v>565</v>
+        <v>535</v>
       </c>
       <c r="V38" s="3" t="s">
-        <v>566</v>
+        <v>536</v>
       </c>
       <c r="W38" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Y38" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Z38" s="10" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="39" spans="1:1024" ht="332" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>567</v>
+        <v>537</v>
       </c>
       <c r="B39" s="32" t="s">
-        <v>568</v>
+        <v>538</v>
       </c>
       <c r="C39" s="35" t="s">
-        <v>569</v>
+        <v>539</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>570</v>
+        <v>540</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>571</v>
+        <v>541</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>572</v>
+        <v>542</v>
       </c>
       <c r="H39" s="8">
         <v>1988</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>573</v>
+        <v>543</v>
       </c>
       <c r="K39" s="13">
         <v>4858</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>574</v>
+        <v>544</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>575</v>
+        <v>545</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>576</v>
+        <v>546</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>577</v>
+        <v>547</v>
       </c>
       <c r="Q39" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R39" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="T39" s="2" t="s">
-        <v>578</v>
+        <v>548</v>
       </c>
       <c r="U39" s="2" t="s">
-        <v>579</v>
+        <v>549</v>
       </c>
       <c r="V39" s="3" t="s">
-        <v>580</v>
+        <v>762</v>
       </c>
       <c r="W39" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X39" s="10" t="s">
-        <v>581</v>
+        <v>550</v>
       </c>
       <c r="Y39" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Z39" s="10" t="s">
-        <v>525</v>
+        <v>497</v>
       </c>
     </row>
-    <row r="40" spans="1:1024" ht="143" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1024" ht="182" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>582</v>
+        <v>551</v>
       </c>
       <c r="B40" s="32" t="s">
-        <v>583</v>
+        <v>552</v>
       </c>
       <c r="C40" s="35" t="s">
-        <v>584</v>
+        <v>553</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>585</v>
+        <v>554</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>542</v>
+        <v>513</v>
       </c>
       <c r="H40" s="8">
         <v>2008</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>586</v>
+        <v>555</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>587</v>
+        <v>556</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>588</v>
+        <v>557</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="O40" s="8" t="s">
-        <v>589</v>
+        <v>558</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>590</v>
+        <v>559</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R40" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="T40" s="2" t="s">
-        <v>591</v>
+        <v>560</v>
       </c>
       <c r="U40" s="2" t="s">
-        <v>592</v>
+        <v>561</v>
       </c>
       <c r="V40" s="3" t="s">
-        <v>593</v>
+        <v>763</v>
       </c>
       <c r="W40" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X40" s="10" t="s">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="Y40" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Z40" s="10" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="AB40" s="2"/>
       <c r="AC40" s="2"/>
@@ -7642,310 +7764,310 @@
     </row>
     <row r="41" spans="1:1024" ht="247" x14ac:dyDescent="0.2">
       <c r="A41" s="18" t="s">
-        <v>595</v>
+        <v>563</v>
       </c>
       <c r="B41" s="32" t="s">
-        <v>596</v>
+        <v>564</v>
       </c>
       <c r="C41" s="35" t="s">
-        <v>597</v>
+        <v>565</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>598</v>
+        <v>566</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>599</v>
+        <v>567</v>
       </c>
       <c r="H41" s="8">
         <v>1998</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>600</v>
+        <v>568</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>601</v>
+        <v>569</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>602</v>
+        <v>570</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>603</v>
+        <v>571</v>
       </c>
       <c r="O41" s="8" t="s">
-        <v>604</v>
+        <v>572</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>605</v>
+        <v>573</v>
       </c>
       <c r="Q41" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R41" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="S41" s="5"/>
       <c r="T41" s="2" t="s">
-        <v>606</v>
+        <v>574</v>
       </c>
       <c r="U41" s="2" t="s">
-        <v>607</v>
+        <v>575</v>
       </c>
       <c r="V41" s="3" t="s">
-        <v>608</v>
+        <v>764</v>
       </c>
       <c r="W41" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Y41" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Z41" s="10" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
-    <row r="42" spans="1:1024" ht="247" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1024" ht="234" x14ac:dyDescent="0.2">
       <c r="A42" s="18" t="s">
-        <v>609</v>
+        <v>576</v>
       </c>
       <c r="B42" s="32" t="s">
-        <v>610</v>
+        <v>577</v>
       </c>
       <c r="C42" s="35" t="s">
-        <v>611</v>
+        <v>578</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>612</v>
+        <v>579</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H42" s="8">
         <v>1994</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>613</v>
+        <v>580</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>614</v>
+        <v>581</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>615</v>
+        <v>582</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="O42" s="8" t="s">
-        <v>616</v>
+        <v>583</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>617</v>
+        <v>584</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R42" s="2" t="s">
-        <v>739</v>
+        <v>701</v>
       </c>
       <c r="S42" s="5"/>
       <c r="T42" s="2" t="s">
-        <v>618</v>
+        <v>585</v>
       </c>
       <c r="U42" s="2" t="s">
-        <v>619</v>
+        <v>586</v>
       </c>
       <c r="V42" s="3" t="s">
-        <v>620</v>
+        <v>587</v>
       </c>
       <c r="W42" s="4" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="Y42" s="3" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="Z42" s="10" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
     </row>
     <row r="43" spans="1:1024" ht="234" x14ac:dyDescent="0.2">
       <c r="A43" s="18" t="s">
-        <v>621</v>
+        <v>588</v>
       </c>
       <c r="B43" s="32" t="s">
-        <v>622</v>
+        <v>589</v>
       </c>
       <c r="C43" s="35" t="s">
-        <v>623</v>
+        <v>590</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>624</v>
+        <v>591</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>625</v>
+        <v>592</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H43" s="8">
         <v>1992</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>626</v>
+        <v>593</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>627</v>
+        <v>594</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>628</v>
+        <v>595</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>629</v>
+        <v>596</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>630</v>
+        <v>597</v>
       </c>
       <c r="O43" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>631</v>
+        <v>598</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R43" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="S43" s="5"/>
       <c r="T43" s="2" t="s">
-        <v>632</v>
+        <v>599</v>
       </c>
       <c r="U43" s="2" t="s">
-        <v>633</v>
+        <v>600</v>
       </c>
       <c r="V43" s="3" t="s">
-        <v>634</v>
+        <v>601</v>
       </c>
       <c r="W43" s="4" t="s">
-        <v>635</v>
+        <v>602</v>
       </c>
       <c r="Y43" s="3" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="Z43" s="10" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="AA43" s="40" t="s">
-        <v>636</v>
+        <v>603</v>
       </c>
     </row>
     <row r="44" spans="1:1024" ht="153" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
-        <v>637</v>
+        <v>604</v>
       </c>
       <c r="B44" s="32" t="s">
-        <v>638</v>
+        <v>605</v>
       </c>
       <c r="C44" s="35" t="s">
-        <v>639</v>
+        <v>606</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>640</v>
+        <v>607</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>641</v>
+        <v>608</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>642</v>
+        <v>609</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>643</v>
+        <v>610</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>644</v>
+        <v>611</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>645</v>
+        <v>612</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>646</v>
+        <v>613</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>647</v>
+        <v>614</v>
       </c>
       <c r="O44" s="8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>648</v>
+        <v>615</v>
       </c>
       <c r="Q44" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R44" s="2" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>649</v>
+        <v>616</v>
       </c>
       <c r="T44" s="2" t="s">
-        <v>650</v>
+        <v>617</v>
       </c>
       <c r="U44" s="2" t="s">
-        <v>651</v>
+        <v>618</v>
       </c>
       <c r="V44" s="3" t="s">
-        <v>652</v>
+        <v>765</v>
       </c>
       <c r="W44" s="10" t="s">
-        <v>653</v>
+        <v>619</v>
       </c>
       <c r="X44" s="10" t="s">
-        <v>594</v>
+        <v>562</v>
       </c>
       <c r="Y44" s="3" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="Z44" s="10" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="AB44" s="2"/>
       <c r="AC44" s="2"/>
@@ -7957,262 +8079,262 @@
     </row>
     <row r="45" spans="1:1024" ht="308" x14ac:dyDescent="0.2">
       <c r="A45" s="18" t="s">
-        <v>654</v>
+        <v>620</v>
       </c>
       <c r="B45" s="32" t="s">
-        <v>655</v>
+        <v>621</v>
       </c>
       <c r="C45" s="35" t="s">
-        <v>656</v>
+        <v>622</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>657</v>
+        <v>623</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>658</v>
+        <v>624</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>659</v>
+        <v>625</v>
       </c>
       <c r="H45" s="8">
         <v>2007</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>660</v>
+        <v>626</v>
       </c>
       <c r="K45" s="13" t="s">
-        <v>661</v>
+        <v>627</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>662</v>
+        <v>628</v>
       </c>
       <c r="O45" s="8" t="s">
-        <v>663</v>
+        <v>629</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>664</v>
+        <v>630</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R45" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="T45" s="2" t="s">
-        <v>665</v>
+        <v>631</v>
       </c>
       <c r="U45" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="V45" s="3" t="s">
-        <v>666</v>
+        <v>632</v>
       </c>
       <c r="W45" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Y45" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Z45" s="10" t="s">
-        <v>667</v>
+        <v>633</v>
       </c>
     </row>
-    <row r="46" spans="1:1024" ht="208" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1024" ht="247" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
-        <v>668</v>
+        <v>634</v>
       </c>
       <c r="B46" s="32" t="s">
-        <v>669</v>
+        <v>635</v>
       </c>
       <c r="C46" s="35" t="s">
-        <v>670</v>
+        <v>636</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>671</v>
+        <v>637</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>672</v>
+        <v>638</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="H46" s="8">
         <v>1985</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>673</v>
+        <v>639</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>674</v>
+        <v>640</v>
       </c>
       <c r="K46" s="13">
         <v>10308</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>675</v>
+        <v>641</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>676</v>
+        <v>642</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>677</v>
+        <v>643</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>678</v>
+        <v>644</v>
       </c>
       <c r="Q46" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R46" s="2" t="s">
-        <v>744</v>
+        <v>703</v>
       </c>
       <c r="S46" s="2" t="s">
-        <v>679</v>
+        <v>645</v>
       </c>
       <c r="T46" s="2" t="s">
-        <v>680</v>
+        <v>646</v>
       </c>
       <c r="U46" s="2" t="s">
-        <v>681</v>
+        <v>647</v>
       </c>
       <c r="V46" s="3" t="s">
-        <v>682</v>
+        <v>766</v>
       </c>
       <c r="W46" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X46" s="4" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="Y46" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Z46" s="10" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="47" spans="1:1024" ht="272" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
-        <v>683</v>
+        <v>648</v>
       </c>
       <c r="B47" s="32" t="s">
-        <v>684</v>
+        <v>649</v>
       </c>
       <c r="C47" s="35" t="s">
-        <v>685</v>
+        <v>650</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>686</v>
+        <v>651</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>687</v>
+        <v>652</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>688</v>
+        <v>653</v>
       </c>
       <c r="H47" s="8">
         <v>1986</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>552</v>
+        <v>522</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>689</v>
+        <v>654</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>690</v>
+        <v>655</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>691</v>
+        <v>656</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>692</v>
+        <v>657</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>693</v>
+        <v>658</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>694</v>
+        <v>659</v>
       </c>
       <c r="Q47" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R47" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R47" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="T47" s="2" t="s">
-        <v>695</v>
+        <v>660</v>
       </c>
       <c r="U47" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="V47" s="3" t="s">
-        <v>696</v>
+        <v>767</v>
       </c>
       <c r="W47" s="4" t="s">
-        <v>552</v>
+        <v>522</v>
       </c>
       <c r="Y47" s="3" t="s">
-        <v>407</v>
+        <v>388</v>
       </c>
       <c r="Z47" s="4" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="48" spans="1:1024" ht="182" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
-        <v>697</v>
+        <v>661</v>
       </c>
       <c r="B48" s="32" t="s">
-        <v>698</v>
+        <v>662</v>
       </c>
       <c r="C48" s="35" t="s">
-        <v>699</v>
+        <v>663</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>700</v>
+        <v>664</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>701</v>
+        <v>665</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>702</v>
+        <v>666</v>
       </c>
       <c r="H48" s="2">
         <v>2014</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>703</v>
+        <v>667</v>
       </c>
       <c r="K48" s="9">
         <v>6616</v>
@@ -8221,346 +8343,346 @@
         <v>648</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>704</v>
+        <v>668</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>705</v>
+        <v>669</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>706</v>
+        <v>670</v>
       </c>
       <c r="Q48" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R48" s="2" t="s">
-        <v>761</v>
+        <v>720</v>
       </c>
       <c r="T48" s="2" t="s">
-        <v>755</v>
+        <v>714</v>
       </c>
       <c r="U48" s="42" t="s">
-        <v>707</v>
+        <v>671</v>
       </c>
       <c r="V48" s="3" t="s">
-        <v>708</v>
+        <v>672</v>
       </c>
       <c r="W48" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Y48" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Z48" s="10" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="49" spans="1:26" ht="156" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
-        <v>709</v>
+        <v>673</v>
       </c>
       <c r="B49" s="32" t="s">
-        <v>710</v>
+        <v>674</v>
       </c>
       <c r="C49" s="35" t="s">
-        <v>711</v>
+        <v>675</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>700</v>
+        <v>664</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>712</v>
+        <v>676</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H49" s="2">
         <v>2004</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>713</v>
+        <v>677</v>
       </c>
       <c r="K49" s="9">
         <v>53000</v>
       </c>
       <c r="L49" s="9" t="s">
-        <v>766</v>
+        <v>724</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>714</v>
+        <v>678</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="P49" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="Q49" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R49" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="T49" s="2" t="s">
         <v>715</v>
       </c>
-      <c r="Q49" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="R49" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="T49" s="2" t="s">
-        <v>756</v>
-      </c>
       <c r="U49" s="42" t="s">
-        <v>767</v>
+        <v>725</v>
       </c>
       <c r="V49" s="3" t="s">
-        <v>716</v>
+        <v>680</v>
       </c>
       <c r="W49" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X49" s="4" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="Y49" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="Z49" s="10" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="50" spans="1:26" ht="345" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
-        <v>717</v>
+        <v>681</v>
       </c>
       <c r="B50" s="32" t="s">
-        <v>718</v>
+        <v>682</v>
       </c>
       <c r="C50" s="35" t="s">
-        <v>719</v>
+        <v>683</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>720</v>
+        <v>684</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>721</v>
+        <v>685</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H50" s="2">
         <v>1990</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J50" s="14" t="s">
-        <v>722</v>
+        <v>686</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>765</v>
+        <v>726</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>723</v>
+        <v>687</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>724</v>
+        <v>688</v>
       </c>
       <c r="Q50" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R50" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T50" s="8" t="s">
-        <v>757</v>
+        <v>716</v>
       </c>
       <c r="U50" s="2" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="V50" s="3" t="s">
-        <v>725</v>
+        <v>768</v>
       </c>
       <c r="W50" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="X50" s="4" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="Y50" s="3" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
     </row>
     <row r="51" spans="1:26" ht="272" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
-        <v>726</v>
+        <v>689</v>
       </c>
       <c r="B51" s="32" t="s">
-        <v>726</v>
+        <v>689</v>
       </c>
       <c r="C51" s="35" t="s">
-        <v>728</v>
+        <v>691</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>729</v>
+        <v>692</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>730</v>
+        <v>693</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H51" s="2">
         <v>2008</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="J51" s="21" t="s">
-        <v>731</v>
+        <v>694</v>
       </c>
       <c r="K51" s="9" t="s">
-        <v>732</v>
+        <v>695</v>
       </c>
       <c r="L51" s="20" t="s">
-        <v>734</v>
+        <v>697</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>733</v>
+        <v>696</v>
       </c>
       <c r="O51" s="2">
         <v>2007</v>
       </c>
       <c r="P51" s="20" t="s">
-        <v>735</v>
+        <v>698</v>
       </c>
       <c r="Q51" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R51" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="R51" s="20" t="s">
-        <v>43</v>
-      </c>
       <c r="T51" s="2" t="s">
-        <v>758</v>
+        <v>717</v>
       </c>
       <c r="U51" s="2" t="s">
-        <v>470</v>
+        <v>447</v>
       </c>
       <c r="V51" s="3" t="s">
-        <v>736</v>
+        <v>699</v>
       </c>
       <c r="W51" s="4" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="Y51" s="3" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="Z51" s="22" t="s">
-        <v>737</v>
+        <v>700</v>
       </c>
     </row>
     <row r="52" spans="1:26" ht="155" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
-        <v>745</v>
+        <v>704</v>
       </c>
       <c r="B52" s="32" t="s">
-        <v>745</v>
+        <v>704</v>
       </c>
       <c r="C52" s="35" t="s">
-        <v>746</v>
+        <v>705</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>747</v>
+        <v>706</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>760</v>
+        <v>719</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>748</v>
+        <v>707</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H52" s="2">
         <v>2015</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>749</v>
+        <v>708</v>
       </c>
       <c r="J52" s="37" t="s">
-        <v>750</v>
+        <v>709</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>764</v>
+        <v>723</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>751</v>
+        <v>710</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>752</v>
+        <v>711</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>753</v>
+        <v>712</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>763</v>
+        <v>722</v>
       </c>
       <c r="Q52" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R52" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T52" s="2" t="s">
-        <v>759</v>
+        <v>718</v>
       </c>
       <c r="U52" s="2" t="s">
-        <v>762</v>
+        <v>721</v>
       </c>
       <c r="V52" s="3" t="s">
-        <v>754</v>
+        <v>713</v>
       </c>
       <c r="W52" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="X52" s="4" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="Y52" s="3" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A53" s="7"/>
       <c r="B53" s="32"/>
       <c r="J53" s="19" t="s">
-        <v>727</v>
+        <v>690</v>
       </c>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.2">

--- a/xlsx/Old/studies.xlsx
+++ b/xlsx/Old/studies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emckclac-my.sharepoint.com/personal/k1780970_kcl_ac_uk/Documents/1. Catalogue + work documents/1. Catalogue shared files/1. Catalogue/2. Catalogue study updates/Resource folders/cmhm_18Feb2022/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\kclad.ds.kcl.ac.uk\anywhere\UserData\PSStore01\k1780970\Desktop\cmhm_29Apr22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="70" documentId="13_ncr:1_{0BBEB508-D442-2344-A8EB-A5F35EEE28E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E835179-B213-C944-9E60-D4AD04384F8B}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{6F82A259-41A7-4DF6-B3CE-4CB00C898517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3EAD59A3-9B75-4387-85F3-0A6037894792}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13920" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21000" windowHeight="15600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study details" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="769">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="783">
   <si>
     <t>Code</t>
   </si>
@@ -88,6 +89,9 @@
   </si>
   <si>
     <t>Genetic data collected</t>
+  </si>
+  <si>
+    <t>Linked data</t>
   </si>
   <si>
     <t>Notes</t>
@@ -240,12 +244,21 @@
     <t>~3,400 (cohort members) (Life at 27+)</t>
   </si>
   <si>
+    <t>Birth</t>
+  </si>
+  <si>
     <t>April 1991 - December 1992</t>
   </si>
   <si>
     <t xml:space="preserve">Contact study team - Proposal
 &lt;a href="http://www.bristol.ac.uk/alspac/researchers/access/"&gt;http://www.bristol.ac.uk/alspac/researchers/access/&lt;/a&gt;
 </t>
+  </si>
+  <si>
+    <t>Education data,
+Environmental data,
+Health data,
+Social media data</t>
   </si>
   <si>
     <t>Also known as Children of the 90s (CO90s).</t>
@@ -264,6 +277,33 @@
     <t>MRC Wellcome BristolUni</t>
   </si>
   <si>
+    <t>Covid-19 data collection,
+Biomarkers,
+Cognitive measures,
+Diet and nutrition,
+Education,
+Ethnicity and race,
+Sexuality and gender identity,
+Housing,
+Socioeconomic status and deprivation,
+Language and literacy,
+Loneliness and social isolation,
+Neighbourhood,
+Personality,
+Physical health assessment,
+Political and social attitudes,
+Digital technology and social media,
+Victimisation and life events,
+Puberty,
+Reproductive health,
+Work and employment,
+Parenting and family,
+Sleep problems, 
+Social care - receipt,
+Social care - provision,
+Social care - need</t>
+  </si>
+  <si>
     <t>Linked administrative data,
 Genetic/genomic data,
 Mapping/spatial data,
@@ -332,6 +372,25 @@
   </si>
   <si>
     <t>DoHSC NHSdigital</t>
+  </si>
+  <si>
+    <t>Cognitive measures,
+Ethnicity and race,
+Sexuality and gender identity,
+Housing,
+Socioeconomic status and deprivation,
+Language and literacy,
+Loneliness and social isolation,
+Migration and immigration,
+Neighbourhood,
+Physical health assessment,
+Victimisation and life events,
+Reproductive health,
+Work and employment,
+Sleep problems,
+Social care - receipt,
+Social care - provision,
+Social care - need</t>
   </si>
   <si>
     <t>England, Scotland, Wales, National</t>
@@ -410,6 +469,20 @@
     <t>DoHSC NHSdigital Scot Welsh</t>
   </si>
   <si>
+    <t>Education,
+Housing,
+Socioeconomic status and deprivation,
+Loneliness and social isolation,
+Physical health assessment,
+Victimisation and life events,
+Reproductive health,
+Work and employment,
+Sleep problems,
+Social care - receipt,
+Social care - provision,
+Social care - need</t>
+  </si>
+  <si>
     <t>Vulnerable groups</t>
   </si>
   <si>
@@ -440,10 +513,11 @@
     <t>9,841 (BCS 2012)</t>
   </si>
   <si>
-    <t>Birth</t>
-  </si>
-  <si>
     <t xml:space="preserve">UK Data Service &lt;br&gt; &lt;a href="https://cls.ucl.ac.uk/data-access-training/access-ukds/"&gt;https://cls.ucl.ac.uk/data-access-training/access-ukds/&lt;/a&gt; </t>
+  </si>
+  <si>
+    <t>Health data,
+Income/tax and benefits</t>
   </si>
   <si>
     <t>Previously known as the British Births Survey</t>
@@ -455,6 +529,31 @@
   <si>
     <t>ESRC RCOG&lt;br&gt;
 National Birthday Trust Fund</t>
+  </si>
+  <si>
+    <t>Covid-19 data collection,
+Biomarkers,
+Cognitive measures,
+Diet and nutrition,
+Education,
+Sexuality and gender identity,
+Housing,
+Socioeconomic status and deprivation,
+Language and literacy,
+Migration and immigration,
+Neighbourhood,
+Personality,
+Physical health assessment,
+Political and social attitudes,
+Victimisation and life events,
+Puberty,
+Reproductive health,
+Work and employment,
+Parenting and family,
+Sleep problems,
+Social care - receipt,
+Social care - provision,
+Social care - need</t>
   </si>
   <si>
     <t>Linked administrative data,
@@ -516,6 +615,27 @@
     <t>NIHR</t>
   </si>
   <si>
+    <t>Covid-19 data collection,
+Biomarkers,
+Cognitive measures,
+Diet and nutrition,
+Education,
+Ethnicity and race,
+Housing,
+Socioeconomic status and deprivation,
+Language and literacy,
+Migration and immigration,
+Neighbourhood,
+Physical health assessment,
+Digital technology and social media,
+Reproductive health,
+Work and employment,
+Parenting and family,
+Sleep problems,
+Social care - receipt,
+Social care - need</t>
+  </si>
+  <si>
     <t>Ethnicity and race</t>
   </si>
   <si>
@@ -554,6 +674,21 @@
   </si>
   <si>
     <t>BLF</t>
+  </si>
+  <si>
+    <t>Covid-19 data collection,
+Biomarkers,
+Diet and nutrition,
+Socioeconomic status and deprivation,
+Language and literacy,
+Loneliness and social isolation,
+Migration and immigration,
+Neighbourhood,
+Physical health assessment,
+Work and employment,
+Parenting and family,
+Social care - receipt,
+Social care - need</t>
   </si>
   <si>
     <t>Linked administrative data,
@@ -680,6 +815,22 @@
     <t>MRC AlzhSoc</t>
   </si>
   <si>
+    <t>Covid-19 data collection,
+Biomarkers,
+Cognitive measures,
+Cognitive decline,
+Diet and nutrition,
+Socioeconomic status and deprivation,
+Language and literacy,
+Loneliness and social isolation,
+Physical health assessment,
+Work and employment,
+Sleep problems,
+Social care - receipt,
+Social care - provision,
+Social care - need</t>
+  </si>
+  <si>
     <t>Genetic/genomic data</t>
   </si>
   <si>
@@ -717,6 +868,21 @@
   </si>
   <si>
     <t>MRC DoHSC</t>
+  </si>
+  <si>
+    <t>Covid-19 data collection,
+Biomarkers,
+Cognitive measures,
+Cognitive decline,
+Diet and nutrition,
+Socioeconomic status and deprivation,
+Language and literacy,
+Loneliness and social isolation,
+Physical health assessment,
+Work and employment,
+Sleep problems,
+Social care - receipt,
+Social care - need</t>
   </si>
   <si>
     <t>England, Wales, Local area</t>
@@ -807,6 +973,19 @@
 &lt;a href="https://doi.org/10.1093/ije/dym094"&gt;doi.org/10.1093/ije/dym094&lt;/a&gt; </t>
   </si>
   <si>
+    <t>Diet and nutrition,
+Ethnicity and race, 
+Housing,
+Loneliness and social isolation,
+Migration and immigration,
+Neighbourhood,
+Physical health assessment,
+Victimisation and life events,
+Work and employment,
+Parenting and family,
+Social care - need</t>
+  </si>
+  <si>
     <t>ELSA</t>
   </si>
   <si>
@@ -835,6 +1014,11 @@
   </si>
   <si>
     <t xml:space="preserve">UK Data Service &lt;br&gt; &lt;a href="https://www.elsa-project.ac.uk/accessing-elsa-data"&gt;https://www.elsa-project.ac.uk/accessing-elsa-data&lt;/a&gt; </t>
+  </si>
+  <si>
+    <t>Environmental data,
+Health data,
+Income/tax and benefits</t>
   </si>
   <si>
     <t xml:space="preserve">Steptoe A, Breeze E, Banks J &amp; Nazroo J (2013). Cohort profile: the English longitudinal study of ageing. &lt;i&gt;International Journal of Epidemiology&lt;/i&gt;, 42, 1640–1648.&lt;br&gt;
@@ -842,6 +1026,30 @@
   </si>
   <si>
     <t>NIA DfT DoHSC DfWP</t>
+  </si>
+  <si>
+    <t>Covid-19 data collection,
+Biomarkers,
+Cognitive measures,
+Cognitive decline,
+Diet and nutrition,
+Sexuality and gender identity,
+Housing,
+Socioeconomic status and deprivation,
+Language and literacy,
+Loneliness and social isolation,
+Migration and immigration,
+Neighbourhood,
+Personality,
+Physical health assessment,
+Digital technology and social media,
+Victimisation and life events,
+Reproductive health,
+Work and employment,
+Sleep problems,
+Social care - receipt,
+Social care - provision,
+Social care - need</t>
   </si>
   <si>
     <t>England, National</t>
@@ -894,6 +1102,18 @@
 Eurofound is an agency of the European Union</t>
   </si>
   <si>
+    <t>Housing,
+Socioeconomic status and deprivation,
+Loneliness and social isolation,
+Neighbourhood,
+Political and social attitudes,
+Digital technology and social media,
+Work and employment,
+Social care - receipt,
+Social care - provision,
+Social care - need</t>
+  </si>
+  <si>
     <t>European cross-national sample</t>
   </si>
   <si>
@@ -945,6 +1165,29 @@
   </si>
   <si>
     <t>MRC NIH_NICHD Jacobs NSPCC BBSRC Avielle AsthmaUSA MQ Nuffield</t>
+  </si>
+  <si>
+    <t>Covid-19 data collection,
+Biomarkers,
+Cognitive measures,
+Diet and nutrition,
+Education,
+Ethnicity and race,
+Sexuality and gender identity,
+Housing,
+Socioeconomic status and deprivation,
+Language and literacy,
+Loneliness and social isolation,
+Neighbourhood,
+Personality,
+Physical health assessment,
+Digital technology and social media,
+Victimisation and life events,
+Puberty,
+Work and employment,
+Parenting and family,
+Sleep problems,
+Social care - receipt</t>
   </si>
   <si>
     <t>Twin study, Birth cohort</t>
@@ -1059,6 +1302,26 @@
     <t>Scot SFC</t>
   </si>
   <si>
+    <t>Covid-19 data collection,
+Biomarkers,
+Cognitive measures,
+Diet and nutrition,
+Housing,
+Socioeconomic status and deprivation,
+Language and literacy,
+Loneliness and social isolation,
+Migration and immigration,
+Neighbourhood,
+Personality,
+Physical health assessment,
+Victimisation and life events,
+Puberty,
+Reproductive health,
+Work and employment,
+Social care - receipt,
+Social care - need</t>
+  </si>
+  <si>
     <t>Scotland, National</t>
   </si>
   <si>
@@ -1112,6 +1375,29 @@
     <t>Scot</t>
   </si>
   <si>
+    <t>Cognitive measures,
+Diet and nutrition,
+Education,
+Ethnicity and race,
+Sexuality and gender identity,
+Housing,
+Socioeconomic status and deprivation,
+Language and literacy,
+Loneliness and social isolation,
+Neighbourhood,
+Physical health assessment,
+Political and social attitudes,
+Digital technology and social media,
+Victimisation and life events,
+Puberty,
+Reproductive health,
+Work and employment,
+Parenting and family,
+Sleep problems,
+Social care - receipt,
+Social care - need</t>
+  </si>
+  <si>
     <t>GUSBC2</t>
   </si>
   <si>
@@ -1134,6 +1420,25 @@
     <t>2010-11</t>
   </si>
   <si>
+    <t>Cognitive measures,
+Diet and nutrition,
+Education,
+Housing,
+Socioeconomic status and deprivation,
+Language and literacy,
+Loneliness and social isolation,
+Neighbourhood,
+Physical health assessment,
+Digital technology and social media,
+Reproductive health,
+Work and employment,
+Parenting and family,
+Sleep problems,
+Social care - receipt,
+Social care - provision,
+Social care - need</t>
+  </si>
+  <si>
     <t>GUSCC1</t>
   </si>
   <si>
@@ -1159,6 +1464,24 @@
     <t>2002-3</t>
   </si>
   <si>
+    <t>Cognitive measures,
+Diet and nutrition,
+Education,
+Housing,
+Socioeconomic status and deprivation,
+Language and literacy,
+Loneliness and social isolation,
+Neighbourhood,
+Physical health assessment,
+Digital technology and social media,
+Reproductive health,
+Work and employment,
+Parenting and family,
+Sleep problems,
+Social care - receipt,
+Social care - need</t>
+  </si>
+  <si>
     <t>HCS</t>
   </si>
   <si>
@@ -1209,6 +1532,26 @@
     <t>MRC BHF ARUK ROS Wellcome SOTON</t>
   </si>
   <si>
+    <t>Covid-19 data collection,
+Biomarkers,
+Cognitive measures,
+Cognitive decline,
+Diet and nutrition,
+Housing,
+Socioeconomic status and deprivation,
+Language and literacy,
+Loneliness and social isolation,
+Neighbourhood,
+Personality,
+Physical health assessment,
+Digital technology and social media,
+Reproductive health,
+Work and employment,
+Sleep problems,
+Social care - receipt,
+Social care - need</t>
+  </si>
+  <si>
     <t>HEAF</t>
   </si>
   <si>
@@ -1253,6 +1596,16 @@
   </si>
   <si>
     <t>ESRC MRC ARUK</t>
+  </si>
+  <si>
+    <t>Diet and nutrition,
+Housing,
+Socioeconomic status and deprivation,
+Physical health assessment,
+Work and employment,
+Sleep problems,
+Social care - provision,
+Social care - need</t>
   </si>
   <si>
     <t>Ageing cohort, Occupational cohort</t>
@@ -1488,6 +1841,21 @@
     <t>BBSRC Scot MRC</t>
   </si>
   <si>
+    <t>Biomarkers,
+Cognitive measures,
+Cognitive decline,
+Education,
+Housing,
+Socioeconomic status and deprivation,
+Language and literacy,
+Loneliness and social isolation,
+Neighbourhood,
+Physical health assessment,
+Work and employment,
+Social care - receipt,
+Social care - need</t>
+  </si>
+  <si>
     <t>Scotland, Local area</t>
   </si>
   <si>
@@ -1522,6 +1890,25 @@
     <t>AgeUK MRC ASDRC BBSRC Wellcome Edin UQ NIH</t>
   </si>
   <si>
+    <t>Covid-19 data collection,
+Biomarkers,
+Cognitive measures,
+Cognitive decline,
+Diet and nutrition,
+Education,
+Housing,
+Socioeconomic status and deprivation,
+Language and literacy,
+Loneliness and social isolation,
+Neighbourhood,
+Physical health assessment,
+Reproductive health,
+Work and employment,
+Sleep problems,
+Social care - receipt,
+Social care - need</t>
+  </si>
+  <si>
     <t>LSYPE</t>
   </si>
   <si>
@@ -1547,7 +1934,8 @@
     <t>1989-90</t>
   </si>
   <si>
-    <t>Education data</t>
+    <t>Education data,
+Income/tax and benefits</t>
   </si>
   <si>
     <t>Previously known as Longitudinal Survey of Young People in England (LSYPE)</t>
@@ -1557,6 +1945,28 @@
   </si>
   <si>
     <t>ESRC DfE</t>
+  </si>
+  <si>
+    <t>Covid-19 data collection,
+Cognitive measures,
+Diet and nutrition,
+Education,
+Sexuality and gender identity,
+Housing,
+Socioeconomic status and deprivation,
+Loneliness and social isolation,
+Neighbourhood,
+Personality,
+Political and social attitudes,
+Digital technology and social media,
+Victimisation and life events,
+Reproductive health,
+Work and employment,
+Parenting and family,
+Sleep problems,
+Social care - receipt,
+Social care - provision,
+Social care - need</t>
   </si>
   <si>
     <t>MCS</t>
@@ -1580,6 +1990,9 @@
   </si>
   <si>
     <t>11,726 children (MCS6)</t>
+  </si>
+  <si>
+    <t>Education data</t>
   </si>
   <si>
     <t>Also known as Child of the New Century</t>
@@ -1597,6 +2010,33 @@
 International Centre for Child Studies</t>
   </si>
   <si>
+    <t>Covid-19 data collection,
+Cognitive measures,
+Diet and nutrition,
+Education,
+Ethnicity and race,
+Sexuality and gender identity,
+Housing,
+Socioeconomic status and deprivation,
+Language and literacy,
+Loneliness and social isolation,
+Migration and immigration,
+Neighbourhood,
+Personality,
+Physical health assessment,
+Political and social attitudes,
+Digital technology and social media,
+Victimisation and life events,
+Puberty,
+Reproductive health,
+Work and employment,
+Parenting and family,
+Sleep problems,
+Social care - receipt,
+Social care - provision,
+Social care - need</t>
+  </si>
+  <si>
     <t>&lt;a href="https://web.www.healthdatagateway.org/dataset/2b09ea87-5b22-4049-b7dd-de0889699115"&gt;https://web.www.healthdatagateway.org/dataset/2b09ea87-5b22-4049-b7dd-de0889699115&lt;/a&gt;</t>
   </si>
   <si>
@@ -1645,6 +2085,18 @@
     <t>NHSdigital DoHSC</t>
   </si>
   <si>
+    <t>Education,
+Housing,
+Socioeconomic status and deprivation,
+Loneliness and social isolation,
+Victimisation and life events,
+Work and employment,
+Sleep problems,
+Social care - receipt,
+Social care - provision,
+Social care - need</t>
+  </si>
+  <si>
     <t>MWS</t>
   </si>
   <si>
@@ -1688,6 +2140,20 @@
     <t>MRC CRUK</t>
   </si>
   <si>
+    <t>Diet and nutrition,
+Housing,
+Socioeconomic status and deprivation,
+Loneliness and social isolation,
+Physical health assessment,
+Digital technology and social media,
+Reproductive health,
+Work and employment,
+Sleep problems,
+Social care - receipt,
+Social care - provision,
+Social care - need</t>
+  </si>
+  <si>
     <t>N85</t>
   </si>
   <si>
@@ -1727,6 +2193,20 @@
     <t xml:space="preserve">MRC BBSRC Dunhill NIHR </t>
   </si>
   <si>
+    <t>Biomarkers,
+Cognitive measures,
+Cognitive decline,
+Diet and nutrition,
+Housing,
+Socioeconomic status and deprivation,
+Loneliness and social isolation,
+Physical health assessment,
+Work and employment,
+Sleep problems,
+Social care - receipt,
+Social care - need</t>
+  </si>
+  <si>
     <t>NCDS</t>
   </si>
   <si>
@@ -1762,6 +2242,30 @@
   <si>
     <t>ESRC MRC NIH DfWP Wellcome&lt;br&gt;
 National Birthday Trust Fund</t>
+  </si>
+  <si>
+    <t>Covid-19 data collection,
+Biomarkers,
+Cognitive measures,
+Diet and nutrition,
+Education,
+Sexuality and gender identity,
+Housing,
+Socioeconomic status and deprivation,
+Language and literacy,
+Loneliness and social isolation,
+Migration and immigration,
+Personality,
+Physical health assessment,
+Political and social attitudes,
+Victimisation and life events,
+Reproductive health,
+Work and employment,
+Parenting and family,
+Sleep problems,
+Social care - receipt,
+Social care - provision,
+Social care - need</t>
   </si>
   <si>
     <t>NICOLA</t>
@@ -1884,6 +2388,26 @@
     </r>
   </si>
   <si>
+    <t>Covid-19 data collection,
+Biomarkers,
+Cognitive measures,
+Cognitive decline,
+Diet and nutrition,
+Socioeconomic status and deprivation,
+Loneliness and social isolation,
+Neighbourhood,
+Personality,
+Physical health assessment,
+Digital technology and social media,
+Victimisation and life events,
+Reproductive health,
+Work and employment,
+Sleep problems,
+Social care - receipt,
+Social care - provision,
+Social care - need</t>
+  </si>
+  <si>
     <t>Northern Ireland, National</t>
   </si>
   <si>
@@ -1921,6 +2445,32 @@
 Full list of cohort profile papers available at &lt;a href="https://www.nshd.mrc.ac.uk/about-us/cohort-profile/"&gt;nshd.mrc.ac.uk/about-us/cohort-profile&lt;/a&gt; </t>
   </si>
   <si>
+    <t>Covid-19 data collection,
+Biomarkers,
+Cognitive measures,
+Cognitive decline,
+Diet and nutrition,
+Education,
+Housing,
+Socioeconomic status and deprivation,
+Language and literacy,
+Loneliness and social isolation,
+Migration and immigration,
+Neighbourhood,
+Personality,
+Physical health assessment,
+Political and social attitudes,
+Digital technology and social media,
+Victimisation and life events,
+Reproductive health,
+Work and employment,
+Parenting and family,
+Sleep problems,
+Social care - receipt,
+Social care - provision,
+Social care - need</t>
+  </si>
+  <si>
     <t>Linked administrative data,
 Genetic/genomic data,
 Brain activity and structures</t>
@@ -1961,6 +2511,24 @@
     <t>NIHR_BRC</t>
   </si>
   <si>
+    <t>Covid-19 data collection,
+Cognitive measures,
+Diet and nutrition,
+Ethnicity and race,
+Sexuality and gender identity,
+Loneliness and social isolation,
+Neighbourhood,
+Personality,
+Digital technology and social media,
+Victimisation and life events,
+Reproductive health,
+Work and employment,
+Sleep problems,
+Social care - receipt,
+Social care - provision,
+Social care - need</t>
+  </si>
+  <si>
     <t>REACH</t>
   </si>
   <si>
@@ -2001,6 +2569,25 @@
     <t>ERC</t>
   </si>
   <si>
+    <t>Covid-19 data collection,
+Cognitive measures,
+Diet and nutrition,
+Education,
+Ethnicity and race,
+Housing,
+Socioeconomic status and deprivation,
+Loneliness and social isolation,
+Migration and immigration,
+Neighbourhood,
+Personality,
+Political and social attitudes,
+Digital technology and social media,
+Victimisation and life events,
+Parenting and family,
+Sleep problems,
+Social care - need</t>
+  </si>
+  <si>
     <t>Accelerated cohort study</t>
   </si>
   <si>
@@ -2026,11 +2613,11 @@
 Using ACORN categories as a proxy measure of social and economic class, the ROOTS sample has twice as many ‘wealthy achievers’ but only half the number of ‘moderate means’ or ‘hard pressed’ families compared with UK figures (Goodyer et al. 2010).</t>
   </si>
   <si>
-    <t>1,185 adolescents
+    <t>1,185 adolescents&lt;br&gt;
 1,141 parents</t>
   </si>
   <si>
-    <t>1,074 - Age 17 fMRI sub-study
+    <t>1,074 - Age 17 fMRI sub-study&lt;br&gt;
 157 - Age 21 stress reactivity sub-study</t>
   </si>
   <si>
@@ -2116,6 +2703,23 @@
     <t>Wellcome BHF</t>
   </si>
   <si>
+    <t>Covid-19 data collection,
+Diet and nutrition,
+Ethnicity and race,
+Housing,
+Socioeconomic status and deprivation,
+Loneliness and social isolation,
+Migration and immigration,
+Physical health assessment,
+Victimisation and life events,
+Reproductive health,
+Work and employment,
+Sleep problems,
+Social care - receipt,
+Social care - provision,
+Social care - need</t>
+  </si>
+  <si>
     <t>Ageing cohort,
 Ethnicity and race,</t>
   </si>
@@ -2155,6 +2759,22 @@
     <t>NIHR_BRC GSTC ESRC</t>
   </si>
   <si>
+    <t>Biomarkers,
+Diet and nutrition,
+Ethnicity and race,
+Sexuality and gender identity,
+Housing,
+Socioeconomic status and deprivation,
+Neighbourhood,
+Physical health assessment,
+Victimisation and life events,
+Work and employment,
+Sleep problems,
+Social care - receipt,
+Social care - provision,
+Social care - need</t>
+  </si>
+  <si>
     <t>Ethnicity and race, 
 Migration and immigration</t>
   </si>
@@ -2178,7 +2798,7 @@
 At the end of the interview, each woman was encouraged to contact the office if she became pregnant and to provide written consent for her GP or local maternity hospital to notify the SWS team if she became pregnant. Women who become pregnant are recruited into the pregnancy phase of the SWS. By the end of May 2005, 2567 babies had been born to SWS women.</t>
   </si>
   <si>
-    <t>12,579 women (pre-pregnancy interview)
+    <t>12,579 women (pre-pregnancy interview)&lt;br&gt;
 2,567 babies</t>
   </si>
   <si>
@@ -2233,6 +2853,25 @@
     </r>
   </si>
   <si>
+    <t>Covid-19 data collection,
+Biomarkers,
+Cognitive measures,
+Diet and nutrition,
+Housing,
+Socioeconomic status and deprivation,
+Language and literacy,
+Neighbourhood,
+Physical health assessment,
+Digital technology and social media,
+Reproductive health,
+Work and employment,
+Parenting and family,
+Sleep problems,
+Social care - receipt,
+Social care - provision,
+Social care - need</t>
+  </si>
+  <si>
     <t>TEDS</t>
   </si>
   <si>
@@ -2260,6 +2899,11 @@
   <si>
     <t>Data request&lt;br&gt;
 &lt;a href="https://www.teds.ac.uk/researchers/teds-data-access-policy"&gt;teds.ac.uk/researchers/teds-data-access-policy&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Education data,
+Environmental data,
+Social media data</t>
   </si>
   <si>
     <t>Haworth, CMA, Davis, OSP, Plomin, R (2013). Twins Early Development Study (TEDS): A Genetically Sensitive Investigation of Cognitive and Behavioral Development From Childhood to Young Adulthood. &lt;i&gt;Twin Research &amp; Human Genetics&lt;/i&gt;, 16, 117-125.&lt;br&gt;
@@ -2398,6 +3042,14 @@
 &lt;a href="https://www.understandingsociety.ac.uk/documentation/access-data"&gt;understandingsociety.ac.uk/documentation/access-data&lt;/a&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">Education data,
+Environmental data,
+Health data,
+Income/tax and benefits,
+Social media data
+</t>
+  </si>
+  <si>
     <t>Includes all waves of the British Household Panel Survey (BHPS). Northern Ireland included in the BHPS after 2001.</t>
   </si>
   <si>
@@ -2408,6 +3060,33 @@
   <si>
     <t>ESRC DfWP DfT DoHSC DfE DCMS DCLG DEFRA Scot Welsh ONS FSA&lt;br&gt;
 Large Facilities Capital Fund</t>
+  </si>
+  <si>
+    <t>Covid-19 data collection,
+Biomarkers,
+Cognitive measures,
+Diet and nutrition,
+Education,
+Ethnicity and race,
+Sexuality and gender identity,
+Housing,
+Socioeconomic status and deprivation,
+Language and literacy,
+Loneliness and social isolation,
+Migration and immigration,
+Neighbourhood,
+Personality,
+Physical health assessment,
+Political and social attitudes,
+Digital technology and social media,
+Victimisation and life events,
+Reproductive health,
+Work and employment,
+Parenting and family,
+Sleep problems,
+Social care - receipt,
+Social care - provision,
+Social care - need</t>
   </si>
   <si>
     <t>Household panel study</t>
@@ -2529,7 +3208,7 @@
     <t>The target population for the Whitehall II study was all civil servants aged 35–55 years working in the London offices of 20 Whitehall departments in 1985–88. Members of the target population were invited to participate by letter. The achieved sample size was 10,308 people; 3413 women and 6895 men. The participants, who were from clerical and office support grades, middle-ranking executive grades, and senior administrative grades, differ widely in salary. Some have remained in the civil service. Many have retired, and others have taken employment elsewhere; some are unemployed. For more details see Marmot &amp; Brunner 2005.</t>
   </si>
   <si>
-    <t>6,318 - Phase 11 (2012-13) 
+    <t>6,318 - Phase 11 (2012-13)&lt;br&gt;
 5,632 - Phase 12 (2015-16)</t>
   </si>
   <si>
@@ -2541,253 +3220,6 @@
   <si>
     <t>Application&lt;br&gt;
 &lt;a href="https://www.ucl.ac.uk/epidemiology-health-care/research/epidemiology-and-public-health/research/whitehall-ii/data-sharing"&gt;ucl.ac.uk/epidemiology-health-care/research/epidemiology-and-public-health/research/whitehall-ii/data-sharing&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>Also known as the Stress and Health Study</t>
-  </si>
-  <si>
-    <t>Marmot, M &amp; Brunner, E (2005). Cohort Profile: The Whitehall II Study. International Journal of Epidemiology, 34, 251-256.&lt;br&gt;
-&lt;a href="https://doi.org/10.1093/ije/dyh372"&gt;doi.org/10.1093/ije/dyh372&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>MRC BHF NIA ESRC EU_flag ERC&lt;br&gt;
-National Heart, Lung &amp; Blood Institute</t>
-  </si>
-  <si>
-    <t>WOS</t>
-  </si>
-  <si>
-    <t>West of Scotland Twenty-07</t>
-  </si>
-  <si>
-    <t>The West of Scotland Twenty-07 Study is a population-based multi-cohort study which has followed three cohorts of men and women in the West of Scotland across twenty years. Set up in 1986, the study was designed to investigate the differences in health by socio-economic circumstances, gender, the place where people live, age, ethnic group and family type. Through tracking three cohorts of volunteers, each born roughly twenty years apart, the study provides data at critical points in the lifespan, as participants make the transition from adolescence to working life; through the main part of working life; and from working life to retirement. Additionally, the study was designed to explore the effect of the historical context of people’s lives on their health and circumstances by comparing the different cohorts at the same age at different points in time.</t>
-  </si>
-  <si>
-    <t>MRC Social and Public Health Sciences Unit, University of Glasgow</t>
-  </si>
-  <si>
-    <t>&lt;a href="http://2007study.sphsu.mrc.ac.uk/"&gt;http://2007study.sphsu.mrc.ac.uk/&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>Central Clydeside Conurbation, West of Scotland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The West of Scotland Twenty-07 Study followed three cohorts each born roughly twenty years apart, in 1932, 1952 and 1972. In the initial sweep, the cohort members were approximately 15, 35 and 55 years old. Cohort members were followed up three times, in 1990/1991, 1995, and 2000/2004, before the final sweep of data collection took place in 2007/2008, when the cohort members were approximately 35, 55 and 75 years old. 
-&lt;br&gt;&lt;br&gt;
-Each cohort comprises two distinct but connected samples: a regional sample and a localities sample. The regional sample is a two-stage stratified random sample of people living in the Central Clydeside Conurbation - a socially mixed and mainly urban area - and the localities sample is comprised of people from two areas within the city of Glasgow. The sampling frame used for the regional sample was Strathclyde Regional Council’s 1986 Voluntary Population Survey, an enhanced electoral register that provides details of the age and sex of all household members. The locality sample was designed for more intensive study of the relationship between people’s personal and health circumstances and the environment in which they lived. Ten postcode sectors in two areas of the city of Glasgow were selected purposefully to capture different socio-economic experiences and environments. </t>
-  </si>
-  <si>
-    <t>4,510 total&lt;br&gt;
-1,551 - 1930s cohort&lt;br&gt;
-1,444 - 1950s cohort&lt;br&gt;
-1,515 - 1970s cohort</t>
-  </si>
-  <si>
-    <t>2,580 total (Wave 5, 2008)&lt;br&gt;
-633 - 1930s cohort&lt;br&gt;
-994 - 1950s cohort&lt;br&gt;
-923 - 1970s cohort</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15, 35, and 55 years </t>
-  </si>
-  <si>
-    <t>1932, 1952, 1972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contact study team - proposal
-&lt;a href="http://2007study.sphsu.mrc.ac.uk/Information-on-data-sharing.html"&gt;http://2007study.sphsu.mrc.ac.uk/Information-on-data-sharing.html&lt;/a&gt;
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benzeval, M., Der, G., Ellaway, A., Hunt, K., Sweeting, H., West, P., &amp; Macintyre, S. (2009). Cohort profile: West of Scotland Twenty-07 study: health in the community. International Journal of Epidemiology, 38(5), 1215-1223 
-&lt;br&gt;
-&lt;a href="https://doi.org/10.1093/ije/dyn213"&gt;doi.org/10.1093/ije/dyn213
-&lt;/a&gt; 
-</t>
-  </si>
-  <si>
-    <t>SCAMP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Study of Cognition, Adolescents and Mobile Phones (SCAMP) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Study of Cognition, Adolescents and Mobile Phones (SCAMP) was designed to provide insights into the long-term impacts of mobile phone and wireless technology use. It is a prospective school-based cohort study following several thousand pupils. It aims to examine associations between the use of mobile phones and other wireless devices that emit radio-frequency electromagnetic fields (RF-EMF) and cognitive, behavioural, educational, physical and mental health outcomes during adolescence.  
-</t>
-  </si>
-  <si>
-    <t>Imperial College London</t>
-  </si>
-  <si>
-    <t>&lt;a href="https://www.scampstudy.org/"&gt;https://www.scampstudy.org/&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>Greater London</t>
-  </si>
-  <si>
-    <t>Secondary school pupils from 39 eligible schools from within the Greater London area were invited to participate. Eligible schools were selected from the Department for Education’s register of educational establishments (EduBase) and from the January 2012 school census. Pupils completed computerised assessments at school, which were complemented by online questionnaires that could be completed in any environment by both and pupils and their parents.</t>
-  </si>
-  <si>
-    <t>11 years</t>
-  </si>
-  <si>
-    <t>2002-2003</t>
-  </si>
-  <si>
-    <t>Contact study team &lt;br&gt;
-&lt;a href="https://www.scampstudy.org/research-opportunities/"&gt;https://www.scampstudy.org/research-opportunities/&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DoHSC MRC </t>
-  </si>
-  <si>
-    <t>Covid-19 data collection,
-Biomarkers,
-Cognitive measures,
-Diet and nutrition,
-Education,
-Housing,
-Socioeconomic status and deprivation,
-Language and literacy,
-Neighbourhood,
-Digital technology and social media,
-Victimisation and life events,
-Puberty,
-Reproductive health,
-Sleep problems</t>
-  </si>
-  <si>
-    <t>AHMS</t>
-  </si>
-  <si>
-    <t>The Airwave Health Monitoring Study</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Airwave Health Monitoring Study is an occupational cohort study which was established to evaluate the possible health risks associated with use of Terrestrial Trunked Radio (TETRA), a digital communication system used by the police force. Due to the collection of extensive phenotypic data, biological samples, and the availability of linked health data, the study has been broadened to investigate more generally the health and social outcomes of working in the police force in Great Britain. </t>
-  </si>
-  <si>
-    <t>&lt;a href="https://police-health.org.uk/"&gt;https://police-health.org.uk/&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>Employees of all 54 police forces as well as police-related agencies within Great Britain were invited to participate. Since the commencement of the study, a total of 28 forces have agreed to participate. Participants completed enrolment questionnaires during the first phase of the study. The second phase of the study consisted of a health screening performed locally by trained nurses. Overall, 16% of participants completed only phase one, 58% completed only phase two, and 26% completed both phases. Additionally, 62.9% of the participants are men, and the average age at enrolment was 40.9 years for men and 38.5 years for women.</t>
-  </si>
-  <si>
-    <t>18+</t>
-  </si>
-  <si>
-    <t>Contact study team &lt;br&gt;
-&lt;a href="https://police-health.org.uk/applying-access-resource"&gt;https://police-health.org.uk/applying-access-resource&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>Biomarkers,
-Cognitive measures,
-Diet and nutrition,
-Socioeconomic status and deprivation,
-Language and literacy,
-Personality,
-Physical health assessment,
-Digital technology and social media,
-Victimisation and life events,
-Reproductive health,
-Work and employment,
-Sleep problems</t>
-  </si>
-  <si>
-    <t>EWCS</t>
-  </si>
-  <si>
-    <t>European Working Conditions Survey (EWCS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The European Working Conditions Survey is a unique pan-European survey carried out every 5 years to assess and quantify working conditions of both employees and the self-employed across Europe. It aims to provide a comprehensive picture of the everyday reality of men and women at work, and to do so covers a wide range of themes such as employment status, working time duration, learning and training, physical and psychosocial risk factors, health and safety, work-life balance, financial security and worker participation. The survey has also allowed researchers to analyse relationships between different aspects of working conditions, identify risk groups and issues of concern as well as progress, and monitor the trends of these issues. </t>
-  </si>
-  <si>
-    <t>&lt;a href="https://www.eurofound.europa.eu/surveys/european-working-conditions-surveys-ewcs"&gt;https://www.eurofound.europa.eu/surveys/european-working-conditions-surveys-ewcs&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">England, Scotland, Wales, Northern Ireland &lt;br&gt;
-Europe - 28 European Union Member States, the five candidate countries for EU membership (Albania, the former Yugoslav Republic of Macedonia, Montenegro, Serbia and Turkey) and Norway and Switzerland (EWCS 2015). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">In each wave a new sample of the adult population is selected randomly for a face-to-face interview. In view of the growth of the EU and interest from the EFTA countries, the geographical coverage of the survey has expanded over time.
-&lt;br&gt;&lt;br&gt;
-The target population for each survey consists of all persons aged 15 and above (for Bulgaria, Norway, Spain and the UK, this is anyone aged 16 and above) who are residents of the country and are employed or self-employed at the time of data collection. Those considered to be in employment are those who have worked for pay or profit for at least an hour in the week preceding the interview. For most countries, the target sample size is 1,000, but to reflect the larger workforce in bigger countries, the target was increased proportionately. 
-&lt;br&gt;&lt;br&gt;
-For the EWCS 2015, a stratified, multi-stage, random sampling method was used to select participants from the working population of each country. Depending on the availability of high-quality registers, sampling was carried out using individual-level, household-level and address-level registers, or through enumeration using a random-walk approach. Country-level samples were stratified by region and degree of urbanisation. In each stratum, primary sampling units (PSUs) were randomly selected proportional to size. Subsequently, a random sample of households was drawn in each PSU. Finally, unless individual-level registers were used, in each household the selected respondent was the person in work who would have their birthday next.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,600 – UK sample, EWCS 2015
-&lt;br&gt;&lt;br&gt;
-43,850 – Total European sample, EWCS 2015
-</t>
-  </si>
-  <si>
-    <t>"UK Data Service&lt;br&gt;
-&lt;a href=""https://www.eurofound.europa.eu/surveys/about-eurofound-surveys/data-availability""&gt;eurofound.europa.eu/surveys/about-eurofound-surveys/data-availability&lt;/a&gt;&lt;br&gt;
-&lt;a href=""https://beta.ukdataservice.ac.uk/datacatalogue/studies/study?id=7348""&gt;beta.ukdataservice.ac.uk/datacatalogue/studies/study?id=7348&lt;/a&gt;"</t>
-  </si>
-  <si>
-    <t>Gemini</t>
-  </si>
-  <si>
-    <t> </t>
-  </si>
-  <si>
-    <t>Gemini is a large population-based study of twins designed to investigate the genetic and environmental influences on obesity risk, weight gain, and early growth. Gemini have followed twins and their families for over a decade, collecting detailed information about the twins’ growth, eating behaviours, appetite, and the home environment. A key aim of the Gemini study is to create a rich resource of data on early childhood exposures that can be used to assess the determinants of long-term health.</t>
-  </si>
-  <si>
-    <t>University College London</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;a href="https://www.geministudy.co.uk/"&gt;https://www.geministudy.co.uk/&lt;/a&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Families with twins born in England and Wales between March and December 2007 were approached on behalf of Gemini by the Office for National Statistics (N = 6,754) in January 2008. 3,435 families agreed to be contacted by the research team, with 2,402 families (36% of the target population) returning a completed baseline questionnaire. The sample comprises of 1,586 same-sex and 816 opposite-sex twin pairs. 
-&lt;br&gt;&lt;br&gt;
-Gemini families live across the whole of England and Wales, and the distribution mirrors the population density. The Gemini study includes twins that are comparable in sex, zygosity, gestational age, and birthweight to national averages of twins. However, mothers are somewhat older, and both parents are on average slightly healthier than the national population. As in many cohort studies, there is an over-representation of White–British families within the Gemini cohort. </t>
-  </si>
-  <si>
-    <t>2,402 families</t>
-  </si>
-  <si>
-    <t>8 months</t>
-  </si>
-  <si>
-    <t>987 twins, 492 parents (Time 9)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Researchers wishing to access Gemini data should contact the Gemini team via email on gemini@ucl.ac.uk </t>
-  </si>
-  <si>
-    <t>Covid-19 data collection,
-Diet and nutrition,
-Education,
-Housing,
-Socioeconomic status and deprivation,
-Neighbourhood,
-Personality,
-Physical health assessment,
-Digital technology and social media,
-Puberty,
-Parenting and family,
-Sleep problems</t>
-  </si>
-  <si>
-    <t>Genetic/genomic data,
-Observational/qualitative data</t>
-  </si>
-  <si>
-    <t>Education data,
-Environmental data,
-Social media data</t>
-  </si>
-  <si>
-    <t>Education data,
-Environmental data,
-Health data,
-Social media data</t>
   </si>
   <si>
     <t>Education data,
@@ -2795,766 +3227,15 @@
 Health data</t>
   </si>
   <si>
-    <t>ADVANCE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Armed Services Trauma Rehabilitation Outcome (ADVANCE) Study is a prospective longitudinal cohort study investigating the long-term physical and psychosocial outcomes of UK military personnel who sustained severe combat-related trauma during the Afghanistan conflict. ADVANCE aims to study the incidence of a wide variety of outcomes, including cardiovascular and musculoskeletal disease, mental health, functional and social outcomes, quality of life, employment, and mortality. Data is collected using various methods, including self-report questionnaires and clinical assessments. </t>
-  </si>
-  <si>
-    <t>Academic Department of Military Rehabilitation (Ministry of Defence); Imperial College London; King’s College London.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">England, Scotland, Wales, Northern Ireland &lt;br&gt;
-Some participants now reside outside of the United Kingdom (e.g., South Africa, North America) </t>
-  </si>
-  <si>
-    <t>Cohort study; Occupational cohort</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Participants are serving and former UK military personnel who deployed on combat operations to Afghanistan between 2003 and 2014. Half are personnel who sustained combat trauma; a comparison group of the same size has been frequency matched based on deployment to Afghanistan, age, sex, service, regiment, rank, and role-in-theatre. 
-&lt;br&gt;&lt;br&gt;
-Participants were initially identified through various tracking systems and databases before being recruited through postal mailouts, e-mail invitations and telephone calls, and where necessary traced via Joint Personnel Administration (JPA) contacts, if still serving, and through electoral roll data, social media or advertising via military charities. Participants will be followed up after baseline data collection at 3, 6, 10, 15 and 20 years.
-&lt;br&gt;&lt;br&gt;
-ADVANCE’s sample does not include female participants due to very few female UK military combat casualties in Afghanistan. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The first follow up is currently in progress. </t>
-  </si>
-  <si>
-    <t>Men only</t>
-  </si>
-  <si>
-    <t>18-50 years (age at sampling)</t>
-  </si>
-  <si>
-    <t>Biomarkers,
-Physical health assessment,
-Victimisation and life events,
-Work and employment,
-Sleep problems</t>
-  </si>
-  <si>
-    <t>Toledano, M. B., Mutz, J., Röösli, M., Thomas, M. S., Dumontheil, I., &amp; Elliott, P. (2019). Cohort profile: the study of cognition, adolescents and mobile phones (SCAMP). International journal of epidemiology, 48(1), 25-26l.
-&lt;br&gt;
-&lt;a href="https://doi.org/10.1093/ije/dyy192"&gt;https://doi.org/10.1093/ije/dyy192&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>Elliott, P., Vergnaud, A. C., Singh, D., Neasham, D., Spear, J., &amp; Heard, A. (2014). The Airwave Health Monitoring Study of police officers and staff in Great Britain: rationale, design and methods. Environmental research, 134, 280-285
-&lt;br&gt;
-&lt;a href="https://doi.org/10.1016/j.envres.2014.07.025"&gt;https://doi.org/10.1016/j.envres.2014.07.025&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>Eurofound (2017). Sixth European Working Conditions Survey – Overview report (2017 update). Publications Office of the European Union, Luxembourg.
-&lt;br&gt;
-&lt;a href="https://doi.org/10.2806/422172"&gt;https://doi.org/10.2806/422172&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Van Jaarsveld, C. H., Johnson, L., Llewellyn, C., &amp; Wardle, J. (2010). Gemini: a UK twin birth cohort with a focus on early childhood weight trajectories, appetite and the family environment. Twin Research and Human Genetics, 13(1), 72-78. 
-&lt;br&gt;
-&lt;a href="https://doi.org/10.1375/twin.13.1.72"&gt;https://doi.org/10.1375/twin.13.1.72&lt;/a&gt; </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bennett, A. N., Dyball, D. M., Boos, C. J., Fear, N. T., Schofield, S., Bull, A. M., &amp; Cullinan, P. (2020). Study protocol for a prospective, longitudinal cohort study investigating the medical and psychosocial outcomes of UK combat casualties from the Afghanistan war: the ADVANCE Study. BMJ open, 10(10), e037850.
-&lt;br&gt;
-&lt;a href="https://doi.org/10.1136/bmjopen-2020-037850"&gt;https://doi.org/10.1136/bmjopen-2020-037850&lt;/a&gt;
-</t>
-  </si>
-  <si>
-    <t>&lt;a href="https://www.advancestudydmrc.org.uk/"&gt;https:/www.advancestudydmrc.org.uk/&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>Education data,
-Health data,
-Digital footprint data</t>
-  </si>
-  <si>
-    <t>HFH MoD Nuffield_Crown Blesma FIMT</t>
-  </si>
-  <si>
-    <t>Researchers wishing to access ADVANCE data should contact the ADVANCE team via email on dmrc-advancestudyteam@mod.gov.uk</t>
-  </si>
-  <si>
-    <t>1,145 participants total
-579 injured personnel, 565 comparison group</t>
-  </si>
-  <si>
-    <t>18,000 (ongoing)</t>
-  </si>
-  <si>
-    <t>HOUK Imperial_BRC MRC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1,000 (approx.) – UK sample, EWCS 1991
-&lt;br&gt;&lt;br&gt;
-12,500 – Total European sample, EWCS 1991
-</t>
-  </si>
-  <si>
-    <t>Health data,
-Income/tax and benefits</t>
-  </si>
-  <si>
-    <t>Environmental data,
-Health data,
-Income/tax and benefits</t>
-  </si>
-  <si>
-    <t>Education data,
-Income/tax and benefits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Education data,
-Environmental data,
-Health data,
-Income/tax and benefits,
-Social media data
-</t>
-  </si>
-  <si>
-    <t>Linked data</t>
-  </si>
-  <si>
-    <t>Covid-19 data collection,
-Biomarkers,
-Cognitive measures,
-Diet and nutrition,
-Education,
-Ethnicity and race,
-Sexuality and gender identity,
-Housing,
-Socioeconomic status and deprivation,
-Language and literacy,
-Loneliness and social isolation,
-Neighbourhood,
-Personality,
-Physical health assessment,
-Political and social attitudes,
-Digital technology and social media,
-Victimisation and life events,
-Puberty,
-Reproductive health,
-Work and employment,
-Parenting and family,
-Sleep problems, 
-Social care - receipt,
-Social care - provision,
-Social care - need</t>
-  </si>
-  <si>
-    <t>Cognitive measures,
-Ethnicity and race,
-Sexuality and gender identity,
-Housing,
-Socioeconomic status and deprivation,
-Language and literacy,
-Loneliness and social isolation,
-Migration and immigration,
-Neighbourhood,
-Physical health assessment,
-Victimisation and life events,
-Reproductive health,
-Work and employment,
-Sleep problems,
-Social care - receipt,
-Social care - provision,
-Social care - need</t>
-  </si>
-  <si>
-    <t>Education,
-Housing,
-Socioeconomic status and deprivation,
-Loneliness and social isolation,
-Physical health assessment,
-Victimisation and life events,
-Reproductive health,
-Work and employment,
-Sleep problems,
-Social care - receipt,
-Social care - provision,
-Social care - need</t>
-  </si>
-  <si>
-    <t>Covid-19 data collection,
-Biomarkers,
-Cognitive measures,
-Diet and nutrition,
-Education,
-Sexuality and gender identity,
-Housing,
-Socioeconomic status and deprivation,
-Language and literacy,
-Migration and immigration,
-Neighbourhood,
-Personality,
-Physical health assessment,
-Political and social attitudes,
-Victimisation and life events,
-Puberty,
-Reproductive health,
-Work and employment,
-Parenting and family,
-Sleep problems,
-Social care - receipt,
-Social care - provision,
-Social care - need</t>
-  </si>
-  <si>
-    <t>Covid-19 data collection,
-Biomarkers,
-Cognitive measures,
-Diet and nutrition,
-Education,
-Ethnicity and race,
-Housing,
-Socioeconomic status and deprivation,
-Language and literacy,
-Migration and immigration,
-Neighbourhood,
-Physical health assessment,
-Digital technology and social media,
-Reproductive health,
-Work and employment,
-Parenting and family,
-Sleep problems,
-Social care - receipt,
-Social care - need</t>
-  </si>
-  <si>
-    <t>Covid-19 data collection,
-Biomarkers,
-Diet and nutrition,
-Socioeconomic status and deprivation,
-Language and literacy,
-Loneliness and social isolation,
-Migration and immigration,
-Neighbourhood,
-Physical health assessment,
-Work and employment,
-Parenting and family,
-Social care - receipt,
-Social care - need</t>
-  </si>
-  <si>
-    <t>Covid-19 data collection,
-Biomarkers,
-Cognitive measures,
-Cognitive decline,
-Diet and nutrition,
-Socioeconomic status and deprivation,
-Language and literacy,
-Loneliness and social isolation,
-Physical health assessment,
-Work and employment,
-Sleep problems,
-Social care - receipt,
-Social care - provision,
-Social care - need</t>
-  </si>
-  <si>
-    <t>Covid-19 data collection,
-Biomarkers,
-Cognitive measures,
-Cognitive decline,
-Diet and nutrition,
-Socioeconomic status and deprivation,
-Language and literacy,
-Loneliness and social isolation,
-Physical health assessment,
-Work and employment,
-Sleep problems,
-Social care - receipt,
-Social care - need</t>
-  </si>
-  <si>
-    <t>Diet and nutrition,
-Ethnicity and race, 
-Housing,
-Loneliness and social isolation,
-Migration and immigration,
-Neighbourhood,
-Physical health assessment,
-Victimisation and life events,
-Work and employment,
-Parenting and family,
-Social care - need</t>
-  </si>
-  <si>
-    <t>Covid-19 data collection,
-Biomarkers,
-Cognitive measures,
-Cognitive decline,
-Diet and nutrition,
-Sexuality and gender identity,
-Housing,
-Socioeconomic status and deprivation,
-Language and literacy,
-Loneliness and social isolation,
-Migration and immigration,
-Neighbourhood,
-Personality,
-Physical health assessment,
-Digital technology and social media,
-Victimisation and life events,
-Reproductive health,
-Work and employment,
-Sleep problems,
-Social care - receipt,
-Social care - provision,
-Social care - need</t>
-  </si>
-  <si>
-    <t>Housing,
-Socioeconomic status and deprivation,
-Loneliness and social isolation,
-Neighbourhood,
-Political and social attitudes,
-Digital technology and social media,
-Work and employment,
-Social care - receipt,
-Social care - provision,
-Social care - need</t>
-  </si>
-  <si>
-    <t>Covid-19 data collection,
-Biomarkers,
-Cognitive measures,
-Diet and nutrition,
-Education,
-Ethnicity and race,
-Sexuality and gender identity,
-Housing,
-Socioeconomic status and deprivation,
-Language and literacy,
-Loneliness and social isolation,
-Neighbourhood,
-Personality,
-Physical health assessment,
-Digital technology and social media,
-Victimisation and life events,
-Puberty,
-Work and employment,
-Parenting and family,
-Sleep problems,
-Social care - receipt</t>
-  </si>
-  <si>
-    <t>Covid-19 data collection,
-Biomarkers,
-Cognitive measures,
-Diet and nutrition,
-Housing,
-Socioeconomic status and deprivation,
-Language and literacy,
-Loneliness and social isolation,
-Migration and immigration,
-Neighbourhood,
-Personality,
-Physical health assessment,
-Victimisation and life events,
-Puberty,
-Reproductive health,
-Work and employment,
-Social care - receipt,
-Social care - need</t>
-  </si>
-  <si>
-    <t>Cognitive measures,
-Diet and nutrition,
-Education,
-Ethnicity and race,
-Sexuality and gender identity,
-Housing,
-Socioeconomic status and deprivation,
-Language and literacy,
-Loneliness and social isolation,
-Neighbourhood,
-Physical health assessment,
-Political and social attitudes,
-Digital technology and social media,
-Victimisation and life events,
-Puberty,
-Reproductive health,
-Work and employment,
-Parenting and family,
-Sleep problems,
-Social care - receipt,
-Social care - need</t>
-  </si>
-  <si>
-    <t>Cognitive measures,
-Diet and nutrition,
-Education,
-Housing,
-Socioeconomic status and deprivation,
-Language and literacy,
-Loneliness and social isolation,
-Neighbourhood,
-Physical health assessment,
-Digital technology and social media,
-Reproductive health,
-Work and employment,
-Parenting and family,
-Sleep problems,
-Social care - receipt,
-Social care - provision,
-Social care - need</t>
-  </si>
-  <si>
-    <t>Cognitive measures,
-Diet and nutrition,
-Education,
-Housing,
-Socioeconomic status and deprivation,
-Language and literacy,
-Loneliness and social isolation,
-Neighbourhood,
-Physical health assessment,
-Digital technology and social media,
-Reproductive health,
-Work and employment,
-Parenting and family,
-Sleep problems,
-Social care - receipt,
-Social care - need</t>
-  </si>
-  <si>
-    <t>Covid-19 data collection,
-Biomarkers,
-Cognitive measures,
-Cognitive decline,
-Diet and nutrition,
-Housing,
-Socioeconomic status and deprivation,
-Language and literacy,
-Loneliness and social isolation,
-Neighbourhood,
-Personality,
-Physical health assessment,
-Digital technology and social media,
-Reproductive health,
-Work and employment,
-Sleep problems,
-Social care - receipt,
-Social care - need</t>
-  </si>
-  <si>
-    <t>Diet and nutrition,
-Housing,
-Socioeconomic status and deprivation,
-Physical health assessment,
-Work and employment,
-Sleep problems,
-Social care - provision,
-Social care - need</t>
-  </si>
-  <si>
-    <t>Biomarkers,
-Cognitive measures,
-Cognitive decline,
-Education,
-Housing,
-Socioeconomic status and deprivation,
-Language and literacy,
-Loneliness and social isolation,
-Neighbourhood,
-Physical health assessment,
-Work and employment,
-Social care - receipt,
-Social care - need</t>
-  </si>
-  <si>
-    <t>Covid-19 data collection,
-Biomarkers,
-Cognitive measures,
-Cognitive decline,
-Diet and nutrition,
-Education,
-Housing,
-Socioeconomic status and deprivation,
-Language and literacy,
-Loneliness and social isolation,
-Neighbourhood,
-Physical health assessment,
-Reproductive health,
-Work and employment,
-Sleep problems,
-Social care - receipt,
-Social care - need</t>
-  </si>
-  <si>
-    <t>Covid-19 data collection,
-Cognitive measures,
-Diet and nutrition,
-Education,
-Sexuality and gender identity,
-Housing,
-Socioeconomic status and deprivation,
-Loneliness and social isolation,
-Neighbourhood,
-Personality,
-Political and social attitudes,
-Digital technology and social media,
-Victimisation and life events,
-Reproductive health,
-Work and employment,
-Parenting and family,
-Sleep problems,
-Social care - receipt,
-Social care - provision,
-Social care - need</t>
-  </si>
-  <si>
-    <t>Covid-19 data collection,
-Cognitive measures,
-Diet and nutrition,
-Education,
-Ethnicity and race,
-Sexuality and gender identity,
-Housing,
-Socioeconomic status and deprivation,
-Language and literacy,
-Loneliness and social isolation,
-Migration and immigration,
-Neighbourhood,
-Personality,
-Physical health assessment,
-Political and social attitudes,
-Digital technology and social media,
-Victimisation and life events,
-Puberty,
-Reproductive health,
-Work and employment,
-Parenting and family,
-Sleep problems,
-Social care - receipt,
-Social care - provision,
-Social care - need</t>
-  </si>
-  <si>
-    <t>Education,
-Housing,
-Socioeconomic status and deprivation,
-Loneliness and social isolation,
-Victimisation and life events,
-Work and employment,
-Sleep problems,
-Social care - receipt,
-Social care - provision,
-Social care - need</t>
-  </si>
-  <si>
-    <t>Diet and nutrition,
-Housing,
-Socioeconomic status and deprivation,
-Loneliness and social isolation,
-Physical health assessment,
-Digital technology and social media,
-Reproductive health,
-Work and employment,
-Sleep problems,
-Social care - receipt,
-Social care - provision,
-Social care - need</t>
-  </si>
-  <si>
-    <t>Biomarkers,
-Cognitive measures,
-Cognitive decline,
-Diet and nutrition,
-Housing,
-Socioeconomic status and deprivation,
-Loneliness and social isolation,
-Physical health assessment,
-Work and employment,
-Sleep problems,
-Social care - receipt,
-Social care - need</t>
-  </si>
-  <si>
-    <t>Covid-19 data collection,
-Biomarkers,
-Cognitive measures,
-Diet and nutrition,
-Education,
-Sexuality and gender identity,
-Housing,
-Socioeconomic status and deprivation,
-Language and literacy,
-Loneliness and social isolation,
-Migration and immigration,
-Personality,
-Physical health assessment,
-Political and social attitudes,
-Victimisation and life events,
-Reproductive health,
-Work and employment,
-Parenting and family,
-Sleep problems,
-Social care - receipt,
-Social care - provision,
-Social care - need</t>
-  </si>
-  <si>
-    <t>Covid-19 data collection,
-Biomarkers,
-Cognitive measures,
-Cognitive decline,
-Diet and nutrition,
-Socioeconomic status and deprivation,
-Loneliness and social isolation,
-Neighbourhood,
-Personality,
-Physical health assessment,
-Digital technology and social media,
-Victimisation and life events,
-Reproductive health,
-Work and employment,
-Sleep problems,
-Social care - receipt,
-Social care - provision,
-Social care - need</t>
-  </si>
-  <si>
-    <t>Covid-19 data collection,
-Biomarkers,
-Cognitive measures,
-Cognitive decline,
-Diet and nutrition,
-Education,
-Housing,
-Socioeconomic status and deprivation,
-Language and literacy,
-Loneliness and social isolation,
-Migration and immigration,
-Neighbourhood,
-Personality,
-Physical health assessment,
-Political and social attitudes,
-Digital technology and social media,
-Victimisation and life events,
-Reproductive health,
-Work and employment,
-Parenting and family,
-Sleep problems,
-Social care - receipt,
-Social care - provision,
-Social care - need</t>
-  </si>
-  <si>
-    <t>Covid-19 data collection,
-Cognitive measures,
-Diet and nutrition,
-Ethnicity and race,
-Sexuality and gender identity,
-Loneliness and social isolation,
-Neighbourhood,
-Personality,
-Digital technology and social media,
-Victimisation and life events,
-Reproductive health,
-Work and employment,
-Sleep problems,
-Social care - receipt,
-Social care - provision,
-Social care - need</t>
-  </si>
-  <si>
-    <t>Covid-19 data collection,
-Cognitive measures,
-Diet and nutrition,
-Education,
-Ethnicity and race,
-Housing,
-Socioeconomic status and deprivation,
-Loneliness and social isolation,
-Migration and immigration,
-Neighbourhood,
-Personality,
-Political and social attitudes,
-Digital technology and social media,
-Victimisation and life events,
-Parenting and family,
-Sleep problems,
-Social care - need</t>
-  </si>
-  <si>
-    <t>Covid-19 data collection,
-Diet and nutrition,
-Ethnicity and race,
-Housing,
-Socioeconomic status and deprivation,
-Loneliness and social isolation,
-Migration and immigration,
-Physical health assessment,
-Victimisation and life events,
-Reproductive health,
-Work and employment,
-Sleep problems,
-Social care - receipt,
-Social care - provision,
-Social care - need</t>
-  </si>
-  <si>
-    <t>Biomarkers,
-Diet and nutrition,
-Ethnicity and race,
-Sexuality and gender identity,
-Housing,
-Socioeconomic status and deprivation,
-Neighbourhood,
-Physical health assessment,
-Victimisation and life events,
-Work and employment,
-Sleep problems,
-Social care - receipt,
-Social care - provision,
-Social care - need</t>
-  </si>
-  <si>
-    <t>Covid-19 data collection,
-Biomarkers,
-Cognitive measures,
-Diet and nutrition,
-Housing,
-Socioeconomic status and deprivation,
-Language and literacy,
-Neighbourhood,
-Physical health assessment,
-Digital technology and social media,
-Reproductive health,
-Work and employment,
-Parenting and family,
-Sleep problems,
-Social care - receipt,
-Social care - provision,
-Social care - need</t>
-  </si>
-  <si>
-    <t>Covid-19 data collection,
-Biomarkers,
-Cognitive measures,
-Diet and nutrition,
-Education,
-Ethnicity and race,
-Sexuality and gender identity,
-Housing,
-Socioeconomic status and deprivation,
-Language and literacy,
-Loneliness and social isolation,
-Migration and immigration,
-Neighbourhood,
-Personality,
-Physical health assessment,
-Political and social attitudes,
-Digital technology and social media,
-Victimisation and life events,
-Reproductive health,
-Work and employment,
-Parenting and family,
-Sleep problems,
-Social care - receipt,
-Social care - provision,
-Social care - need</t>
+    <t>Also known as the Stress and Health Study</t>
+  </si>
+  <si>
+    <t>Marmot, M &amp; Brunner, E (2005). Cohort Profile: The Whitehall II Study. International Journal of Epidemiology, 34, 251-256.&lt;br&gt;
+&lt;a href="https://doi.org/10.1093/ije/dyh372"&gt;doi.org/10.1093/ije/dyh372&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>MRC BHF NIA ESRC EU_flag ERC&lt;br&gt;
+National Heart, Lung &amp; Blood Institute</t>
   </si>
   <si>
     <t>Biomarkers,
@@ -3576,6 +3257,59 @@
 Social care - receipt,
 Social care - provision,
 Social care - need</t>
+  </si>
+  <si>
+    <t>WOS</t>
+  </si>
+  <si>
+    <t>West of Scotland Twenty-07</t>
+  </si>
+  <si>
+    <t>The West of Scotland Twenty-07 Study is a population-based multi-cohort study which has followed three cohorts of men and women in the West of Scotland across twenty years. Set up in 1986, the study was designed to investigate the differences in health by socio-economic circumstances, gender, the place where people live, age, ethnic group and family type. Through tracking three cohorts of volunteers, each born roughly twenty years apart, the study provides data at critical points in the lifespan, as participants make the transition from adolescence to working life; through the main part of working life; and from working life to retirement. Additionally, the study was designed to explore the effect of the historical context of people’s lives on their health and circumstances by comparing the different cohorts at the same age at different points in time.</t>
+  </si>
+  <si>
+    <t>MRC Social and Public Health Sciences Unit, University of Glasgow</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://2007study.sphsu.mrc.ac.uk/"&gt;http://2007study.sphsu.mrc.ac.uk/&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Central Clydeside Conurbation, West of Scotland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The West of Scotland Twenty-07 Study followed three cohorts each born roughly twenty years apart, in 1932, 1952 and 1972. In the initial sweep, the cohort members were approximately 15, 35 and 55 years old. Cohort members were followed up three times, in 1990/1991, 1995, and 2000/2004, before the final sweep of data collection took place in 2007/2008, when the cohort members were approximately 35, 55 and 75 years old. 
+&lt;br&gt;&lt;br&gt;
+Each cohort comprises two distinct but connected samples: a regional sample and a localities sample. The regional sample is a two-stage stratified random sample of people living in the Central Clydeside Conurbation - a socially mixed and mainly urban area - and the localities sample is comprised of people from two areas within the city of Glasgow. The sampling frame used for the regional sample was Strathclyde Regional Council’s 1986 Voluntary Population Survey, an enhanced electoral register that provides details of the age and sex of all household members. The locality sample was designed for more intensive study of the relationship between people’s personal and health circumstances and the environment in which they lived. Ten postcode sectors in two areas of the city of Glasgow were selected purposefully to capture different socio-economic experiences and environments. </t>
+  </si>
+  <si>
+    <t>4,510 total&lt;br&gt;
+1,551 - 1930s cohort&lt;br&gt;
+1,444 - 1950s cohort&lt;br&gt;
+1,515 - 1970s cohort</t>
+  </si>
+  <si>
+    <t>2,580 total (Wave 5, 2008)&lt;br&gt;
+633 - 1930s cohort&lt;br&gt;
+994 - 1950s cohort&lt;br&gt;
+923 - 1970s cohort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15, 35, and 55 years </t>
+  </si>
+  <si>
+    <t>1932, 1952, 1972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contact study team - proposal
+&lt;a href="http://2007study.sphsu.mrc.ac.uk/Information-on-data-sharing.html"&gt;http://2007study.sphsu.mrc.ac.uk/Information-on-data-sharing.html&lt;/a&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benzeval, M., Der, G., Ellaway, A., Hunt, K., Sweeting, H., West, P., &amp; Macintyre, S. (2009). Cohort profile: West of Scotland Twenty-07 study: health in the community. International Journal of Epidemiology, 38(5), 1215-1223 
+&lt;br&gt;
+&lt;a href="https://doi.org/10.1093/ije/dyn213"&gt;doi.org/10.1093/ije/dyn213
+&lt;/a&gt; 
+</t>
   </si>
   <si>
     <t>Biomarkers,
@@ -3600,6 +3334,160 @@
 Social care - need</t>
   </si>
   <si>
+    <t>SCAMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Study of Cognition, Adolescents and Mobile Phones (SCAMP) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Study of Cognition, Adolescents and Mobile Phones (SCAMP) was designed to provide insights into the long-term impacts of mobile phone and wireless technology use. It is a prospective school-based cohort study following several thousand pupils. It aims to examine associations between the use of mobile phones and other wireless devices that emit radio-frequency electromagnetic fields (RF-EMF) and cognitive, behavioural, educational, physical and mental health outcomes during adolescence.  
+</t>
+  </si>
+  <si>
+    <t>Imperial College London</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.scampstudy.org/"&gt;https://www.scampstudy.org/&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Greater London</t>
+  </si>
+  <si>
+    <t>Secondary school pupils from 39 eligible schools from within the Greater London area were invited to participate. Eligible schools were selected from the Department for Education’s register of educational establishments (EduBase) and from the January 2012 school census. Pupils completed computerised assessments at school, which were complemented by online questionnaires that could be completed in any environment by both and pupils and their parents.</t>
+  </si>
+  <si>
+    <t>11 years</t>
+  </si>
+  <si>
+    <t>2002-2003</t>
+  </si>
+  <si>
+    <t>Contact study team &lt;br&gt;
+&lt;a href="https://www.scampstudy.org/research-opportunities/"&gt;https://www.scampstudy.org/research-opportunities/&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Education data,
+Health data,
+Digital footprint data</t>
+  </si>
+  <si>
+    <t>Toledano, M. B., Mutz, J., Röösli, M., Thomas, M. S., Dumontheil, I., &amp; Elliott, P. (2019). Cohort profile: the study of cognition, adolescents and mobile phones (SCAMP). International journal of epidemiology, 48(1), 25-26l.
+&lt;br&gt;
+&lt;a href="https://doi.org/10.1093/ije/dyy192"&gt;https://doi.org/10.1093/ije/dyy192&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DoHSC MRC </t>
+  </si>
+  <si>
+    <t>Covid-19 data collection,
+Biomarkers,
+Cognitive measures,
+Diet and nutrition,
+Education,
+Housing,
+Socioeconomic status and deprivation,
+Language and literacy,
+Neighbourhood,
+Digital technology and social media,
+Victimisation and life events,
+Puberty,
+Reproductive health,
+Sleep problems</t>
+  </si>
+  <si>
+    <t>AHMS</t>
+  </si>
+  <si>
+    <t>The Airwave Health Monitoring Study</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Airwave Health Monitoring Study is an occupational cohort study which was established to evaluate the possible health risks associated with use of Terrestrial Trunked Radio (TETRA), a digital communication system used by the police force. Due to the collection of extensive phenotypic data, biological samples, and the availability of linked health data, the study has been broadened to investigate more generally the health and social outcomes of working in the police force in Great Britain. </t>
+  </si>
+  <si>
+    <t>&lt;a href="https://police-health.org.uk/"&gt;https://police-health.org.uk/&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Employees of all 54 police forces as well as police-related agencies within Great Britain were invited to participate. Since the commencement of the study, a total of 28 forces have agreed to participate. Participants completed enrolment questionnaires during the first phase of the study. The second phase of the study consisted of a health screening performed locally by trained nurses. Overall, 16% of participants completed only phase one, 58% completed only phase two, and 26% completed both phases. Additionally, 62.9% of the participants are men, and the average age at enrolment was 40.9 years for men and 38.5 years for women.</t>
+  </si>
+  <si>
+    <t>18,000 (ongoing)</t>
+  </si>
+  <si>
+    <t>18+</t>
+  </si>
+  <si>
+    <t>Contact study team &lt;br&gt;
+&lt;a href="https://police-health.org.uk/applying-access-resource"&gt;https://police-health.org.uk/applying-access-resource&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Elliott, P., Vergnaud, A. C., Singh, D., Neasham, D., Spear, J., &amp; Heard, A. (2014). The Airwave Health Monitoring Study of police officers and staff in Great Britain: rationale, design and methods. Environmental research, 134, 280-285
+&lt;br&gt;
+&lt;a href="https://doi.org/10.1016/j.envres.2014.07.025"&gt;https://doi.org/10.1016/j.envres.2014.07.025&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>HOUK Imperial_BRC MRC</t>
+  </si>
+  <si>
+    <t>Biomarkers,
+Cognitive measures,
+Diet and nutrition,
+Socioeconomic status and deprivation,
+Language and literacy,
+Personality,
+Physical health assessment,
+Digital technology and social media,
+Victimisation and life events,
+Reproductive health,
+Work and employment,
+Sleep problems</t>
+  </si>
+  <si>
+    <t>EWCS</t>
+  </si>
+  <si>
+    <t>European Working Conditions Survey (EWCS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The European Working Conditions Survey is a unique pan-European survey carried out every 5 years to assess and quantify working conditions of both employees and the self-employed across Europe. It aims to provide a comprehensive picture of the everyday reality of men and women at work, and to do so covers a wide range of themes such as employment status, working time duration, learning and training, physical and psychosocial risk factors, health and safety, work-life balance, financial security and worker participation. The survey has also allowed researchers to analyse relationships between different aspects of working conditions, identify risk groups and issues of concern as well as progress, and monitor the trends of these issues. </t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.eurofound.europa.eu/surveys/european-working-conditions-surveys-ewcs"&gt;https://www.eurofound.europa.eu/surveys/european-working-conditions-surveys-ewcs&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">England, Scotland, Wales, Northern Ireland &lt;br&gt;
+Europe - 28 European Union Member States, the five candidate countries for EU membership (Albania, the former Yugoslav Republic of Macedonia, Montenegro, Serbia and Turkey) and Norway and Switzerland (EWCS 2015). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In each wave a new sample of the adult population is selected randomly for a face-to-face interview. In view of the growth of the EU and interest from the EFTA countries, the geographical coverage of the survey has expanded over time.
+&lt;br&gt;&lt;br&gt;
+The target population for each survey consists of all persons aged 15 and above (for Bulgaria, Norway, Spain and the UK, this is anyone aged 16 and above) who are residents of the country and are employed or self-employed at the time of data collection. Those considered to be in employment are those who have worked for pay or profit for at least an hour in the week preceding the interview. For most countries, the target sample size is 1,000, but to reflect the larger workforce in bigger countries, the target was increased proportionately. 
+&lt;br&gt;&lt;br&gt;
+For the EWCS 2015, a stratified, multi-stage, random sampling method was used to select participants from the working population of each country. Depending on the availability of high-quality registers, sampling was carried out using individual-level, household-level and address-level registers, or through enumeration using a random-walk approach. Country-level samples were stratified by region and degree of urbanisation. In each stratum, primary sampling units (PSUs) were randomly selected proportional to size. Subsequently, a random sample of households was drawn in each PSU. Finally, unless individual-level registers were used, in each household the selected respondent was the person in work who would have their birthday next.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,000 (approx.) – UK sample, EWCS 1991
+&lt;br&gt;&lt;br&gt;
+12,500 – Total European sample, EWCS 1991
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,600 – UK sample, EWCS 2015
+&lt;br&gt;&lt;br&gt;
+43,850 – Total European sample, EWCS 2015
+</t>
+  </si>
+  <si>
+    <t>"UK Data Service&lt;br&gt;
+&lt;a href=""https://www.eurofound.europa.eu/surveys/about-eurofound-surveys/data-availability""&gt;eurofound.europa.eu/surveys/about-eurofound-surveys/data-availability&lt;/a&gt;&lt;br&gt;
+&lt;a href=""https://beta.ukdataservice.ac.uk/datacatalogue/studies/study?id=7348""&gt;beta.ukdataservice.ac.uk/datacatalogue/studies/study?id=7348&lt;/a&gt;"</t>
+  </si>
+  <si>
+    <t>Eurofound (2017). Sixth European Working Conditions Survey – Overview report (2017 update). Publications Office of the European Union, Luxembourg.
+&lt;br&gt;
+&lt;a href="https://doi.org/10.2806/422172"&gt;https://doi.org/10.2806/422172&lt;/a&gt;</t>
+  </si>
+  <si>
     <t>Education,
 Housing,
 Socioeconomic status and deprivation,
@@ -3608,12 +3496,195 @@
 Social care - provision,
 Social care - need</t>
   </si>
+  <si>
+    <t>Gemini</t>
+  </si>
+  <si>
+    <t>Gemini is a large population-based study of twins designed to investigate the genetic and environmental influences on obesity risk, weight gain, and early growth. Gemini have followed twins and their families for over a decade, collecting detailed information about the twins’ growth, eating behaviours, appetite, and the home environment. A key aim of the Gemini study is to create a rich resource of data on early childhood exposures that can be used to assess the determinants of long-term health.</t>
+  </si>
+  <si>
+    <t>University College London</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;a href="https://www.geministudy.co.uk/"&gt;https://www.geministudy.co.uk/&lt;/a&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Families with twins born in England and Wales between March and December 2007 were approached on behalf of Gemini by the Office for National Statistics (N = 6,754) in January 2008. 3,435 families agreed to be contacted by the research team, with 2,402 families (36% of the target population) returning a completed baseline questionnaire. The sample comprises of 1,586 same-sex and 816 opposite-sex twin pairs. 
+&lt;br&gt;&lt;br&gt;
+Gemini families live across the whole of England and Wales, and the distribution mirrors the population density. The Gemini study includes twins that are comparable in sex, zygosity, gestational age, and birthweight to national averages of twins. However, mothers are somewhat older, and both parents are on average slightly healthier than the national population. As in many cohort studies, there is an over-representation of White–British families within the Gemini cohort. </t>
+  </si>
+  <si>
+    <t>2,402 families</t>
+  </si>
+  <si>
+    <t>987 twins, 492 parents (Time 9)</t>
+  </si>
+  <si>
+    <t>8 months</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Researchers wishing to access Gemini data should contact the Gemini team via email on gemini@ucl.ac.uk </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Van Jaarsveld, C. H., Johnson, L., Llewellyn, C., &amp; Wardle, J. (2010). Gemini: a UK twin birth cohort with a focus on early childhood weight trajectories, appetite and the family environment. Twin Research and Human Genetics, 13(1), 72-78. 
+&lt;br&gt;
+&lt;a href="https://doi.org/10.1375/twin.13.1.72"&gt;https://doi.org/10.1375/twin.13.1.72&lt;/a&gt; </t>
+  </si>
+  <si>
+    <t>Covid-19 data collection,
+Diet and nutrition,
+Education,
+Housing,
+Socioeconomic status and deprivation,
+Neighbourhood,
+Personality,
+Physical health assessment,
+Digital technology and social media,
+Puberty,
+Parenting and family,
+Sleep problems</t>
+  </si>
+  <si>
+    <t>Genetic/genomic data,
+Observational/qualitative data</t>
+  </si>
+  <si>
+    <t>ADVANCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Armed Services Trauma Rehabilitation Outcome (ADVANCE) Study is a prospective longitudinal cohort study investigating the long-term physical and psychosocial outcomes of UK military personnel who sustained severe combat-related trauma during the Afghanistan conflict. ADVANCE aims to study the incidence of a wide variety of outcomes, including cardiovascular and musculoskeletal disease, mental health, functional and social outcomes, quality of life, employment, and mortality. Data is collected using various methods, including self-report questionnaires and clinical assessments. </t>
+  </si>
+  <si>
+    <t>Academic Department of Military Rehabilitation (Ministry of Defence); Imperial College London; King’s College London.</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.advancestudydmrc.org.uk/"&gt;https:/www.advancestudydmrc.org.uk/&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">England, Scotland, Wales, Northern Ireland &lt;br&gt;
+Some participants now reside outside of the United Kingdom (e.g., South Africa, North America) </t>
+  </si>
+  <si>
+    <t>Cohort study; Occupational cohort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Participants are serving and former UK military personnel who deployed on combat operations to Afghanistan between 2003 and 2014. Half are personnel who sustained combat trauma; a comparison group of the same size has been frequency matched based on deployment to Afghanistan, age, sex, service, regiment, rank, and role-in-theatre. 
+&lt;br&gt;&lt;br&gt;
+Participants were initially identified through various tracking systems and databases before being recruited through postal mailouts, e-mail invitations and telephone calls, and where necessary traced via Joint Personnel Administration (JPA) contacts, if still serving, and through electoral roll data, social media or advertising via military charities. Participants will be followed up after baseline data collection at 3, 6, 10, 15 and 20 years.
+&lt;br&gt;&lt;br&gt;
+ADVANCE’s sample does not include female participants due to very few female UK military combat casualties in Afghanistan. </t>
+  </si>
+  <si>
+    <t>1,145 participants total&lt;br&gt;
+579 injured personnel, 565 comparison group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The first follow up is currently in progress. </t>
+  </si>
+  <si>
+    <t>Men only</t>
+  </si>
+  <si>
+    <t>18-50 years (age at sampling)</t>
+  </si>
+  <si>
+    <t>Researchers wishing to access ADVANCE data should contact the ADVANCE team via email on dmrc-advancestudyteam@mod.gov.uk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bennett, A. N., Dyball, D. M., Boos, C. J., Fear, N. T., Schofield, S., Bull, A. M., &amp; Cullinan, P. (2020). Study protocol for a prospective, longitudinal cohort study investigating the medical and psychosocial outcomes of UK combat casualties from the Afghanistan war: the ADVANCE Study. BMJ open, 10(10), e037850.
+&lt;br&gt;
+&lt;a href="https://doi.org/10.1136/bmjopen-2020-037850"&gt;https://doi.org/10.1136/bmjopen-2020-037850&lt;/a&gt;
+</t>
+  </si>
+  <si>
+    <t>HFH MoD Nuffield_Crown Blesma FIMT</t>
+  </si>
+  <si>
+    <t>Biomarkers,
+Physical health assessment,
+Victimisation and life events,
+Work and employment,
+Sleep problems</t>
+  </si>
+  <si>
+    <t>BASIS</t>
+  </si>
+  <si>
+    <t>British Autism Study of Infant Siblings (BASIS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The British Autism Study of Infant Siblings (BASIS) is a prospective longitudinal study of infants at elevated likelihood (EL) for autism in the UK. Using newly developed techniques for studying brain and behaviour in infants, BASIS investigates whether there are any differences in development between infants who have brothers or sisters with autism and those who do not. The study has been extended to include infants at elevated likelihood for ADHD. </t>
+  </si>
+  <si>
+    <t>King’s College London; Birkbeck, University of London</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.basisnetwork.org/"&gt;https://www.basisnetwork.org/&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>England, Scotland, Wales, Nothern Ireland</t>
+  </si>
+  <si>
+    <t>Nationwide (but control participants mostly recruited from London)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Participating parents and their children were recruited from a volunteer database at the Birkbeck Centre for Brain and Cognitive Development. Infants could be enrolled in the study if they either had a first degree relative with ASD, a first degree relative with diagnosed or probable ADHD, or no first-degree relatives with either diagnosis. In phases 1 and 2, the children recruited were only at elevated likelihood (EL) for ASD, whilst in phase 3, children are at EL for ASD, ADHD, or both. Phase 3 is also known as BASIS-STAARS (STudying Autism and ADHD riskS). Some children from phase 2 have also been involved in phase 3.
+&lt;br&gt;&lt;br&gt;
+Infants were identified as being at EL if they had at least one older sibling with a community clinical diagnosis of autism, which was confirmed based on parent report using the Development and Wellbeing Assessment (DAWBA; Goodman et al., 2000), the Social Communication Questionnaire (SCQ; Berument et al., 1999) or parent confirmed community clinical autism diagnosis. Infants were identified as being at typical likelihood (TL) if they had at least one older sibling with typical development and no known autism in first-degree family members (as confirmed through parent interviews regarding family medical history). In phase 3, children were recruited and identified as being at EL for ADHD if they had either an older sibling or a parent with a diagnosis of ADHD, also confirmed through parent interviews regarding family history. 
+&lt;br&gt;&lt;br&gt;
+Cohort members have been assessed at approximately 1, 5, 8, 14, 24, and 36 months, before being followed up during mid-childhood at approximately age 7 to 11 years. The follow up of children at mid-childhood in phase 1 is known as ‘BASIS-7’, whilst follow up for phases 2 and 3 is known as ‘SuperSTAARS’. Participants are administered a range of experimental, behavioural and cognitive tasks and interactive assessments of autistic symptomatology. Parents also complete a range of questionnaires and interviews relating to different aspects of early development. Phase 1 data collection ran from 2006-2015, phase 2 from 2009-2019, and phase 3 from 2013-present. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phase 1: 104&lt;br&gt;
+Phase 2: 143&lt;br&gt;
+Phase 3.1:  166&lt;br&gt;	
+Phase 3.2: ongoing&lt;br&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phase 1: 76&lt;br&gt;
+Phase 2: 97&lt;br&gt;
+Phase 3.1: ongoing&lt;br&gt;
+Phase 3.2: ongoing&lt;br&gt;
+</t>
+  </si>
+  <si>
+    <t>Birth (from prenatal to early infancy)</t>
+  </si>
+  <si>
+    <t>Project proposal, see data access guidance  &lt;a href="https://www.basisnetwork.org/basis-strategies-and-policies/"&gt;https://www.basisnetwork.org/basis-strategies-and-policies/&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Phase 1: Elsabbagh, M., Mercure, E., Hudry, K., Chandler, S., Pasco, G., Charman, T., Pickles, A., Baron-Cohen, S., Bolton, P., Johnson, M. H. and the BASIS Team. (2012). Infant neural sensitivity to eye gaze is associated with later emerging autism. Current Biology, 33, 338-342.
+&lt;br&gt;
+&lt;a href="https://doi.org/10.1016/j.cub.2011.12.056"&gt;https://doi.org/10.1016/j.cub.2011.12.056&lt;/a&gt;
+&lt;br&gt;&lt;br&gt;
+Phase 2: Bussu, G., Jones, E. J. H., Charman, T., Johnson, M. H., Buitelaar, J. K., &amp; The BASIS Team. (2019). Latent trajectories of adaptive behaviour in infants at high and low familial risk for autism spectrum disorder. Molecular Autism, 10, 13.
+&lt;br&gt;
+&lt;a href="https://doi.org/10.1186/s13229-019-0264-6"&gt;https://doi.org/10.1186/s13229-019-0264-6&lt;/a&gt;
+&lt;br&gt;&lt;br&gt;
+Phase 3: Begum Ali, J., Goodwin, A., Mason, L., Pasco, G., Charman, T., Johnson, M. H., Jones, E. J. H., &amp; The STAARS Team. (in press). Altered theta beta-ratio in infancy associates with family history of ADHD and later ADHD-relevant temperamental traits. Journal of Child Psychology &amp; Psychiatry.
+&lt;br&gt;
+&lt;a href="https://doi.org/10.1111/jcpp.13563"&gt;https://doi.org/10.1111/jcpp.13563&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>MRC SFARI AuSpeaks Autistica EUCom IMI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biomarkers,
+Cognitive decline,
+Ethnicity and race,
+Parenting and family,
+Sleep problems,
+Socioeconomic status and deprivation </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3674,14 +3745,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3774,7 +3837,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3828,11 +3891,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3857,14 +3916,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3876,7 +3932,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3891,7 +3947,7 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4283,213 +4339,213 @@
   <dimension ref="A1:AMJ87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B51" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H52" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="I53" sqref="I53"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="V1" sqref="V1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U57" sqref="U57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="46.33203125" style="23" customWidth="1"/>
-    <col min="3" max="3" width="47" style="35" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="46.28515625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="47" style="32" customWidth="1"/>
     <col min="4" max="4" width="41" style="2" customWidth="1"/>
-    <col min="5" max="5" width="45.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="45.28515625" style="2" customWidth="1"/>
     <col min="6" max="7" width="44" style="2" customWidth="1"/>
-    <col min="8" max="8" width="47.33203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="47.28515625" style="2" customWidth="1"/>
     <col min="9" max="9" width="44" style="2" customWidth="1"/>
-    <col min="10" max="10" width="49.33203125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="50.33203125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="52.1640625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="52.83203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="49.28515625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="50.28515625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="52.140625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="52.85546875" style="2" customWidth="1"/>
     <col min="14" max="14" width="56" style="2" customWidth="1"/>
-    <col min="15" max="15" width="15.33203125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="15.28515625" style="2" customWidth="1"/>
     <col min="16" max="16" width="28" style="2" customWidth="1"/>
-    <col min="17" max="17" width="17.33203125" style="2" customWidth="1"/>
-    <col min="18" max="18" width="28.83203125" style="2" customWidth="1"/>
-    <col min="19" max="19" width="55.33203125" style="2" customWidth="1"/>
-    <col min="20" max="20" width="55.1640625" style="2" customWidth="1"/>
-    <col min="21" max="21" width="49.6640625" style="2" customWidth="1"/>
-    <col min="22" max="22" width="50.1640625" style="3" customWidth="1"/>
-    <col min="23" max="23" width="28.6640625" style="4" customWidth="1"/>
-    <col min="24" max="24" width="25.33203125" style="4" customWidth="1"/>
+    <col min="17" max="17" width="17.28515625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="28.85546875" style="2" customWidth="1"/>
+    <col min="19" max="19" width="55.28515625" style="2" customWidth="1"/>
+    <col min="20" max="20" width="55.140625" style="2" customWidth="1"/>
+    <col min="21" max="21" width="49.7109375" style="2" customWidth="1"/>
+    <col min="22" max="22" width="50.140625" style="3" customWidth="1"/>
+    <col min="23" max="23" width="28.7109375" style="4" customWidth="1"/>
+    <col min="24" max="24" width="25.28515625" style="4" customWidth="1"/>
     <col min="25" max="25" width="44" style="3" customWidth="1"/>
     <col min="26" max="26" width="24" style="4" customWidth="1"/>
-    <col min="27" max="27" width="43.6640625" style="40" customWidth="1"/>
-    <col min="28" max="34" width="8.83203125" style="5"/>
-    <col min="1024" max="1024" width="9.1640625" customWidth="1"/>
+    <col min="27" max="27" width="43.7109375" style="37" customWidth="1"/>
+    <col min="28" max="34" width="8.85546875" style="5"/>
+    <col min="1024" max="1024" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="29" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:1024" s="27" customFormat="1" ht="24" customHeight="1">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="M1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="N1" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="25" t="s">
+      <c r="O1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="24" t="s">
+      <c r="P1" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="24" t="s">
+      <c r="Q1" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="24" t="s">
-        <v>731</v>
-      </c>
-      <c r="S1" s="24" t="s">
+      <c r="R1" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="24" t="s">
+      <c r="S1" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="24" t="s">
+      <c r="T1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="26" t="s">
+      <c r="U1" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="27" t="s">
+      <c r="V1" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="27" t="s">
+      <c r="W1" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="26" t="s">
+      <c r="X1" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="27" t="s">
+      <c r="Y1" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="38" t="s">
+      <c r="Z1" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="28"/>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="28"/>
-      <c r="AMJ1" s="30"/>
+      <c r="AA1" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26"/>
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="26"/>
+      <c r="AG1" s="26"/>
+      <c r="AH1" s="26"/>
+      <c r="AMJ1" s="28"/>
     </row>
-    <row r="2" spans="1:1024" s="11" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1024" s="11" customFormat="1" ht="195" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="B2" s="21" t="s">
         <v>28</v>
       </c>
+      <c r="C2" s="40" t="s">
+        <v>29</v>
+      </c>
       <c r="D2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H2" s="8">
         <v>2007</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S2" s="2"/>
       <c r="T2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W2" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X2" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z2" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA2" s="39"/>
+        <v>49</v>
+      </c>
+      <c r="AA2" s="36"/>
       <c r="AB2" s="8"/>
       <c r="AC2" s="8"/>
       <c r="AD2" s="8"/>
@@ -4499,85 +4555,85 @@
       <c r="AH2" s="8"/>
       <c r="AMJ2"/>
     </row>
-    <row r="3" spans="1:1024" s="14" customFormat="1" ht="101" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1024" s="14" customFormat="1" ht="101.1" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="B3" s="21" t="s">
         <v>51</v>
       </c>
+      <c r="C3" s="32" t="s">
+        <v>52</v>
+      </c>
       <c r="D3" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H3" s="8">
         <v>1990</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T3" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="W3" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="P3" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>702</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="T3" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>732</v>
-      </c>
-      <c r="W3" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="X3" s="4"/>
       <c r="Y3" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z3" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA3" s="40" t="s">
-        <v>65</v>
+        <v>68</v>
+      </c>
+      <c r="AA3" s="37" t="s">
+        <v>69</v>
       </c>
       <c r="AB3" s="5"/>
       <c r="AC3" s="5"/>
@@ -4588,84 +4644,84 @@
       <c r="AH3" s="5"/>
       <c r="AMJ3"/>
     </row>
-    <row r="4" spans="1:1024" s="14" customFormat="1" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1024" s="14" customFormat="1" ht="99.95" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>72</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H4" s="8">
         <v>1993</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="W4" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>733</v>
-      </c>
-      <c r="W4" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="X4" s="4"/>
       <c r="Y4" s="3" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="Z4" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA4" s="40"/>
+        <v>89</v>
+      </c>
+      <c r="AA4" s="37"/>
       <c r="AB4" s="5"/>
       <c r="AC4" s="5"/>
       <c r="AD4" s="5"/>
@@ -4675,81 +4731,81 @@
       <c r="AH4" s="5"/>
       <c r="AMJ4"/>
     </row>
-    <row r="5" spans="1:1024" s="2" customFormat="1" ht="110" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1024" s="2" customFormat="1" ht="110.1" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>87</v>
+        <v>90</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>92</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="X5" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y5" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>734</v>
-      </c>
-      <c r="W5" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="X5" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y5" s="3" t="s">
-        <v>83</v>
-      </c>
       <c r="Z5" s="4"/>
-      <c r="AA5" s="40"/>
+      <c r="AA5" s="37"/>
       <c r="AB5" s="5"/>
       <c r="AC5" s="5"/>
       <c r="AD5" s="5"/>
@@ -4759,84 +4815,84 @@
       <c r="AH5" s="5"/>
       <c r="AMJ5"/>
     </row>
-    <row r="6" spans="1:1024" s="14" customFormat="1" ht="296" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1024" s="14" customFormat="1" ht="276">
       <c r="A6" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="C6" s="35" t="s">
-        <v>102</v>
+        <v>106</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>108</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H6" s="8">
         <v>1970</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="O6" s="8">
         <v>1970</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>727</v>
+        <v>116</v>
       </c>
       <c r="S6" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="W6" s="10" t="s">
         <v>111</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="V6" s="3" t="s">
-        <v>735</v>
-      </c>
-      <c r="W6" s="10" t="s">
-        <v>105</v>
       </c>
       <c r="X6" s="10"/>
       <c r="Y6" s="3" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="Z6" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="AA6" s="40"/>
+        <v>121</v>
+      </c>
+      <c r="AA6" s="37"/>
       <c r="AB6" s="2"/>
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
@@ -4846,84 +4902,84 @@
       <c r="AH6" s="2"/>
       <c r="AMJ6"/>
     </row>
-    <row r="7" spans="1:1024" s="16" customFormat="1" ht="131" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1024" s="16" customFormat="1" ht="131.1" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="C7" s="35" t="s">
-        <v>117</v>
+        <v>122</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>124</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="H7" s="8">
         <v>2007</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="L7" s="17" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="S7" s="2"/>
       <c r="T7" s="2" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="V7" s="3" t="s">
-        <v>736</v>
+        <v>137</v>
       </c>
       <c r="W7" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="X7" s="10" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="Y7" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z7" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="AA7" s="40"/>
+        <v>121</v>
+      </c>
+      <c r="AA7" s="37"/>
       <c r="AB7" s="2"/>
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
@@ -4933,84 +4989,84 @@
       <c r="AH7" s="2"/>
       <c r="AMJ7"/>
     </row>
-    <row r="8" spans="1:1024" s="14" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1024" s="14" customFormat="1" ht="120" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>133</v>
+        <v>139</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>141</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="H8" s="8">
         <v>2016</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="S8" s="2"/>
       <c r="T8" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="V8" s="3" t="s">
-        <v>737</v>
+        <v>150</v>
       </c>
       <c r="W8" s="10" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="X8" s="10" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="Y8" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z8" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA8" s="40"/>
+        <v>151</v>
+      </c>
+      <c r="AA8" s="37"/>
       <c r="AB8" s="2"/>
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
@@ -5020,84 +5076,84 @@
       <c r="AH8" s="2"/>
       <c r="AMJ8"/>
     </row>
-    <row r="9" spans="1:1024" s="14" customFormat="1" ht="124" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1024" s="14" customFormat="1" ht="123.95" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>145</v>
+        <v>152</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>154</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H9" s="8">
         <v>2006</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="S9" s="2"/>
       <c r="T9" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="W9" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X9" s="4" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="Y9" s="3" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="Z9" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="AA9" s="40"/>
+        <v>168</v>
+      </c>
+      <c r="AA9" s="37"/>
       <c r="AB9" s="5"/>
       <c r="AC9" s="5"/>
       <c r="AD9" s="5"/>
@@ -5107,84 +5163,84 @@
       <c r="AH9" s="5"/>
       <c r="AMJ9"/>
     </row>
-    <row r="10" spans="1:1024" s="14" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1024" s="14" customFormat="1" ht="96" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="C10" s="35" t="s">
-        <v>162</v>
+        <v>169</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>171</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="H10" s="8">
         <v>2008</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="K10" s="13">
         <v>7762</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S10" s="2"/>
       <c r="T10" s="2" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>738</v>
+        <v>182</v>
       </c>
       <c r="W10" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X10" s="4" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="Y10" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z10" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="AA10" s="40"/>
+        <v>183</v>
+      </c>
+      <c r="AA10" s="37"/>
       <c r="AB10" s="5"/>
       <c r="AC10" s="5"/>
       <c r="AD10" s="5"/>
@@ -5194,84 +5250,84 @@
       <c r="AH10" s="5"/>
       <c r="AMJ10"/>
     </row>
-    <row r="11" spans="1:1024" s="14" customFormat="1" ht="155" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1024" s="14" customFormat="1" ht="155.1" customHeight="1">
       <c r="A11" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="B11" s="32" t="s">
-        <v>175</v>
-      </c>
-      <c r="C11" s="35" t="s">
-        <v>176</v>
+        <v>184</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>186</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="H11" s="8">
         <v>1989</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="K11" s="13">
         <v>7365</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S11" s="2"/>
       <c r="T11" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="W11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="X11" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y11" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="Z11" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="U11" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="V11" s="3" t="s">
-        <v>739</v>
-      </c>
-      <c r="W11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="X11" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="Y11" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="Z11" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="AA11" s="40"/>
+      <c r="AA11" s="37"/>
       <c r="AB11" s="5"/>
       <c r="AC11" s="5"/>
       <c r="AD11" s="5"/>
@@ -5281,84 +5337,84 @@
       <c r="AH11" s="5"/>
       <c r="AMJ11"/>
     </row>
-    <row r="12" spans="1:1024" s="14" customFormat="1" ht="208" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1024" s="14" customFormat="1" ht="207.95" customHeight="1">
       <c r="A12" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>187</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>188</v>
+        <v>197</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>199</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="H12" s="8">
         <v>2011</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="K12" s="13">
         <v>2197</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S12" s="2"/>
       <c r="T12" s="2" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>738</v>
+        <v>182</v>
       </c>
       <c r="W12" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X12" s="4" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="Y12" s="3" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="Z12" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="AA12" s="40"/>
+        <v>183</v>
+      </c>
+      <c r="AA12" s="37"/>
       <c r="AB12" s="5"/>
       <c r="AC12" s="5"/>
       <c r="AD12" s="5"/>
@@ -5368,82 +5424,82 @@
       <c r="AH12" s="5"/>
       <c r="AMJ12"/>
     </row>
-    <row r="13" spans="1:1024" s="14" customFormat="1" ht="142" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1024" s="14" customFormat="1" ht="141.94999999999999" customHeight="1">
       <c r="A13" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>200</v>
-      </c>
-      <c r="C13" s="35" t="s">
-        <v>201</v>
+        <v>210</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>212</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="K13" s="13">
         <v>6643</v>
       </c>
       <c r="L13" s="13" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="O13" s="8" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S13" s="2"/>
       <c r="T13" s="2" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="V13" s="3" t="s">
-        <v>740</v>
+        <v>223</v>
       </c>
       <c r="W13" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X13" s="10" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="Y13" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z13" s="10"/>
-      <c r="AA13" s="40"/>
+      <c r="AA13" s="37"/>
       <c r="AB13" s="2"/>
       <c r="AC13" s="2"/>
       <c r="AD13" s="2"/>
@@ -5453,84 +5509,84 @@
       <c r="AH13" s="2"/>
       <c r="AMJ13"/>
     </row>
-    <row r="14" spans="1:1024" s="16" customFormat="1" ht="115" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1024" s="16" customFormat="1" ht="114.95" customHeight="1">
       <c r="A14" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>213</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>214</v>
+        <v>224</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>226</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H14" s="8">
         <v>2002</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="K14" s="13" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="L14" s="13">
         <v>7222</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="O14" s="8" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="Q14" s="15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R14" s="15" t="s">
-        <v>728</v>
+        <v>234</v>
       </c>
       <c r="S14" s="2"/>
       <c r="T14" s="2" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="V14" s="3" t="s">
-        <v>741</v>
+        <v>237</v>
       </c>
       <c r="W14" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X14" s="10" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="Y14" s="3" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="Z14" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="AA14" s="40"/>
+        <v>121</v>
+      </c>
+      <c r="AA14" s="37"/>
       <c r="AB14" s="2"/>
       <c r="AC14" s="2"/>
       <c r="AD14" s="2"/>
@@ -5540,82 +5596,82 @@
       <c r="AH14" s="2"/>
       <c r="AMJ14"/>
     </row>
-    <row r="15" spans="1:1024" s="2" customFormat="1" ht="130" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1024" s="2" customFormat="1" ht="129.94999999999999" customHeight="1">
       <c r="A15" s="18" t="s">
-        <v>225</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>226</v>
-      </c>
-      <c r="C15" s="35" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>240</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>241</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H15" s="8">
         <v>2003</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="O15" s="8" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S15" s="5"/>
       <c r="T15" s="2" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="V15" s="3" t="s">
-        <v>742</v>
+        <v>252</v>
       </c>
       <c r="W15" s="4" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="X15" s="4" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="Y15" s="3" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="Z15" s="4"/>
-      <c r="AA15" s="40"/>
+      <c r="AA15" s="37"/>
       <c r="AB15" s="5"/>
       <c r="AC15" s="5"/>
       <c r="AD15" s="5"/>
@@ -5625,82 +5681,82 @@
       <c r="AH15" s="5"/>
       <c r="AMJ15"/>
     </row>
-    <row r="16" spans="1:1024" s="14" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1024" s="14" customFormat="1" ht="87" customHeight="1">
       <c r="A16" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>241</v>
-      </c>
-      <c r="C16" s="35" t="s">
-        <v>242</v>
+        <v>255</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>257</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H16" s="8">
         <v>1998</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="S16" s="2"/>
       <c r="T16" s="2" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>743</v>
+        <v>269</v>
       </c>
       <c r="W16" s="4" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="X16" s="4"/>
       <c r="Y16" s="3" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="Z16" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="AA16" s="40"/>
+        <v>272</v>
+      </c>
+      <c r="AA16" s="37"/>
       <c r="AB16" s="5"/>
       <c r="AC16" s="5"/>
       <c r="AD16" s="5"/>
@@ -5710,82 +5766,82 @@
       <c r="AH16" s="5"/>
       <c r="AMJ16"/>
     </row>
-    <row r="17" spans="1:1024" s="14" customFormat="1" ht="184" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1024" s="14" customFormat="1" ht="183.95" customHeight="1">
       <c r="A17" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="B17" s="32" t="s">
-        <v>258</v>
-      </c>
-      <c r="C17" s="35" t="s">
-        <v>259</v>
+        <v>273</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>275</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H17" s="8">
         <v>2002</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S17" s="2"/>
       <c r="T17" s="2" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="W17" s="4" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="X17" s="4" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="Y17" s="3" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="Z17" s="4"/>
-      <c r="AA17" s="40"/>
+      <c r="AA17" s="37"/>
       <c r="AB17" s="5"/>
       <c r="AC17" s="5"/>
       <c r="AD17" s="5"/>
@@ -5795,83 +5851,83 @@
       <c r="AH17" s="5"/>
       <c r="AMJ17"/>
     </row>
-    <row r="18" spans="1:1024" s="14" customFormat="1" ht="140" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1024" s="14" customFormat="1" ht="140.1" customHeight="1">
       <c r="A18" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="B18" s="32" t="s">
-        <v>272</v>
-      </c>
-      <c r="C18" s="35" t="s">
-        <v>273</v>
+        <v>287</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>289</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>279</v>
+        <v>295</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="O18" s="8" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="S18" s="2"/>
       <c r="T18" s="2" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="V18" s="3" t="s">
-        <v>744</v>
+        <v>302</v>
       </c>
       <c r="W18" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X18" s="10"/>
       <c r="Y18" s="3" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="Z18" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA18" s="40" t="s">
-        <v>287</v>
+        <v>151</v>
+      </c>
+      <c r="AA18" s="37" t="s">
+        <v>304</v>
       </c>
       <c r="AB18" s="2"/>
       <c r="AC18" s="2"/>
@@ -5882,84 +5938,84 @@
       <c r="AH18" s="2"/>
       <c r="AMJ18"/>
     </row>
-    <row r="19" spans="1:1024" s="14" customFormat="1" ht="140" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1024" s="14" customFormat="1" ht="140.1" customHeight="1">
       <c r="A19" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="B19" s="32" t="s">
-        <v>289</v>
-      </c>
-      <c r="C19" s="35" t="s">
-        <v>290</v>
+        <v>305</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>306</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>307</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="E19" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>276</v>
-      </c>
       <c r="G19" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H19" s="8">
         <v>2005</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>745</v>
+        <v>319</v>
       </c>
       <c r="W19" s="10" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="X19" s="10"/>
       <c r="Y19" s="3" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="Z19" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA19" s="40"/>
+        <v>89</v>
+      </c>
+      <c r="AA19" s="37"/>
       <c r="AB19" s="2"/>
       <c r="AC19" s="2"/>
       <c r="AD19" s="2"/>
@@ -5969,84 +6025,84 @@
       <c r="AH19" s="2"/>
       <c r="AMJ19"/>
     </row>
-    <row r="20" spans="1:1024" s="14" customFormat="1" ht="190" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1024" s="14" customFormat="1" ht="189.95" customHeight="1">
       <c r="A20" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="B20" s="32" t="s">
-        <v>303</v>
-      </c>
-      <c r="C20" s="35" t="s">
-        <v>304</v>
+        <v>320</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>322</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="E20" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>276</v>
-      </c>
       <c r="G20" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H20" s="8">
         <v>2005</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>306</v>
+        <v>324</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>307</v>
+        <v>325</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="U20" s="2" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="V20" s="3" t="s">
-        <v>746</v>
+        <v>327</v>
       </c>
       <c r="W20" s="10" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="X20" s="4"/>
       <c r="Y20" s="3" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="Z20" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA20" s="40"/>
+        <v>89</v>
+      </c>
+      <c r="AA20" s="37"/>
       <c r="AB20" s="5"/>
       <c r="AC20" s="5"/>
       <c r="AD20" s="5"/>
@@ -6056,84 +6112,84 @@
       <c r="AH20" s="5"/>
       <c r="AMJ20"/>
     </row>
-    <row r="21" spans="1:1024" s="14" customFormat="1" ht="233" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1024" s="14" customFormat="1" ht="233.1" customHeight="1">
       <c r="A21" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="B21" s="32" t="s">
-        <v>310</v>
-      </c>
-      <c r="C21" s="35" t="s">
-        <v>311</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="E21" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>276</v>
-      </c>
       <c r="G21" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H21" s="8">
         <v>2005</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>312</v>
+        <v>331</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>313</v>
+        <v>332</v>
       </c>
       <c r="L21" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="O21" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="P21" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="M21" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N21" s="2" t="s">
+      <c r="Q21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R21" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="O21" s="8" t="s">
+      <c r="S21" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="P21" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="R21" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="S21" s="2" t="s">
-        <v>299</v>
-      </c>
       <c r="T21" s="2" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="U21" s="2" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="V21" s="3" t="s">
-        <v>747</v>
+        <v>336</v>
       </c>
       <c r="W21" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X21" s="10"/>
       <c r="Y21" s="3" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="Z21" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA21" s="40"/>
+        <v>89</v>
+      </c>
+      <c r="AA21" s="37"/>
       <c r="AB21" s="2"/>
       <c r="AC21" s="2"/>
       <c r="AD21" s="2"/>
@@ -6143,84 +6199,84 @@
       <c r="AH21" s="2"/>
       <c r="AMJ21"/>
     </row>
-    <row r="22" spans="1:1024" s="6" customFormat="1" ht="199" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1024" s="6" customFormat="1" ht="198.95" customHeight="1">
       <c r="A22" s="18" t="s">
-        <v>317</v>
-      </c>
-      <c r="B22" s="32" t="s">
-        <v>318</v>
-      </c>
-      <c r="C22" s="35" t="s">
-        <v>319</v>
+        <v>337</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>339</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>321</v>
+        <v>341</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>322</v>
+        <v>342</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>323</v>
+        <v>343</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>324</v>
+        <v>344</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>325</v>
+        <v>345</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>326</v>
+        <v>346</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>327</v>
+        <v>347</v>
       </c>
       <c r="O22" s="8" t="s">
-        <v>328</v>
+        <v>348</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>329</v>
+        <v>349</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="S22" s="2"/>
       <c r="T22" s="2" t="s">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="U22" s="2" t="s">
-        <v>331</v>
+        <v>351</v>
       </c>
       <c r="V22" s="3" t="s">
-        <v>748</v>
+        <v>352</v>
       </c>
       <c r="W22" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X22" s="4" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="Y22" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z22" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA22" s="40"/>
+        <v>151</v>
+      </c>
+      <c r="AA22" s="37"/>
       <c r="AB22" s="5"/>
       <c r="AC22" s="5"/>
       <c r="AD22" s="5"/>
@@ -6230,84 +6286,84 @@
       <c r="AH22" s="5"/>
       <c r="AMJ22"/>
     </row>
-    <row r="23" spans="1:1024" s="6" customFormat="1" ht="153" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1024" s="6" customFormat="1" ht="153" customHeight="1">
       <c r="A23" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="B23" s="32" t="s">
-        <v>333</v>
-      </c>
-      <c r="C23" s="35" t="s">
-        <v>334</v>
+        <v>353</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>354</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>355</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>335</v>
+        <v>356</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>336</v>
+        <v>357</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>337</v>
+        <v>358</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>338</v>
+        <v>359</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>339</v>
+        <v>360</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>340</v>
+        <v>361</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>341</v>
+        <v>362</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>342</v>
+        <v>363</v>
       </c>
       <c r="O23" s="8" t="s">
-        <v>343</v>
+        <v>364</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>344</v>
+        <v>365</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="S23" s="2"/>
       <c r="T23" s="2" t="s">
-        <v>345</v>
+        <v>366</v>
       </c>
       <c r="U23" s="2" t="s">
-        <v>346</v>
+        <v>367</v>
       </c>
       <c r="V23" s="3" t="s">
-        <v>749</v>
+        <v>368</v>
       </c>
       <c r="W23" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X23" s="10" t="s">
-        <v>347</v>
+        <v>369</v>
       </c>
       <c r="Y23" s="3" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="Z23" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA23" s="40"/>
+        <v>89</v>
+      </c>
+      <c r="AA23" s="37"/>
       <c r="AB23" s="2"/>
       <c r="AC23" s="2"/>
       <c r="AD23" s="2"/>
@@ -6317,84 +6373,84 @@
       <c r="AH23" s="2"/>
       <c r="AMJ23"/>
     </row>
-    <row r="24" spans="1:1024" s="6" customFormat="1" ht="187" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1024" s="6" customFormat="1" ht="186.95" customHeight="1">
       <c r="A24" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="B24" s="32" t="s">
-        <v>348</v>
-      </c>
-      <c r="C24" s="35" t="s">
-        <v>349</v>
+        <v>370</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>371</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>350</v>
+        <v>372</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>351</v>
+        <v>373</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="H24" s="8">
         <v>2007</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>353</v>
+        <v>375</v>
       </c>
       <c r="K24" s="13">
         <v>2000</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>354</v>
+        <v>376</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>355</v>
+        <v>377</v>
       </c>
       <c r="O24" s="8">
         <v>1993</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>356</v>
+        <v>378</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S24" s="2"/>
       <c r="T24" s="2" t="s">
-        <v>357</v>
+        <v>379</v>
       </c>
       <c r="U24" s="2" t="s">
-        <v>358</v>
+        <v>380</v>
       </c>
       <c r="V24" s="3" t="s">
-        <v>359</v>
+        <v>381</v>
       </c>
       <c r="W24" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X24" s="10" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="Y24" s="3" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="Z24" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA24" s="40"/>
+        <v>49</v>
+      </c>
+      <c r="AA24" s="37"/>
       <c r="AB24" s="2"/>
       <c r="AC24" s="2"/>
       <c r="AD24" s="2"/>
@@ -6404,36 +6460,36 @@
       <c r="AH24" s="2"/>
       <c r="AMJ24"/>
     </row>
-    <row r="25" spans="1:1024" s="6" customFormat="1" ht="216" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1024" s="6" customFormat="1" ht="216" customHeight="1">
       <c r="A25" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="B25" s="32" t="s">
-        <v>361</v>
-      </c>
-      <c r="C25" s="35" t="s">
-        <v>362</v>
+        <v>382</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>383</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>384</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>363</v>
+        <v>385</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>364</v>
+        <v>386</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H25" s="8">
         <v>2003</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>366</v>
+        <v>388</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>367</v>
+        <v>389</v>
       </c>
       <c r="K25" s="13">
         <v>10272</v>
@@ -6442,46 +6498,46 @@
         <v>8093</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>368</v>
+        <v>390</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>370</v>
+        <v>392</v>
       </c>
       <c r="S25" s="2"/>
       <c r="T25" s="2" t="s">
-        <v>371</v>
+        <v>393</v>
       </c>
       <c r="U25" s="2" t="s">
-        <v>372</v>
+        <v>394</v>
       </c>
       <c r="V25" s="3" t="s">
-        <v>373</v>
+        <v>395</v>
       </c>
       <c r="W25" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X25" s="4" t="s">
-        <v>374</v>
+        <v>396</v>
       </c>
       <c r="Y25" s="3" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="Z25" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA25" s="40"/>
+        <v>89</v>
+      </c>
+      <c r="AA25" s="37"/>
       <c r="AB25" s="5"/>
       <c r="AC25" s="5"/>
       <c r="AD25" s="5"/>
@@ -6491,86 +6547,86 @@
       <c r="AH25" s="5"/>
       <c r="AMJ25"/>
     </row>
-    <row r="26" spans="1:1024" s="6" customFormat="1" ht="228" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1024" s="6" customFormat="1" ht="228" customHeight="1">
       <c r="A26" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="B26" s="32" t="s">
-        <v>376</v>
-      </c>
-      <c r="C26" s="35" t="s">
-        <v>377</v>
+        <v>397</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>398</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>399</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>378</v>
+        <v>400</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
       <c r="H26" s="8">
         <v>1932</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>380</v>
+        <v>402</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>381</v>
+        <v>403</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>382</v>
+        <v>404</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>383</v>
+        <v>405</v>
       </c>
       <c r="O26" s="8">
         <v>1921</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>384</v>
+        <v>406</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>385</v>
+        <v>407</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>386</v>
+        <v>408</v>
       </c>
       <c r="U26" s="2" t="s">
-        <v>387</v>
+        <v>409</v>
       </c>
       <c r="V26" s="3" t="s">
-        <v>750</v>
+        <v>410</v>
       </c>
       <c r="W26" s="10" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="X26" s="10" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="Y26" s="3" t="s">
-        <v>388</v>
+        <v>411</v>
       </c>
       <c r="Z26" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA26" s="40"/>
+        <v>151</v>
+      </c>
+      <c r="AA26" s="37"/>
       <c r="AB26" s="2"/>
       <c r="AC26" s="2"/>
       <c r="AD26" s="2"/>
@@ -6580,86 +6636,86 @@
       <c r="AH26" s="2"/>
       <c r="AMJ26"/>
     </row>
-    <row r="27" spans="1:1024" s="6" customFormat="1" ht="202" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1024" s="6" customFormat="1" ht="201.95" customHeight="1">
       <c r="A27" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="B27" s="32" t="s">
-        <v>390</v>
-      </c>
-      <c r="C27" s="35" t="s">
-        <v>391</v>
+        <v>412</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>413</v>
+      </c>
+      <c r="C27" s="32" t="s">
+        <v>414</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>378</v>
+        <v>400</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
       <c r="H27" s="8">
         <v>1947</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>392</v>
+        <v>415</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>393</v>
+        <v>416</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>394</v>
+        <v>417</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>383</v>
+        <v>405</v>
       </c>
       <c r="O27" s="8">
         <v>1936</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>384</v>
+        <v>406</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>395</v>
+        <v>418</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>396</v>
+        <v>419</v>
       </c>
       <c r="U27" s="2" t="s">
-        <v>397</v>
+        <v>420</v>
       </c>
       <c r="V27" s="3" t="s">
-        <v>751</v>
+        <v>421</v>
       </c>
       <c r="W27" s="10" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="X27" s="10" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="Y27" s="3" t="s">
-        <v>388</v>
+        <v>411</v>
       </c>
       <c r="Z27" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA27" s="40"/>
+        <v>151</v>
+      </c>
+      <c r="AA27" s="37"/>
       <c r="AB27" s="2"/>
       <c r="AC27" s="2"/>
       <c r="AD27" s="2"/>
@@ -6669,84 +6725,84 @@
       <c r="AH27" s="2"/>
       <c r="AMJ27"/>
     </row>
-    <row r="28" spans="1:1024" s="6" customFormat="1" ht="215" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1024" s="6" customFormat="1" ht="215.1" customHeight="1">
       <c r="A28" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="B28" s="32" t="s">
-        <v>399</v>
-      </c>
-      <c r="C28" s="35" t="s">
-        <v>400</v>
+        <v>422</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>423</v>
+      </c>
+      <c r="C28" s="32" t="s">
+        <v>424</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>401</v>
+        <v>425</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H28" s="8">
         <v>2004</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>402</v>
+        <v>426</v>
       </c>
       <c r="K28" s="13">
         <v>15770</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>403</v>
+        <v>427</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>404</v>
+        <v>428</v>
       </c>
       <c r="O28" s="8" t="s">
-        <v>405</v>
+        <v>429</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>729</v>
+        <v>430</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>407</v>
+        <v>431</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>408</v>
+        <v>432</v>
       </c>
       <c r="U28" s="2" t="s">
-        <v>409</v>
+        <v>433</v>
       </c>
       <c r="V28" s="3" t="s">
-        <v>752</v>
+        <v>434</v>
       </c>
       <c r="W28" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X28" s="10"/>
       <c r="Y28" s="3" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="Z28" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA28" s="40"/>
+        <v>89</v>
+      </c>
+      <c r="AA28" s="37"/>
       <c r="AB28" s="2"/>
       <c r="AC28" s="2"/>
       <c r="AD28" s="2"/>
@@ -6756,87 +6812,87 @@
       <c r="AH28" s="2"/>
       <c r="AMJ28"/>
     </row>
-    <row r="29" spans="1:1024" s="6" customFormat="1" ht="221" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1024" s="6" customFormat="1" ht="221.1" customHeight="1">
       <c r="A29" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="B29" s="32" t="s">
-        <v>411</v>
-      </c>
-      <c r="C29" s="35" t="s">
-        <v>412</v>
+        <v>435</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>436</v>
+      </c>
+      <c r="C29" s="32" t="s">
+        <v>437</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>413</v>
+        <v>438</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H29" s="8">
         <v>2000</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>414</v>
+        <v>439</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>415</v>
+        <v>440</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>416</v>
+        <v>441</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="O29" s="8">
         <v>2000</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>406</v>
+        <v>442</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>417</v>
+        <v>443</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>418</v>
+        <v>444</v>
       </c>
       <c r="U29" s="2" t="s">
-        <v>419</v>
+        <v>445</v>
       </c>
       <c r="V29" s="3" t="s">
-        <v>753</v>
+        <v>446</v>
       </c>
       <c r="W29" s="10" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="X29" s="10" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="Y29" s="3" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="Z29" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="AA29" s="41" t="s">
-        <v>420</v>
+        <v>121</v>
+      </c>
+      <c r="AA29" s="38" t="s">
+        <v>447</v>
       </c>
       <c r="AB29" s="12"/>
       <c r="AC29" s="12"/>
@@ -6847,79 +6903,79 @@
       <c r="AH29" s="12"/>
       <c r="AMJ29"/>
     </row>
-    <row r="30" spans="1:1024" s="2" customFormat="1" ht="140" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1024" s="2" customFormat="1" ht="140.1" customHeight="1">
       <c r="A30" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="B30" s="32" t="s">
-        <v>422</v>
-      </c>
-      <c r="C30" s="35" t="s">
-        <v>423</v>
+        <v>448</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>449</v>
+      </c>
+      <c r="C30" s="32" t="s">
+        <v>450</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>424</v>
+        <v>451</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>425</v>
+        <v>452</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>426</v>
+        <v>453</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H30" s="8">
         <v>1999</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>427</v>
+        <v>454</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>428</v>
+        <v>455</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>429</v>
+        <v>456</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>430</v>
+        <v>457</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>431</v>
+        <v>458</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>432</v>
+        <v>459</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>433</v>
+        <v>460</v>
       </c>
       <c r="U30" s="2" t="s">
-        <v>434</v>
+        <v>461</v>
       </c>
       <c r="V30" s="3" t="s">
-        <v>754</v>
+        <v>462</v>
       </c>
       <c r="W30" s="4" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="X30" s="4"/>
       <c r="Y30" s="3" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="Z30" s="4"/>
-      <c r="AA30" s="40"/>
+      <c r="AA30" s="37"/>
       <c r="AB30" s="5"/>
       <c r="AC30" s="5"/>
       <c r="AD30" s="5"/>
@@ -6929,82 +6985,82 @@
       <c r="AH30" s="5"/>
       <c r="AMJ30"/>
     </row>
-    <row r="31" spans="1:1024" s="6" customFormat="1" ht="152" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1024" s="6" customFormat="1" ht="152.1" customHeight="1">
       <c r="A31" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="B31" s="32" t="s">
-        <v>436</v>
-      </c>
-      <c r="C31" s="35" t="s">
-        <v>437</v>
+        <v>463</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="C31" s="32" t="s">
+        <v>465</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>438</v>
+        <v>466</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>439</v>
+        <v>467</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>440</v>
+        <v>468</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H31" s="8">
         <v>1996</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J31" s="15" t="s">
-        <v>441</v>
+        <v>469</v>
       </c>
       <c r="K31" s="13">
         <v>1319475</v>
       </c>
       <c r="L31" s="13" t="s">
-        <v>442</v>
+        <v>470</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>342</v>
+        <v>363</v>
       </c>
       <c r="O31" s="8" t="s">
-        <v>444</v>
+        <v>472</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>445</v>
+        <v>473</v>
       </c>
       <c r="Q31" s="15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="S31" s="2"/>
       <c r="T31" s="2" t="s">
-        <v>446</v>
+        <v>474</v>
       </c>
       <c r="U31" s="2" t="s">
-        <v>447</v>
+        <v>475</v>
       </c>
       <c r="V31" s="3" t="s">
-        <v>755</v>
+        <v>476</v>
       </c>
       <c r="W31" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X31" s="10" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="Y31" s="3" t="s">
-        <v>440</v>
+        <v>468</v>
       </c>
       <c r="Z31" s="10"/>
-      <c r="AA31" s="39"/>
+      <c r="AA31" s="36"/>
       <c r="AB31" s="8"/>
       <c r="AC31" s="8"/>
       <c r="AD31" s="8"/>
@@ -7014,83 +7070,83 @@
       <c r="AH31" s="8"/>
       <c r="AMJ31"/>
     </row>
-    <row r="32" spans="1:1024" s="2" customFormat="1" ht="294" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1024" s="2" customFormat="1" ht="294" customHeight="1">
       <c r="A32" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="B32" s="33" t="s">
-        <v>449</v>
-      </c>
-      <c r="C32" s="35" t="s">
-        <v>450</v>
+        <v>477</v>
+      </c>
+      <c r="B32" s="30" t="s">
+        <v>478</v>
+      </c>
+      <c r="C32" s="32" t="s">
+        <v>479</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>451</v>
+        <v>480</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>452</v>
+        <v>481</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>453</v>
+        <v>482</v>
       </c>
       <c r="H32" s="17">
         <v>2006</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J32" s="15" t="s">
-        <v>454</v>
+        <v>483</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>455</v>
+        <v>484</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>455</v>
+        <v>484</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>456</v>
+        <v>485</v>
       </c>
       <c r="O32" s="8">
         <v>1921</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>457</v>
+        <v>486</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>458</v>
+        <v>487</v>
       </c>
       <c r="U32" s="2" t="s">
-        <v>459</v>
+        <v>488</v>
       </c>
       <c r="V32" s="3" t="s">
-        <v>756</v>
+        <v>489</v>
       </c>
       <c r="W32" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X32" s="4" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="Y32" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z32" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="AA32" s="40"/>
+        <v>183</v>
+      </c>
+      <c r="AA32" s="37"/>
       <c r="AB32" s="5"/>
       <c r="AC32" s="5"/>
       <c r="AD32" s="5"/>
@@ -7100,84 +7156,84 @@
       <c r="AH32" s="5"/>
       <c r="AMJ32"/>
     </row>
-    <row r="33" spans="1:1024" s="6" customFormat="1" ht="284" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1024" s="6" customFormat="1" ht="264">
       <c r="A33" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="B33" s="32" t="s">
-        <v>461</v>
-      </c>
-      <c r="C33" s="35" t="s">
-        <v>462</v>
+        <v>490</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>491</v>
+      </c>
+      <c r="C33" s="32" t="s">
+        <v>492</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>463</v>
+        <v>493</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H33" s="8">
         <v>1958</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>464</v>
+        <v>494</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>465</v>
+        <v>495</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>466</v>
+        <v>496</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="O33" s="8">
         <v>1958</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>467</v>
+        <v>497</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>468</v>
+        <v>498</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>469</v>
+        <v>499</v>
       </c>
       <c r="U33" s="2" t="s">
-        <v>470</v>
+        <v>500</v>
       </c>
       <c r="V33" s="3" t="s">
-        <v>757</v>
+        <v>501</v>
       </c>
       <c r="W33" s="10" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="X33" s="10"/>
       <c r="Y33" s="3" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="Z33" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="AA33" s="40"/>
+        <v>121</v>
+      </c>
+      <c r="AA33" s="37"/>
       <c r="AB33" s="2"/>
       <c r="AC33" s="2"/>
       <c r="AD33" s="2"/>
@@ -7187,86 +7243,86 @@
       <c r="AH33" s="2"/>
       <c r="AMJ33"/>
     </row>
-    <row r="34" spans="1:1024" s="6" customFormat="1" ht="234" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1024" s="6" customFormat="1" ht="228">
       <c r="A34" s="18" t="s">
-        <v>471</v>
-      </c>
-      <c r="B34" s="32" t="s">
-        <v>472</v>
-      </c>
-      <c r="C34" s="35" t="s">
-        <v>473</v>
+        <v>502</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>503</v>
+      </c>
+      <c r="C34" s="32" t="s">
+        <v>504</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>474</v>
+        <v>505</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>475</v>
+        <v>506</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>476</v>
+        <v>507</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H34" s="8">
         <v>2014</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>477</v>
+        <v>508</v>
       </c>
       <c r="K34" s="13">
         <v>8504</v>
       </c>
       <c r="L34" s="13" t="s">
-        <v>478</v>
+        <v>509</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>479</v>
+        <v>510</v>
       </c>
       <c r="O34" s="8" t="s">
-        <v>480</v>
+        <v>511</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>481</v>
+        <v>512</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>482</v>
+        <v>513</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>483</v>
+        <v>514</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>484</v>
+        <v>515</v>
       </c>
       <c r="U34" s="2" t="s">
-        <v>485</v>
+        <v>516</v>
       </c>
       <c r="V34" s="3" t="s">
-        <v>758</v>
+        <v>517</v>
       </c>
       <c r="W34" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X34" s="4" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="Y34" s="3" t="s">
-        <v>486</v>
+        <v>518</v>
       </c>
       <c r="Z34" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="AA34" s="40"/>
+        <v>151</v>
+      </c>
+      <c r="AA34" s="37"/>
       <c r="AB34" s="5"/>
       <c r="AC34" s="5"/>
       <c r="AD34" s="5"/>
@@ -7276,86 +7332,86 @@
       <c r="AH34" s="5"/>
       <c r="AMJ34"/>
     </row>
-    <row r="35" spans="1:1024" s="6" customFormat="1" ht="308" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1024" s="6" customFormat="1" ht="288">
       <c r="A35" s="18" t="s">
-        <v>487</v>
-      </c>
-      <c r="B35" s="32" t="s">
-        <v>488</v>
-      </c>
-      <c r="C35" s="35" t="s">
-        <v>489</v>
+        <v>519</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>520</v>
+      </c>
+      <c r="C35" s="32" t="s">
+        <v>521</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>490</v>
+        <v>522</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>491</v>
+        <v>523</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H35" s="8">
         <v>1946</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>492</v>
+        <v>524</v>
       </c>
       <c r="K35" s="13">
         <v>5362</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>493</v>
+        <v>525</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="O35" s="8">
         <v>1946</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>494</v>
+        <v>526</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R35" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>495</v>
+        <v>527</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>496</v>
+        <v>528</v>
       </c>
       <c r="U35" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="V35" s="3" t="s">
-        <v>759</v>
+        <v>529</v>
       </c>
       <c r="W35" s="4" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="X35" s="4" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="Y35" s="3" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="Z35" s="10" t="s">
-        <v>497</v>
-      </c>
-      <c r="AA35" s="40"/>
+        <v>530</v>
+      </c>
+      <c r="AA35" s="37"/>
       <c r="AB35" s="5"/>
       <c r="AC35" s="5"/>
       <c r="AD35" s="5"/>
@@ -7365,36 +7421,36 @@
       <c r="AH35" s="5"/>
       <c r="AMJ35"/>
     </row>
-    <row r="36" spans="1:1024" ht="208" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1024" ht="192">
       <c r="A36" s="7" t="s">
-        <v>498</v>
-      </c>
-      <c r="B36" s="32" t="s">
-        <v>499</v>
-      </c>
-      <c r="C36" s="35" t="s">
-        <v>500</v>
+        <v>531</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>532</v>
+      </c>
+      <c r="C36" s="32" t="s">
+        <v>533</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>501</v>
+        <v>534</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>502</v>
+        <v>535</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H36" s="8">
         <v>2014</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>503</v>
+        <v>536</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>504</v>
+        <v>537</v>
       </c>
       <c r="K36" s="13">
         <v>14000</v>
@@ -7403,120 +7459,120 @@
         <v>25000</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>479</v>
+        <v>510</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>505</v>
+        <v>538</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>506</v>
+        <v>539</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>507</v>
+        <v>540</v>
       </c>
       <c r="U36" s="2" t="s">
-        <v>508</v>
+        <v>541</v>
       </c>
       <c r="V36" s="3" t="s">
-        <v>760</v>
+        <v>542</v>
       </c>
       <c r="W36" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X36" s="4" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="Y36" s="3" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="Z36" s="4" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
     </row>
-    <row r="37" spans="1:1024" ht="221" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1024" ht="204">
       <c r="A37" s="7" t="s">
-        <v>509</v>
-      </c>
-      <c r="B37" s="32" t="s">
-        <v>510</v>
-      </c>
-      <c r="C37" s="35" t="s">
-        <v>511</v>
+        <v>543</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>544</v>
+      </c>
+      <c r="C37" s="32" t="s">
+        <v>545</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>512</v>
+        <v>546</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>513</v>
+        <v>547</v>
       </c>
       <c r="H37" s="8">
         <v>2015</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>514</v>
+        <v>548</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>515</v>
+        <v>549</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>516</v>
+        <v>550</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>517</v>
+        <v>551</v>
       </c>
       <c r="O37" s="8" t="s">
-        <v>518</v>
+        <v>552</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>519</v>
+        <v>553</v>
       </c>
       <c r="Q37" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R37" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T37" s="2" t="s">
-        <v>520</v>
+        <v>554</v>
       </c>
       <c r="U37" s="2" t="s">
-        <v>521</v>
+        <v>555</v>
       </c>
       <c r="V37" s="3" t="s">
-        <v>761</v>
+        <v>556</v>
       </c>
       <c r="W37" s="10" t="s">
-        <v>522</v>
+        <v>557</v>
       </c>
       <c r="X37" s="10" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="Y37" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z37" s="10" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="AB37" s="2"/>
       <c r="AC37" s="2"/>
@@ -7526,233 +7582,233 @@
       <c r="AG37" s="2"/>
       <c r="AH37" s="2"/>
     </row>
-    <row r="38" spans="1:1024" ht="169" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1024" ht="192">
       <c r="A38" s="18" t="s">
-        <v>523</v>
-      </c>
-      <c r="B38" s="32" t="s">
-        <v>524</v>
-      </c>
-      <c r="C38" s="35" t="s">
-        <v>525</v>
+        <v>558</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>559</v>
+      </c>
+      <c r="C38" s="32" t="s">
+        <v>560</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>527</v>
+        <v>562</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="H38" s="8">
         <v>2006</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>529</v>
+        <v>564</v>
       </c>
       <c r="K38" s="13" t="s">
-        <v>530</v>
+        <v>565</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>531</v>
+        <v>566</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>355</v>
+        <v>377</v>
       </c>
       <c r="O38" s="8" t="s">
-        <v>532</v>
+        <v>567</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>533</v>
+        <v>568</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R38" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S38" s="5"/>
       <c r="T38" s="2" t="s">
-        <v>534</v>
+        <v>569</v>
       </c>
       <c r="U38" s="2" t="s">
-        <v>535</v>
+        <v>570</v>
       </c>
       <c r="V38" s="3" t="s">
-        <v>536</v>
+        <v>571</v>
       </c>
       <c r="W38" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Y38" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z38" s="10" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
     </row>
-    <row r="39" spans="1:1024" ht="332" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1024" ht="384">
       <c r="A39" s="7" t="s">
-        <v>537</v>
-      </c>
-      <c r="B39" s="32" t="s">
-        <v>538</v>
-      </c>
-      <c r="C39" s="35" t="s">
-        <v>539</v>
+        <v>572</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>573</v>
+      </c>
+      <c r="C39" s="32" t="s">
+        <v>574</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>540</v>
+        <v>575</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>541</v>
+        <v>576</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>542</v>
+        <v>577</v>
       </c>
       <c r="H39" s="8">
         <v>1988</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>543</v>
+        <v>578</v>
       </c>
       <c r="K39" s="13">
         <v>4858</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>544</v>
+        <v>579</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>545</v>
+        <v>580</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>546</v>
+        <v>581</v>
       </c>
       <c r="P39" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="Q39" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R39" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="T39" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="U39" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="V39" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="W39" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="X39" s="10" t="s">
+        <v>586</v>
+      </c>
+      <c r="Y39" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z39" s="10" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1024" ht="168">
+      <c r="A40" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>588</v>
+      </c>
+      <c r="C40" s="32" t="s">
+        <v>589</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G40" s="2" t="s">
         <v>547</v>
-      </c>
-      <c r="Q39" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="R39" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="T39" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="U39" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="V39" s="3" t="s">
-        <v>762</v>
-      </c>
-      <c r="W39" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="X39" s="10" t="s">
-        <v>550</v>
-      </c>
-      <c r="Y39" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z39" s="10" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1024" ht="182" x14ac:dyDescent="0.2">
-      <c r="A40" s="7" t="s">
-        <v>551</v>
-      </c>
-      <c r="B40" s="32" t="s">
-        <v>552</v>
-      </c>
-      <c r="C40" s="35" t="s">
-        <v>553</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>513</v>
       </c>
       <c r="H40" s="8">
         <v>2008</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>555</v>
+        <v>591</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>556</v>
+        <v>592</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>557</v>
+        <v>593</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="O40" s="8" t="s">
-        <v>558</v>
+        <v>594</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>559</v>
+        <v>595</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R40" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="T40" s="2" t="s">
-        <v>560</v>
+        <v>596</v>
       </c>
       <c r="U40" s="2" t="s">
-        <v>561</v>
+        <v>597</v>
       </c>
       <c r="V40" s="3" t="s">
-        <v>763</v>
+        <v>598</v>
       </c>
       <c r="W40" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X40" s="10" t="s">
-        <v>562</v>
+        <v>599</v>
       </c>
       <c r="Y40" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z40" s="10" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="AB40" s="2"/>
       <c r="AC40" s="2"/>
@@ -7762,312 +7818,312 @@
       <c r="AG40" s="2"/>
       <c r="AH40" s="2"/>
     </row>
-    <row r="41" spans="1:1024" ht="247" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1024" ht="300">
       <c r="A41" s="18" t="s">
-        <v>563</v>
-      </c>
-      <c r="B41" s="32" t="s">
-        <v>564</v>
-      </c>
-      <c r="C41" s="35" t="s">
-        <v>565</v>
+        <v>600</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>601</v>
+      </c>
+      <c r="C41" s="32" t="s">
+        <v>602</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>566</v>
+        <v>603</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>567</v>
+        <v>604</v>
       </c>
       <c r="H41" s="8">
         <v>1998</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>568</v>
+        <v>605</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>569</v>
+        <v>606</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>570</v>
+        <v>607</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>571</v>
+        <v>608</v>
       </c>
       <c r="O41" s="8" t="s">
-        <v>572</v>
+        <v>609</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>573</v>
+        <v>610</v>
       </c>
       <c r="Q41" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R41" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="S41" s="5"/>
       <c r="T41" s="2" t="s">
-        <v>574</v>
+        <v>611</v>
       </c>
       <c r="U41" s="2" t="s">
-        <v>575</v>
+        <v>612</v>
       </c>
       <c r="V41" s="3" t="s">
-        <v>764</v>
+        <v>613</v>
       </c>
       <c r="W41" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y41" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z41" s="10" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
-    <row r="42" spans="1:1024" ht="234" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1024" ht="276">
       <c r="A42" s="18" t="s">
-        <v>576</v>
-      </c>
-      <c r="B42" s="32" t="s">
-        <v>577</v>
-      </c>
-      <c r="C42" s="35" t="s">
-        <v>578</v>
+        <v>614</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>615</v>
+      </c>
+      <c r="C42" s="32" t="s">
+        <v>616</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>579</v>
+        <v>617</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H42" s="8">
         <v>1994</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>580</v>
+        <v>618</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>581</v>
+        <v>619</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>582</v>
+        <v>620</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="O42" s="8" t="s">
-        <v>583</v>
+        <v>621</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>584</v>
+        <v>622</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R42" s="2" t="s">
-        <v>701</v>
+        <v>623</v>
       </c>
       <c r="S42" s="5"/>
       <c r="T42" s="2" t="s">
-        <v>585</v>
+        <v>624</v>
       </c>
       <c r="U42" s="2" t="s">
-        <v>586</v>
+        <v>625</v>
       </c>
       <c r="V42" s="3" t="s">
-        <v>587</v>
+        <v>626</v>
       </c>
       <c r="W42" s="4" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="Y42" s="3" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="Z42" s="10" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
     </row>
-    <row r="43" spans="1:1024" ht="234" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1024" ht="252">
       <c r="A43" s="18" t="s">
-        <v>588</v>
-      </c>
-      <c r="B43" s="32" t="s">
-        <v>589</v>
-      </c>
-      <c r="C43" s="35" t="s">
-        <v>590</v>
+        <v>627</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>628</v>
+      </c>
+      <c r="C43" s="32" t="s">
+        <v>629</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>591</v>
+        <v>630</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>592</v>
+        <v>631</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H43" s="8">
         <v>1992</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>593</v>
+        <v>632</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>594</v>
+        <v>633</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>595</v>
+        <v>634</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>596</v>
+        <v>635</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>597</v>
+        <v>636</v>
       </c>
       <c r="O43" s="8" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>598</v>
+        <v>637</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R43" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="S43" s="5"/>
       <c r="T43" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="U43" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="V43" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="W43" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="Y43" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z43" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="AA43" s="37" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1024" ht="153" customHeight="1">
+      <c r="A44" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>644</v>
+      </c>
+      <c r="C44" s="32" t="s">
+        <v>645</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>648</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N44" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="O44" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="P44" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="Q44" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R44" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="S44" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="T44" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="U44" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="V44" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="W44" s="10" t="s">
+        <v>660</v>
+      </c>
+      <c r="X44" s="10" t="s">
         <v>599</v>
       </c>
-      <c r="U43" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="V43" s="3" t="s">
-        <v>601</v>
-      </c>
-      <c r="W43" s="4" t="s">
-        <v>602</v>
-      </c>
-      <c r="Y43" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="Z43" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="AA43" s="40" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1024" ht="153" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="7" t="s">
-        <v>604</v>
-      </c>
-      <c r="B44" s="32" t="s">
-        <v>605</v>
-      </c>
-      <c r="C44" s="35" t="s">
-        <v>606</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H44" s="8" t="s">
-        <v>609</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="K44" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="L44" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="M44" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N44" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="O44" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="P44" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="Q44" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="R44" s="2" t="s">
-        <v>730</v>
-      </c>
-      <c r="S44" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="T44" s="2" t="s">
-        <v>617</v>
-      </c>
-      <c r="U44" s="2" t="s">
-        <v>618</v>
-      </c>
-      <c r="V44" s="3" t="s">
-        <v>765</v>
-      </c>
-      <c r="W44" s="10" t="s">
-        <v>619</v>
-      </c>
-      <c r="X44" s="10" t="s">
-        <v>562</v>
-      </c>
       <c r="Y44" s="3" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="Z44" s="10" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="AB44" s="2"/>
       <c r="AC44" s="2"/>
@@ -8077,264 +8133,264 @@
       <c r="AG44" s="2"/>
       <c r="AH44" s="2"/>
     </row>
-    <row r="45" spans="1:1024" ht="308" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1024" ht="360">
       <c r="A45" s="18" t="s">
-        <v>620</v>
-      </c>
-      <c r="B45" s="32" t="s">
-        <v>621</v>
-      </c>
-      <c r="C45" s="35" t="s">
-        <v>622</v>
+        <v>661</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>662</v>
+      </c>
+      <c r="C45" s="32" t="s">
+        <v>663</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>623</v>
+        <v>664</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>624</v>
+        <v>665</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>625</v>
+        <v>666</v>
       </c>
       <c r="H45" s="8">
         <v>2007</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>626</v>
+        <v>667</v>
       </c>
       <c r="K45" s="13" t="s">
-        <v>627</v>
+        <v>668</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>628</v>
+        <v>669</v>
       </c>
       <c r="O45" s="8" t="s">
-        <v>629</v>
+        <v>670</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>630</v>
+        <v>671</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R45" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="T45" s="2" t="s">
-        <v>631</v>
+        <v>672</v>
       </c>
       <c r="U45" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="V45" s="3" t="s">
-        <v>632</v>
+        <v>673</v>
       </c>
       <c r="W45" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y45" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z45" s="10" t="s">
-        <v>633</v>
+        <v>674</v>
       </c>
     </row>
-    <row r="46" spans="1:1024" ht="247" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1024" ht="228">
       <c r="A46" s="7" t="s">
-        <v>634</v>
-      </c>
-      <c r="B46" s="32" t="s">
-        <v>635</v>
-      </c>
-      <c r="C46" s="35" t="s">
-        <v>636</v>
+        <v>675</v>
+      </c>
+      <c r="B46" s="21" t="s">
+        <v>676</v>
+      </c>
+      <c r="C46" s="32" t="s">
+        <v>677</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>637</v>
+        <v>678</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>638</v>
+        <v>679</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="H46" s="8">
         <v>1985</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>639</v>
+        <v>680</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>640</v>
+        <v>681</v>
       </c>
       <c r="K46" s="13">
         <v>10308</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>641</v>
+        <v>682</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>642</v>
+        <v>683</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>643</v>
+        <v>684</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>644</v>
+        <v>685</v>
       </c>
       <c r="Q46" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R46" s="2" t="s">
-        <v>703</v>
+        <v>686</v>
       </c>
       <c r="S46" s="2" t="s">
-        <v>645</v>
+        <v>687</v>
       </c>
       <c r="T46" s="2" t="s">
-        <v>646</v>
+        <v>688</v>
       </c>
       <c r="U46" s="2" t="s">
-        <v>647</v>
+        <v>689</v>
       </c>
       <c r="V46" s="3" t="s">
-        <v>766</v>
+        <v>690</v>
       </c>
       <c r="W46" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X46" s="4" t="s">
-        <v>347</v>
+        <v>369</v>
       </c>
       <c r="Y46" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z46" s="10" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
-    <row r="47" spans="1:1024" ht="272" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1024" ht="300">
       <c r="A47" s="7" t="s">
-        <v>648</v>
-      </c>
-      <c r="B47" s="32" t="s">
-        <v>649</v>
-      </c>
-      <c r="C47" s="35" t="s">
-        <v>650</v>
+        <v>691</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>692</v>
+      </c>
+      <c r="C47" s="32" t="s">
+        <v>693</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>651</v>
+        <v>694</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>652</v>
+        <v>695</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>653</v>
+        <v>696</v>
       </c>
       <c r="H47" s="8">
         <v>1986</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>522</v>
+        <v>557</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>654</v>
+        <v>697</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>655</v>
+        <v>698</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>656</v>
+        <v>699</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>657</v>
+        <v>700</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>658</v>
+        <v>701</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>659</v>
+        <v>702</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R47" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T47" s="2" t="s">
-        <v>660</v>
+        <v>703</v>
       </c>
       <c r="U47" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="V47" s="3" t="s">
-        <v>767</v>
+        <v>704</v>
       </c>
       <c r="W47" s="4" t="s">
-        <v>522</v>
+        <v>557</v>
       </c>
       <c r="Y47" s="3" t="s">
-        <v>388</v>
+        <v>411</v>
       </c>
       <c r="Z47" s="4" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
     </row>
-    <row r="48" spans="1:1024" ht="182" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1024" ht="168">
       <c r="A48" s="7" t="s">
-        <v>661</v>
-      </c>
-      <c r="B48" s="32" t="s">
-        <v>662</v>
-      </c>
-      <c r="C48" s="35" t="s">
-        <v>663</v>
+        <v>705</v>
+      </c>
+      <c r="B48" s="21" t="s">
+        <v>706</v>
+      </c>
+      <c r="C48" s="32" t="s">
+        <v>707</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>664</v>
+        <v>708</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>665</v>
+        <v>709</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>666</v>
+        <v>710</v>
       </c>
       <c r="H48" s="2">
         <v>2014</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>667</v>
+        <v>711</v>
       </c>
       <c r="K48" s="9">
         <v>6616</v>
@@ -8343,72 +8399,72 @@
         <v>648</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>668</v>
+        <v>712</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>669</v>
+        <v>713</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>670</v>
+        <v>714</v>
       </c>
       <c r="Q48" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R48" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="T48" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="U48" s="39" t="s">
+        <v>717</v>
+      </c>
+      <c r="V48" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="W48" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y48" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z48" s="10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" ht="144">
+      <c r="A49" s="7" t="s">
+        <v>719</v>
+      </c>
+      <c r="B49" s="21" t="s">
         <v>720</v>
       </c>
-      <c r="T48" s="2" t="s">
-        <v>714</v>
-      </c>
-      <c r="U48" s="42" t="s">
-        <v>671</v>
-      </c>
-      <c r="V48" s="3" t="s">
-        <v>672</v>
-      </c>
-      <c r="W48" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y48" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z48" s="10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="49" spans="1:26" ht="156" x14ac:dyDescent="0.2">
-      <c r="A49" s="7" t="s">
-        <v>673</v>
-      </c>
-      <c r="B49" s="32" t="s">
-        <v>674</v>
-      </c>
-      <c r="C49" s="35" t="s">
-        <v>675</v>
+      <c r="C49" s="32" t="s">
+        <v>721</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>664</v>
+        <v>708</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>676</v>
+        <v>722</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H49" s="2">
         <v>2004</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>374</v>
+        <v>396</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>677</v>
+        <v>723</v>
       </c>
       <c r="K49" s="9">
         <v>53000</v>
@@ -8417,409 +8473,442 @@
         <v>724</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>678</v>
+        <v>725</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>679</v>
+        <v>726</v>
       </c>
       <c r="Q49" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="R49" s="20" t="s">
-        <v>79</v>
+        <v>42</v>
+      </c>
+      <c r="R49" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="T49" s="2" t="s">
-        <v>715</v>
-      </c>
-      <c r="U49" s="42" t="s">
-        <v>725</v>
+        <v>727</v>
+      </c>
+      <c r="U49" s="39" t="s">
+        <v>728</v>
       </c>
       <c r="V49" s="3" t="s">
-        <v>680</v>
+        <v>729</v>
       </c>
       <c r="W49" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X49" s="4" t="s">
-        <v>374</v>
+        <v>396</v>
       </c>
       <c r="Y49" s="3" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="Z49" s="10" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
-    <row r="50" spans="1:26" ht="345" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:26" ht="384.75">
       <c r="A50" s="7" t="s">
-        <v>681</v>
-      </c>
-      <c r="B50" s="32" t="s">
-        <v>682</v>
-      </c>
-      <c r="C50" s="35" t="s">
-        <v>683</v>
+        <v>730</v>
+      </c>
+      <c r="B50" s="21" t="s">
+        <v>731</v>
+      </c>
+      <c r="C50" s="32" t="s">
+        <v>732</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>684</v>
+        <v>733</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>685</v>
+        <v>734</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H50" s="2">
         <v>1990</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J50" s="14" t="s">
-        <v>686</v>
+        <v>735</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>726</v>
+        <v>736</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>687</v>
+        <v>737</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>688</v>
+        <v>738</v>
       </c>
       <c r="Q50" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R50" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T50" s="8" t="s">
-        <v>716</v>
+        <v>739</v>
       </c>
       <c r="U50" s="2" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="V50" s="3" t="s">
-        <v>768</v>
+        <v>740</v>
       </c>
       <c r="W50" s="4" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="X50" s="4" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="Y50" s="3" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
     </row>
-    <row r="51" spans="1:26" ht="272" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:26" ht="300">
       <c r="A51" s="7" t="s">
-        <v>689</v>
-      </c>
-      <c r="B51" s="32" t="s">
-        <v>689</v>
-      </c>
-      <c r="C51" s="35" t="s">
-        <v>691</v>
+        <v>741</v>
+      </c>
+      <c r="B51" s="21" t="s">
+        <v>741</v>
+      </c>
+      <c r="C51" s="32" t="s">
+        <v>742</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>692</v>
+        <v>743</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>693</v>
+        <v>744</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H51" s="2">
         <v>2008</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="J51" s="21" t="s">
-        <v>694</v>
+        <v>259</v>
+      </c>
+      <c r="J51" s="19" t="s">
+        <v>745</v>
       </c>
       <c r="K51" s="9" t="s">
-        <v>695</v>
-      </c>
-      <c r="L51" s="20" t="s">
-        <v>697</v>
+        <v>746</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>747</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>696</v>
+        <v>748</v>
       </c>
       <c r="O51" s="2">
         <v>2007</v>
       </c>
-      <c r="P51" s="20" t="s">
-        <v>698</v>
+      <c r="P51" s="2" t="s">
+        <v>749</v>
       </c>
       <c r="Q51" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="R51" s="20" t="s">
         <v>42</v>
       </c>
+      <c r="R51" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="T51" s="2" t="s">
-        <v>717</v>
+        <v>750</v>
       </c>
       <c r="U51" s="2" t="s">
-        <v>447</v>
+        <v>475</v>
       </c>
       <c r="V51" s="3" t="s">
-        <v>699</v>
+        <v>751</v>
       </c>
       <c r="W51" s="4" t="s">
-        <v>254</v>
+        <v>270</v>
       </c>
       <c r="Y51" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="Z51" s="22" t="s">
-        <v>700</v>
+        <v>271</v>
+      </c>
+      <c r="Z51" s="20" t="s">
+        <v>752</v>
       </c>
     </row>
-    <row r="52" spans="1:26" ht="155" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:26" ht="155.1" customHeight="1">
       <c r="A52" s="7" t="s">
-        <v>704</v>
-      </c>
-      <c r="B52" s="32" t="s">
-        <v>704</v>
-      </c>
-      <c r="C52" s="35" t="s">
-        <v>705</v>
+        <v>753</v>
+      </c>
+      <c r="B52" s="21" t="s">
+        <v>753</v>
+      </c>
+      <c r="C52" s="32" t="s">
+        <v>754</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>706</v>
+        <v>755</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>719</v>
+        <v>756</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>707</v>
+        <v>757</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H52" s="2">
         <v>2015</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>708</v>
-      </c>
-      <c r="J52" s="37" t="s">
-        <v>709</v>
+        <v>758</v>
+      </c>
+      <c r="J52" s="34" t="s">
+        <v>759</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>723</v>
+        <v>760</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>710</v>
+        <v>761</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>711</v>
+        <v>762</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>712</v>
+        <v>763</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>722</v>
+        <v>764</v>
       </c>
       <c r="Q52" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R52" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T52" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="U52" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="V52" s="3" t="s">
+        <v>767</v>
+      </c>
+      <c r="W52" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="X52" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="Y52" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" ht="409.6">
+      <c r="A53" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="B53" s="21" t="s">
+        <v>769</v>
+      </c>
+      <c r="C53" s="32" t="s">
+        <v>770</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="H53" s="2">
+        <v>2006</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J53" s="14" t="s">
+        <v>775</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N53" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="O53" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="P53" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="Q53" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R52" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="T52" s="2" t="s">
-        <v>718</v>
-      </c>
-      <c r="U52" s="2" t="s">
-        <v>721</v>
-      </c>
-      <c r="V52" s="3" t="s">
-        <v>713</v>
-      </c>
-      <c r="W52" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="X52" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="Y52" s="3" t="s">
-        <v>239</v>
+      <c r="R53" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T53" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="U53" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="V53" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="W53" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y53" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z53" s="4" t="s">
+        <v>183</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A53" s="7"/>
-      <c r="B53" s="32"/>
-      <c r="J53" s="19" t="s">
-        <v>690</v>
-      </c>
+    <row r="54" spans="1:26">
+      <c r="A54" s="7"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A54" s="7"/>
-      <c r="B54" s="32"/>
+    <row r="55" spans="1:26">
+      <c r="A55" s="7"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A55" s="7"/>
-      <c r="B55" s="32"/>
+    <row r="56" spans="1:26">
+      <c r="A56" s="7"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A56" s="7"/>
-      <c r="B56" s="32"/>
+    <row r="57" spans="1:26">
+      <c r="A57" s="7"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A57" s="7"/>
-      <c r="B57" s="32"/>
+    <row r="58" spans="1:26">
+      <c r="A58" s="7"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A58" s="7"/>
-      <c r="B58" s="32"/>
+    <row r="59" spans="1:26">
+      <c r="A59" s="7"/>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A59" s="7"/>
-      <c r="B59" s="32"/>
+    <row r="60" spans="1:26">
+      <c r="A60" s="7"/>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A60" s="7"/>
-      <c r="B60" s="32"/>
+    <row r="61" spans="1:26">
+      <c r="A61" s="7"/>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A61" s="7"/>
-      <c r="B61" s="32"/>
+    <row r="62" spans="1:26">
+      <c r="A62" s="7"/>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A62" s="7"/>
-      <c r="B62" s="32"/>
+    <row r="63" spans="1:26">
+      <c r="A63" s="7"/>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A63" s="7"/>
-      <c r="B63" s="32"/>
+    <row r="64" spans="1:26">
+      <c r="A64" s="7"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A64" s="7"/>
-      <c r="B64" s="32"/>
+    <row r="65" spans="1:1">
+      <c r="A65" s="7"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="7"/>
-      <c r="B65" s="32"/>
+    <row r="66" spans="1:1">
+      <c r="A66" s="7"/>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="7"/>
-      <c r="B66" s="32"/>
+    <row r="67" spans="1:1">
+      <c r="A67" s="7"/>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="7"/>
-      <c r="B67" s="32"/>
+    <row r="68" spans="1:1">
+      <c r="A68" s="7"/>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="7"/>
-      <c r="B68" s="32"/>
+    <row r="69" spans="1:1">
+      <c r="A69" s="7"/>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="7"/>
-      <c r="B69" s="32"/>
+    <row r="70" spans="1:1">
+      <c r="A70" s="7"/>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="7"/>
-      <c r="B70" s="32"/>
+    <row r="71" spans="1:1">
+      <c r="A71" s="7"/>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="7"/>
-      <c r="B71" s="32"/>
+    <row r="72" spans="1:1">
+      <c r="A72" s="7"/>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="7"/>
-      <c r="B72" s="32"/>
+    <row r="73" spans="1:1">
+      <c r="A73" s="7"/>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="7"/>
-      <c r="B73" s="32"/>
+    <row r="74" spans="1:1">
+      <c r="A74" s="7"/>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" s="7"/>
-      <c r="B74" s="32"/>
+    <row r="75" spans="1:1">
+      <c r="A75" s="7"/>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" s="7"/>
-      <c r="B75" s="32"/>
+    <row r="76" spans="1:1">
+      <c r="A76" s="7"/>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" s="7"/>
-      <c r="B76" s="32"/>
+    <row r="77" spans="1:1">
+      <c r="A77" s="7"/>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="7"/>
-      <c r="B77" s="32"/>
+    <row r="78" spans="1:1">
+      <c r="A78" s="7"/>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="7"/>
-      <c r="B78" s="32"/>
+    <row r="79" spans="1:1">
+      <c r="A79" s="7"/>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="7"/>
-      <c r="B79" s="32"/>
+    <row r="80" spans="1:1">
+      <c r="A80" s="7"/>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="7"/>
-      <c r="B80" s="32"/>
+    <row r="81" spans="1:1">
+      <c r="A81" s="7"/>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" s="7"/>
-      <c r="B81" s="32"/>
+    <row r="82" spans="1:1">
+      <c r="A82" s="7"/>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="7"/>
-      <c r="B82" s="32"/>
+    <row r="83" spans="1:1">
+      <c r="A83" s="7"/>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="7"/>
-      <c r="B83" s="32"/>
+    <row r="84" spans="1:1">
+      <c r="A84" s="7"/>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="7"/>
-      <c r="B84" s="32"/>
+    <row r="85" spans="1:1">
+      <c r="A85" s="7"/>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="7"/>
-      <c r="B85" s="32"/>
+    <row r="86" spans="1:1">
+      <c r="A86" s="7"/>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="7"/>
-      <c r="B86" s="32"/>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1">
       <c r="A87" s="7"/>
-      <c r="B87" s="32"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AH53" xr:uid="{00000000-0009-0000-0000-000000000000}">

--- a/xlsx/Old/studies.xlsx
+++ b/xlsx/Old/studies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25415"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\kclad.ds.kcl.ac.uk\anywhere\UserData\PSStore01\k1780970\Desktop\cmhm_29Apr22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emckclac-my.sharepoint.com/personal/k1780970_kcl_ac_uk/Documents/1. Catalogue + work documents/1. Catalogue shared files/1. Catalogue/2. Catalogue study updates/Resource folders/cmhm_20May22/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{6F82A259-41A7-4DF6-B3CE-4CB00C898517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3EAD59A3-9B75-4387-85F3-0A6037894792}"/>
+  <xr:revisionPtr revIDLastSave="73" documentId="13_ncr:1_{6F82A259-41A7-4DF6-B3CE-4CB00C898517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E966E06E-B4EC-46DB-8948-BF3F1E250123}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21000" windowHeight="15600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study details" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="783">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="798">
   <si>
     <t>Code</t>
   </si>
@@ -1033,23 +1033,26 @@
 Cognitive measures,
 Cognitive decline,
 Diet and nutrition,
-Sexuality and gender identity,
+Digital technology and social media,
+Education,
+Ethnicity and race,
 Housing,
-Socioeconomic status and deprivation,
 Language and literacy,
 Loneliness and social isolation,
+Personality,
 Migration and immigration,
 Neighbourhood,
 Personality,
 Physical health assessment,
-Digital technology and social media,
-Victimisation and life events,
 Reproductive health,
-Work and employment,
+Sexuality and gender identity,
 Sleep problems,
 Social care - receipt,
 Social care - provision,
-Social care - need</t>
+Social care - need,
+Socioeconomic status and deprivation,
+Victimisation and life events,
+Work and employment</t>
   </si>
   <si>
     <t>England, National</t>
@@ -1306,20 +1309,23 @@
 Biomarkers,
 Cognitive measures,
 Diet and nutrition,
+Ethnicity and race,
 Housing,
-Socioeconomic status and deprivation,
 Language and literacy,
 Loneliness and social isolation,
 Migration and immigration,
 Neighbourhood,
 Personality,
 Physical health assessment,
-Victimisation and life events,
 Puberty,
 Reproductive health,
-Work and employment,
+Sexuality and gender identity,
+Sleep problems,
 Social care - receipt,
-Social care - need</t>
+Social care - need,
+Socioeconomic status and deprivation,
+Victimisation and life events,
+Work and employment</t>
   </si>
   <si>
     <t>Scotland, National</t>
@@ -1701,14 +1707,15 @@
     <t>Covid-19 data collection,
 Biomarkers,
 Cognitive measures,
-Socioeconomic status and deprivation,
+Diet and nutrition,
+Digital technology and social media,
 Language and literacy,
 Loneliness and social isolation,
 Personality,
-Digital technology and social media,
-Victimisation and life events,
 Puberty,
-Sleep problems</t>
+Sleep problems,
+Socioeconomic status and deprivation,
+Victimisation and life events</t>
   </si>
   <si>
     <t>KCLMilitary</t>
@@ -3628,25 +3635,23 @@
     <t>Nationwide (but control participants mostly recruited from London)</t>
   </si>
   <si>
-    <t xml:space="preserve">Participating parents and their children were recruited from a volunteer database at the Birkbeck Centre for Brain and Cognitive Development. Infants could be enrolled in the study if they either had a first degree relative with ASD, a first degree relative with diagnosed or probable ADHD, or no first-degree relatives with either diagnosis. In phases 1 and 2, the children recruited were only at elevated likelihood (EL) for ASD, whilst in phase 3, children are at EL for ASD, ADHD, or both. Phase 3 is also known as BASIS-STAARS (STudying Autism and ADHD riskS). Some children from phase 2 have also been involved in phase 3.
+    <t xml:space="preserve">Participating parents and their children were recruited from a volunteer database at the Birkbeck Centre for Brain and Cognitive Development. Infants could be enrolled in the study if they either had a first degree relative with ASD, a first degree relative with diagnosed or probable ADHD, or no first-degree relatives with either diagnosis. In phases 1 and 2, the children recruited were only at elevated likelihood (EL) for ASD, whilst in phase 3, children are at EL for ASD, ADHD, or both. Phase 3 is known as BASIS-STAARS (STudying Autism and ADHD riskS). Some families have taken part in more than one phase.  
 &lt;br&gt;&lt;br&gt;
-Infants were identified as being at EL if they had at least one older sibling with a community clinical diagnosis of autism, which was confirmed based on parent report using the Development and Wellbeing Assessment (DAWBA; Goodman et al., 2000), the Social Communication Questionnaire (SCQ; Berument et al., 1999) or parent confirmed community clinical autism diagnosis. Infants were identified as being at typical likelihood (TL) if they had at least one older sibling with typical development and no known autism in first-degree family members (as confirmed through parent interviews regarding family medical history). In phase 3, children were recruited and identified as being at EL for ADHD if they had either an older sibling or a parent with a diagnosis of ADHD, also confirmed through parent interviews regarding family history. 
+Infants were identified as being at EL if they had at least one older sibling with a community clinical diagnosis of autism, which was confirmed based on parent report using the Development and Wellbeing Assessment (DAWBA; Goodman et al., 2000), the Social Communication Questionnaire (SCQ; Berument et al., 1999) or parent confirmed community clinical autism diagnosis. Infants were identified as being at typical likelihood (TL) if they had at least one older sibling with typical development and no known autism in first-degree family members (as confirmed through parent interviews regarding family medical history). In phase 3, children were recruited and identified as being at EL for ADHD if they had either an older sibling or a parent with a diagnosis of ADHD,  confirmed through parent report using the Conner's Parent Rating Scale, and Conner's Adult. 
 &lt;br&gt;&lt;br&gt;
-Cohort members have been assessed at approximately 1, 5, 8, 14, 24, and 36 months, before being followed up during mid-childhood at approximately age 7 to 11 years. The follow up of children at mid-childhood in phase 1 is known as ‘BASIS-7’, whilst follow up for phases 2 and 3 is known as ‘SuperSTAARS’. Participants are administered a range of experimental, behavioural and cognitive tasks and interactive assessments of autistic symptomatology. Parents also complete a range of questionnaires and interviews relating to different aspects of early development. Phase 1 data collection ran from 2006-2015, phase 2 from 2009-2019, and phase 3 from 2013-present. 
+Cohort members have been assessed at approximately 1, 5, 8, 14, 24, and 36 months, before being followed up during mid-childhood at approximately age 7 to 11 years. The follow up of children at mid-childhood in phase 1 is known as ‘BASIS-7’, whilst follow up for phases 2 and 3 is known as ‘SuperSTAARS’. Participants are administered a range of experimental, behavioural and cognitive tasks and interactive assessments of autistic symptomatology. Parents also complete a range of questionnaires and interviews relating to different aspects of early development. Phase 1 data collection ran from 2006-2015, phase 2 from 2009-2022, and phase 3 from 2013-2023. 
 </t>
   </si>
   <si>
     <t xml:space="preserve">Phase 1: 104&lt;br&gt;
 Phase 2: 143&lt;br&gt;
-Phase 3.1:  166&lt;br&gt;	
-Phase 3.2: ongoing&lt;br&gt;
+Phase 3: 300
 </t>
   </si>
   <si>
     <t xml:space="preserve">Phase 1: 76&lt;br&gt;
 Phase 2: 97&lt;br&gt;
-Phase 3.1: ongoing&lt;br&gt;
-Phase 3.2: ongoing&lt;br&gt;
+Phase 3: ongoing
 </t>
   </si>
   <si>
@@ -3669,7 +3674,7 @@
 &lt;a href="https://doi.org/10.1111/jcpp.13563"&gt;https://doi.org/10.1111/jcpp.13563&lt;/a&gt;</t>
   </si>
   <si>
-    <t>MRC SFARI AuSpeaks Autistica EUCom IMI</t>
+    <t>MRC SFARI AuSpeaks Autistica EUCom IMI Horizon</t>
   </si>
   <si>
     <t xml:space="preserve">Biomarkers,
@@ -3678,6 +3683,77 @@
 Parenting and family,
 Sleep problems,
 Socioeconomic status and deprivation </t>
+  </si>
+  <si>
+    <t>CSDD</t>
+  </si>
+  <si>
+    <t>The Cambridge Study in Delinquent Development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Cambridge Study in Delinquent Development (CSDD) is a prospective longitudinal cohort study of 411 males living in South London, first assessed in 1961. The original aim of the CSDD was to describe the development of delinquent and criminal behaviour in inner-city males, to investigate to what extent this could be predicted in advance, why juvenile delinquency began, and why it did or did not continue into adulthood. The focus was also on continuity in behavioural development, on the effects of life events on development, and on predicting future behaviour. The study was not set up to test any one particular theory of delinquency but aimed to test many different hypotheses about the causes and correlates of offending. </t>
+  </si>
+  <si>
+    <t>University of Cambridge</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.crim.cam.ac.uk/People/professor-david-farrington"&gt;http://www.crim.cam.ac.uk/People/professor-david-farrington&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The sample is made up of 411 males born in 1952-1953, who were all living in a working-class area of South London at the time of the first assessment. Most of the sample was chosen by taking all the males who were then aged 8-9 and on the registers of 6 state primary schools within a 1-mile radius of the research offices. 12 individuals from a local special educational needs school were also included in the sample. 
+&lt;br&gt;&lt;br&gt;
+Of the 411 males, 87% were White, and of British origin, 12 were African-Caribbean, 14 had at least 1 parent from Ireland, 12 had parents from Cyprus and the other 16 participants were White, with 1 parent from another Western industrialized country. Based on the father’s occupations at the time of recruitment, 94% of the sample could be described as working-class. The sample was thus overwhelmingly a white, urban, working-class sample of British origin.
+&lt;br&gt;&lt;br&gt; 
+The participants have been interviewed 9 times throughout their lives, from ages 8-48 years. At all time points a high proportion of males have been interviewed, except at ages 21 and 25, due to inadequate funding. At these time points, only a subsample of participants were interviewed. Parents and teachers were also interviewed when the boys were aged 8-15, at the family home or in the boy’s school.  
+&lt;br&gt;&lt;br&gt;
+Criminal records were collected up to age 56, so self-report and official records of offending could be analysed. </t>
+  </si>
+  <si>
+    <t>8-9 years</t>
+  </si>
+  <si>
+    <t>1952-1953</t>
+  </si>
+  <si>
+    <t>Researchers wishing to access data should apply to David Farringdon via email on dpf1@cam.ac.uk.</t>
+  </si>
+  <si>
+    <t>Health data,
+Criminal records</t>
+  </si>
+  <si>
+    <t>Some original documentation for the Cambridge Study of Delinquent Development is no longer available, so some sweeps include less detailed information than other studies on the Catalogue. All mental health measures collected in the study from age 18 onwards are listed at item level. 
+&lt;br&gt;&lt;br&gt;
+Original documentation from data collected from age 8 to 15 years are not available, so datasets were used to the collect information displayed on the Catalogue. At these time points, these variables have been listed, but items, response scales and reporting period are not available. The interviews at these time points (ages 8, 10, 12, 14) were conducted with cohort members' parents and teachers and were mainly concerned with early conduct, behaviour and emotional problems, and personality. Self-reported measures were also collected from parents about their own mental health history. 
+&lt;br&gt;&lt;br&gt;
+Variables from interviews with parents and teachers are also not available for the age 16 sweep. However, documentation from employment interviews conducted with the cohort members are available, and these measures are listed at the item level.</t>
+  </si>
+  <si>
+    <t>Farringdon, D. P., Jolliffe, D., &amp; Coid, J. W. (2021). Cohort profile: The Cambridge Study in Delinquent Development (CSDD). Journal of Developmental and Life-Course Criminology, 7, 278-291. 
+&lt;br&gt;
+&lt;a href="https://doi.org/10.1007/s40865-021-00162-y"&gt;https://doi.org/10.1007/s40865-021-00162-y&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>HOUK DfE DoHSC Rayne SRFound BCTrust</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cognitive measures,
+Education,
+Housing,
+Language and literacy,
+Parenting and family,
+Personality,
+Physical health assessment,
+Political and social attitudes,
+Sexuality and gender identity,
+Sleep problems,
+Socioeconomic status and deprivation,
+Victimisation and life events,
+Work and employment
+</t>
+  </si>
+  <si>
+    <t>England, local area</t>
   </si>
 </sst>
 </file>
@@ -4336,11 +4412,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AMJ87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H52" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="I53" sqref="I53"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="R14" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="T14" sqref="T14"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="V1" sqref="V1"/>
     </sheetView>
@@ -4362,7 +4439,7 @@
     <col min="14" max="14" width="56" style="2" customWidth="1"/>
     <col min="15" max="15" width="15.28515625" style="2" customWidth="1"/>
     <col min="16" max="16" width="28" style="2" customWidth="1"/>
-    <col min="17" max="17" width="17.28515625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="23" style="2" customWidth="1"/>
     <col min="18" max="18" width="28.85546875" style="2" customWidth="1"/>
     <col min="19" max="19" width="55.28515625" style="2" customWidth="1"/>
     <col min="20" max="20" width="55.140625" style="2" customWidth="1"/>
@@ -4468,7 +4545,7 @@
       <c r="AH1" s="26"/>
       <c r="AMJ1" s="28"/>
     </row>
-    <row r="2" spans="1:1024" s="11" customFormat="1" ht="195" customHeight="1">
+    <row r="2" spans="1:1024" s="11" customFormat="1" ht="195" hidden="1" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>27</v>
       </c>
@@ -4555,7 +4632,7 @@
       <c r="AH2" s="8"/>
       <c r="AMJ2"/>
     </row>
-    <row r="3" spans="1:1024" s="14" customFormat="1" ht="101.1" customHeight="1">
+    <row r="3" spans="1:1024" s="14" customFormat="1" ht="101.1" hidden="1" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>50</v>
       </c>
@@ -4644,7 +4721,7 @@
       <c r="AH3" s="5"/>
       <c r="AMJ3"/>
     </row>
-    <row r="4" spans="1:1024" s="14" customFormat="1" ht="99.95" customHeight="1">
+    <row r="4" spans="1:1024" s="14" customFormat="1" ht="99.95" hidden="1" customHeight="1">
       <c r="A4" s="7" t="s">
         <v>70</v>
       </c>
@@ -4731,7 +4808,7 @@
       <c r="AH4" s="5"/>
       <c r="AMJ4"/>
     </row>
-    <row r="5" spans="1:1024" s="2" customFormat="1" ht="110.1" customHeight="1">
+    <row r="5" spans="1:1024" s="2" customFormat="1" ht="110.1" hidden="1" customHeight="1">
       <c r="A5" s="7" t="s">
         <v>90</v>
       </c>
@@ -4815,7 +4892,7 @@
       <c r="AH5" s="5"/>
       <c r="AMJ5"/>
     </row>
-    <row r="6" spans="1:1024" s="14" customFormat="1" ht="276">
+    <row r="6" spans="1:1024" s="14" customFormat="1" ht="276" hidden="1">
       <c r="A6" s="7" t="s">
         <v>106</v>
       </c>
@@ -4902,7 +4979,7 @@
       <c r="AH6" s="2"/>
       <c r="AMJ6"/>
     </row>
-    <row r="7" spans="1:1024" s="16" customFormat="1" ht="131.1" customHeight="1">
+    <row r="7" spans="1:1024" s="16" customFormat="1" ht="131.1" hidden="1" customHeight="1">
       <c r="A7" s="7" t="s">
         <v>122</v>
       </c>
@@ -4989,7 +5066,7 @@
       <c r="AH7" s="2"/>
       <c r="AMJ7"/>
     </row>
-    <row r="8" spans="1:1024" s="14" customFormat="1" ht="120" customHeight="1">
+    <row r="8" spans="1:1024" s="14" customFormat="1" ht="120" hidden="1" customHeight="1">
       <c r="A8" s="7" t="s">
         <v>139</v>
       </c>
@@ -5076,7 +5153,7 @@
       <c r="AH8" s="2"/>
       <c r="AMJ8"/>
     </row>
-    <row r="9" spans="1:1024" s="14" customFormat="1" ht="123.95" customHeight="1">
+    <row r="9" spans="1:1024" s="14" customFormat="1" ht="123.95" hidden="1" customHeight="1">
       <c r="A9" s="7" t="s">
         <v>152</v>
       </c>
@@ -5163,7 +5240,7 @@
       <c r="AH9" s="5"/>
       <c r="AMJ9"/>
     </row>
-    <row r="10" spans="1:1024" s="14" customFormat="1" ht="96" customHeight="1">
+    <row r="10" spans="1:1024" s="14" customFormat="1" ht="96" hidden="1" customHeight="1">
       <c r="A10" s="7" t="s">
         <v>169</v>
       </c>
@@ -5250,7 +5327,7 @@
       <c r="AH10" s="5"/>
       <c r="AMJ10"/>
     </row>
-    <row r="11" spans="1:1024" s="14" customFormat="1" ht="155.1" customHeight="1">
+    <row r="11" spans="1:1024" s="14" customFormat="1" ht="155.1" hidden="1" customHeight="1">
       <c r="A11" s="7" t="s">
         <v>184</v>
       </c>
@@ -5337,7 +5414,7 @@
       <c r="AH11" s="5"/>
       <c r="AMJ11"/>
     </row>
-    <row r="12" spans="1:1024" s="14" customFormat="1" ht="207.95" customHeight="1">
+    <row r="12" spans="1:1024" s="14" customFormat="1" ht="207.95" hidden="1" customHeight="1">
       <c r="A12" s="7" t="s">
         <v>197</v>
       </c>
@@ -5424,7 +5501,7 @@
       <c r="AH12" s="5"/>
       <c r="AMJ12"/>
     </row>
-    <row r="13" spans="1:1024" s="14" customFormat="1" ht="141.94999999999999" customHeight="1">
+    <row r="13" spans="1:1024" s="14" customFormat="1" ht="141.94999999999999" hidden="1" customHeight="1">
       <c r="A13" s="7" t="s">
         <v>210</v>
       </c>
@@ -5509,7 +5586,7 @@
       <c r="AH13" s="2"/>
       <c r="AMJ13"/>
     </row>
-    <row r="14" spans="1:1024" s="16" customFormat="1" ht="114.95" customHeight="1">
+    <row r="14" spans="1:1024" s="16" customFormat="1" ht="162.75" customHeight="1">
       <c r="A14" s="7" t="s">
         <v>224</v>
       </c>
@@ -5596,7 +5673,7 @@
       <c r="AH14" s="2"/>
       <c r="AMJ14"/>
     </row>
-    <row r="15" spans="1:1024" s="2" customFormat="1" ht="129.94999999999999" customHeight="1">
+    <row r="15" spans="1:1024" s="2" customFormat="1" ht="129.94999999999999" hidden="1" customHeight="1">
       <c r="A15" s="18" t="s">
         <v>239</v>
       </c>
@@ -5681,7 +5758,7 @@
       <c r="AH15" s="5"/>
       <c r="AMJ15"/>
     </row>
-    <row r="16" spans="1:1024" s="14" customFormat="1" ht="87" customHeight="1">
+    <row r="16" spans="1:1024" s="14" customFormat="1" ht="87" hidden="1" customHeight="1">
       <c r="A16" s="7" t="s">
         <v>255</v>
       </c>
@@ -5766,7 +5843,7 @@
       <c r="AH16" s="5"/>
       <c r="AMJ16"/>
     </row>
-    <row r="17" spans="1:1024" s="14" customFormat="1" ht="183.95" customHeight="1">
+    <row r="17" spans="1:1024" s="14" customFormat="1" ht="183.95" hidden="1" customHeight="1">
       <c r="A17" s="7" t="s">
         <v>273</v>
       </c>
@@ -5851,7 +5928,7 @@
       <c r="AH17" s="5"/>
       <c r="AMJ17"/>
     </row>
-    <row r="18" spans="1:1024" s="14" customFormat="1" ht="140.1" customHeight="1">
+    <row r="18" spans="1:1024" s="14" customFormat="1" ht="103.5" customHeight="1">
       <c r="A18" s="7" t="s">
         <v>287</v>
       </c>
@@ -5938,7 +6015,7 @@
       <c r="AH18" s="2"/>
       <c r="AMJ18"/>
     </row>
-    <row r="19" spans="1:1024" s="14" customFormat="1" ht="140.1" customHeight="1">
+    <row r="19" spans="1:1024" s="14" customFormat="1" ht="140.1" hidden="1" customHeight="1">
       <c r="A19" s="7" t="s">
         <v>305</v>
       </c>
@@ -6025,7 +6102,7 @@
       <c r="AH19" s="2"/>
       <c r="AMJ19"/>
     </row>
-    <row r="20" spans="1:1024" s="14" customFormat="1" ht="189.95" customHeight="1">
+    <row r="20" spans="1:1024" s="14" customFormat="1" ht="189.95" hidden="1" customHeight="1">
       <c r="A20" s="7" t="s">
         <v>320</v>
       </c>
@@ -6112,7 +6189,7 @@
       <c r="AH20" s="5"/>
       <c r="AMJ20"/>
     </row>
-    <row r="21" spans="1:1024" s="14" customFormat="1" ht="233.1" customHeight="1">
+    <row r="21" spans="1:1024" s="14" customFormat="1" ht="233.1" hidden="1" customHeight="1">
       <c r="A21" s="7" t="s">
         <v>328</v>
       </c>
@@ -6199,7 +6276,7 @@
       <c r="AH21" s="2"/>
       <c r="AMJ21"/>
     </row>
-    <row r="22" spans="1:1024" s="6" customFormat="1" ht="198.95" customHeight="1">
+    <row r="22" spans="1:1024" s="6" customFormat="1" ht="198.95" hidden="1" customHeight="1">
       <c r="A22" s="18" t="s">
         <v>337</v>
       </c>
@@ -6286,7 +6363,7 @@
       <c r="AH22" s="5"/>
       <c r="AMJ22"/>
     </row>
-    <row r="23" spans="1:1024" s="6" customFormat="1" ht="153" customHeight="1">
+    <row r="23" spans="1:1024" s="6" customFormat="1" ht="153" hidden="1" customHeight="1">
       <c r="A23" s="7" t="s">
         <v>353</v>
       </c>
@@ -6460,7 +6537,7 @@
       <c r="AH24" s="2"/>
       <c r="AMJ24"/>
     </row>
-    <row r="25" spans="1:1024" s="6" customFormat="1" ht="216" customHeight="1">
+    <row r="25" spans="1:1024" s="6" customFormat="1" ht="216" hidden="1" customHeight="1">
       <c r="A25" s="7" t="s">
         <v>382</v>
       </c>
@@ -6547,7 +6624,7 @@
       <c r="AH25" s="5"/>
       <c r="AMJ25"/>
     </row>
-    <row r="26" spans="1:1024" s="6" customFormat="1" ht="228" customHeight="1">
+    <row r="26" spans="1:1024" s="6" customFormat="1" ht="228" hidden="1" customHeight="1">
       <c r="A26" s="7" t="s">
         <v>397</v>
       </c>
@@ -6636,7 +6713,7 @@
       <c r="AH26" s="2"/>
       <c r="AMJ26"/>
     </row>
-    <row r="27" spans="1:1024" s="6" customFormat="1" ht="201.95" customHeight="1">
+    <row r="27" spans="1:1024" s="6" customFormat="1" ht="201.95" hidden="1" customHeight="1">
       <c r="A27" s="7" t="s">
         <v>412</v>
       </c>
@@ -6725,7 +6802,7 @@
       <c r="AH27" s="2"/>
       <c r="AMJ27"/>
     </row>
-    <row r="28" spans="1:1024" s="6" customFormat="1" ht="215.1" customHeight="1">
+    <row r="28" spans="1:1024" s="6" customFormat="1" ht="215.1" hidden="1" customHeight="1">
       <c r="A28" s="7" t="s">
         <v>422</v>
       </c>
@@ -6812,7 +6889,7 @@
       <c r="AH28" s="2"/>
       <c r="AMJ28"/>
     </row>
-    <row r="29" spans="1:1024" s="6" customFormat="1" ht="221.1" customHeight="1">
+    <row r="29" spans="1:1024" s="6" customFormat="1" ht="221.1" hidden="1" customHeight="1">
       <c r="A29" s="7" t="s">
         <v>435</v>
       </c>
@@ -6903,7 +6980,7 @@
       <c r="AH29" s="12"/>
       <c r="AMJ29"/>
     </row>
-    <row r="30" spans="1:1024" s="2" customFormat="1" ht="140.1" customHeight="1">
+    <row r="30" spans="1:1024" s="2" customFormat="1" ht="140.1" hidden="1" customHeight="1">
       <c r="A30" s="7" t="s">
         <v>448</v>
       </c>
@@ -6985,7 +7062,7 @@
       <c r="AH30" s="5"/>
       <c r="AMJ30"/>
     </row>
-    <row r="31" spans="1:1024" s="6" customFormat="1" ht="152.1" customHeight="1">
+    <row r="31" spans="1:1024" s="6" customFormat="1" ht="152.1" hidden="1" customHeight="1">
       <c r="A31" s="7" t="s">
         <v>463</v>
       </c>
@@ -7070,7 +7147,7 @@
       <c r="AH31" s="8"/>
       <c r="AMJ31"/>
     </row>
-    <row r="32" spans="1:1024" s="2" customFormat="1" ht="294" customHeight="1">
+    <row r="32" spans="1:1024" s="2" customFormat="1" ht="294" hidden="1" customHeight="1">
       <c r="A32" s="7" t="s">
         <v>477</v>
       </c>
@@ -7156,7 +7233,7 @@
       <c r="AH32" s="5"/>
       <c r="AMJ32"/>
     </row>
-    <row r="33" spans="1:1024" s="6" customFormat="1" ht="264">
+    <row r="33" spans="1:1024" s="6" customFormat="1" ht="264" hidden="1">
       <c r="A33" s="7" t="s">
         <v>490</v>
       </c>
@@ -7243,7 +7320,7 @@
       <c r="AH33" s="2"/>
       <c r="AMJ33"/>
     </row>
-    <row r="34" spans="1:1024" s="6" customFormat="1" ht="228">
+    <row r="34" spans="1:1024" s="6" customFormat="1" ht="228" hidden="1">
       <c r="A34" s="18" t="s">
         <v>502</v>
       </c>
@@ -7332,7 +7409,7 @@
       <c r="AH34" s="5"/>
       <c r="AMJ34"/>
     </row>
-    <row r="35" spans="1:1024" s="6" customFormat="1" ht="288">
+    <row r="35" spans="1:1024" s="6" customFormat="1" ht="288" hidden="1">
       <c r="A35" s="18" t="s">
         <v>519</v>
       </c>
@@ -7421,7 +7498,7 @@
       <c r="AH35" s="5"/>
       <c r="AMJ35"/>
     </row>
-    <row r="36" spans="1:1024" ht="192">
+    <row r="36" spans="1:1024" ht="192" hidden="1">
       <c r="A36" s="7" t="s">
         <v>531</v>
       </c>
@@ -7498,7 +7575,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="37" spans="1:1024" ht="204">
+    <row r="37" spans="1:1024" ht="204" hidden="1">
       <c r="A37" s="7" t="s">
         <v>543</v>
       </c>
@@ -7582,7 +7659,7 @@
       <c r="AG37" s="2"/>
       <c r="AH37" s="2"/>
     </row>
-    <row r="38" spans="1:1024" ht="192">
+    <row r="38" spans="1:1024" ht="192" hidden="1">
       <c r="A38" s="18" t="s">
         <v>558</v>
       </c>
@@ -7657,7 +7734,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="39" spans="1:1024" ht="384">
+    <row r="39" spans="1:1024" ht="384" hidden="1">
       <c r="A39" s="7" t="s">
         <v>572</v>
       </c>
@@ -7734,7 +7811,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="40" spans="1:1024" ht="168">
+    <row r="40" spans="1:1024" ht="168" hidden="1">
       <c r="A40" s="7" t="s">
         <v>587</v>
       </c>
@@ -7818,7 +7895,7 @@
       <c r="AG40" s="2"/>
       <c r="AH40" s="2"/>
     </row>
-    <row r="41" spans="1:1024" ht="300">
+    <row r="41" spans="1:1024" ht="300" hidden="1">
       <c r="A41" s="18" t="s">
         <v>600</v>
       </c>
@@ -7893,7 +7970,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="42" spans="1:1024" ht="276">
+    <row r="42" spans="1:1024" ht="276" hidden="1">
       <c r="A42" s="18" t="s">
         <v>614</v>
       </c>
@@ -7968,7 +8045,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="43" spans="1:1024" ht="252">
+    <row r="43" spans="1:1024" ht="252" hidden="1">
       <c r="A43" s="18" t="s">
         <v>627</v>
       </c>
@@ -8046,7 +8123,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="44" spans="1:1024" ht="153" customHeight="1">
+    <row r="44" spans="1:1024" ht="153" hidden="1" customHeight="1">
       <c r="A44" s="7" t="s">
         <v>643</v>
       </c>
@@ -8133,7 +8210,7 @@
       <c r="AG44" s="2"/>
       <c r="AH44" s="2"/>
     </row>
-    <row r="45" spans="1:1024" ht="360">
+    <row r="45" spans="1:1024" ht="360" hidden="1">
       <c r="A45" s="18" t="s">
         <v>661</v>
       </c>
@@ -8207,7 +8284,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="46" spans="1:1024" ht="228">
+    <row r="46" spans="1:1024" ht="228" hidden="1">
       <c r="A46" s="7" t="s">
         <v>675</v>
       </c>
@@ -8287,7 +8364,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="47" spans="1:1024" ht="300">
+    <row r="47" spans="1:1024" ht="300" hidden="1">
       <c r="A47" s="7" t="s">
         <v>691</v>
       </c>
@@ -8361,7 +8438,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="48" spans="1:1024" ht="168">
+    <row r="48" spans="1:1024" ht="168" hidden="1">
       <c r="A48" s="7" t="s">
         <v>705</v>
       </c>
@@ -8435,7 +8512,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="49" spans="1:26" ht="144">
+    <row r="49" spans="1:26" ht="144" hidden="1">
       <c r="A49" s="7" t="s">
         <v>719</v>
       </c>
@@ -8512,7 +8589,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="50" spans="1:26" ht="384.75">
+    <row r="50" spans="1:26" ht="31.5" hidden="1" customHeight="1">
       <c r="A50" s="7" t="s">
         <v>730</v>
       </c>
@@ -8586,7 +8663,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="51" spans="1:26" ht="300">
+    <row r="51" spans="1:26" ht="25.5" hidden="1" customHeight="1">
       <c r="A51" s="7" t="s">
         <v>741</v>
       </c>
@@ -8660,7 +8737,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="52" spans="1:26" ht="155.1" customHeight="1">
+    <row r="52" spans="1:26" ht="19.5" hidden="1" customHeight="1">
       <c r="A52" s="7" t="s">
         <v>753</v>
       </c>
@@ -8734,7 +8811,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="53" spans="1:26" ht="409.6">
+    <row r="53" spans="1:26" ht="146.25" hidden="1" customHeight="1">
       <c r="A53" s="7" t="s">
         <v>768</v>
       </c>
@@ -8808,8 +8885,82 @@
         <v>183</v>
       </c>
     </row>
-    <row r="54" spans="1:26">
-      <c r="A54" s="7"/>
+    <row r="54" spans="1:26" ht="33.75" hidden="1" customHeight="1">
+      <c r="A54" s="7" t="s">
+        <v>783</v>
+      </c>
+      <c r="B54" s="21" t="s">
+        <v>784</v>
+      </c>
+      <c r="C54" s="32" t="s">
+        <v>785</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="H54" s="2">
+        <v>1961</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="K54" s="2">
+        <v>411</v>
+      </c>
+      <c r="L54" s="2">
+        <v>365</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="N54" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="O54" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="P54" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="Q54" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R54" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="S54" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="T54" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="U54" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="V54" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="W54" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y54" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="Z54" s="4" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="55" spans="1:26">
       <c r="A55" s="7"/>
@@ -8911,7 +9062,14 @@
       <c r="A87" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AH53" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A1:AH54" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="ELSA"/>
+        <filter val="GSSFHS"/>
+        <filter val="IMAGEN"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AH47">
       <sortCondition ref="A1:A47"/>
     </sortState>

--- a/xlsx/Old/studies.xlsx
+++ b/xlsx/Old/studies.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emckclac-my.sharepoint.com/personal/k1780970_kcl_ac_uk/Documents/1. Catalogue + work documents/1. Catalogue shared files/1. Catalogue/2. Catalogue study updates/Resource folders/cmhm_20May22/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="634" documentId="13_ncr:1_{6F82A259-41A7-4DF6-B3CE-4CB00C898517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5DAA5005-9160-458A-A748-811A5BE69EF2}"/>
+  <xr:revisionPtr revIDLastSave="640" documentId="13_ncr:1_{6F82A259-41A7-4DF6-B3CE-4CB00C898517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{750BC0F4-85F3-41AF-B2DA-39F8D370BFEA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1409,7 +1409,7 @@
     <t>1994-5</t>
   </si>
   <si>
-    <t xml:space="preserve">Project proposal - see data access guidance &lt;a href="https://sites.duke.edu/moffittcaspiprojects/data-use-guidelines/&lt;/a&gt; </t>
+    <t xml:space="preserve">Project proposal - see data access guidance &lt;br&gt; &lt;a href="https://sites.duke.edu/moffittcaspiprojects/data-use-guidelines/"&gt;sites.duke.edu/moffittcaspiprojects/data-use-guidelines/&lt;/a&gt; </t>
   </si>
   <si>
     <t>Crime and justice data,
@@ -1494,7 +1494,7 @@
   </si>
   <si>
     <t>Available on ESS Data Portal &lt;br&gt;
-&lt;a href="https://ess-search.nsd.no/"&gt;https://ess-search.nsd.no/&lt;/a&gt;</t>
+&lt;a href="https://ess-search.nsd.no/"&gt;ess-search.nsd.no/&lt;/a&gt;</t>
   </si>
   <si>
     <t>See &lt;a href="https://www.europeansocialsurvey.org/"&gt;europeansocialsurvey.org&lt;/a&gt;</t>
@@ -2352,8 +2352,8 @@
 &lt;a href="http://dx.doi.org/10.14301/llcs.v7i4.410"&gt;doi.org/10.14301/llcs.v7i4.410&lt;/a&gt; &lt;br&gt;&lt;br&gt; 
 &lt;b&gt;&lt;u&gt;Impactful papers using study data&lt;/b&gt;&lt;/u&gt;&lt;br&gt;
 The association between adolescent well-being and digital technology use. &lt;a href="https://doi.org/10.1038/s41562-018-0506-1"&gt;doi.org/10.1038/s41562-018-0506-1&lt;/a&gt;&lt;br&gt;
-Economic deprivation, maternal depression, parenting and children's cognitive and emotional development in early childhood 1. &lt;a href="https://doi.org/10.1111/j.1468-4446.2008.00219.x"&gt;doi.org/10.1111/j.1468-4446.2008.00219.x&lt;/a&gt;&lt;br&gt;
-Correlates of mental illness and wellbeing in children: are they the same? Results from the UK Millennium Cohort Study.  &lt;a href="https://doi.org/10.1016/j.jaac.2016.05.019"&gt;doi.org/10.1016/j.jaac.2016.05.019&lt;/a&gt;</t>
+Economic deprivation, maternal depression, parenting and children's cognitive and emotional development in early childhood. &lt;a href="https://doi.org/10.1111/j.1468-4446.2008.00219.x"&gt;doi.org/10.1111/j.1468-4446.2008.00219.x&lt;/a&gt;&lt;br&gt;
+Correlates of mental illness and wellbeing in children: Are they the same? Results from the UK Millennium Cohort Study.  &lt;a href="https://doi.org/10.1016/j.jaac.2016.05.019"&gt;doi.org/10.1016/j.jaac.2016.05.019&lt;/a&gt;</t>
   </si>
   <si>
     <t>ESRC DfE DoHSC DfWP DfT HOUK MoJ NIE Scot Welsh ONS Wellcome DHHS NIH&lt;br&gt;
@@ -4460,8 +4460,8 @@
   <dimension ref="A1:AMJ87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="J11" sqref="J11"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="O19" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="P20" sqref="P20"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="V1" sqref="V1"/>
     </sheetView>

--- a/xlsx/Old/studies.xlsx
+++ b/xlsx/Old/studies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emckclac-my.sharepoint.com/personal/k1780970_kcl_ac_uk/Documents/1. Catalogue + work documents/1. Catalogue shared files/1. Catalogue/2. Catalogue study updates/Resource folders/cmhm_20May22/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\john\workspace\catalogueMentalHealth\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="640" documentId="13_ncr:1_{6F82A259-41A7-4DF6-B3CE-4CB00C898517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{750BC0F4-85F3-41AF-B2DA-39F8D370BFEA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B551BB2F-4ED4-4435-B53A-A9551AE02B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19260" yWindow="4065" windowWidth="18975" windowHeight="15885" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study details" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="826">
   <si>
     <t>Code</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>ADVANCE</t>
+  </si>
+  <si>
+    <t>ADVANCE (Armed Services Trauma Rehabilitation Outcome Study)</t>
   </si>
   <si>
     <t xml:space="preserve">The Armed Services Trauma Rehabilitation Outcome (ADVANCE) Study is a prospective longitudinal cohort study investigating the long-term physical and psychosocial outcomes of UK military personnel who sustained severe combat-related trauma during the Afghanistan conflict. ADVANCE aims to study the incidence of a wide variety of outcomes, including cardiovascular and musculoskeletal disease, mental health, functional and social outcomes, quality of life, employment, and mortality. Data is collected using various methods, including self-report questionnaires and clinical assessments. </t>
@@ -1114,7 +1117,7 @@
     <t>CSDD</t>
   </si>
   <si>
-    <t>The Cambridge Study in Delinquent Development</t>
+    <t>The Cambridge Study in Delinquent Development (CSDD)</t>
   </si>
   <si>
     <t xml:space="preserve">The Cambridge Study in Delinquent Development (CSDD) is a prospective longitudinal cohort study of 411 males living in South London, first assessed in 1961. The original aim of the CSDD was to describe the development of delinquent and criminal behaviour in inner-city males, to investigate to what extent this could be predicted in advance, why juvenile delinquency began, and why it did or did not continue into adulthood. The focus was also on continuity in behavioural development, on the effects of life events on development, and on predicting future behaviour. The study was not set up to test any one particular theory of delinquency but aimed to test many different hypotheses about the causes and correlates of offending. </t>
@@ -1996,7 +1999,7 @@
     <t>The IMAGEN study is a large‐scale, longitudinal, imaging genetic study that combines brain imaging, genetics, and psychiatry to increase our understanding of adolescent brain development and behaviour – namely, sensitivity to rewards, impulsivity, and emotional processing. Research teams from London, Nottingham, Dublin, Paris, Berlin, Hamburg, Mannheim and Dresden have been following 2,000 young people and their parents from the age of 14, collecting data from brain imaging, cognitive and behavioural assessments, questionnaires and blood sampling.</t>
   </si>
   <si>
-    <t>&lt;a href="https://imagen-europe.com/"&gt;imagen-europe.com&lt;/a&gt;</t>
+    <t>&lt;a href="https://imagen-project.org/"&gt;imagen-project.org&lt;/a&gt;</t>
   </si>
   <si>
     <t>England &lt;br&gt;
@@ -2947,9 +2950,6 @@
     <t>Neuroscience in Psychiatry Network (NSPN), University of Cambridge</t>
   </si>
   <si>
-    <t>&lt;a href="http://www.roots.group.cam.ac.uk/"&gt;roots.group.cam.ac.uk&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>Cambridgeshire</t>
   </si>
   <si>
@@ -3007,7 +3007,7 @@
     <t>Institute of Cardiovascular Science, University College London</t>
   </si>
   <si>
-    <t>&lt;a href="https://mrc.ukri.org/research/facilities-and-resources-for-researchers/cohort-directory/southall-and-brent-revisited-sabre/"&gt;mrc.ukri.org/research/facilities-and-resources-for-researchers/cohort-directory/southall-and-brent-revisited-sabre&lt;/a&gt;</t>
+    <t>&lt;a href="https://www.sabrestudy.org/"&gt;sabrestudy.org&lt;/a&gt;</t>
   </si>
   <si>
     <t>London - Southall; Brent</t>
@@ -3812,7 +3812,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -4460,13 +4460,13 @@
   <dimension ref="A1:AMJ87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="O19" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="P20" sqref="P20"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="V1" sqref="V1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="V1" sqref="V1"/>
+      <selection pane="bottomRight" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="46.28515625" style="20" customWidth="1"/>
@@ -4500,7 +4500,7 @@
     <col min="1025" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="26" customFormat="1" ht="24" customHeight="1">
+    <row r="1" spans="1:1024" s="26" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -4590,79 +4590,79 @@
       <c r="AG1" s="25"/>
       <c r="AH1" s="25"/>
     </row>
-    <row r="2" spans="1:1024" s="11" customFormat="1" ht="195" customHeight="1">
+    <row r="2" spans="1:1024" s="11" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H2" s="2">
         <v>2015</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="S2" s="2"/>
       <c r="T2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X2" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z2" s="4"/>
       <c r="AA2" s="34"/>
@@ -4675,82 +4675,82 @@
       <c r="AH2" s="5"/>
       <c r="AMJ2" s="6"/>
     </row>
-    <row r="3" spans="1:1024" s="14" customFormat="1" ht="126.75" customHeight="1">
+    <row r="3" spans="1:1024" s="14" customFormat="1" ht="126.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H3" s="8">
         <v>2007</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="S3" s="2"/>
       <c r="T3" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="W3" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X3" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Z3" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AA3" s="33"/>
       <c r="AB3" s="8"/>
@@ -4762,82 +4762,82 @@
       <c r="AH3" s="8"/>
       <c r="AMJ3" s="6"/>
     </row>
-    <row r="4" spans="1:1024" s="14" customFormat="1" ht="135.75" customHeight="1">
+    <row r="4" spans="1:1024" s="14" customFormat="1" ht="135.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H4" s="2">
         <v>2004</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K4" s="9">
         <v>53000</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S4" s="2"/>
       <c r="T4" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="U4" s="36" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W4" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X4" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Z4" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA4" s="34"/>
       <c r="AB4" s="5"/>
@@ -4849,85 +4849,85 @@
       <c r="AH4" s="5"/>
       <c r="AMJ4" s="6"/>
     </row>
-    <row r="5" spans="1:1024" s="2" customFormat="1" ht="110.1" customHeight="1">
+    <row r="5" spans="1:1024" s="2" customFormat="1" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H5" s="8">
         <v>1990</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="P5" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="T5" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="W5" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="P5" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="T5" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="W5" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="X5" s="4"/>
       <c r="Y5" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Z5" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AA5" s="34" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AB5" s="5"/>
       <c r="AC5" s="5"/>
@@ -4938,82 +4938,82 @@
       <c r="AH5" s="5"/>
       <c r="AMJ5" s="6"/>
     </row>
-    <row r="6" spans="1:1024" s="14" customFormat="1" ht="264">
+    <row r="6" spans="1:1024" s="14" customFormat="1" ht="276" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H6" s="8">
         <v>1993</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J6" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="W6" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="V6" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="W6" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="X6" s="4"/>
       <c r="Y6" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Z6" s="10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AA6" s="34"/>
       <c r="AB6" s="5"/>
@@ -5025,79 +5025,79 @@
       <c r="AH6" s="5"/>
       <c r="AMJ6" s="6"/>
     </row>
-    <row r="7" spans="1:1024" s="16" customFormat="1" ht="131.1" customHeight="1">
+    <row r="7" spans="1:1024" s="16" customFormat="1" ht="131.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="S7" s="2"/>
       <c r="T7" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="V7" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="W7" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="X7" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Y7" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Z7" s="4"/>
       <c r="AA7" s="34"/>
@@ -5110,80 +5110,80 @@
       <c r="AH7" s="5"/>
       <c r="AMJ7" s="6"/>
     </row>
-    <row r="8" spans="1:1024" s="14" customFormat="1" ht="120" customHeight="1">
+    <row r="8" spans="1:1024" s="14" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H8" s="2">
         <v>2006</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="S8" s="2"/>
       <c r="T8" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="V8" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="W8" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X8" s="4"/>
       <c r="Y8" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z8" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AA8" s="34"/>
       <c r="AB8" s="5"/>
@@ -5195,82 +5195,82 @@
       <c r="AH8" s="5"/>
       <c r="AMJ8" s="6"/>
     </row>
-    <row r="9" spans="1:1024" s="14" customFormat="1" ht="123.95" customHeight="1">
+    <row r="9" spans="1:1024" s="14" customFormat="1" ht="123.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H9" s="8">
         <v>1970</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O9" s="8">
         <v>1970</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="W9" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="X9" s="10"/>
       <c r="Y9" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Z9" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AA9" s="34"/>
       <c r="AB9" s="2"/>
@@ -5282,82 +5282,82 @@
       <c r="AH9" s="2"/>
       <c r="AMJ9" s="6"/>
     </row>
-    <row r="10" spans="1:1024" s="14" customFormat="1" ht="96" customHeight="1">
+    <row r="10" spans="1:1024" s="14" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H10" s="8">
         <v>2007</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L10" s="17" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="S10" s="2"/>
       <c r="T10" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="W10" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="X10" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Y10" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Z10" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AA10" s="34"/>
       <c r="AB10" s="2"/>
@@ -5369,82 +5369,82 @@
       <c r="AH10" s="2"/>
       <c r="AMJ10" s="6"/>
     </row>
-    <row r="11" spans="1:1024" s="14" customFormat="1" ht="155.1" customHeight="1">
+    <row r="11" spans="1:1024" s="14" customFormat="1" ht="155.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H11" s="8">
         <v>2016</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O11" s="8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="S11" s="2"/>
       <c r="T11" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="V11" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="W11" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="X11" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Y11" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Z11" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA11" s="34"/>
       <c r="AB11" s="2"/>
@@ -5456,82 +5456,82 @@
       <c r="AH11" s="2"/>
       <c r="AMJ11" s="6"/>
     </row>
-    <row r="12" spans="1:1024" s="14" customFormat="1" ht="207.95" customHeight="1">
+    <row r="12" spans="1:1024" s="14" customFormat="1" ht="207.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C12" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>197</v>
-      </c>
       <c r="E12" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H12" s="8">
         <v>2006</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O12" s="8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="S12" s="2"/>
       <c r="T12" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="W12" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X12" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y12" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Z12" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AA12" s="34"/>
       <c r="AB12" s="5"/>
@@ -5543,82 +5543,82 @@
       <c r="AH12" s="5"/>
       <c r="AMJ12" s="6"/>
     </row>
-    <row r="13" spans="1:1024" s="14" customFormat="1" ht="141.94999999999999" customHeight="1">
+    <row r="13" spans="1:1024" s="14" customFormat="1" ht="141.94999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H13" s="8">
         <v>2008</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K13" s="13">
         <v>7762</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="S13" s="2"/>
       <c r="T13" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="V13" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="W13" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X13" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y13" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Z13" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AA13" s="34"/>
       <c r="AB13" s="5"/>
@@ -5630,82 +5630,82 @@
       <c r="AH13" s="5"/>
       <c r="AMJ13" s="6"/>
     </row>
-    <row r="14" spans="1:1024" s="16" customFormat="1" ht="162.75" customHeight="1">
+    <row r="14" spans="1:1024" s="16" customFormat="1" ht="162.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H14" s="8">
         <v>1989</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K14" s="13">
         <v>7365</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="S14" s="2"/>
       <c r="T14" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="V14" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="W14" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X14" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y14" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Z14" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AA14" s="34"/>
       <c r="AB14" s="5"/>
@@ -5717,81 +5717,81 @@
       <c r="AH14" s="5"/>
       <c r="AMJ14" s="6"/>
     </row>
-    <row r="15" spans="1:1024" s="2" customFormat="1" ht="129.94999999999999" customHeight="1">
+    <row r="15" spans="1:1024" s="2" customFormat="1" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H15" s="8">
         <v>2011</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K15" s="13">
         <v>2197</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="V15" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="W15" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X15" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y15" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Z15" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AA15" s="34"/>
       <c r="AB15" s="5"/>
@@ -5803,36 +5803,36 @@
       <c r="AH15" s="5"/>
       <c r="AMJ15" s="6"/>
     </row>
-    <row r="16" spans="1:1024" s="14" customFormat="1" ht="87" customHeight="1">
+    <row r="16" spans="1:1024" s="14" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H16" s="2">
         <v>1961</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K16" s="2">
         <v>411</v>
@@ -5841,44 +5841,44 @@
         <v>365</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="W16" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X16" s="4"/>
       <c r="Y16" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Z16" s="10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AA16" s="34"/>
       <c r="AB16" s="5"/>
@@ -5890,79 +5890,79 @@
       <c r="AH16" s="5"/>
       <c r="AMJ16" s="6"/>
     </row>
-    <row r="17" spans="1:1024" s="14" customFormat="1" ht="183.95" customHeight="1">
+    <row r="17" spans="1:1024" s="14" customFormat="1" ht="183.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K17" s="13">
         <v>6643</v>
       </c>
       <c r="L17" s="13" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="S17" s="2"/>
       <c r="T17" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="W17" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X17" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Y17" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Z17" s="10"/>
       <c r="AA17" s="34"/>
@@ -5975,82 +5975,82 @@
       <c r="AH17" s="2"/>
       <c r="AMJ17" s="6"/>
     </row>
-    <row r="18" spans="1:1024" s="14" customFormat="1" ht="103.5" customHeight="1">
+    <row r="18" spans="1:1024" s="14" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H18" s="8">
         <v>2002</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K18" s="13" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L18" s="13">
         <v>7222</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q18" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R18" s="15" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="S18" s="2"/>
       <c r="T18" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="V18" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="W18" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X18" s="10" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y18" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Z18" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AA18" s="34"/>
       <c r="AB18" s="2"/>
@@ -6062,79 +6062,79 @@
       <c r="AH18" s="2"/>
       <c r="AMJ18" s="6"/>
     </row>
-    <row r="19" spans="1:1024" s="14" customFormat="1" ht="140.1" customHeight="1">
+    <row r="19" spans="1:1024" s="14" customFormat="1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="18" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H19" s="8">
         <v>2003</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="S19" s="5"/>
       <c r="T19" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="W19" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="X19" s="4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Y19" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z19" s="4"/>
       <c r="AA19" s="34"/>
@@ -6147,80 +6147,80 @@
       <c r="AH19" s="5"/>
       <c r="AMJ19" s="6"/>
     </row>
-    <row r="20" spans="1:1024" s="14" customFormat="1" ht="189.95" customHeight="1">
+    <row r="20" spans="1:1024" s="14" customFormat="1" ht="189.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H20" s="8">
         <v>1998</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="S20" s="2"/>
       <c r="T20" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="U20" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="V20" s="3" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="W20" s="4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="X20" s="4"/>
       <c r="Y20" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Z20" s="10" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AA20" s="34"/>
       <c r="AB20" s="5"/>
@@ -6232,79 +6232,79 @@
       <c r="AH20" s="5"/>
       <c r="AMJ20" s="6"/>
     </row>
-    <row r="21" spans="1:1024" s="14" customFormat="1" ht="233.1" customHeight="1">
+    <row r="21" spans="1:1024" s="14" customFormat="1" ht="233.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H21" s="8">
         <v>2002</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="S21" s="2"/>
       <c r="T21" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="U21" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="V21" s="3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="W21" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="X21" s="4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Y21" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z21" s="4"/>
       <c r="AA21" s="34"/>
@@ -6317,230 +6317,230 @@
       <c r="AH21" s="5"/>
       <c r="AMJ21" s="6"/>
     </row>
-    <row r="22" spans="1:1024" ht="198.95" customHeight="1">
+    <row r="22" spans="1:1024" ht="198.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H22" s="2">
         <v>1990</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J22" s="14" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T22" s="8" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="U22" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="V22" s="3" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="W22" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="X22" s="4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Y22" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:1024" ht="153" customHeight="1">
+    <row r="23" spans="1:1024" ht="153" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H23" s="2">
         <v>2008</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J23" s="39" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="O23" s="2">
         <v>2007</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="U23" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="V23" s="3" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="W23" s="4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Y23" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Z23" s="19" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
-    <row r="24" spans="1:1024" ht="186.95" customHeight="1">
+    <row r="24" spans="1:1024" ht="186.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="O24" s="8" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="U24" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="V24" s="3" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="W24" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X24" s="10"/>
       <c r="Y24" s="3" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Z24" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA24" s="34" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AB24" s="2"/>
       <c r="AC24" s="2"/>
@@ -6550,82 +6550,82 @@
       <c r="AG24" s="2"/>
       <c r="AH24" s="2"/>
     </row>
-    <row r="25" spans="1:1024" ht="216" customHeight="1">
+    <row r="25" spans="1:1024" ht="216" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H25" s="8">
         <v>2005</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O25" s="8" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="U25" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="V25" s="3" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="W25" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="X25" s="10"/>
       <c r="Y25" s="3" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Z25" s="10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AB25" s="2"/>
       <c r="AC25" s="2"/>
@@ -6635,159 +6635,159 @@
       <c r="AG25" s="2"/>
       <c r="AH25" s="2"/>
     </row>
-    <row r="26" spans="1:1024" ht="228" customHeight="1">
+    <row r="26" spans="1:1024" ht="228" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H26" s="8">
         <v>2005</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="U26" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="V26" s="3" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="W26" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Y26" s="3" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Z26" s="10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
-    <row r="27" spans="1:1024" ht="201.95" customHeight="1">
+    <row r="27" spans="1:1024" ht="201.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H27" s="8">
         <v>2005</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="O27" s="8" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="U27" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="V27" s="3" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="W27" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X27" s="10"/>
       <c r="Y27" s="3" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Z27" s="10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AB27" s="2"/>
       <c r="AC27" s="2"/>
@@ -6797,158 +6797,158 @@
       <c r="AG27" s="2"/>
       <c r="AH27" s="2"/>
     </row>
-    <row r="28" spans="1:1024" ht="215.1" customHeight="1">
+    <row r="28" spans="1:1024" ht="215.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="18" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="O28" s="8" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="U28" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="V28" s="3" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="W28" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X28" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y28" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Z28" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:1024" ht="221.1" customHeight="1">
+    <row r="29" spans="1:1024" ht="221.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C29" s="30" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="O29" s="8" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="U29" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="V29" s="3" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="W29" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X29" s="10" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Y29" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Z29" s="10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AB29" s="2"/>
       <c r="AC29" s="2"/>
@@ -6958,115 +6958,115 @@
       <c r="AG29" s="2"/>
       <c r="AH29" s="2"/>
     </row>
-    <row r="30" spans="1:1024" s="2" customFormat="1" ht="140.1" customHeight="1">
+    <row r="30" spans="1:1024" s="2" customFormat="1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="H30" s="8">
         <v>2007</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="K30" s="13">
         <v>2000</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="O30" s="8">
         <v>1993</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="U30" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="V30" s="3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="W30" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X30" s="10" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Y30" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z30" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AA30" s="34"/>
       <c r="AMJ30" s="6"/>
     </row>
-    <row r="31" spans="1:1024" ht="152.1" customHeight="1">
+    <row r="31" spans="1:1024" ht="152.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C31" s="30" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H31" s="8">
         <v>2003</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="K31" s="13">
         <v>10272</v>
@@ -7075,205 +7075,205 @@
         <v>8093</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="U31" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="V31" s="3" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="W31" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X31" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Y31" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z31" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
-    <row r="32" spans="1:1024" s="2" customFormat="1" ht="294" customHeight="1">
+    <row r="32" spans="1:1024" s="2" customFormat="1" ht="294" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H32" s="8">
         <v>1932</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="O32" s="8">
         <v>1921</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="U32" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="V32" s="3" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="W32" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="X32" s="10" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y32" s="3" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="Z32" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA32" s="34"/>
       <c r="AMJ32" s="6"/>
     </row>
-    <row r="33" spans="1:34" ht="213.75">
+    <row r="33" spans="1:34" ht="204" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C33" s="30" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H33" s="8">
         <v>1947</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="O33" s="8">
         <v>1936</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S33" s="2" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="U33" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="V33" s="3" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="W33" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="X33" s="10" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y33" s="3" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="Z33" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AB33" s="2"/>
       <c r="AC33" s="2"/>
@@ -7283,82 +7283,82 @@
       <c r="AG33" s="2"/>
       <c r="AH33" s="2"/>
     </row>
-    <row r="34" spans="1:34" ht="264">
+    <row r="34" spans="1:34" ht="300" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C34" s="30" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H34" s="8">
         <v>2004</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="K34" s="13">
         <v>15770</v>
       </c>
       <c r="L34" s="8" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="O34" s="8" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="U34" s="2" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="V34" s="3" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="W34" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X34" s="10"/>
       <c r="Y34" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Z34" s="10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AB34" s="2"/>
       <c r="AC34" s="2"/>
@@ -7368,87 +7368,87 @@
       <c r="AG34" s="2"/>
       <c r="AH34" s="2"/>
     </row>
-    <row r="35" spans="1:34" ht="301.5">
+    <row r="35" spans="1:34" ht="288" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C35" s="30" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H35" s="8">
         <v>2000</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="L35" s="9" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O35" s="8">
         <v>2000</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R35" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="U35" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="V35" s="3" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="W35" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="X35" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Y35" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z35" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AA35" s="35" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AB35" s="12"/>
       <c r="AC35" s="12"/>
@@ -7458,149 +7458,149 @@
       <c r="AG35" s="12"/>
       <c r="AH35" s="12"/>
     </row>
-    <row r="36" spans="1:34" ht="162.75">
+    <row r="36" spans="1:34" ht="180" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C36" s="30" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H36" s="8">
         <v>1999</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="U36" s="2" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="V36" s="3" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="W36" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Y36" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:34" ht="150.75">
+    <row r="37" spans="1:34" ht="168" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C37" s="30" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H37" s="8">
         <v>1996</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J37" s="15" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="K37" s="13">
         <v>1319475</v>
       </c>
       <c r="L37" s="13" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="O37" s="8" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="Q37" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R37" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T37" s="2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="U37" s="2" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="V37" s="3" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="W37" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X37" s="10" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y37" s="3" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="Z37" s="10"/>
       <c r="AA37" s="33"/>
@@ -7612,159 +7612,159 @@
       <c r="AG37" s="8"/>
       <c r="AH37" s="8"/>
     </row>
-    <row r="38" spans="1:34" ht="213.75">
+    <row r="38" spans="1:34" ht="228" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B38" s="28" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C38" s="30" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="H38" s="17">
         <v>2006</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J38" s="15" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="O38" s="8">
         <v>1921</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R38" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T38" s="2" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="U38" s="2" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="V38" s="3" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="W38" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X38" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y38" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Z38" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
-    <row r="39" spans="1:34" ht="264">
+    <row r="39" spans="1:34" ht="264" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H39" s="8">
         <v>1958</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O39" s="8">
         <v>1958</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q39" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R39" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="T39" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="U39" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="V39" s="3" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="W39" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="X39" s="10"/>
       <c r="Y39" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Z39" s="10" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AB39" s="2"/>
       <c r="AC39" s="2"/>
@@ -7774,196 +7774,196 @@
       <c r="AG39" s="2"/>
       <c r="AH39" s="2"/>
     </row>
-    <row r="40" spans="1:34" ht="213.75">
+    <row r="40" spans="1:34" ht="228" x14ac:dyDescent="0.2">
       <c r="A40" s="18" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C40" s="30" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H40" s="8">
         <v>2014</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="K40" s="13">
         <v>8504</v>
       </c>
       <c r="L40" s="13" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="O40" s="8" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R40" s="2" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="T40" s="2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="U40" s="2" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="V40" s="3" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="W40" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X40" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y40" s="3" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="Z40" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
-    <row r="41" spans="1:34" ht="288.75">
+    <row r="41" spans="1:34" ht="276" x14ac:dyDescent="0.2">
       <c r="A41" s="18" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C41" s="30" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H41" s="8">
         <v>1946</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="K41" s="13">
         <v>5362</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O41" s="8">
         <v>1946</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="Q41" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R41" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S41" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="T41" s="2" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="U41" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="V41" s="3" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="W41" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="X41" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y41" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Z41" s="10" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
-    <row r="42" spans="1:34" ht="200.25">
+    <row r="42" spans="1:34" ht="204" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C42" s="30" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H42" s="8">
         <v>2014</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="K42" s="13">
         <v>14000</v>
@@ -7972,120 +7972,120 @@
         <v>25000</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R42" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T42" s="2" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="U42" s="2" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="V42" s="3" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="W42" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X42" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y42" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z42" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
-    <row r="43" spans="1:34" ht="200.25">
+    <row r="43" spans="1:34" ht="192" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C43" s="30" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H43" s="8">
         <v>2015</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="O43" s="8" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R43" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T43" s="2" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="U43" s="2" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="V43" s="3" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="W43" s="10" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="X43" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Y43" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Z43" s="10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AB43" s="2"/>
       <c r="AC43" s="2"/>
@@ -8095,24 +8095,21 @@
       <c r="AG43" s="2"/>
       <c r="AH43" s="2"/>
     </row>
-    <row r="44" spans="1:34" ht="153" customHeight="1">
+    <row r="44" spans="1:34" ht="153" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="18" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C44" s="30" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="E44" s="2" t="s">
         <v>644</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>645</v>
@@ -8121,7 +8118,7 @@
         <v>2006</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>646</v>
@@ -8133,10 +8130,10 @@
         <v>648</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="O44" s="8" t="s">
         <v>649</v>
@@ -8145,10 +8142,10 @@
         <v>650</v>
       </c>
       <c r="Q44" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R44" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="S44" s="5"/>
       <c r="T44" s="2" t="s">
@@ -8161,16 +8158,16 @@
         <v>653</v>
       </c>
       <c r="W44" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y44" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Z44" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
-    <row r="45" spans="1:34" ht="351.75">
+    <row r="45" spans="1:34" ht="384" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
         <v>654</v>
       </c>
@@ -8187,7 +8184,7 @@
         <v>658</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>659</v>
@@ -8196,7 +8193,7 @@
         <v>1988</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>660</v>
@@ -8208,7 +8205,7 @@
         <v>661</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N45" s="2" t="s">
         <v>662</v>
@@ -8220,10 +8217,10 @@
         <v>664</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R45" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T45" s="2" t="s">
         <v>665</v>
@@ -8235,19 +8232,19 @@
         <v>667</v>
       </c>
       <c r="W45" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X45" s="10" t="s">
         <v>668</v>
       </c>
       <c r="Y45" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Z45" s="10" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
-    <row r="46" spans="1:34" ht="175.5">
+    <row r="46" spans="1:34" ht="168" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
         <v>669</v>
       </c>
@@ -8258,13 +8255,13 @@
         <v>671</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>672</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>673</v>
@@ -8273,7 +8270,7 @@
         <v>2014</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>674</v>
@@ -8285,7 +8282,7 @@
         <v>648</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N46" s="2" t="s">
         <v>675</v>
@@ -8297,7 +8294,7 @@
         <v>677</v>
       </c>
       <c r="Q46" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R46" s="2" t="s">
         <v>678</v>
@@ -8312,16 +8309,16 @@
         <v>681</v>
       </c>
       <c r="W46" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y46" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Z46" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
-    <row r="47" spans="1:34" ht="175.5">
+    <row r="47" spans="1:34" ht="168" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
         <v>682</v>
       </c>
@@ -8332,22 +8329,22 @@
         <v>684</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>685</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H47" s="8">
         <v>2008</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>686</v>
@@ -8359,10 +8356,10 @@
         <v>688</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O47" s="8" t="s">
         <v>689</v>
@@ -8371,10 +8368,10 @@
         <v>690</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R47" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T47" s="2" t="s">
         <v>691</v>
@@ -8386,16 +8383,16 @@
         <v>693</v>
       </c>
       <c r="W47" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X47" s="10" t="s">
         <v>694</v>
       </c>
       <c r="Y47" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Z47" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AB47" s="2"/>
       <c r="AC47" s="2"/>
@@ -8405,7 +8402,7 @@
       <c r="AG47" s="2"/>
       <c r="AH47" s="2"/>
     </row>
-    <row r="48" spans="1:34" ht="264">
+    <row r="48" spans="1:34" ht="300" x14ac:dyDescent="0.2">
       <c r="A48" s="18" t="s">
         <v>695</v>
       </c>
@@ -8422,7 +8419,7 @@
         <v>699</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>700</v>
@@ -8431,7 +8428,7 @@
         <v>1998</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>701</v>
@@ -8443,7 +8440,7 @@
         <v>703</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N48" s="2" t="s">
         <v>704</v>
@@ -8455,10 +8452,10 @@
         <v>706</v>
       </c>
       <c r="Q48" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R48" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S48" s="5"/>
       <c r="T48" s="2" t="s">
@@ -8471,16 +8468,16 @@
         <v>709</v>
       </c>
       <c r="W48" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Y48" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Z48" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:34" ht="251.25">
+    <row r="49" spans="1:34" ht="276" x14ac:dyDescent="0.2">
       <c r="A49" s="18" t="s">
         <v>710</v>
       </c>
@@ -8491,22 +8488,22 @@
         <v>712</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>713</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H49" s="8">
         <v>1994</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>714</v>
@@ -8518,10 +8515,10 @@
         <v>716</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O49" s="8" t="s">
         <v>717</v>
@@ -8530,7 +8527,7 @@
         <v>718</v>
       </c>
       <c r="Q49" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R49" s="2" t="s">
         <v>719</v>
@@ -8546,16 +8543,16 @@
         <v>722</v>
       </c>
       <c r="W49" s="4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Y49" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Z49" s="10" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
-    <row r="50" spans="1:34" ht="117" customHeight="1">
+    <row r="50" spans="1:34" ht="117" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="18" t="s">
         <v>723</v>
       </c>
@@ -8572,10 +8569,10 @@
         <v>727</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H50" s="8">
         <v>1992</v>
@@ -8593,22 +8590,22 @@
         <v>731</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N50" s="2" t="s">
         <v>732</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P50" s="2" t="s">
         <v>733</v>
       </c>
       <c r="Q50" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R50" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S50" s="5"/>
       <c r="T50" s="2" t="s">
@@ -8624,16 +8621,16 @@
         <v>737</v>
       </c>
       <c r="Y50" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z50" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AA50" s="34" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="51" spans="1:34" ht="78" customHeight="1">
+    <row r="51" spans="1:34" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
         <v>739</v>
       </c>
@@ -8650,10 +8647,10 @@
         <v>743</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H51" s="8" t="s">
         <v>744</v>
@@ -8671,19 +8668,19 @@
         <v>748</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O51" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P51" s="2" t="s">
         <v>749</v>
       </c>
       <c r="Q51" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R51" s="2" t="s">
         <v>750</v>
@@ -8707,10 +8704,10 @@
         <v>694</v>
       </c>
       <c r="Y51" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z51" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AB51" s="2"/>
       <c r="AC51" s="2"/>
@@ -8720,7 +8717,7 @@
       <c r="AG51" s="2"/>
       <c r="AH51" s="2"/>
     </row>
-    <row r="52" spans="1:34" ht="87.75" customHeight="1">
+    <row r="52" spans="1:34" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="18" t="s">
         <v>756</v>
       </c>
@@ -8737,7 +8734,7 @@
         <v>760</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>761</v>
@@ -8746,7 +8743,7 @@
         <v>2007</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>762</v>
@@ -8755,10 +8752,10 @@
         <v>763</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N52" s="2" t="s">
         <v>764</v>
@@ -8770,31 +8767,31 @@
         <v>766</v>
       </c>
       <c r="Q52" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R52" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="T52" s="2" t="s">
         <v>767</v>
       </c>
       <c r="U52" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="V52" s="3" t="s">
         <v>768</v>
       </c>
       <c r="W52" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Y52" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Z52" s="10" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="53" spans="1:34" ht="146.25" customHeight="1">
+    <row r="53" spans="1:34" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
         <v>770</v>
       </c>
@@ -8811,10 +8808,10 @@
         <v>774</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H53" s="8">
         <v>1985</v>
@@ -8832,7 +8829,7 @@
         <v>777</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N53" s="2" t="s">
         <v>778</v>
@@ -8844,7 +8841,7 @@
         <v>780</v>
       </c>
       <c r="Q53" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R53" s="2" t="s">
         <v>781</v>
@@ -8862,19 +8859,19 @@
         <v>785</v>
       </c>
       <c r="W53" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X53" s="4" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Y53" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Z53" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
-    <row r="54" spans="1:34" ht="113.25" customHeight="1">
+    <row r="54" spans="1:34" ht="113.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
         <v>786</v>
       </c>
@@ -8891,7 +8888,7 @@
         <v>790</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>791</v>
@@ -8900,7 +8897,7 @@
         <v>1986</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="J54" s="2" t="s">
         <v>792</v>
@@ -8912,7 +8909,7 @@
         <v>794</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N54" s="2" t="s">
         <v>795</v>
@@ -8924,31 +8921,31 @@
         <v>797</v>
       </c>
       <c r="Q54" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R54" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T54" s="2" t="s">
         <v>798</v>
       </c>
       <c r="U54" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="V54" s="3" t="s">
         <v>799</v>
       </c>
       <c r="W54" s="4" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="Y54" s="3" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="Z54" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
-    <row r="55" spans="1:34" ht="389.25">
+    <row r="55" spans="1:34" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
         <v>800</v>
       </c>
@@ -8968,13 +8965,13 @@
         <v>805</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H55" s="2">
         <v>2019</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J55" s="2" t="s">
         <v>806</v>
@@ -8986,22 +8983,22 @@
         <v>499</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N55" s="2" t="s">
         <v>807</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P55" s="2" t="s">
         <v>808</v>
       </c>
       <c r="Q55" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R55" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S55" s="38" t="s">
         <v>809</v>
@@ -9010,25 +9007,25 @@
         <v>810</v>
       </c>
       <c r="U55" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="V55" s="3" t="s">
         <v>811</v>
       </c>
       <c r="W55" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X55" s="4" t="s">
         <v>812</v>
       </c>
       <c r="Y55" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z55" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
-    <row r="56" spans="1:34" ht="389.25">
+    <row r="56" spans="1:34" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
         <v>813</v>
       </c>
@@ -9045,7 +9042,7 @@
         <v>817</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>818</v>
@@ -9054,7 +9051,7 @@
         <v>1998</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J56" s="2" t="s">
         <v>819</v>
@@ -9066,7 +9063,7 @@
         <v>4257</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N56" s="2">
         <v>12</v>
@@ -9078,7 +9075,7 @@
         <v>820</v>
       </c>
       <c r="Q56" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R56" s="2" t="s">
         <v>821</v>
@@ -9093,106 +9090,106 @@
         <v>824</v>
       </c>
       <c r="W56" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Y56" s="3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Z56" s="10" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="57" spans="1:34">
+    <row r="57" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A57" s="7"/>
     </row>
-    <row r="58" spans="1:34">
+    <row r="58" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A58" s="7"/>
     </row>
-    <row r="59" spans="1:34">
+    <row r="59" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A59" s="7"/>
     </row>
-    <row r="60" spans="1:34">
+    <row r="60" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A60" s="7"/>
     </row>
-    <row r="61" spans="1:34">
+    <row r="61" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A61" s="7"/>
     </row>
-    <row r="62" spans="1:34">
+    <row r="62" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A62" s="7"/>
     </row>
-    <row r="63" spans="1:34">
+    <row r="63" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A63" s="7"/>
     </row>
-    <row r="64" spans="1:34">
+    <row r="64" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A64" s="7"/>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="7"/>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" s="7"/>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="7"/>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" s="7"/>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" s="7"/>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" s="7"/>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="7"/>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" s="7"/>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" s="7"/>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" s="7"/>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" s="7"/>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" s="7"/>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" s="7"/>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" s="7"/>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" s="7"/>
     </row>
-    <row r="80" spans="1:1">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" s="7"/>
     </row>
-    <row r="81" spans="1:1">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="7"/>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" s="7"/>
     </row>
-    <row r="83" spans="1:1">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" s="7"/>
     </row>
-    <row r="84" spans="1:1">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" s="7"/>
     </row>
-    <row r="85" spans="1:1">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" s="7"/>
     </row>
-    <row r="86" spans="1:1">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" s="7"/>
     </row>
-    <row r="87" spans="1:1">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" s="7"/>
     </row>
   </sheetData>
@@ -9204,4 +9201,257 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006651BF32B521A046AF14BF632D6B295F" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="09153fd41ce1666f2d769619857e3bdc">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b67f489d-6419-4cb0-8238-506a3a8f1300" xmlns:ns3="0ce01a67-a604-4be1-a4ca-c8b766b5a068" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="de1bb72c62ccf761f278c18d78bd3734" ns2:_="" ns3:_="">
+    <xsd:import namespace="b67f489d-6419-4cb0-8238-506a3a8f1300"/>
+    <xsd:import namespace="0ce01a67-a604-4be1-a4ca-c8b766b5a068"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="b67f489d-6419-4cb0-8238-506a3a8f1300" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="10" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="12" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="731d7151-b795-48f9-9207-6285658e27ad" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="14" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="15" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="0ce01a67-a604-4be1-a4ca-c8b766b5a068" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="13" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{537184a3-a170-4643-9528-45eb536d835e}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="0ce01a67-a604-4be1-a4ca-c8b766b5a068">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b67f489d-6419-4cb0-8238-506a3a8f1300">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0ce01a67-a604-4be1-a4ca-c8b766b5a068" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C8B3C7C-6A2F-4690-AF82-2D0388819DFC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E23DE8AC-2A9C-42E3-AC06-D37A01CE10EB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b67f489d-6419-4cb0-8238-506a3a8f1300"/>
+    <ds:schemaRef ds:uri="0ce01a67-a604-4be1-a4ca-c8b766b5a068"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A888961D-86EF-4E4E-8A38-F33DFFA3A067}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b67f489d-6419-4cb0-8238-506a3a8f1300"/>
+    <ds:schemaRef ds:uri="0ce01a67-a604-4be1-a4ca-c8b766b5a068"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/xlsx/Old/studies.xlsx
+++ b/xlsx/Old/studies.xlsx
@@ -1,25 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\john\workspace\catalogueMentalHealth\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/john/Workspace/catalogue-mental-health/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B551BB2F-4ED4-4435-B53A-A9551AE02B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C662FC-DBA8-EB4B-80C8-8AB3B4F81535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19260" yWindow="4065" windowWidth="18975" windowHeight="15885" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2880" yWindow="500" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study details" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Study details'!$A$1:$AH$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Study details'!$A$1:$AH$59</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="902">
   <si>
     <t>Code</t>
   </si>
@@ -134,7 +137,7 @@
     <t>Academic Department of Military Rehabilitation (Ministry of Defence); Imperial College London; King’s College London.</t>
   </si>
   <si>
-    <t>&lt;a href="https://www.advancestudydmrc.org.uk/"&gt;https:/www.advancestudydmrc.org.uk/&lt;/a&gt;</t>
+    <t>&lt;a href="https://www.advancestudydmrc.org.uk/"&gt;advancestudydmrc.org.uk&lt;/a&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">England, Scotland, Wales, Northern Ireland &lt;br&gt;
@@ -213,7 +216,7 @@
     <t>Institute of Psychiatry, Psychology &amp; Neuroscience (IoPPN), King's College London</t>
   </si>
   <si>
-    <t>&lt;a href="https://www.kcl.ac.uk/ioppn/depts/ps/research/firstepisode/AESOP"&gt;kcl.ac.uk/ioppn/depts/ps/research/firstepisode/AESOP&lt;/a&gt;</t>
+    <t>&lt;a href="https://www.kcl.ac.uk/research/aesop-10"&gt;kcl.ac.uk/research/aesop-10&lt;/a&gt;</t>
   </si>
   <si>
     <t>England</t>
@@ -228,7 +231,7 @@
     <t>532 (Baseline)</t>
   </si>
   <si>
-    <t>219 (10 year follow up)</t>
+    <t>219 (2010 - 10 year follow-up)</t>
   </si>
   <si>
     <t>All</t>
@@ -241,7 +244,7 @@
   </si>
   <si>
     <t>Data request - contact study team&lt;br&gt;
-&lt;a href="https://www.kcl.ac.uk/ioppn/depts/ps/research/firstepisode/AESOP"&gt;kcl.ac.uk/ioppn/depts/ps/research/firstepisode/AESOP&lt;/a&gt;</t>
+&lt;a href="https://www.kcl.ac.uk/research/aesop-10"&gt;kcl.ac.uk/research/aesop-10&lt;/a&gt;</t>
   </si>
   <si>
     <t>Yes</t>
@@ -290,7 +293,7 @@
     <t>Imperial College London</t>
   </si>
   <si>
-    <t>&lt;a href="https://police-health.org.uk/"&gt;https://police-health.org.uk/&lt;/a&gt;</t>
+    <t>&lt;a href="https://police-health.org.uk/"&gt;police-health.org.uk&lt;/a&gt;</t>
   </si>
   <si>
     <t>England, Scotland, Wales</t>
@@ -299,13 +302,13 @@
     <t>Employees of all 54 police forces as well as police-related agencies within Great Britain were invited to participate. Since the commencement of the study, a total of 28 forces have agreed to participate. Participants completed enrolment questionnaires during the first phase of the study. The second phase of the study consisted of a health screening performed locally by trained nurses. Overall, 16% of participants completed only phase one, 58% completed only phase two, and 26% completed both phases. Additionally, 62.9% of the participants are men, and the average age at enrolment was 40.9 years for men and 38.5 years for women.</t>
   </si>
   <si>
-    <t>18,000 (ongoing)</t>
+    <t>17,577 (2015 - Follow-up Clinic Questionnaire)</t>
   </si>
   <si>
     <t>18+</t>
   </si>
   <si>
-    <t>Data request - Dementias Platform UK &lt;br&gt;
+    <t>Data request &lt;br&gt;
 &lt;a href="https://police-health.org.uk/applying-access-resource"&gt;https://police-health.org.uk/applying-access-resource&lt;/a&gt;</t>
   </si>
   <si>
@@ -340,6 +343,10 @@
 Genetic/genomic data</t>
   </si>
   <si>
+    <t>&lt;a
+href="https://web.www.healthdatagateway.org/dataset/98bfe17f-be12-47b1-943a-2d3a621b7618"&gt;https://web.www.healthdatagateway.org/dataset/98bfe17f-be12-47b1-943a-2d3a621b7618&lt;/a&gt;</t>
+  </si>
+  <si>
     <t>ALSPAC</t>
   </si>
   <si>
@@ -354,7 +361,7 @@
     <t>University of Bristol</t>
   </si>
   <si>
-    <t>&lt;a href="http://www.bristol.ac.uk/alspac/"&gt;http://www.bristol.ac.uk/alspac/&lt;/a&gt;</t>
+    <t>&lt;a href="http://www.bristol.ac.uk/alspac/"&gt;bristol.ac.uk/alspac&lt;/a&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Bristol &amp; District Health Authority (Former Avon Health Authority Area) </t>
@@ -378,7 +385,7 @@
 14,901 children (cohort members) alive at 1 year of age </t>
   </si>
   <si>
-    <t>~3,400 (cohort members) (Life at 27+)</t>
+    <t>Approximately 3,400 (cohort members) (2023 - Life at 27+)</t>
   </si>
   <si>
     <t>Birth</t>
@@ -479,10 +486,13 @@
     <t>Approx 7,500 participants in each survey</t>
   </si>
   <si>
+    <t>Approximately 7,500 participants in each survey</t>
+  </si>
+  <si>
     <t xml:space="preserve">16 years + </t>
   </si>
   <si>
-    <t>1926-1998</t>
+    <t>1926-98</t>
   </si>
   <si>
     <t>UK Data Service 
@@ -495,7 +505,7 @@
     <t xml:space="preserve">Data resource profile: Adult Psychiatric Morbidity Survey (APMS).  &lt;br&gt;
 &lt;a href="https://academic.oup.com/ije/article-abstract/49/2/361/5625684?redirectedFrom=fulltext"&gt;doi.org/10.1093/ije/dyz224&lt;/a&gt; 
 Mental health and wellbeing in England: Adult Psychiatric Morbidity Survey 2014. &lt;br&gt;
-&lt;a href="http://digital.nhs.uk/catalogue/PUB21748 "&gt;digital.nhs.uk/catalogue/PUB21748&lt;/a&gt; 
+&lt;a href="http://digital.nhs.uk/catalogue/PUB21748"&gt;digital.nhs.uk/catalogue/PUB21748&lt;/a&gt; 
 </t>
   </si>
   <si>
@@ -527,7 +537,7 @@
     <t>APMS_other</t>
   </si>
   <si>
-    <t>Surveys of Psychiatric Morbidity - marginalised populations</t>
+    <t>out</t>
   </si>
   <si>
     <t>The Surveys of Psychiatric Morbidity aim to provide information about the prevalence of psychiatric problems among people in Great Britain, as well as their associated social disabilities and use of services. The surveys covering adults in private households (undertaken in 1993, 2000, 2007 and 2014) and children and adolescents (1999, 2004 and 2017), are detailed elsewhere on the Catalogue. The  surveys detailed on this page were designed to show the prevalence of psychiatric morbidity in a series of marginalised populations: adults in institutions specifically catering for people with mental illness (1994); homeless people (1994); prisoners (1997); and children and young people looked after by local authorities (2001/2). These surveys provide key context for understanding mental illness in Britain and for informing initiatives in this area.</t>
@@ -613,7 +623,7 @@
     <t>King’s College London; Birkbeck, University of London</t>
   </si>
   <si>
-    <t>&lt;a href="https://www.basisnetwork.org/"&gt;https://www.basisnetwork.org/&lt;/a&gt;</t>
+    <t>&lt;a href="https://www.basisnetwork.org/"&gt;basisnetwork.org&lt;/a&gt;</t>
   </si>
   <si>
     <t>England, Scotland, Wales, Nothern Ireland</t>
@@ -636,10 +646,9 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Phase 1: 76&lt;br&gt;
+    <t>Phase 1: 76&lt;br&gt;
 Phase 2: 97&lt;br&gt;
-Phase 3: ongoing
-</t>
+Phase 3: ongoing</t>
   </si>
   <si>
     <t>Birth (from prenatal to early infancy)</t>
@@ -699,7 +708,7 @@
     <t>17,198 births</t>
   </si>
   <si>
-    <t>9,841 (BCS 2012)</t>
+    <t>8,581 (2018 - Age 47)</t>
   </si>
   <si>
     <t xml:space="preserve">UK Data Service &lt;br&gt; &lt;a href="https://cls.ucl.ac.uk/data-access-training/access-ukds/"&gt;https://cls.ucl.ac.uk/data-access-training/access-ukds/&lt;/a&gt; </t>
@@ -716,7 +725,7 @@
 Cohort Profile: 1970 British birth cohort (BCS70). &lt;br&gt;
 &lt;a href="https://doi.org/10.1093/ije/dyl174"&gt;doi.org/10.1093/ije/dyl174&lt;/a&gt;&lt;br&gt;&lt;br&gt; 
 &lt;b&gt;&lt;u&gt;Impactful papers using study data&lt;/b&gt;&lt;/u&gt;&lt;br&gt;
-Understanding differences in health behaviors by education. &lt;a href="https://doi.org/10.1016%2Fj.jhealeco.2009.10.003"&gt;doi.org/10.1016%2Fj.jhealeco.2009.10.003&lt;/a&gt;&lt;br&gt;
+Understanding differences in health behaviours by education. &lt;a href="https://doi.org/10.1016%2Fj.jhealeco.2009.10.003"&gt;doi.org/10.1016%2Fj.jhealeco.2009.10.003&lt;/a&gt;&lt;br&gt;
 Sexual orientation and symptoms of common mental disorder or low wellbeing: combined meta-analysis of 12 UK population health surveys. &lt;a href="https://doi.org/10.1186/s12888-016-0767-z"&gt;doi.org/10.1186/s12888-016-0767-z&lt;/a&gt;&lt;br&gt;
 Childhood self-control and unemployment throughout the life span: Evidence from two British cohort studies. &lt;a href="https://psycnet.apa.org/doi/10.1177/0956797615569001"&gt;psycnet.apa.org/doi/10.1177/0956797615569001&lt;/a&gt;</t>
   </si>
@@ -754,6 +763,10 @@
 Mapping/spatial data</t>
   </si>
   <si>
+    <t>&lt;a
+href="https://web.www.healthdatagateway.org/dataset/929186f3-e230-4b52-a9f5-0c20af7f5ce2"&gt;https://web.www.healthdatagateway.org/dataset/929186f3-e230-4b52-a9f5-0c20af7f5ce2&lt;/a&gt;</t>
+  </si>
+  <si>
     <t>BiB</t>
   </si>
   <si>
@@ -770,9 +783,6 @@
   </si>
   <si>
     <t>Bradford</t>
-  </si>
-  <si>
-    <t>Pregnancy Cohort</t>
   </si>
   <si>
     <t>All women booked for delivery at the Bradford Royal Infirmary were offered an oral glucose tolerance test (OGTT) at 26–28 weeks gestation. Around 80% took up this offer. Study information was given to women by their mid-wife at their booking appointment and they were invited to take part. On attendance at the OGTT clinic, full consent was obtained for recruitment to BiB, and the woman was invited to complete an interviewer-administered questionnaire. Between March 2007 and November 2010, over 80% of the women who attended the OGTT took up the invitation, and 12 453 women with 13 776 pregnancies were recruited to the cohort. All babies born to women who agreed to participate in the cohort study were eligible for recruitment. 
@@ -832,6 +842,10 @@
     <t>Ethnicity and race</t>
   </si>
   <si>
+    <t>&lt;a
+href="https://web.www.healthdatagateway.org/dataset/fe1684ef-69ee-4490-9ab8-b26e990c9060"&gt;https://web.www.healthdatagateway.org/dataset/fe1684ef-69ee-4490-9ab8-b26e990c9060&lt;/a&gt;</t>
+  </si>
+  <si>
     <t>BiBBS</t>
   </si>
   <si>
@@ -841,15 +855,15 @@
     <t>Born in Bradford’s Better Start (BiBBS) is an innovative experimental birth cohort that will simultaneously evaluate the impact of multiple early life interventions using efficient study designs. Better Start Bradford (BSB) has been allocated £49 million from the Big Lottery Fund to implement 22 interventions to improve outcomes for children aged 0–3 in three deprived and ethnically diverse inner-city areas of Bradford. BiBBS aims to evaluate the effects of these interventions on social and emotional development, communication and language development, and nutrition and obesity by following families from pregnancy into childhood and using linkage to routinely collected data.</t>
   </si>
   <si>
-    <t>&lt;a href="https://borninbradford.nhs.uk/what-we-do/pregnancy-early-years/better-start/"&gt;borninbradford.nhs.uk/what-we-do/pregnancy-early-years/better-start&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The BiBBS study's sample size is aimed to be 5000 pregnancies and children born of these pregnancies, with recruitment ongoing from January 2016-2024 from the three BSB areas. The BSB areas are very ethnically diverse, have higher rates of mortality and  morbidity, infant mortality, obesity and poor oral health compared with Bradford district and England. All pregnant women living in BSB areas who are registered to give birth at Bradford Teaching Hospitals NHS Foundation Trust (BTHFT) will be eligible for recruitment. The BTHFT is the only maternity unit covering this area. All babies born to women who have consented to participate in the cohort study will be included in the cohort. The partners of the women who have consented to take part will also be invited to participate. 
+    <t>&lt;a href="https://borninbradford.nhs.uk/what-we-do/cohort-studies/better-start/"&gt;borninbradford.nhs.uk/what-we-do/cohort-studies/better-start&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The BiBBS study's sample size is aimed to be 5,000 pregnancies and children born of these pregnancies, with recruitment ongoing from January 2016-2024 from the three BSB areas. The BSB areas are very ethnically diverse, have higher rates of mortality and  morbidity, infant mortality, obesity and poor oral health compared with Bradford district and England. All pregnant women living in BSB areas who are registered to give birth at Bradford Teaching Hospitals NHS Foundation Trust (BTHFT) will be eligible for recruitment. The BTHFT is the only maternity unit covering this area. All babies born to women who have consented to participate in the cohort study will be included in the cohort. The partners of the women who have consented to take part will also be invited to participate. 
 &lt;br&gt;&lt;br&gt;
 A system has been developed to flag all women living in the BSB areas on the electronic maternity system. When women attend their first appointment (around 10–12 weeks gestation), the BSB flag will prompt midwives to provide women with information on BSB and the BiBBS cohort study and obtain verbal assent to data sharing with the BiBBS research team. Researchers will identify eligible women who have provided assent to data sharing, and will approach women during the GTT clinic or other appointment to invite them to participate in the cohort. </t>
   </si>
   <si>
-    <t>Expected: 4,930 babies, 4440 mothers and 1125 of their mothers' partners (Dickerson et al. 2016). Recruitment is ongoing.</t>
+    <t>Expected: 4,930 babies, 4,440 mothers and 1,125 of their mothers' partners (Dickerson et al. 2016). Recruitment is ongoing.</t>
   </si>
   <si>
     <t>N/A</t>
@@ -904,16 +918,16 @@
 The sample is not representative of the general population on a variety of sociodemographic, physical, lifestyle and health-related characteristics, with evidence of a 'healthy volunteer' selection bias. However, the large sample size and heterogeneity of exposure measures allow for valid scientific inferences of associations between exposures and health outcomes that are generalizable to the wider population. </t>
   </si>
   <si>
-    <t>Approx 500,000 individuals</t>
-  </si>
-  <si>
-    <t>158,000 - Online mental health follow up</t>
+    <t>Approximately 500,000 individuals</t>
+  </si>
+  <si>
+    <t>158,000 (2020 - Mental Health Questionnaire)</t>
   </si>
   <si>
     <t>40 years +</t>
   </si>
   <si>
-    <t>1937-1970</t>
+    <t>1937-70</t>
   </si>
   <si>
     <t>Project proposal - see registration and data access guidance
@@ -924,7 +938,7 @@
 Health data</t>
   </si>
   <si>
-    <t>UK biobank: an open access resource for identifying the causes of a wide range of complex diseases of middle and old age.&lt;br&gt;
+    <t>UK biobank: An open access resource for identifying the causes of a wide range of complex diseases of middle and old age.&lt;br&gt;
 &lt;a href="https://doi.org/10.1371/journal.pmed.1001779"&gt;doi.org/10.1371/journal.pmed.1001779&lt;/a&gt;
 &lt;br&gt;
 Indicators of mental disorders in UK Biobank—a comparison of approaches.&lt;br&gt;
@@ -961,6 +975,10 @@
 Brain activity and structures</t>
   </si>
   <si>
+    <t>&lt;a
+href="https://web.www.healthdatagateway.org/dataset/6a9f93ad-2434-41d9-93bf-6e9d2eee04e5"&gt;https://web.www.healthdatagateway.org/dataset/6a9f93ad-2434-41d9-93bf-6e9d2eee04e5&lt;/a&gt;</t>
+  </si>
+  <si>
     <t>CFAS_II</t>
   </si>
   <si>
@@ -982,7 +1000,8 @@
     <t xml:space="preserve">Building on the design and infrastructure of the initial (MRC CFAS) study, new cohorts were recruited. A population based sample of 2,500 individuals born before 1942 from each centre were drawn from general practice records, sampling 1,250 individuals from each of the age groups 65-74 and 75 years and over.  </t>
   </si>
   <si>
-    <t>5,288 (Wave 2)</t>
+    <t>5,288 (2013 - Wave 2)&lt;br&gt;
+650 (original cohort members) (2021 - Covid-19)</t>
   </si>
   <si>
     <t>65 years +</t>
@@ -1094,7 +1113,7 @@
     <t xml:space="preserve">A population based sample from each site, born before 1944 were drawn from general practice records, with 50% of the individuals being from each of the age groups 65-74 and 75 years and over. Individuals ascertained from GP records received a letter from the GP followed by personal approach by interviewers. </t>
   </si>
   <si>
-    <t>1,498 (Wave 2)</t>
+    <t>1,498 (2015 - Wave 2)</t>
   </si>
   <si>
     <t>Before 1944</t>
@@ -1126,7 +1145,7 @@
     <t>University of Cambridge</t>
   </si>
   <si>
-    <t>&lt;a href="http://www.crim.cam.ac.uk/People/professor-david-farrington"&gt;http://www.crim.cam.ac.uk/People/professor-david-farrington&lt;/a&gt;</t>
+    <t>&lt;a href="http://www.crim.cam.ac.uk/People/professor-david-farrington"&gt;crim.cam.ac.uk/People/professor-david-farrington&lt;/a&gt;</t>
   </si>
   <si>
     <t>South London</t>
@@ -1139,6 +1158,9 @@
 The participants have been interviewed 9 times throughout their lives, from ages 8-48 years. At all time points a high proportion of males have been interviewed, except at ages 21 and 25, due to inadequate funding. At these time points, only a subsample of participants were interviewed. Parents and teachers were also interviewed when the boys were aged 8-15, at the family home or in the boy’s school.  
 &lt;br&gt;&lt;br&gt;
 Criminal records were collected up to age 56, so self-report and official records of offending could be analysed. </t>
+  </si>
+  <si>
+    <t>365 (2004 - Age 48)</t>
   </si>
   <si>
     <t>8-9 years</t>
@@ -1211,8 +1233,8 @@
     <t>DASH recruited over 6,500 pupils from 51 schools across 10 inner London boroughs. Pupils were aged 11-13 years old at the start of the study. DASH was designed to have a sizeable number of respondents from the major ethnic minority groups, and in particular has a significant sub-sample of students of African origin, allowing for comparisons between African nationalities.</t>
   </si>
   <si>
-    <t>4,779 (Wave 2) &lt;br&gt;
-650+ (Wave 3 feasibility study)</t>
+    <t>4,779 (2006 - Wave 2) &lt;br&gt;
+665 (2012 - Wave 3 Feasibility study)</t>
   </si>
   <si>
     <t>11-13 years</t>
@@ -1242,6 +1264,10 @@
 Social care - need</t>
   </si>
   <si>
+    <t>&lt;a
+href="https://web.www.healthdatagateway.org/dataset/9d242d12-2d2e-4941-93e4-9ec40d239dd1"&gt;https://web.www.healthdatagateway.org/dataset/9d242d12-2d2e-4941-93e4-9ec40d239dd1&lt;/a&gt;</t>
+  </si>
+  <si>
     <t>ELSA</t>
   </si>
   <si>
@@ -1260,10 +1286,14 @@
     <t>Cohort Survey (Replenished); Ageing cohort</t>
   </si>
   <si>
-    <t>Sample members are drawn from respondents to the Health Survey for England (HSE). Around 12,000 respondents from three separate years of the HSE survey were recruited to provide a representative sample of the English population aged 50 and over and their partners. At waves 3, 4, 6 and 7 the study was replenished with new study participants (refreshments) from HSE to maintain the size and representativeness of the panel.</t>
+    <t>Sample members are drawn from respondents to the Health Survey for England (HSE). Around 12,000 respondents from three separate years of the HSE survey were recruited to provide a representative sample of the English population aged 50 and over and their partners. At waves 3, 4, 6, 7, 9 and 10 the study was replenished with new study participants (refreshments) from HSE to maintain the size and representativeness of the panel. Two waves of data were also collected during the Covid-19 pandemic in 2020.</t>
   </si>
   <si>
     <t>12,100 individuals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7,242 (wave 10)
+</t>
   </si>
   <si>
     <t>50+</t>
@@ -1282,8 +1312,8 @@
 &lt;a href="https://doi.org/10.1093/ije/dys168"&gt;doi.org/10.1093/ije/dys168&lt;/a&gt; &lt;br&gt;&lt;br&gt; 
 &lt;b&gt;&lt;u&gt;Impactful papers using study data&lt;/b&gt;&lt;/u&gt;&lt;br&gt;
 Social isolation, loneliness, and all-cause mortality in older men and women. &lt;a href="https://doi.org/10.1073/pnas.1219686110"&gt;doi.org/10.1073/pnas.1219686110&lt;/a&gt;&lt;br&gt;
-The relationship between physical and mental health: A mediation analysis. &lt;a href="https://psycnet.apa.org/doi/10.1016/j.socscimed.2017.11.008"&gt;psycnet.apa.org/doi/10.1016/j.socscimed.2017.11.008&lt;/a&gt;&lt;br&gt;
-Childhood self-control and unemployment throughout the life span: Evidence from two British cohort studies. &lt;a href="https://doi.org/10.1007/s10508-014-0465-1"&gt;doi.org/10.1007/s10508-014-0465-1&lt;/a&gt;</t>
+The art of life and death: 14-year follow-up analyses of the association between arts engagement and mortality in the English Longitudinal Study of Ageing. &lt;a href="https://doi.org/10.1136/bmj.l6377"&gt;doi.org/10.1136/bmj.l6377&lt;/a&gt;&lt;br&gt;
+Immediate and Longer-Term Changes in the Mental Health and Well-being of Older Adults in England During the COVID-19 Pandemic. &lt;a href=https://jamanetwork.com/journals/jamapsychiatry/article-abstract/2787196"&gt;doi:10.1001/jamapsychiatry.2021.3749&lt;/a&gt;</t>
   </si>
   <si>
     <t>NIA DfT DoHSC DfWP</t>
@@ -1317,6 +1347,62 @@
     <t>England, National</t>
   </si>
   <si>
+    <t>&lt;a
+href="https://web.www.healthdatagateway.org/dataset/f12cb023-1402-49d1-aa27-e0fe4ed19fd7"&gt;https://web.www.healthdatagateway.org/dataset/f12cb023-1402-49d1-aa27-e0fe4ed19fd7&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>EPAD</t>
+  </si>
+  <si>
+    <t>The Cardiff University Mood and Wellbeing Study</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Cardiff University Mood and Wellbeing Study is a longitudinal study aiming to improve the understanding of the causes of mental health problems. Also known as the Early Prediction of Adolescent Depression (EPAD), researchers aimed to follow families where an individual had been affected by low mood. </t>
+  </si>
+  <si>
+    <t>Cardiff University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;a href="https://www.cardiff.ac.uk/research/explore/find-a-project/view/the-cardiff-university-mood-and-wellbeing-study"&gt;www.cardiff.ac.uk/research/explore/find-a-project/view/the-cardiff-university-mood-and-wellbeing-study&lt;/a&gt;  </t>
+  </si>
+  <si>
+    <t>Families were mainly recruited grom general practices in South Wales. Parents were confirmed to have had at least two previous episodes of DSM-IV mejor depressive disorder. The youngest children between the ages of 9-17 were included in the study. All children were biologically related to and living with the parent. Children with serious physical illnesses, or IQ less than 50 were exluded. Parents with phychosis, bipolar disorder, or mania or hypomania were also excluded.</t>
+  </si>
+  <si>
+    <t>331 families</t>
+  </si>
+  <si>
+    <t>262 families</t>
+  </si>
+  <si>
+    <t>9-17 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contact study team to express an interest in accessing the data &lt;br&gt;
+&lt;a href="https://www.cardiff.ac.uk/research/explore/find-a-project/view/the-cardiff-university-mood-and-wellbeing-study"&gt;www.cardiff.ac.uk/research/explore/find-a-project/view/the-cardiff-university-mood-and-wellbeing-study&lt;/a&gt;  </t>
+  </si>
+  <si>
+    <t>Also known as the Early Prediction of Adolescent Depression (EPAD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;a href="https://doi.org/10.1016/S2215-0366(15)00358-2"&gt;doi.org/10.1016/S2215-0366(15)00358-2&lt;/a&gt;  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sir Jules Thorn Charitable Trust ESRC </t>
+  </si>
+  <si>
+    <t>Diet and nutrition,
+Education,
+Loneliness and social isolation,
+Neighbourhood,
+Parenting and family,
+Political and social attitudes,
+Sleep problems,
+Socioeconomic status and deprivation,
+Victimisation and life events,
+Work and employment</t>
+  </si>
+  <si>
     <t>EQLS</t>
   </si>
   <si>
@@ -1344,8 +1430,8 @@
     <t>1,000 (approx) - UK sample, EQLS 2003</t>
   </si>
   <si>
-    <t>1,304 - UK sample, EQLS 2016
-36,908 - Total European sample, EQLS 2016</t>
+    <t>1,304 (UK sample) (2016 - EQLS 4)&lt;br&gt;
+36,908 (Total European sample) (2016 - EQLS 4)</t>
   </si>
   <si>
     <t>18 years +</t>
@@ -1402,14 +1488,14 @@
     <t>2,232 individuals</t>
   </si>
   <si>
-    <t>2,066 individuals</t>
+    <t>2,066 (individuals) (2013 - 18 Years)</t>
   </si>
   <si>
     <t>1.5 years - TEDS First Contact&lt;br&gt;
 5 years - E-Risk</t>
   </si>
   <si>
-    <t>1994-5</t>
+    <t>1994-95</t>
   </si>
   <si>
     <t xml:space="preserve">Project proposal - see data access guidance &lt;br&gt; &lt;a href="https://sites.duke.edu/moffittcaspiprojects/data-use-guidelines/"&gt;sites.duke.edu/moffittcaspiprojects/data-use-guidelines/&lt;/a&gt; </t>
@@ -1515,6 +1601,73 @@
 Sleep problems</t>
   </si>
   <si>
+    <t>ESYTC</t>
+  </si>
+  <si>
+    <t>The Edinburgh Study of Youth Transitions and Crime (ESYTC)</t>
+  </si>
+  <si>
+    <t>The Edinburgh Study of Youth Transitions and Crime is a prospective longitudinal cohort study aimed to examine criminal offending in young people by investigating the causes and consequences of young people’s involvement in crime and anti-social behaviour.&lt;br&gt;&lt;br&gt;
+The study follows a cohort of around 4,300 young people who started secondary school in the City of Edinburgh in the autumn of 1998. Data collection spans from their early adolescence (age 12) to adulthood (age 33) through self-report questionnaires as well as in-depth interviews with two cohort sub-samples at ages 24 and 35 years. The study also includes linked administrative data from official records, including education, social work, and criminal conviction records.</t>
+  </si>
+  <si>
+    <t>The University of Edinburgh</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.edinstudy.law.ed.ac.uk/ "&gt;www.edinstudy.law.ed.ac.uk&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Scotland</t>
+  </si>
+  <si>
+    <t>Edinburgh</t>
+  </si>
+  <si>
+    <t>The cohort is composed of individuals who started their first year of secondary school in the City of Edinburgh in the autumn of 1998. Eligibility for participation was primarily based on whether, at the time, the pupil was attending one of the 40 schools which had agreed to participate in this study, out of the possible 49 mainstream, independent, and special education needs schools in Edinburgh. The 4,313 pupils attending the participating schools represented 92.2% of all eligible children starting secondary school in 1998. All 40 participating schools took part throughout the first six phases of the study, between 1998 and 2003.&lt;br&gt;&lt;br&gt;
+Parents were contacted by the school about the school’s participation in the study, with the option for them to opt-out their child(ren). The initial sample at phase 1 consisted of 4,300 pupils. In phase 2 and 3, all new pupils joining the participating schools in the target year group were invited to participate in the study. Any pupils who left the Edinburgh area were not tracked during these phases (except for those going to local authority-funded special or residential schools outside Edinburgh). From phase 4 onwards, there were no further changes to the membership and the final eligible cohort was set at 4,389. &lt;br&gt;&lt;br&gt;
+In phase 7, 4,098 cohort members (out of 4,243 contacted) did not deny the study access to their criminal convictions data from administrative records. In addition, 252 participated in quasi-experimental interviews aimed to explore the impact of both early and late juvenile justice contact, by the age of 12 and 15 respectively, on longer term criminal justice transitions. In phase 8, 4,257 cohort members (out of the 4,280 contacted) did not deny the study access to their criminal convictions data, 770 completed an online survey, and 73 participated in interviews.</t>
+  </si>
+  <si>
+    <t>4,098 (2012 - Phase 7)</t>
+  </si>
+  <si>
+    <t>UK Data Service &lt;br&gt;
+&lt;a href="https://beta.ukdataservice.ac.uk/datacatalogue/studies/study?id=4800&amp;type=Data%20catalogue"&gt;https://beta.ukdataservice.ac.uk/datacatalogue/studies/study?id=4800&amp;type=Data%20catalogue&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Social work records,
+Children’s hearing records,
+Police records,
+School records,
+Geographic records</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Theory and method in the Edinburgh Study of Youth Transitions and Crime. &lt;a href="https://doi.org/10.1093/bjc/43.1.169"&gt;doi.org/10.1093/bjc/43.1.169
+&lt;/a&gt;&lt;br&gt;&lt;br&gt; 
+ &lt;a href="https://www.edinstudy.law.ed.ac.uk/wp-content/uploads/sites/36/2019/11/ESYTC-2001-Key-findings-at-ages-12-13.pdf"&gt;The Edinburgh Study of Youth Transitions and Crime: Key findings at ages 12 and 13&lt;/a&gt; </t>
+  </si>
+  <si>
+    <t>Scot Nuffield ESRC</t>
+  </si>
+  <si>
+    <t>Diet and nutrition,
+education,   
+ethnicity and race,   
+housing,   
+neighbourhood,   
+parenting and family,    
+puberty,   
+sexuality and gender identity,   
+social care - receipt,   
+socioeconomic status and deprivation,   
+victimisation and life events,   
+work and employment</t>
+  </si>
+  <si>
+    <t>Linked administrative data,
+Mapping/spatial data</t>
+  </si>
+  <si>
     <t>EWCS</t>
   </si>
   <si>
@@ -1524,7 +1677,7 @@
     <t xml:space="preserve">The European Working Conditions Survey is a unique pan-European survey carried out every 5 years to assess and quantify working conditions of both employees and the self-employed across Europe. It aims to provide a comprehensive picture of the everyday reality of men and women at work, and to do so covers a wide range of themes such as employment status, working time duration, learning and training, physical and psychosocial risk factors, health and safety, work-life balance, financial security and worker participation. The survey has also allowed researchers to analyse relationships between different aspects of working conditions, identify risk groups and issues of concern as well as progress, and monitor the trends of these issues. </t>
   </si>
   <si>
-    <t>&lt;a href="https://www.eurofound.europa.eu/surveys/european-working-conditions-surveys-ewcs"&gt;https://www.eurofound.europa.eu/surveys/european-working-conditions-surveys-ewcs&lt;/a&gt;</t>
+    <t>&lt;a href="https://www.eurofound.europa.eu/surveys/european-working-conditions-surveys-ewcs"&gt;eurofound.europa.eu/surveys/european-working-conditions-surveys-ewcs&lt;/a&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">England, Scotland, Wales, Northern Ireland &lt;br&gt;
@@ -1545,15 +1698,8 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1,600 – UK sample, EWCS 2015
-&lt;br&gt;&lt;br&gt;
-43,850 – Total European sample, EWCS 2015
-</t>
-  </si>
-  <si>
-    <t>UK Data Service&lt;br&gt;
-&lt;a href=""https://www.eurofound.europa.eu/surveys/about-eurofound-surveys/data-availability""&gt;eurofound.europa.eu/surveys/about-eurofound-surveys/data-availability&lt;/a&gt;&lt;br&gt;
-&lt;a href=""https://beta.ukdataservice.ac.uk/datacatalogue/studies/study?id=7348""&gt;beta.ukdataservice.ac.uk/datacatalogue/studies/study?id=7348&lt;/a&gt;</t>
+    <t>2,134 (UK sample) (2021 - EWCS 7)&lt;br&gt;
+71,764 (Total European sample) (2021 - EWCS 7)</t>
   </si>
   <si>
     <t>Sixth European Working Conditions Survey – Overview report (2017 update).
@@ -1582,7 +1728,7 @@
     <t>University College London</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;a href="https://www.geministudy.co.uk/"&gt;https://www.geministudy.co.uk/&lt;/a&gt; </t>
+    <t xml:space="preserve">&lt;a href="https://www.geministudy.co.uk/"&gt;geministudy.co.uk&lt;/a&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">Families with twins born in England and Wales between March and December 2007 were approached on behalf of Gemini by the Office for National Statistics (N = 6,754) in January 2008. 3,435 families agreed to be contacted by the research team, with 2,402 families (36% of the target population) returning a completed baseline questionnaire. The sample comprises of 1,586 same-sex and 816 opposite-sex twin pairs. 
@@ -1593,7 +1739,7 @@
     <t>2,402 families</t>
   </si>
   <si>
-    <t>987 twins, 492 parents (Time 9)</t>
+    <t>987 twins, 492 parents (2020 - Time 9)</t>
   </si>
   <si>
     <t>8 months</t>
@@ -1642,9 +1788,6 @@
     <t>&lt;a href="https://www.ed.ac.uk/generation-scotland"&gt;ed.ac.uk/generation-scotland&lt;/a&gt;</t>
   </si>
   <si>
-    <t>Scotland</t>
-  </si>
-  <si>
     <t>2006-10</t>
   </si>
   <si>
@@ -1656,7 +1799,7 @@
 5,573 families</t>
   </si>
   <si>
-    <t>9,618 individuals (STRADL follow-up)</t>
+    <t>9,618 individuals (2019 - STRADL Phase 2)</t>
   </si>
   <si>
     <t>18-100 years</t>
@@ -1729,10 +1872,12 @@
     <t>Birth Cohort 1 (BC1): 5,217</t>
   </si>
   <si>
-    <t>2,943 (2,669 main sample + 274 boost sample; BC1 Sweep 10)</t>
-  </si>
-  <si>
-    <t>2004-5</t>
+    <t>2,943 (2020 - BC1 Sweep 10)&lt;br&gt;
+2,669 (main sample)&lt;br&gt;
+274 (boost sample)</t>
+  </si>
+  <si>
+    <t>2004-05</t>
   </si>
   <si>
     <t xml:space="preserve">UK Data Service &lt;br&gt;
@@ -1748,7 +1893,7 @@
     <t>International 'Growing Up' studies include &lt;a href="https://www.growingup.ie/"&gt;Growing Up in Ireland&lt;/a&gt;, &lt;a href="https://growingupinaustralia.gov.au/"&gt;Growing Up in Australia&lt;/a&gt; and &lt;a href="http://www.growingup.co.nz/en.html"&gt;Growing Up in New Zealand&lt;/a&gt;.</t>
   </si>
   <si>
-    <t>See &lt;a href="https://growingupinscotland.org.uk/publications"&gt;growingupinscotland.org.uk/publications&lt;/a&gt;</t>
+    <t>See &lt;a href="https://www.gov.scot/publications/life-age-14-initial-findings-growing-up-scotland-study/"&gt;www.gov.scot/publications/life-age-14-initial-findings-growing-up-scotland-study&lt;/a&gt;</t>
   </si>
   <si>
     <t>Scot</t>
@@ -1793,7 +1938,7 @@
     <t>Birth Cohort 2 (BC2): 6,127</t>
   </si>
   <si>
-    <t>4,434 (BC2 Sweep 3)</t>
+    <t>4,434 (2015 - BC2 Sweep 3)</t>
   </si>
   <si>
     <t>2010-11</t>
@@ -1834,13 +1979,13 @@
     <t>Child Cohort (CC): 2,858</t>
   </si>
   <si>
-    <t>2,200 (BC1 &amp; CC Sweep 4)</t>
+    <t>2,200 (2009 - BC1 &amp; CC Sweep 4)</t>
   </si>
   <si>
     <t>3 years</t>
   </si>
   <si>
-    <t>2002-3</t>
+    <t>See &lt;a href="https://growingupinscotland.org.uk/publications"&gt;growingupinscotland.org.uk/publications&lt;/a&gt;</t>
   </si>
   <si>
     <t>Cognitive measures,
@@ -1867,7 +2012,10 @@
     <t>Hertfordshire Cohort Study (HCS)</t>
   </si>
   <si>
-    <t>The Hertfordshire Cohort Study (HCS) is a nationally unique study of 3,000 men and women born over 1931-1939 and still resident in the English county of Hertfordshire during the 1990s. The principal objective of the study is to evaluate the relationship between prenatal and early postnatal growth, genetic influences, adult lifestyle and the risk of common age-related disorders such as osteoporosis, osteoarthritis, sarcopenia, type 2 diabetes and cardiovascular disease. The HCS has been a key source of evidence for life course influences on health and disease in later life.</t>
+    <t xml:space="preserve">The 1930's Hertfordshire Cohort Study (HCS) is a nationally unique study of 3,000 men and women born over 1931-1939 and still resident in the English county of Hertfordshire during the 1990s. The principal objective of the study is to evaluate the relationship between prenatal and early postnatal growth, genetic influences, adult lifestyle and the risk of common age-related disorders such as osteoporosis, osteoarthritis, sarcopenia, type 2 diabetes and cardiovascular disease. The HCS has been a key source of evidence for life course influences on health and disease later in life.
+&lt;br&gt;
+&lt;b&gt;This page shows information about the 1930's cohort of HCS&lt;/b&gt;, the second of three cohorts in the HCS series. The series also includes the 1920's cohort of men and women born in Hertfordshire in the 1920s, and the Hertfordshire 3GS cohort comprising the grandchildren of the 1930's cohort.
+</t>
   </si>
   <si>
     <t>MRC Lifecourse Epidemiology Centre, University of Southampton</t>
@@ -1890,7 +2038,7 @@
 3,225 (HCS Baseline)</t>
   </si>
   <si>
-    <t>3,225 (HCS Baseline)</t>
+    <t>3,225 (2004 - HCS Baseline)</t>
   </si>
   <si>
     <t>Birth records: birth&lt;br&gt;
@@ -1961,7 +2109,7 @@
     <t>8,134 individuals</t>
   </si>
   <si>
-    <t>Approx 6,500 (Follow Up 1)</t>
+    <t>6,100+ (2018 - Follow Up 4)</t>
   </si>
   <si>
     <t>50-64 years</t>
@@ -1993,6 +2141,10 @@
     <t>Ageing cohort, Occupational cohort</t>
   </si>
   <si>
+    <t>&lt;a
+href="https://web.www.healthdatagateway.org/dataset/ea2d54a2-a6d4-4e82-b2e4-95184f00bbdc"&gt;https://web.www.healthdatagateway.org/dataset/ea2d54a2-a6d4-4e82-b2e4-95184f00bbdc&lt;/a&gt;</t>
+  </si>
+  <si>
     <t>IMAGEN</t>
   </si>
   <si>
@@ -2012,7 +2164,7 @@
     <t>Participants were recruited from high schools at age 14. To obtain a diverse sample in terms of socio-economic status, emotional and cognitive development, private, state-funded and special units were targeted equally. To maximize ethnic (Caucasian) homogeneity, at each study centre recruitment focused on geographical areas with minimal ethnic diversity. Full inclusion and exclusion criteria are detailed in Schumann and colleagues (2010).</t>
   </si>
   <si>
-    <t>~1,200 (Follow Up 2, age 19)</t>
+    <t>Approximately 1,200 (2015 - Second Follow-Up)</t>
   </si>
   <si>
     <t>14 years</t>
@@ -2022,7 +2174,7 @@
 &lt;a href="https://imagen-europe.com/resources/imagen-project-proposal/"&gt;imagen-europe.com/resources/imagen-project-proposal&lt;/a&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">The IMAGEN study: reinforcement-related behaviour in normal brain function and psychopathology. &lt;br&gt;
+    <t xml:space="preserve">The IMAGEN study: Reinforcement-related behaviour in normal brain function and psychopathology. &lt;br&gt;
 &lt;a href="https://doi.org/10.1038/mp.2010.4"&gt;doi.org/10.1038/mp.2010.4&lt;/a&gt; </t>
   </si>
   <si>
@@ -2112,7 +2264,10 @@
 The cohort was supplemented with two further groups in 2007: the first comprised individuals deployed to Afghanistan over a 12-month period from April 2006, and the second included a replenishment sample comprising personnel who joined the military since the initial sample was recruited in 2003. A further replenishment sample was added in 2014 comprising personnel who joined the military between 2009 and 2013.</t>
   </si>
   <si>
-    <t>1941-1995</t>
+    <t>8,094 (2016 - Phase 3)</t>
+  </si>
+  <si>
+    <t>1941-95</t>
   </si>
   <si>
     <t>Contact study team to express an interest in accessing the data &lt;br&gt;
@@ -2123,7 +2278,7 @@
   </si>
   <si>
     <t>Mental health outcomes at the end of the British involvement in the Iraq and Afghanistan conflicts: a cohort study. &lt;br&gt;
-&lt;a href="https://doi.org/10.1192/bjp.2018.175 "&gt;doi.org/10.1192/bjp.2018.175 &lt;/a&gt;</t>
+&lt;a href="https://doi.org/10.1192/bjp.2018.175"&gt;doi.org/10.1192/bjp.2018.175 &lt;/a&gt;</t>
   </si>
   <si>
     <t>MoD OfVA</t>
@@ -2161,7 +2316,7 @@
 550 (LBC1921 Wave 1)</t>
   </si>
   <si>
-    <t>59 (Wave 5)</t>
+    <t>59 (2013 - Wave 5)</t>
   </si>
   <si>
     <t>10-11 years</t>
@@ -2201,6 +2356,10 @@
     <t>Scotland, Local area</t>
   </si>
   <si>
+    <t>&lt;a
+href="https://web.www.healthdatagateway.org/dataset/df288318-6663-417d-9870-666e75920bed"&gt;https://web.www.healthdatagateway.org/dataset/df288318-6663-417d-9870-666e75920bed&lt;/a&gt;</t>
+  </si>
+  <si>
     <t>LBC1936</t>
   </si>
   <si>
@@ -2217,7 +2376,7 @@
 1,091 (LBC1936 Wave 1)</t>
   </si>
   <si>
-    <t>Approx 440 (Wave 5)</t>
+    <t>293 (2023 - Wave 6)</t>
   </si>
   <si>
     <t>First wave known as the Scottish Mental Survey 1947</t>
@@ -2251,6 +2410,72 @@
 Social care - need</t>
   </si>
   <si>
+    <t>&lt;a
+href="https://web.www.healthdatagateway.org/dataset/e63613a9-92e9-4147-8a76-40e4a87ec131"&gt;https://web.www.healthdatagateway.org/dataset/e63613a9-92e9-4147-8a76-40e4a87ec131&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>LOGIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longitudinal Outcomes of Gender Identity in Children (LOGIC) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This study aims to investigate the outcomes of children and young people referred to the UK Gender Identity Development Service and the factors associated with these outcomes. Specifically, the study aims to establish: (1) the proportion of children and young people who experience ongoing gender dysphoria and access medical treatment; (2) factors that are associated with ongoing gender dysphoria and treatment choice; and (3) how (A) medical treatment, (B) social transition and (C) co-occurring autism impact physical health, well-being, quality of life, peer and family relationships and cost to the National Health Service (NHS) and other public services.  
+&lt;br&gt;&lt;br&gt;
+The study has recruited children, young people and parents/caregivers prior to being seen by the service and is committed to following them over time, regardless of whether families choose to remain in contact with clinical services or not. 
+&lt;br&gt;&lt;br&gt;
+The qualitative sub-study of LOGIC, LOGIC-Q, aims to explore the experiences and well-being of a diverse sample of children and young people referred to the UK GIDS, and their parent/caregiver over a 2-year period. Specifically, the study aims to explore and examine (1) children and young people's experiences of gender identity, how this changes over time and links to health and well-being; (2) parental experiences of having a gender-questioning child, how this changes over time and support needed to promote their child's health and well-being; (3) children, young people and parental perspectives on outcomes that are important for evaluating health services and treatments for gender-diverse children; (4) children, young people and parental experiences of health services, therapies and support and how these can be enhanced. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">University College London (UCL), Tavistock and Portman NHS Foundation Trust, University of Liverpool, University College London Hospitals NHS Trust, University of Cambridge. </t>
+  </si>
+  <si>
+    <t>&lt;a href="https://logicstudy.uk/"&gt;logicstudy.uk&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UK and Republic of Ireland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Participants were children and young people (CYP) aged 3–14 years at the time that their referral to the Gender Identity Development Service (GIDS) was accepted, and their parent or caregiver. Referrals to the service can be made by Child and Adolescent Mental Health Services, or from other health, social care, or educational professionals, including GPs. The service does not accept self-referrals from CYP or their families. In order for the referral to be accepted, the referral must indicate that the CYP is experiencing concerns or distress around their gender identity.
+&lt;br&gt;&lt;br&gt;
+Inclusion criteria for CYP were: had a referral to the GIDS accepted; awaiting first appointment with the service when baseline measures were completed; speak English; live in the UK or the Republic of Ireland. Exclusion criteria for CYP were: aged &gt;14 years at the time their referral to the GIDS was accepted; already attended an appointment at the GIDS before baseline measures were completed; do not provide assent to take part; and do not have parent/caregiver consent. Parents/caregivers of eligible CYP will be asked to provide informed consent in order to participate and must also be proficient in English and live within the UK or the Republic of Ireland. 
+&lt;br&gt;&lt;br&gt;
+The LOGIC-Q sub-sample was comprised of 39 families who took part in the quantitative LOGIC study. The group was purposively sampled to be diverse in relation to assigned sex at birth, current age, social transition status (socially transitioned, partially socially transitioned and no social transition), ethnicity, diagnosis of Autism, socio-economic status and geographical location. </t>
+  </si>
+  <si>
+    <t>3-17 years</t>
+  </si>
+  <si>
+    <t>Contact study team by emailing logicenquiries@tavi-port.nhs.uk to express an interest in accessing the data</t>
+  </si>
+  <si>
+    <t>Includes waves of LOGIC-Q qualitative sub-study</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longitudinal Outcomes of Gender Identity in Children (LOGIC): protocol for a prospective longitudinal cohort study of children referred to the UK gender identity development service &lt;br&gt;
+&lt;a href="http://dx.doi.org/10.1136/bmjopen-2020-045628"&gt;dx.doi.org/10.1136/bmjopen-2020-045628
+&lt;/a&gt; &lt;br&gt;&lt;br&gt;
+Longitudinal Outcomes of Gender Identity in Children (LOGIC): a study protocol for a prospective longitudinal qualitative study of the experiences and well-being of families referred to the UK Gender Identity Development Service&lt;br&gt;
+&lt;a href="http://dx.doi.org/10.1136/bmjopen-2020-047875"&gt;dx.doi.org/10.1136/bmjopen-2020-047875
+&lt;/a&gt; &lt;br&gt;&lt;br&gt;
+Thinking Time, Shifting Goalposts and Ticking Time Bombs: Experiences of Waiting on the Gender Identity Development Service Waiting List&lt;br&gt;
+&lt;a href="https://doi.org/10.3390/ijerph192113883"&gt;doi.org/10.3390/ijerph192113883
+&lt;/a&gt; 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biomarkers, 
+Loneliness and social isolation,
+Puberty,
+Physical health assessment,
+Reproductive health, 
+Sexuality and gender identity, 
+Victimisation and life events </t>
+  </si>
+  <si>
+    <t>Patients and clinical cohorts</t>
+  </si>
+  <si>
     <t>LSYPE</t>
   </si>
   <si>
@@ -2267,7 +2492,7 @@
 Sample boosts took place for some minority ethnic groups when cohort members were aged 16-17 at the fourth wave.</t>
   </si>
   <si>
-    <t>8,682 (LSYPE 7)</t>
+    <t>7,707 (2016 - Age 25)</t>
   </si>
   <si>
     <t>13-14 years</t>
@@ -2318,6 +2543,10 @@
 Social care - need</t>
   </si>
   <si>
+    <t>&lt;a
+href="https://web.www.healthdatagateway.org/dataset/0ad7a3dd-e720-49ef-9d27-c394a32b0326"&gt;https://web.www.healthdatagateway.org/dataset/0ad7a3dd-e720-49ef-9d27-c394a32b0326&lt;/a&gt;</t>
+  </si>
+  <si>
     <t>MCS</t>
   </si>
   <si>
@@ -2338,7 +2567,7 @@
 18,552 families</t>
   </si>
   <si>
-    <t>11,726 children (MCS6)</t>
+    <t>10,757 (Cohort members), 10,625 (families) (2019 - MCS7)</t>
   </si>
   <si>
     <t>Education data</t>
@@ -2422,14 +2651,14 @@
     <t>7,977 (MHCYP 2004)</t>
   </si>
   <si>
-    <t>9,117 (MHCYP 2017)</t>
+    <t>9,117 (2017 - MHCYP)</t>
   </si>
   <si>
     <t>2 - 19 years (most recent survey)</t>
   </si>
   <si>
     <t>UK Data Service &lt;br&gt;
-&lt;a href="https://beta.ukdataservice.ac.uk/datacatalogue/series/series?id=2000044"&gt;beta.ukdataservice.ac.uk/datacatalogue/series/series?id=2000044&lt;/a&gt;</t>
+&lt;a href="https://beta.ukdataservice.ac.uk/datacatalogue/studies/study?id=9128"&gt;beta.ukdataservice.ac.uk/datacatalogue/studies/study?id=9128&lt;/a&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">See &lt;a href="https://digital.nhs.uk/data-and-information/publications/statistical/mental-health-of-children-and-young-people-in-england/2017/2017"&gt;digital.nhs.uk/data-and-information/publications/statistical/mental-health-of-children-and-young-people-in-england/2017/2017&lt;/a&gt;   </t>
@@ -2472,21 +2701,20 @@
 </t>
   </si>
   <si>
-    <t>661,583 (8-year re-survey) &lt;br&gt;
-Less than 1% loss to follow up for linked NHS data</t>
+    <t>837,985 (2005 - 3-year re-survey)</t>
   </si>
   <si>
     <t>Women only</t>
   </si>
   <si>
-    <t>1935-1950</t>
+    <t>1935-50</t>
   </si>
   <si>
     <t xml:space="preserve">Project proposal - see data access guidance &lt;br&gt;
 &lt;a href="http://www.millionwomenstudy.org/data_access/"&gt;http://www.millionwomenstudy.org/data_access/&lt;/a&gt;  </t>
   </si>
   <si>
-    <t xml:space="preserve">Cohort Profile: the Million Women Study. &lt;br&gt;
+    <t xml:space="preserve">Cohort Profile: The Million Women Study. &lt;br&gt;
 &lt;a href="https://doi.org/10.1093/ije/dyy065"&gt;doi.org/10.1093/ije/dyy065&lt;/a&gt; </t>
   </si>
   <si>
@@ -2505,6 +2733,56 @@
 Social care - need</t>
   </si>
   <si>
+    <t>&lt;a
+href="https://web.www.healthdatagateway.org/dataset/97ac8a7d-30b9-4fa6-84db-b4f9430fc1d6"&gt;https://web.www.healthdatagateway.org/dataset/97ac8a7d-30b9-4fa6-84db-b4f9430fc1d6&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>NATSAL</t>
+  </si>
+  <si>
+    <t>The National Surveys of Sexual Attitudes and Lifestyles</t>
+  </si>
+  <si>
+    <t>The National Surveys of Sexual Attitudes and Lifestyles (NATSAL) aims to investigate sexual behaviour in Britain.  It is a repeated cross sectional study, with the objective of collecting data once every ten years. The project is intended to study a large representative sample of people who are living in the U.K., recruited with probability sampling, to understand more about their sexual behaviour, attitudes, health and wellbeing.</t>
+  </si>
+  <si>
+    <t>UCL, London School of Hygiene &amp; Tropical Medicine, NatCen Social Research</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.natsal.ac.uk/"&gt;www.natsal.ac.uk&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Each wave of the study recruited their participants using probability sampling, to ensure that the study was nationally representative. A new sample is recruited every survey, thus ages vary between samples. However, the minimum age is always 16 years old.&lt;br&gt;&lt;br&gt;
+The first and third wave of the study (NATSAL-1, NATSAL-3) first employed a qualitative analysis to understand what the best way to ask the questions about sexual behaviour would be. The fourth wave of the study (NATSAL-4) involved two fieldwork pilots, which were delayed due to COVID-19. &lt;br&gt;&lt;br&gt;
+Participants are asked to complete a computer assisted personal interviewing questionnaire (CAPI), and a computer assisted self-interviewing questionnaire (CASI) at every wave. </t>
+  </si>
+  <si>
+    <t>NATSAL-1: 18,876&lt;br&gt;
+NATSAL-2: 12,110&lt;br&gt;
+NATSAL-3: 15,162
+NATSAL-COVID Study-1: 6,500</t>
+  </si>
+  <si>
+    <t>NATSAL-COVID Study-2: 6,500</t>
+  </si>
+  <si>
+    <t>UK Data Service &lt;a href="https://beta.ukdataservice.ac.uk/datacatalogue/studies/#!?Search=national%20survey%20of%20sexual%20attitudes%20and%20lifestyles&amp;amp;Rows=10&amp;amp;Sort=1&amp;amp;DateFrom=440&amp;amp;DateTo=2021&amp;amp;Page=1&amp;Page=1&amp;Rows=10&amp;Sort=1&amp;DateFrom=440&amp;DateTo=2023"&gt;beta.ukdataservice.ac.uk/datacatalogue/studies/#!?Search=national%20survey%20of%20sexual%20attitudes%20and%20lifestyles&amp;amp;Rows=10&amp;amp;Sort=1&amp;amp;DateFrom=440&amp;amp;DateTo=2021&amp;amp;Page=1&amp;Page=1&amp;Rows=10&amp;Sort=1&amp;DateFrom=440&amp;DateTo=2023&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sexual behaviour in Britain: partnerships, practices, and HIV risk behaviours &lt;br&gt;
+&lt;a href="https://doi.org/10.1016/S0140-6736(01)06883-0"&gt;doi.org/10.1016/S0140-6736(01)06883-04&lt;/a&gt; 
+Changes in sexual attitudes and lifestyles in Britain through the life course and over time: findings from the National Surveys of Sexual Attitudes and Lifestyles (Natsal) &lt;br&gt; 
+&lt;a href="https://doi.org/10.1016/S0140-6736(13)62035-8"&gt;doi.org/10.1016/S0140-6736(13)62035-8&lt;/a&gt; 
+Sexual behaviour in Britain: Early heterosexual experience &lt;br&gt; 
+&lt;a href="https://doi.org/10.1016/s0140-6736(01)06885-4"&gt;doi.org/10.1016/s0140-6736(01)06885-4&lt;/a&gt; </t>
+  </si>
+  <si>
+    <t>MRC Wellcome ESRC</t>
+  </si>
+  <si>
+    <t>Linked health data</t>
+  </si>
+  <si>
     <t>N85</t>
   </si>
   <si>
@@ -2537,7 +2815,7 @@
  &lt;a href="https://research.ncl.ac.uk/85plus/datarequests/"&gt;research.ncl.ac.uk/85plus/datarequests&lt;/a&gt;</t>
   </si>
   <si>
-    <t>The Newcastle 85+ study: biological, clinical and psychosocial factors associated with healthy ageing: study protocol. &lt;br&gt;
+    <t>The Newcastle 85+ study: Biological, clinical and psychosocial factors associated with healthy ageing: study protocol. &lt;br&gt;
 &lt;a href="https://doi.org/10.1186/1471-2318-7-14"&gt;doi.org/10.1186/1471-2318-7-14&lt;/a&gt;</t>
   </si>
   <si>
@@ -2576,8 +2854,8 @@
     <t>17,000+</t>
   </si>
   <si>
-    <t>9,100 (NCDS9 2013) &lt;br&gt;
-9,337 have biosamples</t>
+    <t>9,137 (2014 - NCDS9)&lt;br&gt;
+9,337 bio samples</t>
   </si>
   <si>
     <t>Environmental data,
@@ -2629,6 +2907,10 @@
 Observational/qualitative data</t>
   </si>
   <si>
+    <t>&lt;a
+href="https://web.www.healthdatagateway.org/dataset/0ceaaedc-4904-4820-8b74-d6a8e679fb11"&gt;https://web.www.healthdatagateway.org/dataset/0ceaaedc-4904-4820-8b74-d6a8e679fb11&lt;/a&gt;</t>
+  </si>
+  <si>
     <t>NICOLA</t>
   </si>
   <si>
@@ -2651,7 +2933,7 @@
 Householders received an introductory letter, followed by contact from ﬁeldworkers who obtained the name and informed consent from eligible participants.  Individuals who were institutionalised or who lacked the capacity to provide informed consent were excluded from participating in the NICOLA study.  Spouses or partners of eligible participants who wished to take part in the study did not have to have been born on or before September 30th 1962, but had to be living at the same address as the selected age-eligible participant. A total of 195 who were aged less than 50 chose to participate, resulting in a total of 8,504 participants in NICOLA Wave 1.</t>
   </si>
   <si>
-    <t>8,504 (Wave 1)</t>
+    <t>6,152 (2019 - Wave 2)</t>
   </si>
   <si>
     <t>50 years +</t>
@@ -2782,7 +3064,7 @@
     <t>From an initial maternity survey of 13,687 of all births recorded in England, Scotland and Wales during one week of March, 1946, a class stratified sample of 5,362 singleton babies born to married parents was selected for follow-up. The sample was distributed geographically in proportion to the national population. The study population has not been augmented in any way and now aims to be as far as possible representative of single, native born individuals born to married mothers who are still resident in England, Wales, or Scotland; it cannot therefore be representative of immigrants.</t>
   </si>
   <si>
-    <t>2,648 - 2014-16 Follow-Up</t>
+    <t>2,648 (2014-16 Follow-Up)</t>
   </si>
   <si>
     <t>Data request&lt;br&gt;
@@ -2828,6 +3110,10 @@
 Brain activity and structures</t>
   </si>
   <si>
+    <t>&lt;a
+href="https://web.www.healthdatagateway.org/dataset/a2017e30-5257-40ec-8bae-9b221724121e"&gt;https://web.www.healthdatagateway.org/dataset/a2017e30-5257-40ec-8bae-9b221724121e&lt;/a&gt;</t>
+  </si>
+  <si>
     <t>PROTECT</t>
   </si>
   <si>
@@ -2850,7 +3136,7 @@
 Participants are followed up annually, with data collection taking place approximately yearly after baseline such that data is collected across the year. Minor updates are made to questionnaires approximately yearly, as detailed in the data collection timeline below.</t>
   </si>
   <si>
-    <t>1914-1970</t>
+    <t>1914-70</t>
   </si>
   <si>
     <t>Contact study team by emailing support.protect@exeter.ac.uk to express an interest in accessing the data</t>
@@ -2899,6 +3185,9 @@
   </si>
   <si>
     <t>Approx 1,000</t>
+  </si>
+  <si>
+    <t>4,000+ (2019 - Follow Up 2)</t>
   </si>
   <si>
     <t>11-14 years</t>
@@ -2938,6 +3227,10 @@
     <t>Accelerated cohort study</t>
   </si>
   <si>
+    <t>&lt;a
+href="https://web.www.healthdatagateway.org/dataset/0f754b8b-353e-4e8d-9ff0-03d5e0817e02"&gt;https://web.www.healthdatagateway.org/dataset/0f754b8b-353e-4e8d-9ff0-03d5e0817e02&lt;/a&gt;</t>
+  </si>
+  <si>
     <t>ROOTS</t>
   </si>
   <si>
@@ -2948,6 +3241,9 @@
   </si>
   <si>
     <t>Neuroscience in Psychiatry Network (NSPN), University of Cambridge</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.cedar.iph.cam.ac.uk/research/directory/roots/"&gt;cedar.iph.cam.ac.uk/research/directory/roots&lt;/a&gt;</t>
   </si>
   <si>
     <t>Cambridgeshire</t>
@@ -2961,18 +3257,18 @@
 1,141 parents</t>
   </si>
   <si>
-    <t>1,074 - Age 17 fMRI sub-study&lt;br&gt;
-157 - Age 21 stress reactivity sub-study</t>
-  </si>
-  <si>
-    <t>1991-2</t>
+    <t>1,074 (2008 - Age 17 fMRI sub-study)&lt;br&gt;
+157 (2012 - Age 21 Stress reactivity sub-study)</t>
+  </si>
+  <si>
+    <t>1991-92</t>
   </si>
   <si>
     <t>Data request - contact study team&lt;br&gt;
 &lt;a href="http://www.nspn.org.uk/contact-us/"&gt;www.nspn.org.uk/contact-us&lt;/a&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">The ROOTS study: a 10-year review of findings on adolescent depression, and recommendations for future longitudinal research.&lt;br&gt;
+    <t xml:space="preserve">The ROOTS study: A 10-year review of findings on adolescent depression, and recommendations for future longitudinal research.&lt;br&gt;
 &lt;a href="https://doi.org/10.1007/s00127-015-1150-y"&gt;doi.org/10.1007/s00127-015-1150-y&lt;/a&gt;&lt;br&gt;&lt;br&gt;
 Cohort Profile: Risk patterns and processes for psychopathology emerging during adolescence: the ROOTS project.&lt;br&gt;
 &lt;a href="https://doi.org/10.1093/ije/dyp173"&gt;doi.org/10.1093/ije/dyp173&lt;/a&gt; </t>
@@ -3019,7 +3315,7 @@
 All South Asian and African Caribbean participants are first-generation migrants to the UK.</t>
   </si>
   <si>
-    <t>2,572 (SABRE V2)</t>
+    <t>3000 (2018 - SABRE V3)</t>
   </si>
   <si>
     <t>40-69 years</t>
@@ -3070,7 +3366,7 @@
 </t>
   </si>
   <si>
-    <t>&lt;a href="https://www.scampstudy.org/"&gt;https://www.scampstudy.org/&lt;/a&gt;</t>
+    <t>&lt;a href="https://www.scampstudy.org/"&gt;scampstudy.org&lt;/a&gt;</t>
   </si>
   <si>
     <t>Greater London</t>
@@ -3079,10 +3375,11 @@
     <t>Secondary school pupils from 39 eligible schools from within the Greater London area were invited to participate. Eligible schools were selected from the Department for Education’s register of educational establishments (EduBase) and from the January 2012 school census. Pupils completed computerised assessments at school, which were complemented by online questionnaires that could be completed in any environment by both and pupils and their parents.</t>
   </si>
   <si>
-    <t>11 years</t>
-  </si>
-  <si>
-    <t>2002-2003</t>
+    <t>5,023 (2015 - Wave 2)
+1328 (2020-2021 - Wave 3 and 4)</t>
+  </si>
+  <si>
+    <t>11-12 years</t>
   </si>
   <si>
     <t>Project proposal - see data access guidance &lt;br&gt;
@@ -3094,7 +3391,7 @@
 Digital footprint data</t>
   </si>
   <si>
-    <t>Cohort profile: the study of cognition, adolescents and mobile phones (SCAMP).
+    <t>Cohort profile: The study of cognition, adolescents and mobile phones (SCAMP).
 &lt;br&gt;
 &lt;a href="https://doi.org/10.1093/ije/dyy192"&gt;doi.org/10.1093/ije/dyy192&lt;/a&gt;</t>
   </si>
@@ -3136,7 +3433,7 @@
     <t>1,698 participants</t>
   </si>
   <si>
-    <t>500 participants (Phase 3 sub-sample)</t>
+    <t>500 (2016 - Phase 3)</t>
   </si>
   <si>
     <t>1994 or earlier</t>
@@ -3173,13 +3470,67 @@
 Migration and immigration</t>
   </si>
   <si>
+    <t>&lt;a
+href="https://web.www.healthdatagateway.org/dataset/cda770e3-0d4d-466f-8102-c56beff04848"&gt;https://web.www.healthdatagateway.org/dataset/cda770e3-0d4d-466f-8102-c56beff04848&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>SEP-MD</t>
+  </si>
+  <si>
+    <t>Social and Economic Predictors of the Severe Mental Disorders Study (SEP-MD)</t>
+  </si>
+  <si>
+    <t>The SEP-MD Study is a large, linked cohort connecting individual data from the 2011 UK Census with clinical records from the South London &amp; Maudsley Trust and death registrations. The study aims to explore how neighbourhood and individual-level factors are related to mortality, in-patient admissions and long-term worklessness in people with severe mental health conditions. The study will also explore ethnic inequalities to deepen understanding of disparities in outcomes.</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.kcl.ac.uk/research/the-sep-md-data-linkage-study/"&gt;kcl.ac.uk/research/the-sep-md-data-linkage-study&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>South East London</t>
+  </si>
+  <si>
+    <t>Linked cohort</t>
+  </si>
+  <si>
+    <t>The linked cohort includes clinical data from 19,808 SLaM service users with a diagnosis of severe mental illness, including schizophrenia-spectrum disorders, bipolar affective disorders and non-organic psychoses, linked with available data from the 2011 census and death registrations. SLaM provides mental health care to an ethnically diverse, urbanised location in South East London, with a catchment area of 1.3 million people and only 38.7% of SlaM service users reporting their ethnicity as 'White' in 2020-21.
+In addition to the linked cohort, an additional sample is available to facilitate further research. For each individual in the SEP-MD cohort, data were matched with 5 controls from the study area who had completed census questions but did not have a history of severe mental health problems, allowing for examination of the social determinants of onset, course, and outcomes (admissions, worklessness and mortality) in people living with severe mental health conditions.</t>
+  </si>
+  <si>
+    <t>19,808 individuals with a diagnosis of severe mental illness</t>
+  </si>
+  <si>
+    <t>The linked dataset is hosted in an ONS secure setting and is accessible to accredited researchers working on the study, subject to completing an approvals process. Contact Dr Das-Munshi for more information: jayati.das-munshi@kcl.ac.uk</t>
+  </si>
+  <si>
+    <t>Improving our understanding of the social determinants of mental health: A data linkage study of mental health records and the 2011 UK census. &lt;br&gt;
+&lt;a
+href="https://doi.org/10.1101/2023.03.10.23287114"&gt;doi.org/10.1101/2023.03.10.23287114&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>ESRC</t>
+  </si>
+  <si>
+    <t>Cognitive measures,
+Ethnicity and race,
+Housing,
+Language and literacy,
+Neighbourhood,
+Social care - provision,
+Socioeconomic status and deprivation,
+Work and employment</t>
+  </si>
+  <si>
+    <t>Ethnicity and race,
+Patients and clinical cohorts</t>
+  </si>
+  <si>
     <t>SWS</t>
   </si>
   <si>
     <t>Southampton Women's Survey (SWS)</t>
   </si>
   <si>
-    <t>The Southampton Women’s Survey (SWS) is the only birth cohort study in Europe in which mothers were recruited before conception of the child. The SWS aims to assess the influence of maternal dietary, lifestyle, intrauterine, genetic and epigenetic factors on the children’s health and development, and on the health of the mothers themselves. Using this information, the survey can inform the development of interventions to optimize fetal, infant, and childhood growth and development.</t>
+    <t>The Southampton Women’s Survey (SWS) is the only birth cohort study in Europe in which mothers were recruited before conception of the child. The SWS aims to assess the influence of maternal dietary, lifestyle, intrauterine, genetic and epigenetic factors on the children’s health and development, and on the health of the mothers themselves. Using this information, the survey can inform the development of interventions to optimize foetal, infant, and childhood growth and development.</t>
   </si>
   <si>
     <t>MRC Lifecourse Epidemiology Unit, University of Southampton</t>
@@ -3199,7 +3550,7 @@
 2,567 babies</t>
   </si>
   <si>
-    <t>789 babies - 3 year sweep</t>
+    <t>1,214 (Cohort members) (2014 - 8-9 Year Questionnaire)</t>
   </si>
   <si>
     <t>20-34 years (women)
@@ -3281,10 +3632,10 @@
     <t>13,694 families</t>
   </si>
   <si>
-    <t>Approx 4,300 families</t>
-  </si>
-  <si>
-    <t>1994-6</t>
+    <t>Approximately 4,300 families</t>
+  </si>
+  <si>
+    <t>1994-96</t>
   </si>
   <si>
     <t>Project proposal - see data access guidance &lt;br&gt;
@@ -3296,8 +3647,11 @@
 Social media data</t>
   </si>
   <si>
-    <t>Twins Early Development Study: A Genetically Sensitive Investigation into Behavioral and Cognitive Development from Infancy to Emerging Adulthood. &lt;br&gt;
-&lt;a href="https://doi.org/10.1017/thg.2019.56"&gt;doi:10.1017/thg.2019.56&lt;/a&gt;</t>
+    <t>Twins Early Development Study: A genetically sensitive investigation into behavioural and cognitive development from infancy to emerging adulthood &lt;br&gt;
+&lt;a href="https://doi.org/10.1017/thg.2019.56"&gt;doi:10.1017/thg.2019.56&lt;/a&gt;
+&lt;br&gt;&lt;br&gt;
+Twins Early Development Study (TEDS): A genetically sensitive investigation of mental health outcomes in the mid-twenties &lt;br&gt;
+&lt;a href="https://acamh.onlinelibrary.wiley.com/doi/full/10.1002/jcv2.12154"&gt;doi.org/10.1002/jcv2.12154&lt;/a&gt;</t>
   </si>
   <si>
     <t>MRC NIH</t>
@@ -3344,12 +3698,11 @@
 The TwinsUK registry now consists of over 15,000 monozygotic (MZ) and dizygotic (DZ) twins aged 18 and over and includes same-sex and opposite sex-twin pairs. The majority of the twins are female, with a mean age of 59. The number of MZ and DZ twins in the sample is approximately equal. TwinsUK recently obtained approval to recruit twins under 18, and so will begin to recruit in this age group in the near future.</t>
   </si>
   <si>
-    <t>Ongoing recruitment means that 15,063 twins over the age of 18 are now on the registry</t>
-  </si>
-  <si>
-    <t>10,200 twins registered as research-active&lt;br&gt;
-More than 9,000 twins for whom TwinsUK hold clinical and/or questionnaire data&lt;br&gt;
-More than 7,000 twins with multiple mental health measures</t>
+    <t>Ongoing recruitment means that more than 15,000 twins over the age of 18 are now on the registry</t>
+  </si>
+  <si>
+    <t>5.364 (2022 - LCQ)&lt;br&gt;
+15,000+ twins on the registry</t>
   </si>
   <si>
     <t xml:space="preserve">18 years +&lt;br&gt;
@@ -3382,7 +3735,12 @@
 Victimisation and life events,
 Reproductive health,
 Work and employment,
-Sleep problems</t>
+Sleep problems,
+Ethnicity and race, 
+Housing,
+Social care - need,
+Social care - provision,
+Social care - receipt</t>
   </si>
   <si>
     <t>Registry, Twin study</t>
@@ -3420,7 +3778,7 @@
     <t>39,802 households (Wave 1 Understanding Society)</t>
   </si>
   <si>
-    <t>32,000 individuals (Wave 11 Understanding Society)</t>
+    <t>21,161 (2022 - Wave 12)</t>
   </si>
   <si>
     <t>UK Data Service &lt;br&gt;
@@ -3436,8 +3794,8 @@
     <t>Includes all waves of the British Household Panel Survey (BHPS). Northern Ireland included in the BHPS after 2001.</t>
   </si>
   <si>
-    <t>Understanding Society: design overview. &lt;br&gt;
-&lt;a href="hhttp://dx.doi.org/10.14301/llcs.v3i1.159"&gt;doi.org/10.14301/llcs.v3i1.159&lt;/a&gt; &lt;br&gt;&lt;br&gt;
+    <t>Understanding Society: Design overview. &lt;br&gt;
+&lt;a href="http://dx.doi.org/10.14301/llcs.v3i1.159"&gt;doi.org/10.14301/llcs.v3i1.159&lt;/a&gt; &lt;br&gt;&lt;br&gt;
 &lt;a href="https://www.understandingsociety.ac.uk/documentation/mainstage/user-guide"&gt;User guides&lt;/a&gt; also available.</t>
   </si>
   <si>
@@ -3474,6 +3832,10 @@
     <t>Household panel study</t>
   </si>
   <si>
+    <t>&lt;a
+href="https://web.www.healthdatagateway.org/dataset/932cecdf-65fb-4e3d-9454-7a2d0585e970"&gt;https://web.www.healthdatagateway.org/dataset/932cecdf-65fb-4e3d-9454-7a2d0585e970&lt;/a&gt;</t>
+  </si>
+  <si>
     <t>WCHADS</t>
   </si>
   <si>
@@ -3498,6 +3860,9 @@
   </si>
   <si>
     <t>1,233 infants</t>
+  </si>
+  <si>
+    <t>888 (Cohort members) (2020 - Phase 15)</t>
   </si>
   <si>
     <t>Infants: 20 weeks gestation
@@ -3544,10 +3909,10 @@
     <t>Whitehall II</t>
   </si>
   <si>
-    <t>The Whitehall II study was established to investigate the causes of social inequalities in health with a cohort of 10,308 participants was recruited from the British Civil Service in 1985. The study has shown the importance of psychosocial factors such as work stress and work-family conflict in heart disease and diabetes in addition to the contribution of unhealthy behaviours and traditional risk factors such as high blood pressure. The study is now a study on ageing, with the 30-year follow-up allowing research on multimorbidity, functional decline, frailty, disability, and dementia.</t>
-  </si>
-  <si>
-    <t>Department of Epidemiology &amp; Public Health, University College London</t>
+    <t>The Whitehall II study was established to investigate the causes of social inequalities in health with a cohort of 10,308 participants was recruited from the British Civil Service in 1985. The study has shown the importance of psychosocial factors such as work stress and work-family conflict in heart disease and diabetes in addition to the contribution of unhealthy behaviours and traditional risk factors such as high blood pressure. The study is now a study on ageing, with the 35-year follow-up allowing research on multimorbidity, functional decline, frailty, disability, and dementia.</t>
+  </si>
+  <si>
+    <t>UCL Brain Science, University College London</t>
   </si>
   <si>
     <t>&lt;a href="https://www.ucl.ac.uk/epidemiology-health-care/research/epidemiology-and-public-health/research/whitehall-ii"&gt;ucl.ac.uk/epidemiology-health-care/research/epidemiology-and-public-health/research/whitehall-ii&lt;/a&gt;</t>
@@ -3559,8 +3924,9 @@
     <t>The target population for the Whitehall II study was all civil servants aged 35–55 years working in the London offices of 20 Whitehall departments in 1985–88. Members of the target population were invited to participate by letter. The achieved sample size was 10,308 people; 3413 women and 6895 men. The participants, who were from clerical and office support grades, middle-ranking executive grades, and senior administrative grades, differ widely in salary. Some have remained in the civil service. Many have retired, and others have taken employment elsewhere; some are unemployed. For more details see Marmot &amp; Brunner 2005.</t>
   </si>
   <si>
-    <t>6,318 - Phase 11 (2012-13)&lt;br&gt;
-5,632 - Phase 12 (2015-16)</t>
+    <t>6,318 (2013 - Phase 11)&lt;br&gt;
+5,632 (2016 - Phase 12)&lt;br&gt;
+4,307 (2022 - Phase 13)</t>
   </si>
   <si>
     <t>35-55 years</t>
@@ -3570,7 +3936,7 @@
   </si>
   <si>
     <t>Data request - Dementias Platform UK&lt;br&gt;
-&lt;a href="https://portal.dementiasplatform.uk/Apply"&gt;https://portal.dementiasplatform.uk/Apply&lt;/a&gt;</t>
+&lt;a href="https://portal.dementiasplatform.uk/Apply"&gt;portal.dementiasplatform.uk/Apply&lt;/a&gt;</t>
   </si>
   <si>
     <t>Education data,
@@ -3583,10 +3949,6 @@
   <si>
     <t>Cohort Profile: The Whitehall II Study. &lt;br&gt;
 &lt;a href="https://doi.org/10.1093/ije/dyh372"&gt;doi.org/10.1093/ije/dyh372&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>MRC BHF NIA ESRC EU_flag ERC&lt;br&gt;
-National Heart, Lung &amp; Blood Institute</t>
   </si>
   <si>
     <t>Biomarkers,
@@ -3621,7 +3983,7 @@
     <t>MRC Social and Public Health Sciences Unit, University of Glasgow</t>
   </si>
   <si>
-    <t>&lt;a href="http://2007study.sphsu.mrc.ac.uk/"&gt;2007study.sphsu.mrc.ac.uk/&lt;/a&gt;</t>
+    <t>&lt;a href="http://2007study.sphsu.mrc.ac.uk/"&gt;2007study.sphsu.mrc.ac.uk&lt;/a&gt;</t>
   </si>
   <si>
     <t>Central Clydeside Conurbation, West of Scotland</t>
@@ -3638,7 +4000,7 @@
 1,515 - 1970s cohort</t>
   </si>
   <si>
-    <t>2,580 total (Wave 5, 2008)&lt;br&gt;
+    <t>2,580 total (2008 - Wave 5)&lt;br&gt;
 633 - 1930s cohort&lt;br&gt;
 994 - 1950s cohort&lt;br&gt;
 923 - 1970s cohort</t>
@@ -3684,135 +4046,89 @@
 Social care - need</t>
   </si>
   <si>
-    <t>LOGIC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longitudinal Outcomes of Gender Identity in Children (LOGIC) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">This study aims to investigate the outcomes of children and young people referred to the UK Gender Identity Development Service and the factors associated with these outcomes. Specifically, the study aims to establish: (1) the proportion of children and young people who experience ongoing gender dysphoria and access medical treatment; (2) factors that are associated with ongoing gender dysphoria and treatment choice; and (3) how (A) medical treatment, (B) social transition and (C) co-occurring autism impact physical health, well-being, quality of life, peer and family relationships and cost to the National Health Service (NHS) and other public services.  
+    <t>COSMO</t>
+  </si>
+  <si>
+    <t>COVID Social Mobility &amp; Opportunities Study</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The COVID Social Mobility &amp; Opportunities Study (COSMO) is a longitudinal youth cohort study that was initiated following the onset of the COVID-19 pandemic. The study is following the lives of over 13,000 young people in England who were in Year 11 during the 2020-21 academic year. The main aim of COSMO is to generate high-quality evidence for answering the question of how the pandemic affected socio-economic inequalities in life chances, including short-term educational attainment and wellbeing, and long-term educational and career outcomes. </t>
+  </si>
+  <si>
+    <t>The UCL Centre for Education Policy and Equalising Opportunities (CEPEO), the Sutton Trust &amp; the UCL Centre for Longitudinal Studies (CLS)</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://cosmostudy.uk"&gt;cosmostudy.uk&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The sample comprises students who were in Year 11 during the 2020-21 academic year. Young people and their parents were recruited from the National Pupil Database, with additional private school sample. The study disproportionately sampled young people from disadvantaged, ethnic minority and other hard-to-reach groups to ensure it reflects the full range of experiences of the pandemic. (Weights are available to adjust for the disproportionate sampling.)
 &lt;br&gt;&lt;br&gt;
-The study has recruited children, young people and parents/caregivers prior to being seen by the service and is committed to following them over time, regardless of whether families choose to remain in contact with clinical services or not. 
-&lt;br&gt;&lt;br&gt;
-The qualitative sub-study of LOGIC, LOGIC-Q, aims to explore the experiences and well-being of a diverse sample of children and young people referred to the UK GIDS, and their parent/caregiver over a 2-year period. Specifically, the study aims to explore and examine (1) children and young people's experiences of gender identity, how this changes over time and links to health and well-being; (2) parental experiences of having a gender-questioning child, how this changes over time and support needed to promote their child's health and well-being; (3) children, young people and parental perspectives on outcomes that are important for evaluating health services and treatments for gender-diverse children; (4) children, young people and parental experiences of health services, therapies and support and how these can be enhanced. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">University College London (UCL), Tavistock and Portman NHS Foundation Trust, University of Liverpool, University College London Hospitals NHS Trust, University of Cambridge. </t>
-  </si>
-  <si>
-    <t>&lt;a href="https://logicstudy.uk/"&gt;logicstudy.uk/&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UK and Republic of Ireland </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Participants were children and young people (CYP) aged 3–14 years at the time that their referral to the Gender Identity Development Service (GIDS) was accepted, and their parent or caregiver. Referrals to the service can be made by Child and Adolescent Mental Health Services, or from other health, social care, or educational professionals, including GPs. The service does not accept self-referrals from CYP or their families. In order for the referral to be accepted, the referral must indicate that the CYP is experiencing concerns or distress around their gender identity.
-&lt;br&gt;&lt;br&gt;
-Inclusion criteria for CYP were: had a referral to the GIDS accepted; awaiting first appointment with the service when baseline measures were completed; speak English; live in the UK or the Republic of Ireland. Exclusion criteria for CYP were: aged &gt;14 years at the time their referral to the GIDS was accepted; already attended an appointment at the GIDS before baseline measures were completed; do not provide assent to take part; and do not have parent/caregiver consent. Parents/caregivers of eligible CYP will be asked to provide informed consent in order to participate and must also be proficient in English and live within the UK or the Republic of Ireland. 
-&lt;br&gt;&lt;br&gt;
-The LOGIC-Q sub-sample was comprised of 39 families who took part in the quantitative LOGIC study. The group was purposively sampled to be diverse in relation to assigned sex at birth, current age, social transition status (socially transitioned, partially socially transitioned and no social transition), ethnicity, diagnosis of Autism, socio-economic status and geographical location. </t>
-  </si>
-  <si>
-    <t>3-17 years</t>
-  </si>
-  <si>
-    <t>Contact study team by emailing logicenquiries@tavi-port.nhs.uk to express an interest in accessing the data</t>
-  </si>
-  <si>
-    <t>Includes waves of LOGIC-Q qualitative sub-study</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longitudinal Outcomes of Gender Identity in Children (LOGIC): protocol for a prospective longitudinal cohort study of children referred to the UK gender identity development service &lt;br&gt;
-&lt;a href="http://dx.doi.org/10.1136/bmjopen-2020-045628"&gt;dx.doi.org/10.1136/bmjopen-2020-045628
-&lt;/a&gt; &lt;br&gt;&lt;br&gt;
-Longitudinal Outcomes of Gender Identity in Children (LOGIC): a study protocol for a prospective longitudinal qualitative study of the experiences and well-being of families referred to the UK Gender Identity Development Service&lt;br&gt;
-&lt;a href="http://dx.doi.org/10.1136/bmjopen-2020-047875"&gt;dx.doi.org/10.1136/bmjopen-2020-047875
-&lt;/a&gt; &lt;br&gt;&lt;br&gt;
-Thinking Time, Shifting Goalposts and Ticking Time Bombs: Experiences of Waiting on the Gender Identity Development Service Waiting List&lt;br&gt;
-&lt;a href="https://doi.org/10.3390/ijerph192113883"&gt;doi.org/10.3390/ijerph192113883
-&lt;/a&gt; 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biomarkers, 
+13,787 young people and 11,731 parents responded at baseline. Of those, 10,051 responses were paired, 3,736 were young person-only responses and 1,680 were parent-only responses. </t>
+  </si>
+  <si>
+    <t>13,787 young people</t>
+  </si>
+  <si>
+    <t>11,523 (2022 - Wave 2)</t>
+  </si>
+  <si>
+    <t>15-16 years</t>
+  </si>
+  <si>
+    <t>UK Data Service &lt;br&gt; &lt;a href="https://beta.ukdataservice.ac.uk/datacatalogue/series/series?id=2000124"&gt;beta.ukdataservice.ac.uk/datacatalogue/series/series?id=2000124&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>COVID Social Mobility &amp; Opportunities study (COSMO): Wave 1 User Guide. London: UCL and Sutton Trust.
+&lt;br&gt;
+&lt;a href="https://doc.ukdataservice.ac.uk/doc/9000/mrdoc/pdf/9000_cosmo_w1_user_guide_v2.pdf"&gt;doc.ukdataservice.ac.uk/doc/9000/mrdoc/pdf/9000_cosmo_w1_user_guide_v2.pdf&lt;/a&gt;
+&lt;br&gt;
+COVID Social Mobility &amp; Opportunities study (COSMO): Wave 2 User Guide. London: UCL and Sutton Trust. &lt;br&gt;
+&lt;a href="https://doc.ukdataservice.ac.uk/doc/9158/mrdoc/pdf/9158_cosmo_w2_user_guide_v1.pdf"&gt;doc.ukdataservice.ac.uk/doc/9158/mrdoc/pdf/9158_cosmo_w2_user_guide_v1.pdf&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>UKRI, ESRC</t>
+  </si>
+  <si>
+    <t>Covid-19 data collection, 
+Digital technology and social media, 
+Education, 
+Housing, 
+Parenting and family, 
+Political and social attitudes, 
+Sexuality and gender identity, 
+Socioeconomic status and deprivation, 
+Victimisation and life events, 
+Work and employment</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Covid-19 data collection,
+Digital technology and social media,
+Education,
+Ethnicity and race,
+Housing,
 Loneliness and social isolation,
+Migration and immigration,
+Parenting and family,
+Political and social attitudes,
 Puberty,
-Physical health assessment,
-Reproductive health, 
-Sexuality and gender identity, 
-Victimisation and life events </t>
-  </si>
-  <si>
-    <t>Patients and clinical cohorts</t>
-  </si>
-  <si>
-    <t>ESYTC</t>
-  </si>
-  <si>
-    <t>The Edinburgh Study of Youth Transitions and Crime (ESYTC)</t>
-  </si>
-  <si>
-    <t>The Edinburgh Study of Youth Transitions and Crime is a prospective longitudinal cohort study aimed to examine criminal offending in young people by investigating the causes and consequences of young people’s involvement in crime and anti-social behaviour.&lt;br&gt;&lt;br&gt;
-The study follows a cohort of around 4,300 young people who started secondary school in the City of Edinburgh in the autumn of 1998. Data collection spans from their early adolescence (age 12) to adulthood (age 33) through self-report questionnaires as well as in-depth interviews with two cohort sub-samples at ages 24 and 35 years. The study also includes linked administrative data from official records, including education, social work, and criminal conviction records.</t>
-  </si>
-  <si>
-    <t>The University of Edinburgh</t>
-  </si>
-  <si>
-    <t>&lt;a href="https://www.edinstudy.law.ed.ac.uk/ "&gt;www.edinstudy.law.ed.ac.uk/ &lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>Edinburgh</t>
-  </si>
-  <si>
-    <t>The cohort is composed of individuals who started their first year of secondary school in the City of Edinburgh in the autumn of 1998. Eligibility for participation was primarily based on whether, at the time, the pupil was attending one of the 40 schools which had agreed to participate in this study, out of the possible 49 mainstream, independent, and special education needs schools in Edinburgh. The 4,313 pupils attending the participating schools represented 92.2% of all eligible children starting secondary school in 1998. All 40 participating schools took part throughout the first six phases of the study, between 1998 and 2003.&lt;br&gt;&lt;br&gt;
-Parents were contacted by the school about the school’s participation in the study, with the option for them to opt-out their child(ren). The initial sample at phase 1 consisted of 4,300 pupils. In phase 2 and 3, all new pupils joining the participating schools in the target year group were invited to participate in the study. Any pupils who left the Edinburgh area were not tracked during these phases (except for those going to local authority-funded special or residential schools outside Edinburgh). From phase 4 onwards, there were no further changes to the membership and the final eligible cohort was set at 4,389. &lt;br&gt;&lt;br&gt;
-In phase 7, 4,098 cohort members (out of 4,243 contacted) did not deny the study access to their criminal convictions data from administrative records. In addition, 252 participated in quasi-experimental interviews aimed to explore the impact of both early and late juvenile justice contact, by the age of 12 and 15 respectively, on longer term criminal justice transitions. In phase 8, 4,257 cohort members (out of the 4,280 contacted) did not deny the study access to their criminal convictions data, 770 completed an online survey, and 73 participated in interviews.</t>
-  </si>
-  <si>
-    <t>UK Data Service &lt;br&gt;
-&lt;a href="https://beta.ukdataservice.ac.uk/datacatalogue/studies/study?id=4800&amp;type=Data%20catalogue"&gt;https://beta.ukdataservice.ac.uk/datacatalogue/studies/study?id=4800&amp;type=Data%20catalogue&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>Social work records,
-Children’s hearing records,
-Police records,
-School records,
-Geographic records</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Theory and method in the Edinburgh Study of Youth Transitions and Crime. &lt;a href="https://doi.org/10.1093/bjc/43.1.169"&gt;doi.org/10.1093/bjc/43.1.169
-&lt;/a&gt;&lt;br&gt;&lt;br&gt; 
- &lt;a href="https://www.edinstudy.law.ed.ac.uk/wp-content/uploads/sites/36/2019/11/ESYTC-2001-Key-findings-at-ages-12-13.pdf"&gt;The Edinburgh Study of Youth Transitions and Crime: Key findings at ages 12 and 13&lt;/a&gt; 
-</t>
-  </si>
-  <si>
-    <t>Scot Nuffield ESRC</t>
-  </si>
-  <si>
-    <t>Diet and nutrition,
-education,   
-ethnicity and race,   
-housing,   
-neighbourhood,   
-parenting and family,    
-puberty,   
-sexuality and gender identity,   
-social care - receipt,   
-socioeconomic status and deprivation,   
-victimisation and life events,   
-work and employment</t>
-  </si>
-  <si>
-    <t>Linked administrative data,
-Mapping/spatial data</t>
+Reproductive health,
+Sexuality and gender identity,
+Socioeconomic status and deprivation,
+Victimisation and life events,
+Work and employment,</t>
+  </si>
+  <si>
+    <t>MRC BHF NIA ESRC EU_flag ERC NIH_Heart_Lung_Blood</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3870,6 +4186,7 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -3878,8 +4195,34 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF2E2E2E"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3901,6 +4244,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3956,7 +4311,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4073,6 +4428,37 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4457,50 +4843,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ87"/>
+  <dimension ref="A1:AMJ88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="S58" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="V1" sqref="V1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M2" sqref="M2"/>
+      <selection pane="bottomRight" activeCell="U58" sqref="U58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="46.28515625" style="20" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="46.33203125" style="20" customWidth="1"/>
     <col min="3" max="3" width="47" style="30" customWidth="1"/>
     <col min="4" max="4" width="41" style="2" customWidth="1"/>
-    <col min="5" max="5" width="45.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="45.33203125" style="2" customWidth="1"/>
     <col min="6" max="7" width="44" style="2" customWidth="1"/>
-    <col min="8" max="8" width="47.28515625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="47.33203125" style="2" customWidth="1"/>
     <col min="9" max="9" width="44" style="2" customWidth="1"/>
-    <col min="10" max="10" width="49.28515625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="50.28515625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="52.140625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="52.85546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="49.33203125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="50.33203125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="52.1640625" style="13" customWidth="1"/>
+    <col min="13" max="13" width="52.83203125" style="2" customWidth="1"/>
     <col min="14" max="14" width="56" style="2" customWidth="1"/>
-    <col min="15" max="15" width="15.28515625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="51.28515625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="15.33203125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="51.33203125" style="2" customWidth="1"/>
     <col min="17" max="17" width="23" style="2" customWidth="1"/>
-    <col min="18" max="18" width="28.85546875" style="2" customWidth="1"/>
-    <col min="19" max="19" width="55.28515625" style="2" customWidth="1"/>
-    <col min="20" max="20" width="55.140625" style="2" customWidth="1"/>
-    <col min="21" max="21" width="49.7109375" style="2" customWidth="1"/>
-    <col min="22" max="22" width="50.140625" style="3" customWidth="1"/>
-    <col min="23" max="23" width="28.7109375" style="4" customWidth="1"/>
-    <col min="24" max="24" width="25.28515625" style="4" customWidth="1"/>
+    <col min="18" max="18" width="28.83203125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="55.33203125" style="2" customWidth="1"/>
+    <col min="20" max="20" width="55.1640625" style="2" customWidth="1"/>
+    <col min="21" max="21" width="49.6640625" style="2" customWidth="1"/>
+    <col min="22" max="22" width="50.1640625" style="3" customWidth="1"/>
+    <col min="23" max="23" width="28.6640625" style="4" customWidth="1"/>
+    <col min="24" max="24" width="25.33203125" style="4" customWidth="1"/>
     <col min="25" max="25" width="44" style="3" customWidth="1"/>
     <col min="26" max="26" width="24" style="4" customWidth="1"/>
-    <col min="27" max="27" width="43.7109375" style="34" customWidth="1"/>
-    <col min="28" max="34" width="8.85546875" style="5"/>
-    <col min="35" max="1023" width="8.85546875" style="6"/>
-    <col min="1024" max="1024" width="9.140625" style="6" customWidth="1"/>
-    <col min="1025" max="16384" width="8.85546875" style="6"/>
+    <col min="27" max="27" width="43.6640625" style="34" customWidth="1"/>
+    <col min="28" max="34" width="8.83203125" style="5"/>
+    <col min="35" max="1023" width="8.83203125" style="6"/>
+    <col min="1024" max="1024" width="9.1640625" style="6" customWidth="1"/>
+    <col min="1025" max="16384" width="8.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="26" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1024" s="26" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -4590,7 +4976,7 @@
       <c r="AG1" s="25"/>
       <c r="AH1" s="25"/>
     </row>
-    <row r="2" spans="1:1024" s="11" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1024" s="11" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>27</v>
       </c>
@@ -4624,7 +5010,7 @@
       <c r="K2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="13" t="s">
         <v>37</v>
       </c>
       <c r="M2" s="2" t="s">
@@ -4675,7 +5061,7 @@
       <c r="AH2" s="5"/>
       <c r="AMJ2" s="6"/>
     </row>
-    <row r="3" spans="1:1024" s="14" customFormat="1" ht="126.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1024" s="14" customFormat="1" ht="126.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>49</v>
       </c>
@@ -4709,7 +5095,7 @@
       <c r="K3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="13" t="s">
         <v>58</v>
       </c>
       <c r="M3" s="2" t="s">
@@ -4762,7 +5148,7 @@
       <c r="AH3" s="8"/>
       <c r="AMJ3" s="6"/>
     </row>
-    <row r="4" spans="1:1024" s="14" customFormat="1" ht="135.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1024" s="14" customFormat="1" ht="135.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>70</v>
       </c>
@@ -4796,7 +5182,7 @@
       <c r="K4" s="9">
         <v>53000</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L4" s="13" t="s">
         <v>77</v>
       </c>
       <c r="M4" s="2" t="s">
@@ -4839,7 +5225,9 @@
       <c r="Z4" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="AA4" s="34"/>
+      <c r="AA4" s="35" t="s">
+        <v>86</v>
+      </c>
       <c r="AB4" s="5"/>
       <c r="AC4" s="5"/>
       <c r="AD4" s="5"/>
@@ -4849,85 +5237,85 @@
       <c r="AH4" s="5"/>
       <c r="AMJ4" s="6"/>
     </row>
-    <row r="5" spans="1:1024" s="2" customFormat="1" ht="110.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1024" s="2" customFormat="1" ht="110" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>54</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H5" s="8">
         <v>1990</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="L5" s="2" t="s">
         <v>95</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>96</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P5" s="15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>63</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="T5" s="15" t="s">
         <v>101</v>
       </c>
+      <c r="T5" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="U5" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="W5" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="X5" s="4"/>
       <c r="Y5" s="3" t="s">
         <v>68</v>
       </c>
       <c r="Z5" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AA5" s="34" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AB5" s="5"/>
       <c r="AC5" s="5"/>
@@ -4938,24 +5326,24 @@
       <c r="AH5" s="5"/>
       <c r="AMJ5" s="6"/>
     </row>
-    <row r="6" spans="1:1024" s="14" customFormat="1" ht="276" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1024" s="14" customFormat="1" ht="247" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E6" s="5" t="s">
         <v>110</v>
       </c>
+      <c r="E6" s="2" t="s">
+        <v>111</v>
+      </c>
       <c r="F6" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>33</v>
@@ -4964,28 +5352,28 @@
         <v>1993</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>116</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q6" s="2" t="s">
         <v>42</v>
@@ -4994,26 +5382,26 @@
         <v>80</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="W6" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="X6" s="4"/>
       <c r="Y6" s="3" t="s">
         <v>84</v>
       </c>
       <c r="Z6" s="10" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AA6" s="34"/>
       <c r="AB6" s="5"/>
@@ -5025,21 +5413,21 @@
       <c r="AH6" s="5"/>
       <c r="AMJ6" s="6"/>
     </row>
-    <row r="7" spans="1:1024" s="16" customFormat="1" ht="131.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1024" s="16" customFormat="1" ht="131" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>75</v>
@@ -5048,31 +5436,31 @@
         <v>33</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" s="13" t="s">
         <v>40</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>40</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>42</v>
@@ -5082,19 +5470,19 @@
       </c>
       <c r="S7" s="2"/>
       <c r="T7" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="V7" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="W7" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="X7" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Y7" s="3" t="s">
         <v>84</v>
@@ -5110,27 +5498,27 @@
       <c r="AH7" s="5"/>
       <c r="AMJ7" s="6"/>
     </row>
-    <row r="8" spans="1:1024" s="14" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1024" s="14" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H8" s="2">
         <v>2006</v>
@@ -5139,25 +5527,25 @@
         <v>46</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>147</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="O8" s="2" t="s">
         <v>40</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q8" s="2" t="s">
         <v>63</v>
@@ -5167,13 +5555,13 @@
       </c>
       <c r="S8" s="2"/>
       <c r="T8" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="V8" s="3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="W8" s="4" t="s">
         <v>46</v>
@@ -5183,7 +5571,7 @@
         <v>48</v>
       </c>
       <c r="Z8" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AA8" s="34"/>
       <c r="AB8" s="5"/>
@@ -5195,21 +5583,21 @@
       <c r="AH8" s="5"/>
       <c r="AMJ8" s="6"/>
     </row>
-    <row r="9" spans="1:1024" s="14" customFormat="1" ht="123.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1024" s="14" customFormat="1" ht="124" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>75</v>
@@ -5221,58 +5609,60 @@
         <v>1970</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>162</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O9" s="8">
         <v>1970</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q9" s="2" t="s">
         <v>63</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="W9" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="X9" s="10"/>
       <c r="Y9" s="3" t="s">
         <v>84</v>
       </c>
       <c r="Z9" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA9" s="34"/>
+        <v>169</v>
+      </c>
+      <c r="AA9" s="34" t="s">
+        <v>170</v>
+      </c>
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
@@ -5282,84 +5672,86 @@
       <c r="AH9" s="2"/>
       <c r="AMJ9" s="6"/>
     </row>
-    <row r="10" spans="1:1024" s="14" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1024" s="14" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>54</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H10" s="8">
         <v>2007</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>174</v>
+        <v>93</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="L10" s="17" t="s">
-        <v>177</v>
+        <v>178</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>179</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q10" s="2" t="s">
         <v>63</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="S10" s="2"/>
       <c r="T10" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="W10" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="X10" s="10" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Y10" s="3" t="s">
         <v>68</v>
       </c>
       <c r="Z10" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA10" s="34"/>
+        <v>169</v>
+      </c>
+      <c r="AA10" s="34" t="s">
+        <v>187</v>
+      </c>
       <c r="AB10" s="2"/>
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
@@ -5369,76 +5761,76 @@
       <c r="AH10" s="2"/>
       <c r="AMJ10" s="6"/>
     </row>
-    <row r="11" spans="1:1024" s="14" customFormat="1" ht="155.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1024" s="14" customFormat="1" ht="155" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>54</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H11" s="8">
         <v>2016</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>194</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O11" s="8" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q11" s="2" t="s">
         <v>63</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="S11" s="2"/>
       <c r="T11" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="V11" s="3" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="W11" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="X11" s="10" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Y11" s="3" t="s">
         <v>68</v>
@@ -5456,21 +5848,21 @@
       <c r="AH11" s="2"/>
       <c r="AMJ11" s="6"/>
     </row>
-    <row r="12" spans="1:1024" s="14" customFormat="1" ht="207.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1024" s="14" customFormat="1" ht="208" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>75</v>
@@ -5482,58 +5874,60 @@
         <v>2006</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>207</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="O12" s="8" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q12" s="2" t="s">
         <v>63</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="S12" s="2"/>
       <c r="T12" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="W12" s="4" t="s">
         <v>46</v>
       </c>
       <c r="X12" s="4" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Y12" s="3" t="s">
         <v>84</v>
       </c>
       <c r="Z12" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="AA12" s="34"/>
+        <v>216</v>
+      </c>
+      <c r="AA12" s="35" t="s">
+        <v>217</v>
+      </c>
       <c r="AB12" s="5"/>
       <c r="AC12" s="5"/>
       <c r="AD12" s="5"/>
@@ -5543,27 +5937,27 @@
       <c r="AH12" s="5"/>
       <c r="AMJ12" s="6"/>
     </row>
-    <row r="13" spans="1:1024" s="14" customFormat="1" ht="141.94999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1024" s="14" customFormat="1" ht="142" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>218</v>
+        <v>221</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>54</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="H13" s="8">
         <v>2008</v>
@@ -5572,25 +5966,25 @@
         <v>46</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="K13" s="13">
         <v>7762</v>
       </c>
-      <c r="L13" s="2" t="s">
-        <v>221</v>
+      <c r="L13" s="13" t="s">
+        <v>225</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q13" s="2" t="s">
         <v>63</v>
@@ -5600,25 +5994,25 @@
       </c>
       <c r="S13" s="2"/>
       <c r="T13" s="2" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="V13" s="3" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="W13" s="4" t="s">
         <v>46</v>
       </c>
       <c r="X13" s="4" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Y13" s="3" t="s">
         <v>68</v>
       </c>
       <c r="Z13" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AA13" s="34"/>
       <c r="AB13" s="5"/>
@@ -5630,27 +6024,27 @@
       <c r="AH13" s="5"/>
       <c r="AMJ13" s="6"/>
     </row>
-    <row r="14" spans="1:1024" s="16" customFormat="1" ht="162.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1024" s="16" customFormat="1" ht="162.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>218</v>
+        <v>221</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="H14" s="8">
         <v>1989</v>
@@ -5659,25 +6053,25 @@
         <v>46</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="K14" s="13">
         <v>7365</v>
       </c>
-      <c r="L14" s="8" t="s">
-        <v>234</v>
+      <c r="L14" s="13" t="s">
+        <v>238</v>
       </c>
       <c r="M14" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q14" s="2" t="s">
         <v>63</v>
@@ -5687,25 +6081,25 @@
       </c>
       <c r="S14" s="2"/>
       <c r="T14" s="2" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="V14" s="3" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="W14" s="4" t="s">
         <v>46</v>
       </c>
       <c r="X14" s="4" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Y14" s="3" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Z14" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AA14" s="34"/>
       <c r="AB14" s="5"/>
@@ -5717,27 +6111,27 @@
       <c r="AH14" s="5"/>
       <c r="AMJ14" s="6"/>
     </row>
-    <row r="15" spans="1:1024" s="2" customFormat="1" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1024" s="2" customFormat="1" ht="130" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="H15" s="8">
         <v>2011</v>
@@ -5746,25 +6140,25 @@
         <v>46</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="K15" s="13">
         <v>2197</v>
       </c>
-      <c r="L15" s="2" t="s">
-        <v>248</v>
+      <c r="L15" s="13" t="s">
+        <v>252</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q15" s="2" t="s">
         <v>63</v>
@@ -5773,25 +6167,25 @@
         <v>42</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="V15" s="3" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="W15" s="4" t="s">
         <v>46</v>
       </c>
       <c r="X15" s="4" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Y15" s="3" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Z15" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AA15" s="34"/>
       <c r="AB15" s="5"/>
@@ -5803,27 +6197,27 @@
       <c r="AH15" s="5"/>
       <c r="AMJ15" s="6"/>
     </row>
-    <row r="16" spans="1:1024" s="14" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1024" s="14" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>54</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="H16" s="2">
         <v>1961</v>
@@ -5832,53 +6226,53 @@
         <v>46</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="K16" s="2">
         <v>411</v>
       </c>
-      <c r="L16" s="2">
-        <v>365</v>
+      <c r="L16" s="13" t="s">
+        <v>265</v>
       </c>
       <c r="M16" s="2" t="s">
         <v>38</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="Q16" s="2" t="s">
         <v>42</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="W16" s="4" t="s">
         <v>46</v>
       </c>
       <c r="X16" s="4"/>
       <c r="Y16" s="3" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="Z16" s="10" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AA16" s="34"/>
       <c r="AB16" s="5"/>
@@ -5890,54 +6284,54 @@
       <c r="AH16" s="5"/>
       <c r="AMJ16" s="6"/>
     </row>
-    <row r="17" spans="1:1024" s="14" customFormat="1" ht="183.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1024" s="14" customFormat="1" ht="184" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>54</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>46</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="K17" s="13">
         <v>6643</v>
       </c>
       <c r="L17" s="13" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="M17" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="Q17" s="2" t="s">
         <v>42</v>
@@ -5947,25 +6341,27 @@
       </c>
       <c r="S17" s="2"/>
       <c r="T17" s="2" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="U17" s="2" t="s">
         <v>65</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="W17" s="10" t="s">
         <v>46</v>
       </c>
       <c r="X17" s="10" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Y17" s="3" t="s">
         <v>68</v>
       </c>
       <c r="Z17" s="10"/>
-      <c r="AA17" s="34"/>
+      <c r="AA17" s="34" t="s">
+        <v>289</v>
+      </c>
       <c r="AB17" s="2"/>
       <c r="AC17" s="2"/>
       <c r="AD17" s="2"/>
@@ -5975,21 +6371,21 @@
       <c r="AH17" s="2"/>
       <c r="AMJ17" s="6"/>
     </row>
-    <row r="18" spans="1:1024" s="14" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1024" s="14" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>54</v>
@@ -6001,58 +6397,60 @@
         <v>2002</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="K18" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="L18" s="13">
-        <v>7222</v>
+        <v>297</v>
+      </c>
+      <c r="L18" s="13" t="s">
+        <v>298</v>
       </c>
       <c r="M18" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="O18" s="2" t="s">
         <v>40</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="Q18" s="15" t="s">
         <v>63</v>
       </c>
       <c r="R18" s="15" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="S18" s="2"/>
       <c r="T18" s="2" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="V18" s="3" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="W18" s="10" t="s">
         <v>46</v>
       </c>
       <c r="X18" s="10" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Y18" s="3" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="Z18" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA18" s="34"/>
+        <v>169</v>
+      </c>
+      <c r="AA18" s="34" t="s">
+        <v>306</v>
+      </c>
       <c r="AB18" s="2"/>
       <c r="AC18" s="2"/>
       <c r="AD18" s="2"/>
@@ -6062,81 +6460,83 @@
       <c r="AH18" s="2"/>
       <c r="AMJ18" s="6"/>
     </row>
-    <row r="19" spans="1:1024" s="14" customFormat="1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="18" t="s">
-        <v>299</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>300</v>
+    <row r="19" spans="1:1024" s="11" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="B19" s="48" t="s">
+        <v>308</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>304</v>
+        <v>249</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H19" s="8">
-        <v>2003</v>
+      <c r="H19" s="2">
+        <v>2007</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>112</v>
+        <v>46</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="M19" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="O19" s="2" t="s">
         <v>40</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="S19" s="5"/>
+        <v>63</v>
+      </c>
+      <c r="S19" s="2" t="s">
+        <v>317</v>
+      </c>
       <c r="T19" s="2" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="W19" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="X19" s="4" t="s">
-        <v>313</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="X19" s="4"/>
       <c r="Y19" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z19" s="4"/>
+        <v>249</v>
+      </c>
+      <c r="Z19" s="10" t="s">
+        <v>85</v>
+      </c>
       <c r="AA19" s="34"/>
       <c r="AB19" s="5"/>
       <c r="AC19" s="5"/>
@@ -6147,81 +6547,81 @@
       <c r="AH19" s="5"/>
       <c r="AMJ19" s="6"/>
     </row>
-    <row r="20" spans="1:1024" s="14" customFormat="1" ht="189.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
-        <v>314</v>
+    <row r="20" spans="1:1024" s="14" customFormat="1" ht="140" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="18" t="s">
+        <v>321</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>52</v>
+        <v>324</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>231</v>
+        <v>326</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>33</v>
       </c>
       <c r="H20" s="8">
-        <v>1998</v>
+        <v>2003</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>318</v>
+        <v>113</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>321</v>
+        <v>328</v>
+      </c>
+      <c r="L20" s="13" t="s">
+        <v>329</v>
       </c>
       <c r="M20" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>323</v>
+        <v>40</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="S20" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="S20" s="5"/>
       <c r="T20" s="2" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="U20" s="2" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="V20" s="3" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="W20" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="X20" s="4"/>
+        <v>113</v>
+      </c>
+      <c r="X20" s="4" t="s">
+        <v>335</v>
+      </c>
       <c r="Y20" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="Z20" s="10" t="s">
-        <v>331</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="Z20" s="4"/>
       <c r="AA20" s="34"/>
       <c r="AB20" s="5"/>
       <c r="AC20" s="5"/>
@@ -6232,81 +6632,81 @@
       <c r="AH20" s="5"/>
       <c r="AMJ20" s="6"/>
     </row>
-    <row r="21" spans="1:1024" s="14" customFormat="1" ht="233.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1024" s="14" customFormat="1" ht="190" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>335</v>
+        <v>52</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>337</v>
+        <v>235</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>33</v>
       </c>
       <c r="H21" s="8">
-        <v>2002</v>
+        <v>1998</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>112</v>
+        <v>340</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>340</v>
+        <v>342</v>
+      </c>
+      <c r="L21" s="13" t="s">
+        <v>343</v>
       </c>
       <c r="M21" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>40</v>
+        <v>345</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>42</v>
+        <v>347</v>
       </c>
       <c r="S21" s="2"/>
       <c r="T21" s="2" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="U21" s="2" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="V21" s="3" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="W21" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="X21" s="4" t="s">
-        <v>313</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="X21" s="4"/>
       <c r="Y21" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z21" s="4"/>
+        <v>352</v>
+      </c>
+      <c r="Z21" s="10" t="s">
+        <v>353</v>
+      </c>
       <c r="AA21" s="34"/>
       <c r="AB21" s="5"/>
       <c r="AC21" s="5"/>
@@ -6317,54 +6717,54 @@
       <c r="AH21" s="5"/>
       <c r="AMJ21" s="6"/>
     </row>
-    <row r="22" spans="1:1024" ht="198.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1024" s="14" customFormat="1" ht="233" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="7" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>302</v>
+        <v>357</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H22" s="2">
-        <v>1990</v>
+      <c r="H22" s="8">
+        <v>2002</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="J22" s="14" t="s">
-        <v>351</v>
+        <v>113</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>360</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>353</v>
+        <v>361</v>
+      </c>
+      <c r="L22" s="13" t="s">
+        <v>362</v>
       </c>
       <c r="M22" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>341</v>
+        <v>363</v>
       </c>
       <c r="O22" s="2" t="s">
         <v>40</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="Q22" s="2" t="s">
         <v>42</v>
@@ -6372,364 +6772,361 @@
       <c r="R22" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="T22" s="8" t="s">
-        <v>355</v>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2" t="s">
+        <v>365</v>
       </c>
       <c r="U22" s="2" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="V22" s="3" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="W22" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="X22" s="4" t="s">
-        <v>313</v>
+        <v>335</v>
       </c>
       <c r="Y22" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="34"/>
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="5"/>
+      <c r="AD22" s="5"/>
+      <c r="AE22" s="5"/>
+      <c r="AF22" s="5"/>
+      <c r="AG22" s="5"/>
+      <c r="AH22" s="5"/>
+      <c r="AMJ22" s="6"/>
     </row>
-    <row r="23" spans="1:1024" ht="153" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1024" ht="199" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="7" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>361</v>
+        <v>371</v>
+      </c>
+      <c r="E23" s="40" t="s">
+        <v>372</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>231</v>
+        <v>373</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>33</v>
+        <v>374</v>
       </c>
       <c r="H23" s="2">
-        <v>2008</v>
+        <v>1998</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="J23" s="39" t="s">
-        <v>362</v>
-      </c>
-      <c r="K23" s="9" t="s">
-        <v>363</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>364</v>
+        <v>46</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="K23" s="9">
+        <v>4300</v>
+      </c>
+      <c r="L23" s="13" t="s">
+        <v>376</v>
       </c>
       <c r="M23" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="N23" s="2" t="s">
-        <v>365</v>
+      <c r="N23" s="2">
+        <v>12</v>
       </c>
       <c r="O23" s="2">
-        <v>2007</v>
+        <v>1986</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>42</v>
+        <v>378</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="U23" s="2" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="V23" s="3" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="W23" s="4" t="s">
-        <v>329</v>
+        <v>46</v>
       </c>
       <c r="Y23" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="Z23" s="19" t="s">
-        <v>370</v>
+        <v>373</v>
+      </c>
+      <c r="Z23" s="10" t="s">
+        <v>382</v>
       </c>
     </row>
-    <row r="24" spans="1:1024" ht="186.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1024" ht="153" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="7" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>374</v>
+        <v>324</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H24" s="8" t="s">
-        <v>377</v>
+      <c r="H24" s="2">
+        <v>1990</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>378</v>
+        <v>113</v>
+      </c>
+      <c r="J24" s="14" t="s">
+        <v>388</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>380</v>
+        <v>389</v>
+      </c>
+      <c r="L24" s="13" t="s">
+        <v>390</v>
       </c>
       <c r="M24" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="O24" s="8" t="s">
-        <v>382</v>
+        <v>363</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>383</v>
+        <v>331</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="T24" s="2" t="s">
-        <v>384</v>
+        <v>42</v>
+      </c>
+      <c r="T24" s="8" t="s">
+        <v>391</v>
       </c>
       <c r="U24" s="2" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="V24" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="W24" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="X24" s="10"/>
+        <v>393</v>
+      </c>
+      <c r="W24" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="X24" s="4" t="s">
+        <v>335</v>
+      </c>
       <c r="Y24" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="Z24" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA24" s="34" t="s">
-        <v>388</v>
-      </c>
-      <c r="AB24" s="2"/>
-      <c r="AC24" s="2"/>
-      <c r="AD24" s="2"/>
-      <c r="AE24" s="2"/>
-      <c r="AF24" s="2"/>
-      <c r="AG24" s="2"/>
-      <c r="AH24" s="2"/>
+        <v>48</v>
+      </c>
     </row>
-    <row r="25" spans="1:1024" ht="216" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1024" ht="187" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="7" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>376</v>
+        <v>235</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H25" s="8">
-        <v>2005</v>
+      <c r="H25" s="2">
+        <v>2008</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>396</v>
+        <v>340</v>
+      </c>
+      <c r="J25" s="39" t="s">
+        <v>398</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="L25" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="M25" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="O25" s="8" t="s">
-        <v>397</v>
+        <v>401</v>
+      </c>
+      <c r="O25" s="2">
+        <v>2007</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="Q25" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="R25" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R25" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="S25" s="2" t="s">
-        <v>400</v>
-      </c>
       <c r="T25" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="U25" s="2" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="V25" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="W25" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="X25" s="10"/>
+        <v>405</v>
+      </c>
+      <c r="W25" s="4" t="s">
+        <v>351</v>
+      </c>
       <c r="Y25" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="Z25" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="AB25" s="2"/>
-      <c r="AC25" s="2"/>
-      <c r="AD25" s="2"/>
-      <c r="AE25" s="2"/>
-      <c r="AF25" s="2"/>
-      <c r="AG25" s="2"/>
-      <c r="AH25" s="2"/>
+        <v>352</v>
+      </c>
+      <c r="Z25" s="19" t="s">
+        <v>406</v>
+      </c>
     </row>
-    <row r="26" spans="1:1024" ht="228" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1024" ht="216" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>392</v>
+        <v>410</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>393</v>
+        <v>411</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H26" s="8">
-        <v>2005</v>
+      <c r="H26" s="8" t="s">
+        <v>412</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>157</v>
+        <v>46</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="L26" s="8" t="s">
-        <v>409</v>
+        <v>414</v>
+      </c>
+      <c r="L26" s="13" t="s">
+        <v>415</v>
       </c>
       <c r="M26" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="O26" s="2" t="s">
-        <v>410</v>
+        <v>416</v>
+      </c>
+      <c r="O26" s="8" t="s">
+        <v>417</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>398</v>
+        <v>418</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="S26" s="2" t="s">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>401</v>
+        <v>419</v>
       </c>
       <c r="U26" s="2" t="s">
-        <v>402</v>
+        <v>420</v>
       </c>
       <c r="V26" s="3" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="W26" s="10" t="s">
-        <v>157</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="X26" s="10"/>
       <c r="Y26" s="3" t="s">
-        <v>387</v>
+        <v>422</v>
       </c>
       <c r="Z26" s="10" t="s">
-        <v>122</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="AA26" s="34" t="s">
+        <v>423</v>
+      </c>
+      <c r="AB26" s="2"/>
+      <c r="AC26" s="2"/>
+      <c r="AD26" s="2"/>
+      <c r="AE26" s="2"/>
+      <c r="AF26" s="2"/>
+      <c r="AG26" s="2"/>
+      <c r="AH26" s="2"/>
     </row>
-    <row r="27" spans="1:1024" ht="201.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1024" ht="228" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="7" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>392</v>
+        <v>427</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>393</v>
+        <v>428</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>33</v>
@@ -6738,56 +7135,56 @@
         <v>2005</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>46</v>
+        <v>159</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>415</v>
+        <v>429</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="L27" s="8" t="s">
-        <v>417</v>
+        <v>430</v>
+      </c>
+      <c r="L27" s="13" t="s">
+        <v>431</v>
       </c>
       <c r="M27" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>418</v>
+        <v>97</v>
       </c>
       <c r="O27" s="8" t="s">
-        <v>419</v>
+        <v>432</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>398</v>
+        <v>433</v>
       </c>
       <c r="Q27" s="2" t="s">
         <v>42</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>399</v>
+        <v>434</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>400</v>
+        <v>435</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>401</v>
+        <v>436</v>
       </c>
       <c r="U27" s="2" t="s">
-        <v>402</v>
+        <v>437</v>
       </c>
       <c r="V27" s="3" t="s">
-        <v>420</v>
+        <v>438</v>
       </c>
       <c r="W27" s="10" t="s">
-        <v>46</v>
+        <v>159</v>
       </c>
       <c r="X27" s="10"/>
       <c r="Y27" s="3" t="s">
-        <v>387</v>
+        <v>422</v>
       </c>
       <c r="Z27" s="10" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AB27" s="2"/>
       <c r="AC27" s="2"/>
@@ -6797,158 +7194,159 @@
       <c r="AG27" s="2"/>
       <c r="AH27" s="2"/>
     </row>
-    <row r="28" spans="1:1024" ht="215.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="18" t="s">
-        <v>421</v>
+    <row r="28" spans="1:1024" ht="202" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="7" t="s">
+        <v>439</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>422</v>
+        <v>440</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>423</v>
+        <v>441</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>54</v>
+        <v>373</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>427</v>
+        <v>33</v>
+      </c>
+      <c r="H28" s="8">
+        <v>2005</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>46</v>
+        <v>159</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>430</v>
+        <v>443</v>
+      </c>
+      <c r="L28" s="13" t="s">
+        <v>444</v>
       </c>
       <c r="M28" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="O28" s="8" t="s">
-        <v>432</v>
+        <v>97</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>445</v>
       </c>
       <c r="P28" s="2" t="s">
         <v>433</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>80</v>
+        <v>434</v>
+      </c>
+      <c r="S28" s="2" t="s">
+        <v>435</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="U28" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="V28" s="3" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="W28" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="X28" s="4" t="s">
-        <v>212</v>
+        <v>159</v>
       </c>
       <c r="Y28" s="3" t="s">
-        <v>68</v>
+        <v>422</v>
       </c>
       <c r="Z28" s="10" t="s">
-        <v>85</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="29" spans="1:1024" ht="221.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1024" ht="215" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="7" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>438</v>
-      </c>
-      <c r="C29" s="30" t="s">
-        <v>439</v>
+        <v>448</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>449</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>54</v>
+        <v>373</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H29" s="8" t="s">
-        <v>442</v>
+      <c r="H29" s="8">
+        <v>2005</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>443</v>
+        <v>46</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>446</v>
+        <v>451</v>
+      </c>
+      <c r="L29" s="13" t="s">
+        <v>452</v>
       </c>
       <c r="M29" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="O29" s="8" t="s">
-        <v>448</v>
+        <v>281</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="Q29" s="2" t="s">
         <v>42</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>80</v>
+        <v>434</v>
+      </c>
+      <c r="S29" s="2" t="s">
+        <v>435</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="U29" s="2" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="V29" s="3" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="W29" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="X29" s="10" t="s">
-        <v>453</v>
-      </c>
+      <c r="X29" s="10"/>
       <c r="Y29" s="3" t="s">
-        <v>298</v>
+        <v>422</v>
       </c>
       <c r="Z29" s="10" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AB29" s="2"/>
       <c r="AC29" s="2"/>
@@ -6958,407 +7356,415 @@
       <c r="AG29" s="2"/>
       <c r="AH29" s="2"/>
     </row>
-    <row r="30" spans="1:1024" s="2" customFormat="1" ht="140.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="7" t="s">
-        <v>454</v>
+    <row r="30" spans="1:1024" ht="221" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="18" t="s">
+        <v>456</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>454</v>
-      </c>
-      <c r="C30" s="30" t="s">
-        <v>455</v>
+        <v>457</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>458</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>52</v>
+        <v>459</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>457</v>
+        <v>54</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="H30" s="8">
-        <v>2007</v>
+        <v>461</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>462</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>46</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="K30" s="13">
-        <v>2000</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>460</v>
+        <v>463</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="L30" s="13" t="s">
+        <v>465</v>
       </c>
       <c r="M30" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="O30" s="8">
-        <v>1993</v>
+        <v>466</v>
+      </c>
+      <c r="O30" s="8" t="s">
+        <v>467</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="Q30" s="2" t="s">
         <v>63</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="U30" s="2" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="V30" s="3" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="W30" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="X30" s="10" t="s">
-        <v>313</v>
+      <c r="X30" s="4" t="s">
+        <v>215</v>
       </c>
       <c r="Y30" s="3" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="Z30" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA30" s="34"/>
-      <c r="AMJ30" s="6"/>
+        <v>85</v>
+      </c>
     </row>
-    <row r="31" spans="1:1024" ht="152.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1024" s="2" customFormat="1" ht="140" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="7" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="C31" s="30" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>471</v>
+        <v>54</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H31" s="8">
-        <v>2003</v>
+      <c r="H31" s="8" t="s">
+        <v>477</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="K31" s="13">
-        <v>10272</v>
-      </c>
-      <c r="L31" s="13">
-        <v>8093</v>
+        <v>479</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="L31" s="13" t="s">
+        <v>481</v>
       </c>
       <c r="M31" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="O31" s="2" t="s">
-        <v>474</v>
+        <v>482</v>
+      </c>
+      <c r="O31" s="8" t="s">
+        <v>483</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="Q31" s="2" t="s">
         <v>42</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>476</v>
+        <v>80</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="U31" s="2" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="V31" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="W31" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="W31" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="X31" s="4" t="s">
-        <v>47</v>
+      <c r="X31" s="10" t="s">
+        <v>488</v>
       </c>
       <c r="Y31" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z31" s="4" t="s">
-        <v>122</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="Z31" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA31" s="34" t="s">
+        <v>489</v>
+      </c>
+      <c r="AMJ31" s="6"/>
     </row>
-    <row r="32" spans="1:1024" s="2" customFormat="1" ht="294" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1024" ht="152" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="7" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>374</v>
+        <v>52</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>376</v>
+        <v>493</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="H32" s="8">
-        <v>1932</v>
+        <v>2007</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>46</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>487</v>
+        <v>495</v>
+      </c>
+      <c r="K32" s="13">
+        <v>2000</v>
+      </c>
+      <c r="L32" s="13" t="s">
+        <v>496</v>
       </c>
       <c r="M32" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="O32" s="8">
-        <v>1921</v>
+        <v>1993</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="Q32" s="2" t="s">
         <v>63</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="S32" s="2" t="s">
-        <v>490</v>
+        <v>42</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="U32" s="2" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="V32" s="3" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="W32" s="10" t="s">
-        <v>157</v>
+        <v>46</v>
       </c>
       <c r="X32" s="10" t="s">
-        <v>212</v>
+        <v>335</v>
       </c>
       <c r="Y32" s="3" t="s">
-        <v>494</v>
+        <v>48</v>
       </c>
       <c r="Z32" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA32" s="34"/>
-      <c r="AMJ32" s="6"/>
+        <v>69</v>
+      </c>
+      <c r="AB32" s="2"/>
+      <c r="AC32" s="2"/>
+      <c r="AD32" s="2"/>
+      <c r="AE32" s="2"/>
+      <c r="AF32" s="2"/>
+      <c r="AG32" s="2"/>
+      <c r="AH32" s="2"/>
     </row>
-    <row r="33" spans="1:34" ht="204" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1024" s="2" customFormat="1" ht="294" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="7" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="C33" s="30" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>374</v>
+        <v>505</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>483</v>
+        <v>506</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>376</v>
+        <v>507</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>484</v>
+        <v>33</v>
       </c>
       <c r="H33" s="8">
-        <v>1947</v>
+        <v>2003</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>46</v>
+        <v>508</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>500</v>
+        <v>509</v>
+      </c>
+      <c r="K33" s="13">
+        <v>10272</v>
+      </c>
+      <c r="L33" s="13" t="s">
+        <v>510</v>
       </c>
       <c r="M33" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="O33" s="8">
-        <v>1936</v>
+        <v>330</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>511</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>489</v>
+        <v>512</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="S33" s="2" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
       <c r="T33" s="2" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="U33" s="2" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="V33" s="3" t="s">
-        <v>504</v>
-      </c>
-      <c r="W33" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="X33" s="10" t="s">
-        <v>212</v>
+        <v>516</v>
+      </c>
+      <c r="W33" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="X33" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="Y33" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="Z33" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB33" s="2"/>
-      <c r="AC33" s="2"/>
-      <c r="AD33" s="2"/>
-      <c r="AE33" s="2"/>
-      <c r="AF33" s="2"/>
-      <c r="AG33" s="2"/>
-      <c r="AH33" s="2"/>
+        <v>48</v>
+      </c>
+      <c r="Z33" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA33" s="34"/>
+      <c r="AB33" s="5"/>
+      <c r="AC33" s="5"/>
+      <c r="AD33" s="5"/>
+      <c r="AE33" s="5"/>
+      <c r="AF33" s="5"/>
+      <c r="AG33" s="5"/>
+      <c r="AH33" s="5"/>
+      <c r="AMJ33" s="6"/>
     </row>
-    <row r="34" spans="1:34" ht="300" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1024" ht="169" x14ac:dyDescent="0.15">
       <c r="A34" s="7" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
       <c r="C34" s="30" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>155</v>
+        <v>410</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>54</v>
+        <v>373</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>33</v>
+        <v>521</v>
       </c>
       <c r="H34" s="8">
-        <v>2004</v>
+        <v>1932</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>46</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="K34" s="13">
-        <v>15770</v>
-      </c>
-      <c r="L34" s="8" t="s">
-        <v>510</v>
+        <v>522</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="L34" s="13" t="s">
+        <v>524</v>
       </c>
       <c r="M34" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="O34" s="8" t="s">
-        <v>512</v>
+        <v>525</v>
+      </c>
+      <c r="O34" s="8">
+        <v>1921</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>161</v>
+        <v>526</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>513</v>
+        <v>80</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>514</v>
+        <v>527</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>515</v>
+        <v>528</v>
       </c>
       <c r="U34" s="2" t="s">
-        <v>516</v>
+        <v>529</v>
       </c>
       <c r="V34" s="3" t="s">
-        <v>517</v>
+        <v>530</v>
       </c>
       <c r="W34" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="X34" s="10"/>
+        <v>159</v>
+      </c>
+      <c r="X34" s="10" t="s">
+        <v>215</v>
+      </c>
       <c r="Y34" s="3" t="s">
-        <v>298</v>
+        <v>531</v>
       </c>
       <c r="Z34" s="10" t="s">
-        <v>122</v>
+        <v>85</v>
+      </c>
+      <c r="AA34" s="34" t="s">
+        <v>532</v>
       </c>
       <c r="AB34" s="2"/>
       <c r="AC34" s="2"/>
@@ -7368,507 +7774,525 @@
       <c r="AG34" s="2"/>
       <c r="AH34" s="2"/>
     </row>
-    <row r="35" spans="1:34" ht="288" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1024" ht="221" x14ac:dyDescent="0.15">
       <c r="A35" s="7" t="s">
-        <v>518</v>
+        <v>533</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>519</v>
+        <v>534</v>
       </c>
       <c r="C35" s="30" t="s">
+        <v>535</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E35" s="2" t="s">
+      <c r="F35" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="G35" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="F35" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="H35" s="8">
-        <v>2000</v>
+        <v>1947</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>157</v>
+        <v>46</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>522</v>
+        <v>536</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="L35" s="9" t="s">
-        <v>524</v>
+        <v>537</v>
+      </c>
+      <c r="L35" s="13" t="s">
+        <v>538</v>
       </c>
       <c r="M35" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>96</v>
+        <v>525</v>
       </c>
       <c r="O35" s="8">
-        <v>2000</v>
+        <v>1936</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>161</v>
+        <v>526</v>
       </c>
       <c r="Q35" s="2" t="s">
         <v>63</v>
       </c>
       <c r="R35" s="2" t="s">
-        <v>525</v>
+        <v>80</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>526</v>
+        <v>539</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>527</v>
+        <v>540</v>
       </c>
       <c r="U35" s="2" t="s">
-        <v>528</v>
+        <v>541</v>
       </c>
       <c r="V35" s="3" t="s">
-        <v>529</v>
+        <v>542</v>
       </c>
       <c r="W35" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="X35" s="10" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="Y35" s="3" t="s">
-        <v>48</v>
+        <v>531</v>
       </c>
       <c r="Z35" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="AA35" s="35" t="s">
-        <v>530</v>
-      </c>
-      <c r="AB35" s="12"/>
-      <c r="AC35" s="12"/>
-      <c r="AD35" s="12"/>
-      <c r="AE35" s="12"/>
-      <c r="AF35" s="12"/>
-      <c r="AG35" s="12"/>
-      <c r="AH35" s="12"/>
+        <v>85</v>
+      </c>
+      <c r="AA35" s="34" t="s">
+        <v>543</v>
+      </c>
+      <c r="AB35" s="2"/>
+      <c r="AC35" s="2"/>
+      <c r="AD35" s="2"/>
+      <c r="AE35" s="2"/>
+      <c r="AF35" s="2"/>
+      <c r="AG35" s="2"/>
+      <c r="AH35" s="2"/>
     </row>
-    <row r="36" spans="1:34" ht="180" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1024" ht="356" x14ac:dyDescent="0.15">
       <c r="A36" s="7" t="s">
-        <v>531</v>
+        <v>544</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>532</v>
+        <v>545</v>
       </c>
       <c r="C36" s="30" t="s">
-        <v>533</v>
+        <v>546</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>535</v>
+        <v>547</v>
+      </c>
+      <c r="E36" s="40" t="s">
+        <v>548</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>536</v>
+        <v>549</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H36" s="8">
-        <v>1999</v>
+      <c r="H36" s="2">
+        <v>2019</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>537</v>
+        <v>46</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>540</v>
+        <v>550</v>
+      </c>
+      <c r="K36" s="2">
+        <v>628</v>
+      </c>
+      <c r="L36" s="13">
+        <v>499</v>
       </c>
       <c r="M36" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>541</v>
+        <v>551</v>
       </c>
       <c r="O36" s="2" t="s">
         <v>40</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>542</v>
+        <v>552</v>
       </c>
       <c r="Q36" s="2" t="s">
         <v>42</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>42</v>
+        <v>80</v>
+      </c>
+      <c r="S36" s="38" t="s">
+        <v>553</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>543</v>
+        <v>554</v>
       </c>
       <c r="U36" s="2" t="s">
-        <v>544</v>
+        <v>184</v>
       </c>
       <c r="V36" s="3" t="s">
-        <v>545</v>
+        <v>555</v>
       </c>
       <c r="W36" s="4" t="s">
-        <v>112</v>
+        <v>46</v>
+      </c>
+      <c r="X36" s="4" t="s">
+        <v>556</v>
       </c>
       <c r="Y36" s="3" t="s">
-        <v>84</v>
+        <v>48</v>
+      </c>
+      <c r="Z36" s="4" t="s">
+        <v>124</v>
       </c>
     </row>
-    <row r="37" spans="1:34" ht="168" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1024" ht="296" x14ac:dyDescent="0.15">
       <c r="A37" s="7" t="s">
-        <v>546</v>
+        <v>557</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>547</v>
+        <v>558</v>
       </c>
       <c r="C37" s="30" t="s">
-        <v>548</v>
+        <v>559</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>549</v>
+        <v>157</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>550</v>
+        <v>560</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>551</v>
+        <v>54</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>33</v>
       </c>
       <c r="H37" s="8">
-        <v>1996</v>
+        <v>2004</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="J37" s="15" t="s">
-        <v>552</v>
+      <c r="J37" s="2" t="s">
+        <v>561</v>
       </c>
       <c r="K37" s="13">
-        <v>1319475</v>
+        <v>15770</v>
       </c>
       <c r="L37" s="13" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>554</v>
+        <v>59</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>447</v>
+        <v>563</v>
       </c>
       <c r="O37" s="8" t="s">
-        <v>555</v>
+        <v>564</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="Q37" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q37" s="2" t="s">
         <v>63</v>
       </c>
       <c r="R37" s="2" t="s">
-        <v>80</v>
+        <v>565</v>
+      </c>
+      <c r="S37" s="2" t="s">
+        <v>566</v>
       </c>
       <c r="T37" s="2" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="U37" s="2" t="s">
-        <v>558</v>
+        <v>568</v>
       </c>
       <c r="V37" s="3" t="s">
-        <v>559</v>
+        <v>569</v>
       </c>
       <c r="W37" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="X37" s="10" t="s">
-        <v>212</v>
-      </c>
+      <c r="X37" s="10"/>
       <c r="Y37" s="3" t="s">
-        <v>551</v>
-      </c>
-      <c r="Z37" s="10"/>
-      <c r="AA37" s="33"/>
-      <c r="AB37" s="8"/>
-      <c r="AC37" s="8"/>
-      <c r="AD37" s="8"/>
-      <c r="AE37" s="8"/>
-      <c r="AF37" s="8"/>
-      <c r="AG37" s="8"/>
-      <c r="AH37" s="8"/>
+        <v>305</v>
+      </c>
+      <c r="Z37" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA37" s="35" t="s">
+        <v>570</v>
+      </c>
+      <c r="AB37" s="2"/>
+      <c r="AC37" s="2"/>
+      <c r="AD37" s="2"/>
+      <c r="AE37" s="2"/>
+      <c r="AF37" s="2"/>
+      <c r="AG37" s="2"/>
+      <c r="AH37" s="2"/>
     </row>
-    <row r="38" spans="1:34" ht="228" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1024" ht="308" x14ac:dyDescent="0.15">
       <c r="A38" s="7" t="s">
-        <v>560</v>
-      </c>
-      <c r="B38" s="28" t="s">
-        <v>561</v>
+        <v>571</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>572</v>
       </c>
       <c r="C38" s="30" t="s">
-        <v>562</v>
+        <v>573</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>563</v>
+        <v>157</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>564</v>
+        <v>574</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>54</v>
+        <v>507</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="H38" s="17">
-        <v>2006</v>
+        <v>33</v>
+      </c>
+      <c r="H38" s="8">
+        <v>2000</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J38" s="15" t="s">
-        <v>566</v>
+        <v>159</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>575</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>567</v>
+        <v>576</v>
+      </c>
+      <c r="L38" s="13" t="s">
+        <v>577</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>568</v>
+        <v>97</v>
       </c>
       <c r="O38" s="8">
-        <v>1921</v>
+        <v>2000</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>569</v>
+        <v>163</v>
       </c>
       <c r="Q38" s="2" t="s">
         <v>63</v>
       </c>
       <c r="R38" s="2" t="s">
-        <v>80</v>
+        <v>578</v>
+      </c>
+      <c r="S38" s="2" t="s">
+        <v>579</v>
       </c>
       <c r="T38" s="2" t="s">
-        <v>570</v>
+        <v>580</v>
       </c>
       <c r="U38" s="2" t="s">
-        <v>571</v>
+        <v>581</v>
       </c>
       <c r="V38" s="3" t="s">
-        <v>572</v>
-      </c>
-      <c r="W38" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="X38" s="4" t="s">
-        <v>212</v>
+        <v>582</v>
+      </c>
+      <c r="W38" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="X38" s="10" t="s">
+        <v>186</v>
       </c>
       <c r="Y38" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z38" s="4" t="s">
-        <v>151</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="Z38" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA38" s="35" t="s">
+        <v>583</v>
+      </c>
+      <c r="AB38" s="12"/>
+      <c r="AC38" s="12"/>
+      <c r="AD38" s="12"/>
+      <c r="AE38" s="12"/>
+      <c r="AF38" s="12"/>
+      <c r="AG38" s="12"/>
+      <c r="AH38" s="12"/>
     </row>
-    <row r="39" spans="1:34" ht="264" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1024" ht="156" x14ac:dyDescent="0.15">
       <c r="A39" s="7" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>155</v>
+        <v>587</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>75</v>
+        <v>589</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>33</v>
       </c>
       <c r="H39" s="8">
-        <v>1958</v>
+        <v>1999</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>157</v>
+        <v>590</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>577</v>
+        <v>591</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>579</v>
+        <v>592</v>
+      </c>
+      <c r="L39" s="13" t="s">
+        <v>593</v>
       </c>
       <c r="M39" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="O39" s="8">
-        <v>1958</v>
+        <v>594</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>161</v>
+        <v>595</v>
       </c>
       <c r="Q39" s="2" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="R39" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="S39" s="2" t="s">
-        <v>581</v>
+        <v>42</v>
       </c>
       <c r="T39" s="2" t="s">
-        <v>582</v>
+        <v>596</v>
       </c>
       <c r="U39" s="2" t="s">
-        <v>583</v>
+        <v>597</v>
       </c>
       <c r="V39" s="3" t="s">
-        <v>584</v>
-      </c>
-      <c r="W39" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="X39" s="10"/>
+        <v>598</v>
+      </c>
+      <c r="W39" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="Y39" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="Z39" s="10" t="s">
-        <v>585</v>
-      </c>
-      <c r="AB39" s="2"/>
-      <c r="AC39" s="2"/>
-      <c r="AD39" s="2"/>
-      <c r="AE39" s="2"/>
-      <c r="AF39" s="2"/>
-      <c r="AG39" s="2"/>
-      <c r="AH39" s="2"/>
     </row>
-    <row r="40" spans="1:34" ht="228" x14ac:dyDescent="0.2">
-      <c r="A40" s="18" t="s">
-        <v>586</v>
+    <row r="40" spans="1:1024" ht="130" x14ac:dyDescent="0.15">
+      <c r="A40" s="7" t="s">
+        <v>599</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>587</v>
+        <v>600</v>
       </c>
       <c r="C40" s="30" t="s">
-        <v>588</v>
+        <v>601</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>589</v>
+        <v>602</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>590</v>
+        <v>603</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>591</v>
+        <v>604</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>33</v>
       </c>
       <c r="H40" s="8">
-        <v>2014</v>
+        <v>1996</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>592</v>
+        <v>46</v>
+      </c>
+      <c r="J40" s="15" t="s">
+        <v>605</v>
       </c>
       <c r="K40" s="13">
-        <v>8504</v>
+        <v>1319475</v>
       </c>
       <c r="L40" s="13" t="s">
-        <v>593</v>
+        <v>606</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>59</v>
+        <v>607</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>594</v>
+        <v>482</v>
       </c>
       <c r="O40" s="8" t="s">
-        <v>595</v>
+        <v>608</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="Q40" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="Q40" s="15" t="s">
         <v>63</v>
       </c>
       <c r="R40" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="S40" s="2" t="s">
-        <v>598</v>
+        <v>80</v>
       </c>
       <c r="T40" s="2" t="s">
-        <v>599</v>
+        <v>610</v>
       </c>
       <c r="U40" s="2" t="s">
-        <v>600</v>
+        <v>611</v>
       </c>
       <c r="V40" s="3" t="s">
-        <v>601</v>
-      </c>
-      <c r="W40" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="W40" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="X40" s="4" t="s">
-        <v>212</v>
+      <c r="X40" s="10" t="s">
+        <v>215</v>
       </c>
       <c r="Y40" s="3" t="s">
-        <v>602</v>
-      </c>
-      <c r="Z40" s="10" t="s">
-        <v>85</v>
-      </c>
+        <v>604</v>
+      </c>
+      <c r="Z40" s="10"/>
+      <c r="AA40" s="35" t="s">
+        <v>613</v>
+      </c>
+      <c r="AB40" s="8"/>
+      <c r="AC40" s="8"/>
+      <c r="AD40" s="8"/>
+      <c r="AE40" s="8"/>
+      <c r="AF40" s="8"/>
+      <c r="AG40" s="8"/>
+      <c r="AH40" s="8"/>
     </row>
-    <row r="41" spans="1:34" ht="276" x14ac:dyDescent="0.2">
-      <c r="A41" s="18" t="s">
-        <v>603</v>
+    <row r="41" spans="1:1024" ht="240" x14ac:dyDescent="0.2">
+      <c r="A41" s="7" t="s">
+        <v>614</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>604</v>
-      </c>
-      <c r="C41" s="30" t="s">
-        <v>605</v>
+        <v>615</v>
+      </c>
+      <c r="C41" s="49" t="s">
+        <v>616</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>75</v>
@@ -7877,215 +8301,221 @@
         <v>33</v>
       </c>
       <c r="H41" s="8">
-        <v>1946</v>
+        <v>1990</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>212</v>
+        <v>113</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="K41" s="13">
-        <v>5362</v>
+        <v>619</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>620</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>609</v>
+        <v>621</v>
       </c>
       <c r="M41" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="O41" s="8">
-        <v>1946</v>
+        <v>132</v>
+      </c>
+      <c r="O41" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>610</v>
+        <v>622</v>
       </c>
       <c r="Q41" s="2" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="R41" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="S41" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="T41" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="U41" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="V41" s="3" t="s">
-        <v>613</v>
-      </c>
-      <c r="W41" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="X41" s="4" t="s">
-        <v>212</v>
-      </c>
+      <c r="T41" s="50" t="s">
+        <v>623</v>
+      </c>
+      <c r="U41" s="46" t="s">
+        <v>624</v>
+      </c>
+      <c r="V41" s="51" t="s">
+        <v>900</v>
+      </c>
+      <c r="W41" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="X41" s="10"/>
       <c r="Y41" s="3" t="s">
         <v>84</v>
       </c>
       <c r="Z41" s="10" t="s">
-        <v>614</v>
-      </c>
+        <v>625</v>
+      </c>
+      <c r="AB41" s="8"/>
+      <c r="AC41" s="8"/>
+      <c r="AD41" s="8"/>
+      <c r="AE41" s="8"/>
+      <c r="AF41" s="8"/>
+      <c r="AG41" s="6"/>
+      <c r="AH41" s="6"/>
     </row>
-    <row r="42" spans="1:34" ht="204" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1024" ht="195" x14ac:dyDescent="0.15">
       <c r="A42" s="7" t="s">
-        <v>615</v>
-      </c>
-      <c r="B42" s="20" t="s">
-        <v>616</v>
+        <v>626</v>
+      </c>
+      <c r="B42" s="28" t="s">
+        <v>627</v>
       </c>
       <c r="C42" s="30" t="s">
-        <v>617</v>
+        <v>628</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>618</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>619</v>
+        <v>629</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>630</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>471</v>
+        <v>54</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H42" s="8">
-        <v>2014</v>
+        <v>631</v>
+      </c>
+      <c r="H42" s="17">
+        <v>2006</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="K42" s="13">
-        <v>14000</v>
-      </c>
-      <c r="L42" s="13">
-        <v>25000</v>
+        <v>46</v>
+      </c>
+      <c r="J42" s="15" t="s">
+        <v>632</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="L42" s="13" t="s">
+        <v>633</v>
       </c>
       <c r="M42" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="O42" s="2" t="s">
-        <v>622</v>
+        <v>634</v>
+      </c>
+      <c r="O42" s="8">
+        <v>1921</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>623</v>
+        <v>635</v>
       </c>
       <c r="Q42" s="2" t="s">
         <v>63</v>
       </c>
       <c r="R42" s="2" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="T42" s="2" t="s">
-        <v>624</v>
+        <v>636</v>
       </c>
       <c r="U42" s="2" t="s">
-        <v>625</v>
+        <v>637</v>
       </c>
       <c r="V42" s="3" t="s">
-        <v>626</v>
+        <v>638</v>
       </c>
       <c r="W42" s="4" t="s">
         <v>46</v>
       </c>
       <c r="X42" s="4" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Y42" s="3" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="Z42" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
-    <row r="43" spans="1:34" ht="192" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1024" ht="272" x14ac:dyDescent="0.15">
       <c r="A43" s="7" t="s">
-        <v>627</v>
+        <v>639</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>628</v>
+        <v>640</v>
       </c>
       <c r="C43" s="30" t="s">
-        <v>629</v>
+        <v>641</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>52</v>
+        <v>157</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>630</v>
+        <v>642</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>259</v>
+        <v>33</v>
       </c>
       <c r="H43" s="8">
-        <v>2015</v>
+        <v>1958</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>631</v>
+        <v>159</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>632</v>
+        <v>643</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>633</v>
-      </c>
-      <c r="L43" s="2" t="s">
-        <v>191</v>
+        <v>644</v>
+      </c>
+      <c r="L43" s="13" t="s">
+        <v>645</v>
       </c>
       <c r="M43" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="O43" s="8" t="s">
-        <v>635</v>
+        <v>97</v>
+      </c>
+      <c r="O43" s="8">
+        <v>1958</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>636</v>
+        <v>163</v>
       </c>
       <c r="Q43" s="2" t="s">
         <v>63</v>
       </c>
       <c r="R43" s="2" t="s">
-        <v>42</v>
+        <v>646</v>
+      </c>
+      <c r="S43" s="2" t="s">
+        <v>647</v>
       </c>
       <c r="T43" s="2" t="s">
-        <v>637</v>
+        <v>648</v>
       </c>
       <c r="U43" s="2" t="s">
-        <v>638</v>
+        <v>649</v>
       </c>
       <c r="V43" s="3" t="s">
-        <v>639</v>
+        <v>650</v>
       </c>
       <c r="W43" s="10" t="s">
-        <v>640</v>
-      </c>
-      <c r="X43" s="10" t="s">
-        <v>184</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="X43" s="10"/>
       <c r="Y43" s="3" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="Z43" s="10" t="s">
-        <v>151</v>
+        <v>651</v>
+      </c>
+      <c r="AA43" s="35" t="s">
+        <v>652</v>
       </c>
       <c r="AB43" s="2"/>
       <c r="AC43" s="2"/>
@@ -8095,126 +8525,134 @@
       <c r="AG43" s="2"/>
       <c r="AH43" s="2"/>
     </row>
-    <row r="44" spans="1:34" ht="153" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1024" ht="221" x14ac:dyDescent="0.15">
       <c r="A44" s="18" t="s">
-        <v>641</v>
+        <v>653</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>642</v>
+        <v>654</v>
       </c>
       <c r="C44" s="30" t="s">
-        <v>643</v>
+        <v>655</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>644</v>
+        <v>656</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>657</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>54</v>
+        <v>658</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>645</v>
+        <v>33</v>
       </c>
       <c r="H44" s="8">
-        <v>2006</v>
+        <v>2014</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>46</v>
+        <v>215</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>646</v>
-      </c>
-      <c r="K44" s="13" t="s">
-        <v>647</v>
-      </c>
-      <c r="L44" s="2" t="s">
-        <v>648</v>
+        <v>659</v>
+      </c>
+      <c r="K44" s="13">
+        <v>8504</v>
+      </c>
+      <c r="L44" s="13" t="s">
+        <v>660</v>
       </c>
       <c r="M44" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>461</v>
+        <v>661</v>
       </c>
       <c r="O44" s="8" t="s">
-        <v>649</v>
+        <v>662</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>650</v>
+        <v>663</v>
       </c>
       <c r="Q44" s="2" t="s">
         <v>63</v>
       </c>
       <c r="R44" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="S44" s="5"/>
+        <v>664</v>
+      </c>
+      <c r="S44" s="2" t="s">
+        <v>665</v>
+      </c>
       <c r="T44" s="2" t="s">
-        <v>651</v>
+        <v>666</v>
       </c>
       <c r="U44" s="2" t="s">
-        <v>652</v>
+        <v>667</v>
       </c>
       <c r="V44" s="3" t="s">
-        <v>653</v>
+        <v>668</v>
       </c>
       <c r="W44" s="4" t="s">
         <v>46</v>
       </c>
+      <c r="X44" s="4" t="s">
+        <v>215</v>
+      </c>
       <c r="Y44" s="3" t="s">
-        <v>68</v>
+        <v>669</v>
       </c>
       <c r="Z44" s="10" t="s">
-        <v>213</v>
+        <v>85</v>
       </c>
     </row>
-    <row r="45" spans="1:34" ht="384" x14ac:dyDescent="0.2">
-      <c r="A45" s="7" t="s">
-        <v>654</v>
+    <row r="45" spans="1:1024" ht="153" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="18" t="s">
+        <v>670</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>655</v>
+        <v>671</v>
       </c>
       <c r="C45" s="30" t="s">
-        <v>656</v>
+        <v>672</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>657</v>
+        <v>673</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>658</v>
+        <v>674</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>659</v>
+        <v>33</v>
       </c>
       <c r="H45" s="8">
-        <v>1988</v>
+        <v>1946</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>46</v>
+        <v>215</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>660</v>
+        <v>675</v>
       </c>
       <c r="K45" s="13">
-        <v>4858</v>
-      </c>
-      <c r="L45" s="2" t="s">
-        <v>661</v>
+        <v>5362</v>
+      </c>
+      <c r="L45" s="13" t="s">
+        <v>676</v>
       </c>
       <c r="M45" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="O45" s="2" t="s">
-        <v>663</v>
+        <v>97</v>
+      </c>
+      <c r="O45" s="8">
+        <v>1946</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>664</v>
+        <v>677</v>
       </c>
       <c r="Q45" s="2" t="s">
         <v>63</v>
@@ -8222,177 +8660,189 @@
       <c r="R45" s="2" t="s">
         <v>80</v>
       </c>
+      <c r="S45" s="2" t="s">
+        <v>678</v>
+      </c>
       <c r="T45" s="2" t="s">
-        <v>665</v>
+        <v>679</v>
       </c>
       <c r="U45" s="2" t="s">
-        <v>666</v>
+        <v>65</v>
       </c>
       <c r="V45" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="W45" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="X45" s="10" t="s">
-        <v>668</v>
+        <v>680</v>
+      </c>
+      <c r="W45" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="X45" s="4" t="s">
+        <v>215</v>
       </c>
       <c r="Y45" s="3" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="Z45" s="10" t="s">
-        <v>614</v>
+        <v>681</v>
+      </c>
+      <c r="AA45" s="35" t="s">
+        <v>682</v>
       </c>
     </row>
-    <row r="46" spans="1:34" ht="168" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1024" ht="195" x14ac:dyDescent="0.15">
       <c r="A46" s="7" t="s">
-        <v>669</v>
+        <v>683</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>670</v>
+        <v>684</v>
       </c>
       <c r="C46" s="30" t="s">
-        <v>671</v>
+        <v>685</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>73</v>
+        <v>686</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>672</v>
+        <v>687</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>54</v>
+        <v>507</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>673</v>
-      </c>
-      <c r="H46" s="2">
+        <v>33</v>
+      </c>
+      <c r="H46" s="8">
         <v>2014</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>46</v>
+        <v>688</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>674</v>
-      </c>
-      <c r="K46" s="9">
-        <v>6616</v>
-      </c>
-      <c r="L46" s="2">
-        <v>648</v>
+        <v>689</v>
+      </c>
+      <c r="K46" s="13">
+        <v>14000</v>
+      </c>
+      <c r="L46" s="13">
+        <v>25000</v>
       </c>
       <c r="M46" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>675</v>
+        <v>208</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>676</v>
+        <v>690</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>677</v>
+        <v>691</v>
       </c>
       <c r="Q46" s="2" t="s">
         <v>63</v>
       </c>
       <c r="R46" s="2" t="s">
-        <v>678</v>
+        <v>42</v>
       </c>
       <c r="T46" s="2" t="s">
-        <v>679</v>
-      </c>
-      <c r="U46" s="36" t="s">
-        <v>680</v>
+        <v>692</v>
+      </c>
+      <c r="U46" s="2" t="s">
+        <v>693</v>
       </c>
       <c r="V46" s="3" t="s">
-        <v>681</v>
+        <v>694</v>
       </c>
       <c r="W46" s="4" t="s">
         <v>46</v>
       </c>
+      <c r="X46" s="4" t="s">
+        <v>215</v>
+      </c>
       <c r="Y46" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z46" s="10" t="s">
-        <v>167</v>
+        <v>48</v>
+      </c>
+      <c r="Z46" s="4" t="s">
+        <v>153</v>
       </c>
     </row>
-    <row r="47" spans="1:34" ht="168" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1024" ht="208" x14ac:dyDescent="0.15">
       <c r="A47" s="7" t="s">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>683</v>
+        <v>696</v>
       </c>
       <c r="C47" s="30" t="s">
-        <v>684</v>
+        <v>697</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>52</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>685</v>
+        <v>698</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>54</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="H47" s="8">
-        <v>2008</v>
+        <v>2015</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>46</v>
+        <v>699</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>686</v>
+        <v>700</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>687</v>
-      </c>
-      <c r="L47" s="2" t="s">
-        <v>688</v>
+        <v>701</v>
+      </c>
+      <c r="L47" s="13" t="s">
+        <v>702</v>
       </c>
       <c r="M47" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>130</v>
+        <v>703</v>
       </c>
       <c r="O47" s="8" t="s">
-        <v>689</v>
+        <v>704</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>690</v>
+        <v>705</v>
       </c>
       <c r="Q47" s="2" t="s">
         <v>63</v>
       </c>
       <c r="R47" s="2" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="T47" s="2" t="s">
-        <v>691</v>
+        <v>706</v>
       </c>
       <c r="U47" s="2" t="s">
-        <v>692</v>
+        <v>707</v>
       </c>
       <c r="V47" s="3" t="s">
-        <v>693</v>
+        <v>708</v>
       </c>
       <c r="W47" s="10" t="s">
-        <v>46</v>
+        <v>709</v>
       </c>
       <c r="X47" s="10" t="s">
-        <v>694</v>
+        <v>186</v>
       </c>
       <c r="Y47" s="3" t="s">
         <v>68</v>
       </c>
       <c r="Z47" s="10" t="s">
-        <v>85</v>
+        <v>153</v>
+      </c>
+      <c r="AA47" s="35" t="s">
+        <v>710</v>
       </c>
       <c r="AB47" s="2"/>
       <c r="AC47" s="2"/>
@@ -8402,312 +8852,310 @@
       <c r="AG47" s="2"/>
       <c r="AH47" s="2"/>
     </row>
-    <row r="48" spans="1:34" ht="300" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1024" ht="169" x14ac:dyDescent="0.15">
       <c r="A48" s="18" t="s">
-        <v>695</v>
+        <v>711</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>696</v>
+        <v>712</v>
       </c>
       <c r="C48" s="30" t="s">
-        <v>697</v>
+        <v>713</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>698</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>699</v>
+        <v>714</v>
+      </c>
+      <c r="E48" s="45" t="s">
+        <v>715</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>54</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>700</v>
+        <v>716</v>
       </c>
       <c r="H48" s="8">
-        <v>1998</v>
+        <v>2006</v>
       </c>
       <c r="I48" s="2" t="s">
         <v>46</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>701</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>702</v>
-      </c>
-      <c r="L48" s="2" t="s">
-        <v>703</v>
+        <v>717</v>
+      </c>
+      <c r="K48" s="13" t="s">
+        <v>718</v>
+      </c>
+      <c r="L48" s="13" t="s">
+        <v>719</v>
       </c>
       <c r="M48" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>704</v>
+        <v>497</v>
       </c>
       <c r="O48" s="8" t="s">
-        <v>705</v>
+        <v>720</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>706</v>
+        <v>721</v>
       </c>
       <c r="Q48" s="2" t="s">
         <v>63</v>
       </c>
       <c r="R48" s="2" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="S48" s="5"/>
       <c r="T48" s="2" t="s">
-        <v>707</v>
+        <v>722</v>
       </c>
       <c r="U48" s="2" t="s">
-        <v>708</v>
+        <v>723</v>
       </c>
       <c r="V48" s="3" t="s">
-        <v>709</v>
+        <v>724</v>
       </c>
       <c r="W48" s="4" t="s">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="Y48" s="3" t="s">
         <v>68</v>
       </c>
       <c r="Z48" s="10" t="s">
-        <v>85</v>
+        <v>216</v>
       </c>
     </row>
-    <row r="49" spans="1:34" ht="276" x14ac:dyDescent="0.2">
-      <c r="A49" s="18" t="s">
-        <v>710</v>
+    <row r="49" spans="1:34" ht="332" x14ac:dyDescent="0.15">
+      <c r="A49" s="7" t="s">
+        <v>725</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>711</v>
+        <v>726</v>
       </c>
       <c r="C49" s="30" t="s">
-        <v>712</v>
+        <v>727</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>52</v>
+        <v>728</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>713</v>
+        <v>729</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>231</v>
+        <v>54</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>33</v>
+        <v>730</v>
       </c>
       <c r="H49" s="8">
-        <v>1994</v>
+        <v>1988</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>318</v>
+        <v>46</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>714</v>
-      </c>
-      <c r="K49" s="2" t="s">
-        <v>715</v>
-      </c>
-      <c r="L49" s="2" t="s">
-        <v>716</v>
+        <v>731</v>
+      </c>
+      <c r="K49" s="13">
+        <v>4858</v>
+      </c>
+      <c r="L49" s="13" t="s">
+        <v>732</v>
       </c>
       <c r="M49" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="O49" s="8" t="s">
-        <v>717</v>
+        <v>733</v>
+      </c>
+      <c r="O49" s="2" t="s">
+        <v>734</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>718</v>
+        <v>735</v>
       </c>
       <c r="Q49" s="2" t="s">
         <v>63</v>
       </c>
       <c r="R49" s="2" t="s">
-        <v>719</v>
-      </c>
-      <c r="S49" s="5"/>
+        <v>80</v>
+      </c>
       <c r="T49" s="2" t="s">
-        <v>720</v>
+        <v>736</v>
       </c>
       <c r="U49" s="2" t="s">
-        <v>721</v>
+        <v>737</v>
       </c>
       <c r="V49" s="3" t="s">
-        <v>722</v>
-      </c>
-      <c r="W49" s="4" t="s">
-        <v>329</v>
+        <v>738</v>
+      </c>
+      <c r="W49" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="X49" s="10" t="s">
+        <v>739</v>
       </c>
       <c r="Y49" s="3" t="s">
-        <v>330</v>
+        <v>68</v>
       </c>
       <c r="Z49" s="10" t="s">
-        <v>331</v>
+        <v>681</v>
       </c>
     </row>
-    <row r="50" spans="1:34" ht="117" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="18" t="s">
-        <v>723</v>
+    <row r="50" spans="1:34" ht="182" x14ac:dyDescent="0.15">
+      <c r="A50" s="7" t="s">
+        <v>740</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>724</v>
+        <v>741</v>
       </c>
       <c r="C50" s="30" t="s">
-        <v>725</v>
+        <v>742</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>726</v>
+        <v>73</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>727</v>
+        <v>743</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>471</v>
+        <v>54</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H50" s="8">
-        <v>1992</v>
+        <v>744</v>
+      </c>
+      <c r="H50" s="2">
+        <v>2014</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>728</v>
+        <v>46</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>729</v>
-      </c>
-      <c r="K50" s="2" t="s">
-        <v>730</v>
-      </c>
-      <c r="L50" s="2" t="s">
-        <v>731</v>
+        <v>745</v>
+      </c>
+      <c r="K50" s="9">
+        <v>6616</v>
+      </c>
+      <c r="L50" s="13" t="s">
+        <v>746</v>
       </c>
       <c r="M50" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>732</v>
+        <v>747</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>40</v>
+        <v>281</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>733</v>
+        <v>748</v>
       </c>
       <c r="Q50" s="2" t="s">
         <v>63</v>
       </c>
       <c r="R50" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="S50" s="5"/>
+        <v>749</v>
+      </c>
       <c r="T50" s="2" t="s">
-        <v>734</v>
-      </c>
-      <c r="U50" s="2" t="s">
-        <v>735</v>
+        <v>750</v>
+      </c>
+      <c r="U50" s="36" t="s">
+        <v>751</v>
       </c>
       <c r="V50" s="3" t="s">
-        <v>736</v>
+        <v>752</v>
       </c>
       <c r="W50" s="4" t="s">
-        <v>737</v>
+        <v>46</v>
       </c>
       <c r="Y50" s="3" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="Z50" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="AA50" s="34" t="s">
-        <v>738</v>
+        <v>169</v>
       </c>
     </row>
-    <row r="51" spans="1:34" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:34" ht="117" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="7" t="s">
-        <v>739</v>
+        <v>753</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>740</v>
+        <v>754</v>
       </c>
       <c r="C51" s="30" t="s">
-        <v>741</v>
+        <v>755</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>742</v>
+        <v>52</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>743</v>
+        <v>756</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>471</v>
+        <v>54</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H51" s="8" t="s">
-        <v>744</v>
+        <v>263</v>
+      </c>
+      <c r="H51" s="8">
+        <v>2008</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>745</v>
+        <v>46</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>746</v>
+        <v>757</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="L51" s="2" t="s">
-        <v>748</v>
+        <v>758</v>
+      </c>
+      <c r="L51" s="13" t="s">
+        <v>759</v>
       </c>
       <c r="M51" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>40</v>
+        <v>132</v>
       </c>
       <c r="O51" s="8" t="s">
-        <v>40</v>
+        <v>760</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>749</v>
+        <v>761</v>
       </c>
       <c r="Q51" s="2" t="s">
         <v>63</v>
       </c>
       <c r="R51" s="2" t="s">
-        <v>750</v>
-      </c>
-      <c r="S51" s="2" t="s">
-        <v>751</v>
+        <v>80</v>
       </c>
       <c r="T51" s="2" t="s">
-        <v>752</v>
+        <v>762</v>
       </c>
       <c r="U51" s="2" t="s">
-        <v>753</v>
+        <v>763</v>
       </c>
       <c r="V51" s="3" t="s">
-        <v>754</v>
+        <v>764</v>
       </c>
       <c r="W51" s="10" t="s">
-        <v>755</v>
+        <v>46</v>
       </c>
       <c r="X51" s="10" t="s">
-        <v>694</v>
+        <v>765</v>
       </c>
       <c r="Y51" s="3" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="Z51" s="10" t="s">
-        <v>167</v>
+        <v>85</v>
+      </c>
+      <c r="AA51" s="35" t="s">
+        <v>766</v>
       </c>
       <c r="AB51" s="2"/>
       <c r="AC51" s="2"/>
@@ -8717,487 +9165,794 @@
       <c r="AG51" s="2"/>
       <c r="AH51" s="2"/>
     </row>
-    <row r="52" spans="1:34" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="18" t="s">
-        <v>756</v>
-      </c>
-      <c r="B52" s="20" t="s">
-        <v>757</v>
+    <row r="52" spans="1:34" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="7" t="s">
+        <v>767</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>768</v>
       </c>
       <c r="C52" s="30" t="s">
-        <v>758</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>759</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>760</v>
+        <v>769</v>
+      </c>
+      <c r="D52" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="E52" s="46" t="s">
+        <v>770</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>54</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>761</v>
-      </c>
-      <c r="H52" s="8">
-        <v>2007</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="J52" s="2" t="s">
-        <v>762</v>
-      </c>
-      <c r="K52" s="13" t="s">
-        <v>763</v>
-      </c>
-      <c r="L52" s="2" t="s">
-        <v>191</v>
+        <v>771</v>
+      </c>
+      <c r="H52" s="2">
+        <v>2018</v>
+      </c>
+      <c r="I52" s="42" t="s">
+        <v>772</v>
+      </c>
+      <c r="J52" s="43" t="s">
+        <v>773</v>
+      </c>
+      <c r="K52" s="44" t="s">
+        <v>774</v>
+      </c>
+      <c r="L52" s="13" t="s">
+        <v>774</v>
       </c>
       <c r="M52" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>764</v>
-      </c>
-      <c r="O52" s="8" t="s">
-        <v>765</v>
-      </c>
-      <c r="P52" s="2" t="s">
-        <v>766</v>
+        <v>40</v>
+      </c>
+      <c r="O52" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P52" s="42" t="s">
+        <v>775</v>
       </c>
       <c r="Q52" s="2" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="R52" s="2" t="s">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="T52" s="2" t="s">
-        <v>767</v>
+        <v>776</v>
       </c>
       <c r="U52" s="2" t="s">
-        <v>65</v>
+        <v>777</v>
       </c>
       <c r="V52" s="3" t="s">
-        <v>768</v>
-      </c>
-      <c r="W52" s="4" t="s">
-        <v>92</v>
+        <v>778</v>
+      </c>
+      <c r="W52" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="X52" s="3" t="s">
+        <v>779</v>
       </c>
       <c r="Y52" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="Z52" s="10" t="s">
-        <v>769</v>
-      </c>
+      <c r="Z52" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA52" s="2"/>
     </row>
-    <row r="53" spans="1:34" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="7" t="s">
-        <v>770</v>
+    <row r="53" spans="1:34" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="18" t="s">
+        <v>780</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>771</v>
+        <v>781</v>
       </c>
       <c r="C53" s="30" t="s">
-        <v>772</v>
+        <v>782</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>773</v>
+        <v>783</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>774</v>
+        <v>784</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>54</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>275</v>
+        <v>785</v>
       </c>
       <c r="H53" s="8">
-        <v>1985</v>
+        <v>1998</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>775</v>
+        <v>46</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>776</v>
-      </c>
-      <c r="K53" s="13">
-        <v>10308</v>
-      </c>
-      <c r="L53" s="2" t="s">
-        <v>777</v>
+        <v>786</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="L53" s="13" t="s">
+        <v>788</v>
       </c>
       <c r="M53" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>778</v>
-      </c>
-      <c r="O53" s="2" t="s">
-        <v>779</v>
+        <v>789</v>
+      </c>
+      <c r="O53" s="8" t="s">
+        <v>790</v>
       </c>
       <c r="P53" s="2" t="s">
-        <v>780</v>
+        <v>791</v>
       </c>
       <c r="Q53" s="2" t="s">
         <v>63</v>
       </c>
       <c r="R53" s="2" t="s">
-        <v>781</v>
-      </c>
-      <c r="S53" s="2" t="s">
-        <v>782</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="S53" s="5"/>
       <c r="T53" s="2" t="s">
-        <v>783</v>
+        <v>792</v>
       </c>
       <c r="U53" s="2" t="s">
-        <v>784</v>
+        <v>793</v>
       </c>
       <c r="V53" s="3" t="s">
-        <v>785</v>
+        <v>794</v>
       </c>
       <c r="W53" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="X53" s="4" t="s">
-        <v>453</v>
+        <v>93</v>
       </c>
       <c r="Y53" s="3" t="s">
         <v>68</v>
       </c>
       <c r="Z53" s="10" t="s">
-        <v>167</v>
+        <v>85</v>
       </c>
     </row>
-    <row r="54" spans="1:34" ht="113.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="7" t="s">
-        <v>786</v>
+    <row r="54" spans="1:34" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="18" t="s">
+        <v>795</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>787</v>
+        <v>796</v>
       </c>
       <c r="C54" s="30" t="s">
-        <v>788</v>
+        <v>797</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>789</v>
+        <v>52</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>790</v>
+        <v>798</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>376</v>
+        <v>235</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>791</v>
+        <v>33</v>
       </c>
       <c r="H54" s="8">
-        <v>1986</v>
+        <v>1994</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>640</v>
+        <v>340</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>792</v>
+        <v>799</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>793</v>
-      </c>
-      <c r="L54" s="2" t="s">
-        <v>794</v>
+        <v>800</v>
+      </c>
+      <c r="L54" s="13" t="s">
+        <v>801</v>
       </c>
       <c r="M54" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>795</v>
-      </c>
-      <c r="O54" s="2" t="s">
-        <v>796</v>
+        <v>97</v>
+      </c>
+      <c r="O54" s="8" t="s">
+        <v>802</v>
       </c>
       <c r="P54" s="2" t="s">
-        <v>797</v>
+        <v>803</v>
       </c>
       <c r="Q54" s="2" t="s">
         <v>63</v>
       </c>
       <c r="R54" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>804</v>
+      </c>
+      <c r="S54" s="5"/>
       <c r="T54" s="2" t="s">
-        <v>798</v>
+        <v>805</v>
       </c>
       <c r="U54" s="2" t="s">
-        <v>65</v>
+        <v>806</v>
       </c>
       <c r="V54" s="3" t="s">
-        <v>799</v>
+        <v>807</v>
       </c>
       <c r="W54" s="4" t="s">
-        <v>640</v>
+        <v>351</v>
       </c>
       <c r="Y54" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="Z54" s="4" t="s">
-        <v>151</v>
+        <v>352</v>
+      </c>
+      <c r="Z54" s="10" t="s">
+        <v>353</v>
       </c>
     </row>
-    <row r="55" spans="1:34" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A55" s="7" t="s">
-        <v>800</v>
+    <row r="55" spans="1:34" ht="113.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="18" t="s">
+        <v>808</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>801</v>
+        <v>809</v>
       </c>
       <c r="C55" s="30" t="s">
-        <v>802</v>
+        <v>810</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>803</v>
-      </c>
-      <c r="E55" s="40" t="s">
-        <v>804</v>
+        <v>811</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>812</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>805</v>
+        <v>507</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H55" s="2">
-        <v>2019</v>
+      <c r="H55" s="8">
+        <v>1992</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>46</v>
+        <v>813</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>806</v>
-      </c>
-      <c r="K55" s="2">
-        <v>628</v>
-      </c>
-      <c r="L55" s="2">
-        <v>499</v>
+        <v>814</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="L55" s="13" t="s">
+        <v>816</v>
       </c>
       <c r="M55" s="2" t="s">
         <v>59</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>807</v>
+        <v>817</v>
       </c>
       <c r="O55" s="2" t="s">
         <v>40</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>808</v>
+        <v>818</v>
       </c>
       <c r="Q55" s="2" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="R55" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="S55" s="38" t="s">
-        <v>809</v>
-      </c>
+      <c r="S55" s="5"/>
       <c r="T55" s="2" t="s">
-        <v>810</v>
+        <v>819</v>
       </c>
       <c r="U55" s="2" t="s">
-        <v>182</v>
+        <v>820</v>
       </c>
       <c r="V55" s="3" t="s">
-        <v>811</v>
+        <v>821</v>
       </c>
       <c r="W55" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="X55" s="4" t="s">
-        <v>812</v>
+        <v>822</v>
       </c>
       <c r="Y55" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="Z55" s="4" t="s">
-        <v>122</v>
+      <c r="Z55" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="AA55" s="34" t="s">
+        <v>823</v>
       </c>
     </row>
-    <row r="56" spans="1:34" ht="409.5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:34" ht="308" x14ac:dyDescent="0.15">
       <c r="A56" s="7" t="s">
-        <v>813</v>
+        <v>824</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>814</v>
+        <v>825</v>
       </c>
       <c r="C56" s="30" t="s">
-        <v>815</v>
+        <v>826</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>816</v>
-      </c>
-      <c r="E56" s="40" t="s">
-        <v>817</v>
+        <v>827</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>828</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>376</v>
+        <v>507</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>818</v>
-      </c>
-      <c r="H56" s="2">
-        <v>1998</v>
+        <v>33</v>
+      </c>
+      <c r="H56" s="8" t="s">
+        <v>829</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>46</v>
+        <v>830</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>819</v>
-      </c>
-      <c r="K56" s="9">
-        <v>4300</v>
-      </c>
-      <c r="L56" s="9">
-        <v>4257</v>
+        <v>831</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="L56" s="13" t="s">
+        <v>833</v>
       </c>
       <c r="M56" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="N56" s="2">
-        <v>12</v>
-      </c>
-      <c r="O56" s="2">
+      <c r="N56" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O56" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="P56" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="Q56" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="R56" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="S56" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="T56" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="U56" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="V56" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="W56" s="10" t="s">
+        <v>840</v>
+      </c>
+      <c r="X56" s="10" t="s">
+        <v>765</v>
+      </c>
+      <c r="Y56" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z56" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA56" s="35" t="s">
+        <v>841</v>
+      </c>
+      <c r="AB56" s="2"/>
+      <c r="AC56" s="2"/>
+      <c r="AD56" s="2"/>
+      <c r="AE56" s="2"/>
+      <c r="AF56" s="2"/>
+      <c r="AG56" s="2"/>
+      <c r="AH56" s="2"/>
+    </row>
+    <row r="57" spans="1:34" ht="308" x14ac:dyDescent="0.15">
+      <c r="A57" s="18" t="s">
+        <v>842</v>
+      </c>
+      <c r="B57" s="20" t="s">
+        <v>843</v>
+      </c>
+      <c r="C57" s="30" t="s">
+        <v>844</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="H57" s="8">
+        <v>2007</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="K57" s="13" t="s">
+        <v>849</v>
+      </c>
+      <c r="L57" s="13" t="s">
+        <v>850</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N57" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="O57" s="8" t="s">
+        <v>852</v>
+      </c>
+      <c r="P57" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="Q57" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="R57" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="T57" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="U57" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="V57" s="3" t="s">
+        <v>855</v>
+      </c>
+      <c r="W57" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y57" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z57" s="10" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="58" spans="1:34" s="5" customFormat="1" ht="234" x14ac:dyDescent="0.2">
+      <c r="A58" s="7" t="s">
+        <v>857</v>
+      </c>
+      <c r="B58" s="20" t="s">
+        <v>858</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="H58" s="8">
+        <v>1985</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="K58" s="13">
+        <v>10308</v>
+      </c>
+      <c r="L58" s="13" t="s">
+        <v>864</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N58" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="O58" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="P58" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="Q58" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="R58" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="S58" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="T58" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="U58" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="V58" s="3" t="s">
+        <v>871</v>
+      </c>
+      <c r="W58" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="X58" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="Y58" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z58" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA58" s="34"/>
+    </row>
+    <row r="59" spans="1:34" ht="272" x14ac:dyDescent="0.15">
+      <c r="A59" s="7" t="s">
+        <v>872</v>
+      </c>
+      <c r="B59" s="20" t="s">
+        <v>873</v>
+      </c>
+      <c r="C59" s="30" t="s">
+        <v>874</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="H59" s="8">
         <v>1986</v>
       </c>
-      <c r="P56" s="2" t="s">
-        <v>820</v>
-      </c>
-      <c r="Q56" s="2" t="s">
+      <c r="I59" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="L59" s="13" t="s">
+        <v>880</v>
+      </c>
+      <c r="M59" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N59" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="O59" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="P59" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="Q59" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="R59" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="R56" s="2" t="s">
-        <v>821</v>
-      </c>
-      <c r="T56" s="2" t="s">
-        <v>822</v>
-      </c>
-      <c r="U56" s="2" t="s">
-        <v>823</v>
-      </c>
-      <c r="V56" s="3" t="s">
-        <v>824</v>
-      </c>
-      <c r="W56" s="4" t="s">
+      <c r="T59" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="U59" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="V59" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="W59" s="4" t="s">
+        <v>709</v>
+      </c>
+      <c r="Y59" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="Z59" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="60" spans="1:34" ht="182" x14ac:dyDescent="0.15">
+      <c r="A60" s="7" t="s">
+        <v>886</v>
+      </c>
+      <c r="B60" s="47" t="s">
+        <v>887</v>
+      </c>
+      <c r="C60" s="47" t="s">
+        <v>888</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>890</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H60" s="2">
+        <v>2021</v>
+      </c>
+      <c r="I60" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="Y56" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="Z56" s="10" t="s">
-        <v>825</v>
+      <c r="J60" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="M60" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N60" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="O60" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="P60" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="Q60" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R60" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="T60" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="U60" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="V60" s="10" t="s">
+        <v>898</v>
+      </c>
+      <c r="W60" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y60" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z60" s="4" t="s">
+        <v>124</v>
       </c>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A57" s="7"/>
+    <row r="61" spans="1:34" ht="13" x14ac:dyDescent="0.15">
+      <c r="A61" s="2"/>
+      <c r="C61" s="30" t="s">
+        <v>899</v>
+      </c>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A58" s="7"/>
-    </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A59" s="7"/>
-    </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A60" s="7"/>
-    </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A61" s="7"/>
-    </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A62" s="7"/>
     </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A63" s="7"/>
     </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A64" s="7"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="7"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="7"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="7"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="7"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="7"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="7"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="7"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="7"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A73" s="7"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A74" s="7"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A75" s="7"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A76" s="7"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A77" s="7"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A78" s="7"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A79" s="7"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A80" s="7"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A81" s="7"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A82" s="7"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A83" s="7"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A84" s="7"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A85" s="7"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A86" s="7"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A87" s="7"/>
     </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A88" s="7"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AH56" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AH54">
-      <sortCondition ref="A1:A54"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:AH61" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -9213,8 +9968,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006651BF32B521A046AF14BF632D6B295F" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="09153fd41ce1666f2d769619857e3bdc">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b67f489d-6419-4cb0-8238-506a3a8f1300" xmlns:ns3="0ce01a67-a604-4be1-a4ca-c8b766b5a068" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="de1bb72c62ccf761f278c18d78bd3734" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006651BF32B521A046AF14BF632D6B295F" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="55423843e2650ade946de227fdfd3c86">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b67f489d-6419-4cb0-8238-506a3a8f1300" xmlns:ns3="0ce01a67-a604-4be1-a4ca-c8b766b5a068" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b15cf6a4d7b0b7ca33e0fb73ec1791d3" ns2:_="" ns3:_="">
     <xsd:import namespace="b67f489d-6419-4cb0-8238-506a3a8f1300"/>
     <xsd:import namespace="0ce01a67-a604-4be1-a4ca-c8b766b5a068"/>
     <xsd:element name="properties">
@@ -9233,6 +9988,9 @@
                 <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -9292,6 +10050,11 @@
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="21" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="0ce01a67-a604-4be1-a4ca-c8b766b5a068" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -9306,6 +10069,32 @@
           </xsd:extension>
         </xsd:complexContent>
       </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithUsers" ma:index="19" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="20" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -9427,7 +10216,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E23DE8AC-2A9C-42E3-AC06-D37A01CE10EB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B6E6444-F52A-4A7D-907E-4485397AB440}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>

--- a/xlsx/Old/studies.xlsx
+++ b/xlsx/Old/studies.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/john/Workspace/catalogue-mental-health/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C662FC-DBA8-EB4B-80C8-8AB3B4F81535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD3E5E1-DF44-6D47-B26E-58ED1121356A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="500" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Study details" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Study details'!$A$1:$AH$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Study details'!$A$1:$AH$62</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="902">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="949">
   <si>
     <t>Code</t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>HDR UK Innovation Gateway</t>
+  </si>
+  <si>
+    <t>Extra info - sweep sample sizes</t>
   </si>
   <si>
     <t>ADVANCE</t>
@@ -185,7 +188,7 @@
 </t>
   </si>
   <si>
-    <t>HFH MoD Nuffield_Crown Blesma FIMT</t>
+    <t>HCC HFH MoD Nuffield_Crown Blesma FIMT UKMinDef ChEx</t>
   </si>
   <si>
     <t>Biomarkers,
@@ -210,7 +213,7 @@
     <t>Aetiology and Ethnicity in Schizophrenia and Other Psychoses (AESOP-10)</t>
   </si>
   <si>
-    <t>The AESOP-10 study is a 10-year follow up of an epidemiologically characterized sample of 535 individuals initially studied during their first episode of psychosis that aims to identify the factors that predict the course and outcome of psychosis following a first episode, focusing specifically on the role of biological and social risk indicators, cannabis use, and duration of untreated psychosis (DUP). The study also works to examine and explain the differences in the course and outcome of psychosis in Black and White patients in the decade following a first episode of psychosis.</t>
+    <t>The Aetiology and Ethnicity in Schizophrenia and Other Psychoses (AESOP-10) study is a 10-year follow up of an epidemiologically characterized sample of 535 individuals initially studied during their first episode of psychosis that aims to identify the factors that predict the course and outcome of psychosis following a first episode, focusing specifically on the role of biological and social risk indicators, cannabis use, and duration of untreated psychosis (DUP). The study also works to examine and explain the differences in the course and outcome of psychosis in Black and White patients in the decade following a first episode of psychosis.</t>
   </si>
   <si>
     <t>Institute of Psychiatry, Psychology &amp; Neuroscience (IoPPN), King's College London</t>
@@ -308,8 +311,8 @@
     <t>18+</t>
   </si>
   <si>
-    <t>Data request &lt;br&gt;
-&lt;a href="https://police-health.org.uk/applying-access-resource"&gt;https://police-health.org.uk/applying-access-resource&lt;/a&gt;</t>
+    <t>Data request - see data access guidance &lt;br&gt;
+&lt;a href="https://police-health.org.uk/applying-access-resource"&gt;police-health.org.uk/applying-access-resource&lt;/a&gt;</t>
   </si>
   <si>
     <t>Health data</t>
@@ -385,7 +388,7 @@
 14,901 children (cohort members) alive at 1 year of age </t>
   </si>
   <si>
-    <t>Approximately 3,400 (cohort members) (2023 - Life at 27+)</t>
+    <t>Approximately 4,440 (2020 - Life at 27+)</t>
   </si>
   <si>
     <t>Birth</t>
@@ -455,13 +458,16 @@
     <t>&lt;a href="https://web.www.healthdatagateway.org/dataset/255d70c6-9a50-4b62-adc0-44216606a216"&gt;https://web.www.healthdatagateway.org/dataset/255d70c6-9a50-4b62-adc0-44216606a216&lt;/a&gt;</t>
   </si>
   <si>
+    <t>Approximately 3,400 (cohort members) (2023 - Life at 27+)</t>
+  </si>
+  <si>
     <t>APMS</t>
   </si>
   <si>
     <t>Adult Psychiatric Morbidity Survey (APMS)</t>
   </si>
   <si>
-    <t>The Adult Psychiatric Morbidity Survey (APMS) is a series of four repeated cross-sectional surveys of adults living in private households in England. The main aim of the survey series is to collect data on poor mental health among adults in order to facilitate the estimation of the prevalence of psychiatric morbidity, allow for examination of trends over time and gauge the level and nature of treatment and service use. The APMS provides key context for understanding mental illness in England and for informing initiatives in this area.</t>
+    <t>The Adult Psychiatric Morbidity Survey (APMS) is a series of four repeated cross-sectional surveys of adults living in private households in England, Scotland and Wales. The main aim of the survey series is to collect data on poor mental health among adults in order to facilitate the estimation of the prevalence of psychiatric morbidity, allow for examination of trends over time and gauge the level and nature of treatment and service use. The APMS provides key context for understanding mental illness in England, Scotland and Wales, and for informing initiatives in these areas.</t>
   </si>
   <si>
     <t>NHS Digital, NatCen Social Research &amp; University of Leicester</t>
@@ -479,13 +485,10 @@
     <t xml:space="preserve">Each survey involved interviewing a large stratified probability sample of the general population, covering people living in private households. A new sample is recruited for each survey.&lt;br&gt;&lt;br&gt;
 The two-phase survey design involved an initial interview with the whole sample, followed up with a structured assessment carried out by clinically trained interviewers with a subset of participants. People were assessed or screened for a range of different types of mental disorder, from common conditions like depression and anxiety disorder through to rarer
 neurological and mental conditions such as psychotic disorder, attention-deficit/hyperactivity disorder (ADHD), and autism spectrum disorder (ASD).&lt;br&gt;&lt;br&gt;
-The stratified multi-stage random probability sample used for the phase one interview involved two stages of sample selection: the sampling of the primary sampling units (PSUs) followed by the sampling of addresses within the selected PSUs. One adult aged 16 years or over was randomly selected for interview in each eligible household
+The stratified multi-stage random probability sample used for the phase one interview involved two stages of sample selection: the sampling of the primary sampling units (PSUs) followed by the sampling of addresses within the selected PSUs. One adult aged 16 years or over was randomly selected for interview in each eligible household.
 </t>
   </si>
   <si>
-    <t>Approx 7,500 participants in each survey</t>
-  </si>
-  <si>
     <t>Approximately 7,500 participants in each survey</t>
   </si>
   <si>
@@ -495,7 +498,7 @@
     <t>1926-98</t>
   </si>
   <si>
-    <t>UK Data Service 
+    <t>UK Data Service &lt;br&gt;
  &lt;a href="https://beta.ukdataservice.ac.uk/datacatalogue/series/series?id=2000044#!/abstract"&gt;rbeta.ukdataservice.ac.uk/datacatalogue/series/series?id=2000044#!/abstract&lt;/a&gt;</t>
   </si>
   <si>
@@ -537,7 +540,7 @@
     <t>APMS_other</t>
   </si>
   <si>
-    <t>out</t>
+    <t>Surveys of Psychiatric Morbidity</t>
   </si>
   <si>
     <t>The Surveys of Psychiatric Morbidity aim to provide information about the prevalence of psychiatric problems among people in Great Britain, as well as their associated social disabilities and use of services. The surveys covering adults in private households (undertaken in 1993, 2000, 2007 and 2014) and children and adolescents (1999, 2004 and 2017), are detailed elsewhere on the Catalogue. The  surveys detailed on this page were designed to show the prevalence of psychiatric morbidity in a series of marginalised populations: adults in institutions specifically catering for people with mental illness (1994); homeless people (1994); prisoners (1997); and children and young people looked after by local authorities (2001/2). These surveys provide key context for understanding mental illness in Britain and for informing initiatives in this area.</t>
@@ -549,7 +552,7 @@
     <t>&lt;a href="https://beta.ukdataservice.ac.uk/datacatalogue/series/series?id=2000044"&gt;beta.ukdataservice.ac.uk/datacatalogue/series/series?id=2000044&lt;/a&gt;</t>
   </si>
   <si>
-    <t>1994 - 2002</t>
+    <t>1994-2002</t>
   </si>
   <si>
     <t>&lt;b&gt;&lt;i&gt;Prisoners survey&lt;/b&gt;&lt;/i&gt;
@@ -574,7 +577,7 @@
     <t>16 years +</t>
   </si>
   <si>
-    <t>UK Data Service &lt;a href="https://beta.ukdataservice.ac.uk/datacatalogue/series/series?id=2000044"&gt;beta.ukdataservice.ac.uk/datacatalogue/series/series?id=2000044&lt;/a&gt;</t>
+    <t>UK Data Service &lt;br&gt; &lt;a href="https://beta.ukdataservice.ac.uk/datacatalogue/series/series?id=2000044"&gt;beta.ukdataservice.ac.uk/datacatalogue/series/series?id=2000044&lt;/a&gt;</t>
   </si>
   <si>
     <t xml:space="preserve"> &lt;a href="http://doc.ukdataservice.ac.uk/doc/5280/mrdoc/pdf/5280userguide.pdf"&gt;Mental Health of Young People Looked After by Local Authorities in Great Britain – User Guide&lt;/a&gt; 
@@ -617,7 +620,7 @@
     <t>British Autism Study of Infant Siblings (BASIS)</t>
   </si>
   <si>
-    <t xml:space="preserve">The British Autism Study of Infant Siblings (BASIS) is a prospective longitudinal study of infants at elevated likelihood (EL) for autism in the UK. Using newly developed techniques for studying brain and behaviour in infants, BASIS investigates whether there are any differences in development between infants who have brothers or sisters with autism and those who do not. The study has been extended to include infants at elevated likelihood for ADHD. </t>
+    <t xml:space="preserve">The British Autism Study of Infant Siblings (BASIS) is a prospective longitudinal study of infants at elevated likelihood for autism in the UK. Using newly developed techniques for studying brain and behaviour in infants, BASIS investigates whether there are any differences in development between infants who have brothers or sisters with autism and those who do not. The study has been extended to include infants at elevated likelihood for ADHD. </t>
   </si>
   <si>
     <t>King’s College London; Birkbeck, University of London</t>
@@ -636,8 +639,7 @@
 &lt;br&gt;&lt;br&gt;
 Infants were identified as being at EL if they had at least one older sibling with a community clinical diagnosis of autism, which was confirmed based on parent report using the Development and Wellbeing Assessment (DAWBA; Goodman et al., 2000), the Social Communication Questionnaire (SCQ; Berument et al., 1999) or parent confirmed community clinical autism diagnosis. Infants were identified as being at typical likelihood (TL) if they had at least one older sibling with typical development and no known autism in first-degree family members (as confirmed through parent interviews regarding family medical history). In phase 3, children were recruited and identified as being at EL for ADHD if they had either an older sibling or a parent with a diagnosis of ADHD,  confirmed through parent report using the Conner's Parent Rating Scale, and Conner's Adult. 
 &lt;br&gt;&lt;br&gt;
-Cohort members have been assessed at approximately 1, 5, 8, 14, 24, and 36 months, before being followed up during mid-childhood at approximately age 7 to 11 years. The follow up of children at mid-childhood in phase 1 is known as ‘BASIS-7’, whilst follow up for phases 2 and 3 is known as ‘SuperSTAARS’. Participants are administered a range of experimental, behavioural and cognitive tasks and interactive assessments of autistic symptomatology. Parents also complete a range of questionnaires and interviews relating to different aspects of early development. Phase 1 data collection ran from 2006-2015, phase 2 from 2009-2022, and phase 3 from 2013-2023. 
-</t>
+Cohort members have been assessed at approximately 1, 5, 8, 14, 24, and 36 months, before being followed up during mid-childhood at approximately age 7 to 11 years. The follow up of children at mid-childhood in phase 1 is known as ‘BASIS-7’, whilst follow up for phases 2 and 3 is known as ‘SuperSTAARS’. Participants are administered a range of experimental, behavioural and cognitive tasks and interactive assessments of autistic symptomatology. Parents also complete a range of questionnaires and interviews relating to different aspects of early development. Phase 1 data collection ran from 2006-2015, phase 2 from 2009-2022, and phase 3 from 2013-2023. </t>
   </si>
   <si>
     <t xml:space="preserve">Phase 1: 104&lt;br&gt;
@@ -654,7 +656,7 @@
     <t>Birth (from prenatal to early infancy)</t>
   </si>
   <si>
-    <t>Project proposal - see data access guidance &lt;a href="https://www.basisnetwork.org/basis-strategies-and-policies/"&gt;https://www.basisnetwork.org/basis-strategies-and-policies/&lt;/a&gt;</t>
+    <t>Project proposal - see data access guidance &lt;a href="https://www.basisnetwork.org/collaboration-and-project-affiliation/index.html"&gt;basisnetwork.org/collaboration-and-project-affiliation/index.html&lt;/a&gt;</t>
   </si>
   <si>
     <t>Phase 1: Infant neural sensitivity to eye gaze is associated with later emerging autism.
@@ -711,7 +713,9 @@
     <t>8,581 (2018 - Age 47)</t>
   </si>
   <si>
-    <t xml:space="preserve">UK Data Service &lt;br&gt; &lt;a href="https://cls.ucl.ac.uk/data-access-training/access-ukds/"&gt;https://cls.ucl.ac.uk/data-access-training/access-ukds/&lt;/a&gt; </t>
+    <t>Data request - see data access guidance &lt;a href="https://cls.ucl.ac.uk/data-access-training/access-ukds/"&gt;cls.ucl.ac.uk/data-access-training/access-ukds/&lt;/a&gt; &lt;br&gt;&lt;br&gt;
+UK Data Service &lt;br&gt; 
+&lt;a href="https://beta.ukdataservice.ac.uk/datacatalogue/series/series?id=200001"&gt;beta.ukdataservice.ac.uk/datacatalogue/series/series?id=200001&lt;/a&gt;</t>
   </si>
   <si>
     <t>Health data,
@@ -773,7 +777,7 @@
     <t>Born in Bradford (BiB)</t>
   </si>
   <si>
-    <t xml:space="preserve">Born in Bradford is a large birth cohort study based at Bradford Royal Infirmary, a hospital in the city of Bradford, West Yorkshire. The study was established in 2007 to examine how genetic, nutritional, environmental, behavioural and social factors impact on health and development during childhood, and subsequently adult life in a deprived multi-ethnic population. </t>
+    <t xml:space="preserve">Born in Bradford (BiB) is a large birth cohort study based at Bradford Royal Infirmary, a hospital in the city of Bradford, West Yorkshire. The study was established in 2007 to examine how genetic, nutritional, environmental, behavioural and social factors impact on health and development during childhood, and subsequently adult life in a deprived multi-ethnic population. </t>
   </si>
   <si>
     <t>National Health Service (NHS)</t>
@@ -860,7 +864,7 @@
   <si>
     <t xml:space="preserve">The BiBBS study's sample size is aimed to be 5,000 pregnancies and children born of these pregnancies, with recruitment ongoing from January 2016-2024 from the three BSB areas. The BSB areas are very ethnically diverse, have higher rates of mortality and  morbidity, infant mortality, obesity and poor oral health compared with Bradford district and England. All pregnant women living in BSB areas who are registered to give birth at Bradford Teaching Hospitals NHS Foundation Trust (BTHFT) will be eligible for recruitment. The BTHFT is the only maternity unit covering this area. All babies born to women who have consented to participate in the cohort study will be included in the cohort. The partners of the women who have consented to take part will also be invited to participate. 
 &lt;br&gt;&lt;br&gt;
-A system has been developed to flag all women living in the BSB areas on the electronic maternity system. When women attend their first appointment (around 10–12 weeks gestation), the BSB flag will prompt midwives to provide women with information on BSB and the BiBBS cohort study and obtain verbal assent to data sharing with the BiBBS research team. Researchers will identify eligible women who have provided assent to data sharing, and will approach women during the GTT clinic or other appointment to invite them to participate in the cohort. </t>
+A system has been developed to flag all women living in the BSB areas on the electronic maternity system. When women attend their first appointment (around 10–12 weeks' gestation), the BSB flag will prompt midwives to provide women with information on BSB and the BiBBS cohort study and obtain verbal assent to data sharing with the BiBBS research team. Researchers will identify eligible women who have provided assent to data sharing, and will approach women during the GTT clinic or other appointment to invite them to participate in the cohort. </t>
   </si>
   <si>
     <t>Expected: 4,930 babies, 4,440 mothers and 1,125 of their mothers' partners (Dickerson et al. 2016). Recruitment is ongoing.</t>
@@ -869,15 +873,17 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>2016-20</t>
-  </si>
-  <si>
-    <t>Baseline data collection is ongoing &lt;br&gt;
-&lt;a href="https://borninbradford.nhs.uk/what-we-do/pregnancy-early-years/better-start/"&gt;borninbradford.nhs.uk/what-we-do/pregnancy-early-years/better-start&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Born in Bradford’s Better Start: an experimental birth cohort study to evaluate the impact of early life interventions.&lt;br&gt;
-&lt;a href="https://doi.org/10.1186/s12889-016-3318-0"&gt;doi.org/10.1186/s12889-016-3318-0&lt;/a&gt; </t>
+    <t>2016-2023</t>
+  </si>
+  <si>
+    <t>BiBBS data are available through a system of managed open access, contact the study team at borninbradford@bthft.nhs.uk with an expression of interest. More information can be found at &lt;a href="https://borninbradford.nhs.uk/research/how-to-access-data/"&gt;borninbradford.nhs.uk/research/how-to-access-data/&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Born in Bradford’s Better Start: an experimental birth cohort study to evaluate the impact of early life interventions.&lt;br&gt;
+&lt;a href="https://doi.org/10.1186/s12889-016-3318-0"&gt;doi.org/10.1186/s12889-016-3318-0&lt;/a&gt; 
+&lt;br&gt;
+Born in Bradford’s Better Start (BiBBS) interventional birth cohort study: Interim cohort profile &lt;br&gt;
+&lt;a href="https://doi.org/10.12688/wellcomeopenres.18394.2"&gt;doi.org/10.12688/wellcomeopenres.18394.2&lt;/a&gt;</t>
   </si>
   <si>
     <t>BLF</t>
@@ -904,7 +910,7 @@
     <t>UK Biobank</t>
   </si>
   <si>
-    <t xml:space="preserve">A community-based cohort study comprised of 500,000 volunteers aged between 40-69 years in 2006-2010 from across the United Kingdom. Participants have undergone measures, provided blood, urine and saliva samples, detailed information about themselves and agreed to have their health followed. The study aims to improve the prevention, diagnosis and treatment of a wide range of serious and life-threatening illnesses including cancer, heart disease, stroke, diabetes, arthritis, osteoporosis, eye disorders, depression and forms of dementia. </t>
+    <t xml:space="preserve">The UK Biobank is a community-based cohort study comprised of 500,000 volunteers aged between 40-69 years in 2006-2010 from across the United Kingdom. Participants have undergone measures, provided blood, urine and saliva samples, detailed information about themselves and agreed to have their health followed. The study aims to improve the prevention, diagnosis and treatment of a wide range of serious and life-threatening illnesses including cancer, heart disease, stroke, diabetes, arthritis, osteoporosis, eye disorders, depression and forms of dementia. </t>
   </si>
   <si>
     <t>&lt;a href="https://www.ukbiobank.ac.uk/"&gt;ukbiobank.ac.uk&lt;/a&gt;</t>
@@ -985,7 +991,7 @@
     <t>Cognitive Function and Ageing Study II (CFAS II)</t>
   </si>
   <si>
-    <t>Since the baseline of MRC CFAS there has been an increase in life expectancy, changes in major chronic disease and potentially advances in symptomatic treatments for Alzheimer’s disease and other dementias. CFAS II builds upon the design and infrastructure of MRC to investigate the implications of changes in morbidity and frailty on health itself, as well as the use of services and expenditure in health and social care on future. It also provides important baseline information on older people aged 65-84 in 2008-2011 who will reach the age of greatest frailty during the 2020’s, when the peak in the number of people aged 85 or over is expected and at a time when major therapeutic interventions for dementia could be expected to have an effect.</t>
+    <t>The Cognitive Function and Ageing Study II (CFAS II) builds upon the design and infrastructure of the MRC CFAS to investigate the implications of changes in morbidity and frailty on health itself, as well as the use of services and expenditure in health and social care on future. The study was established since following the baseline of MRC CFAS, there has been an increase in life expectancy, changes in major chronic disease and potentially advances in symptomatic treatments for Alzheimer’s disease and other dementias. CFAS II also provides important baseline information on older people aged 65-84 in 2008-2011 who will reach the age of greatest frailty during the 2020’s, when the peak in the number of people aged 85 or over is expected and at a time when major therapeutic interventions for dementia could be expected to have an effect.</t>
   </si>
   <si>
     <t>Department of Public Health and Primary Care, University of Cambridge</t>
@@ -1001,7 +1007,7 @@
   </si>
   <si>
     <t>5,288 (2013 - Wave 2)&lt;br&gt;
-650 (original cohort members) (2021 - Covid-19)</t>
+650 original cohort members (2021 - Covid-19)</t>
   </si>
   <si>
     <t>65 years +</t>
@@ -1037,13 +1043,17 @@
 Social care - need</t>
   </si>
   <si>
+    <t>5,288 (2013 - Wave 2)&lt;br&gt;
+650 (original cohort members) (2021 - Covid-19)</t>
+  </si>
+  <si>
     <t>CFAS_MRC</t>
   </si>
   <si>
     <t>MRC Cognitive Function and Ageing Study (MRC CFAS)</t>
   </si>
   <si>
-    <t xml:space="preserve">MRC CFAS began in the late 1980s with the initial aim of investigating dementia and cognitive decline in a representative sample of more than 18,000 people aged over 65 years. The study primarily aimed to find out how common dementia and associated conditions are in England and Wales and also, how many new cases of dementia develop each year. The range of information collected in the interviews has also allowed the study to also investigate depression and physical disability in the older population in addition to looking at healthy active life expectancy. MRC CFAS ran from 1989 – 2011. 
+    <t xml:space="preserve">The MRC Cognitive Function and Ageing Study (MRC CFAS) began in the late 1980s with the initial aim of investigating dementia and cognitive decline in a representative sample of more than 18,000 people aged over 65 years. The study primarily aimed to find out how common dementia and associated conditions are in England and Wales and also, how many new cases of dementia develop each year. The range of information collected in the interviews has also allowed the study to also investigate depression and physical disability in the older population in addition to looking at healthy active life expectancy. MRC CFAS ran from 1989 – 2011. 
 Having provided estimations of dementia occurrence for the UK, CFAS was increasingly asked to provide evidence on generational change in dementia, cognition and life expectancy by the government and the public, leading to its daughter studies, CFAS II &amp; CFAS Wales. </t>
   </si>
   <si>
@@ -1056,7 +1066,11 @@
     <t>Random samples of people in their 65th year and above were obtained from Family Health Service Authority lists from each centre. The sample was stratified by age group (65-74 years and 75 years and over) and equal numbers were randomly selected from each age group to produce an overall sample size of approximately 2500 people in each of the areas.</t>
   </si>
   <si>
-    <t>905 (Assessment interview)</t>
+    <t>13,004 MRC CFAS
+5,222 MRC ALPHA</t>
+  </si>
+  <si>
+    <t>905 (assessment interview)</t>
   </si>
   <si>
     <t>Before 1924</t>
@@ -1091,13 +1105,19 @@
     <t>England, Wales, Local area</t>
   </si>
   <si>
+    <t>905 (Assessment interview)</t>
+  </si>
+  <si>
     <t>CFAS_Wales</t>
   </si>
   <si>
     <t>Cognitive Function and Ageing Study Wales (CFAS Wales)</t>
   </si>
   <si>
-    <t>CFAS Wales is a longitudinal study looking at health and cognitive function in older people living in Wales. The study builds on the design and infrastructure of the Cognitive Function and Ageing Study collaboration (CFAS) exploring biomarkers and other early indications of risk of cognitive decline, such as imaging. It also investigates factors that may delay the onset of dementia, specifically focussing on the role of bilingualism and social networks and allow a more in-depth examination of rural-urban variations, which have been markedly unexplained in previous studies.</t>
+    <t>The Cognitive Function and Ageing Study Wales (CFAS Wales) is a longitudinal study looking at health and cognitive function in older people living in Wales. The study builds on the design and infrastructure of the Cognitive Function and Ageing Study collaboration (CFAS) exploring biomarkers and other early indications of risk of cognitive decline, such as imaging. It also investigates factors that may delay the onset of dementia, specifically focussing on the role of bilingualism and social networks and allow a more in-depth examination of rural-urban variations, which have been markedly unexplained in previous studies.</t>
+  </si>
+  <si>
+    <t>Bangor University; Swansea University; Department of Public Health and Primary Care, University of Cambridge</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;a href="http://www.cfas.ac.uk/"&gt;cfas.ac.uk&lt;/a&gt;&lt;br&gt;
@@ -1113,7 +1133,7 @@
     <t xml:space="preserve">A population based sample from each site, born before 1944 were drawn from general practice records, with 50% of the individuals being from each of the age groups 65-74 and 75 years and over. Individuals ascertained from GP records received a letter from the GP followed by personal approach by interviewers. </t>
   </si>
   <si>
-    <t>1,498 (2015 - Wave 2)</t>
+    <t>2,237 (2015 - Wave 2)</t>
   </si>
   <si>
     <t>Before 1944</t>
@@ -1131,6 +1151,9 @@
   </si>
   <si>
     <t>Wales, Local area</t>
+  </si>
+  <si>
+    <t>1,498 (2015 - Wave 2)</t>
   </si>
   <si>
     <t>CSDD</t>
@@ -1169,7 +1192,7 @@
     <t>1952-54</t>
   </si>
   <si>
-    <t>Contact David Farringdon by emailing dpf1@cam.ac.uk to express an interest in accessing the data</t>
+    <t xml:space="preserve">Data collected from age 8 to 25 is available through the National Archive of Criminal Justice Data &lt;br&gt; &lt;a href="https://www.icpsr.umich.edu/web/NACJD/studies/8488/versions/V2"&gt;icpsr.umich.edu/web/NACJD/studies/8488/versions/V2&lt;/a&gt; </t>
   </si>
   <si>
     <t>Health data,
@@ -1215,7 +1238,7 @@
     <t>Determinants of Adolescent Social Wellbeing &amp; Health (DASH)</t>
   </si>
   <si>
-    <t>DASH is a study of a multi-ethnic adolescent cohort in inner-London investigating social and biological influences on ethnic differences in health and wellbeing in adolescence. The study aims to provide insights into the long term impact of these exposures in adolescence and the patterning of ethnic differences in health and wellbeing later in life.</t>
+    <t>The Determinants of Adolescent Social Wellbeing &amp; Health (DASH) study is a multi-ethnic adolescent cohort study in inner-London investigating social and biological influences on ethnic differences in health and wellbeing in adolescence. The study aims to provide insights into the long term impact of these exposures in adolescence and the patterning of ethnic differences in health and wellbeing later in life.</t>
   </si>
   <si>
     <t>MRC Social &amp; Public Health Sciences Unit, University of Glasgow &amp; King's College London</t>
@@ -1227,7 +1250,7 @@
     <t>London</t>
   </si>
   <si>
-    <t>2002-03</t>
+    <t>2002-2003</t>
   </si>
   <si>
     <t>DASH recruited over 6,500 pupils from 51 schools across 10 inner London boroughs. Pupils were aged 11-13 years old at the start of the study. DASH was designed to have a sizeable number of respondents from the major ethnic minority groups, and in particular has a significant sub-sample of students of African origin, allowing for comparisons between African nationalities.</t>
@@ -1283,7 +1306,7 @@
     <t xml:space="preserve">&lt;a href="https://www.elsa-project.ac.uk"&gt;elsa-project.ac.uk&lt;/a&gt; </t>
   </si>
   <si>
-    <t>Cohort Survey (Replenished); Ageing cohort</t>
+    <t>Cohort study (Replenished); Ageing cohort</t>
   </si>
   <si>
     <t>Sample members are drawn from respondents to the Health Survey for England (HSE). Around 12,000 respondents from three separate years of the HSE survey were recruited to provide a representative sample of the English population aged 50 and over and their partners. At waves 3, 4, 6, 7, 9 and 10 the study was replenished with new study participants (refreshments) from HSE to maintain the size and representativeness of the panel. Two waves of data were also collected during the Covid-19 pandemic in 2020.</t>
@@ -1292,14 +1315,15 @@
     <t>12,100 individuals</t>
   </si>
   <si>
-    <t xml:space="preserve">7,242 (wave 10)
-</t>
-  </si>
-  <si>
-    <t>50+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UK Data Service &lt;br&gt; &lt;a href="https://www.elsa-project.ac.uk/accessing-elsa-data"&gt;https://www.elsa-project.ac.uk/accessing-elsa-data&lt;/a&gt; </t>
+    <t>7,242 (2023 - Wave 10)</t>
+  </si>
+  <si>
+    <t>50 years +</t>
+  </si>
+  <si>
+    <t>Data request - see data access guidance &lt;a href="https://www.elsa-project.ac.uk/accessing-elsa-data"&gt;https://www.elsa-project.ac.uk/accessing-elsa-data&lt;/a&gt; &lt;br&gt;&lt;br&gt;
+UK Data Service &lt;br&gt;
+&lt;a href="https://beta.ukdataservice.ac.uk/datacatalogue/series/series?id=200011"&gt;beta.ukdataservice.ac.uk/datacatalogue/series/series?id=200011&lt;/a&gt;</t>
   </si>
   <si>
     <t>Environmental data,
@@ -1351,13 +1375,18 @@
 href="https://web.www.healthdatagateway.org/dataset/f12cb023-1402-49d1-aa27-e0fe4ed19fd7"&gt;https://web.www.healthdatagateway.org/dataset/f12cb023-1402-49d1-aa27-e0fe4ed19fd7&lt;/a&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">7,242 (wave 10)
+</t>
+  </si>
+  <si>
     <t>EPAD</t>
   </si>
   <si>
-    <t>The Cardiff University Mood and Wellbeing Study</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Cardiff University Mood and Wellbeing Study is a longitudinal study aiming to improve the understanding of the causes of mental health problems. Also known as the Early Prediction of Adolescent Depression (EPAD), researchers aimed to follow families where an individual had been affected by low mood. </t>
+    <t>Early Prediction of Adolescent Depression (EPAD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Early Prediction of Adolescent Depression (EPAD) Study  is a prospective, longitudinal cohort of recurrently depressed parents and their offspring. By tracking families over a decade and documenting their experiences, the study offers in-depth insights into the causes, impacts and resilience factors related to depression. This insight is used to develop evidence-based early intervention and support strategies, as well as to create predictive tools for mental health to ensure targeted support for those most in need. Overall, the study aims to inform national and international understanding and to support affected individuals and their families. &lt;br&gt;&lt;br&gt;
+The EPAD Study is also known as the Cardiff University Mood and Wellbeing Study. </t>
   </si>
   <si>
     <t>Cardiff University</t>
@@ -1366,13 +1395,13 @@
     <t xml:space="preserve">&lt;a href="https://www.cardiff.ac.uk/research/explore/find-a-project/view/the-cardiff-university-mood-and-wellbeing-study"&gt;www.cardiff.ac.uk/research/explore/find-a-project/view/the-cardiff-university-mood-and-wellbeing-study&lt;/a&gt;  </t>
   </si>
   <si>
-    <t>Families were mainly recruited grom general practices in South Wales. Parents were confirmed to have had at least two previous episodes of DSM-IV mejor depressive disorder. The youngest children between the ages of 9-17 were included in the study. All children were biologically related to and living with the parent. Children with serious physical illnesses, or IQ less than 50 were exluded. Parents with phychosis, bipolar disorder, or mania or hypomania were also excluded.</t>
-  </si>
-  <si>
-    <t>331 families</t>
-  </si>
-  <si>
-    <t>262 families</t>
+    <t xml:space="preserve">Families were mainly recruited from general practices in South Wales. Parents were screened over the telephone to confirm they met eligibility criteria for the study at the time of initial recruitment: had a history of at least two prior episodes of major depressive disorder and a biologically related child aged 9-17 years living at home with them. In cases where a parent had two eligible children, the youngest was selected to participate. Families were excluded if the child had a moderate to severe learning disability (IQ less than 50) or if the parent had bipolar disorder or a psychotic disorder at baseline. </t>
+  </si>
+  <si>
+    <t>337 families</t>
+  </si>
+  <si>
+    <t>197 families</t>
   </si>
   <si>
     <t>9-17 years</t>
@@ -1382,13 +1411,14 @@
 &lt;a href="https://www.cardiff.ac.uk/research/explore/find-a-project/view/the-cardiff-university-mood-and-wellbeing-study"&gt;www.cardiff.ac.uk/research/explore/find-a-project/view/the-cardiff-university-mood-and-wellbeing-study&lt;/a&gt;  </t>
   </si>
   <si>
-    <t>Also known as the Early Prediction of Adolescent Depression (EPAD)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;a href="https://doi.org/10.1016/S2215-0366(15)00358-2"&gt;doi.org/10.1016/S2215-0366(15)00358-2&lt;/a&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sir Jules Thorn Charitable Trust ESRC </t>
+    <t>Also known as the Cardiff University Mood and Wellbeing Study</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mental health resilience in the adolescent offspring of parents with depression: a prospective longitudinal study &lt;br&gt;
+&lt;a href="https://doi.org/10.1016/S2215-0366(15)00358-2"&gt;doi.org/10.1016/S2215-0366(15)00358-2&lt;/a&gt;  </t>
+  </si>
+  <si>
+    <t>Sir Jules Thorn Charitable Trust ESRC MRC BA BMA</t>
   </si>
   <si>
     <t>Diet and nutrition,
@@ -1403,13 +1433,16 @@
 Work and employment</t>
   </si>
   <si>
+    <t>262 families</t>
+  </si>
+  <si>
     <t>EQLS</t>
   </si>
   <si>
     <t>European Quality of Life Survey (EQLS)</t>
   </si>
   <si>
-    <t>The European Quality of Life Survey is a unique pan-European survey carried out every four years to examine the objective circumstances of European citizens' lives, and how they feel about those circumstances and their lives in general. It covers a range of subjects including employment, income, education, housing, family, health and work-life balance. It also looks at subjective topics, such as people's levels of happiness, how satisfied they are with their lives, and how they perceive the quality of their societies. By running the survey regularly, it has become possible to track key trends in the quality of people's lives over time using the EQLS.</t>
+    <t>The European Quality of Life Survey (EQLS) is a unique pan-European survey carried out every four years to examine the objective circumstances of European citizens' lives, and how they feel about those circumstances and their lives in general. It covers a range of subjects including employment, income, education, housing, family, health and work-life balance. It also looks at subjective topics, such as people's levels of happiness, how satisfied they are with their lives, and how they perceive the quality of their societies. By running the survey regularly, it has become possible to track key trends in the quality of people's lives over time using the EQLS.</t>
   </si>
   <si>
     <t>European Foundation for the Improvement of Living and Working Conditions (Eurofound)</t>
@@ -1427,7 +1460,7 @@
 For the EQLS 2016, a stratified, clustered, multi-stage sample design was used to select respondents. Random probability sampling procedures were used at all stages of sample selection for the project, and all members of the survey population had a known non-zero chance of being included in the sample. Depending on the availability of high-quality registers, sampling was carried out using individual-level, household-level and address-level registers or through enumeration using a random-walk approach. Country-level samples were stratified by region and degree of urbanisation. In each stratum, primary sampling units (PSUs) were randomly selected proportional to population size. Subsequently, a random sample of individuals or households was drawn in each PSU. Finally, unless individual-level registers were used, in each household the respondent was randomly selected. The sample was stratified by geo-administrative region and level of urbanisation.</t>
   </si>
   <si>
-    <t>1,000 (approx) - UK sample, EQLS 2003</t>
+    <t>1,000 (approx.) - UK sample, EQLS 2003</t>
   </si>
   <si>
     <t>1,304 (UK sample) (2016 - EQLS 4)&lt;br&gt;
@@ -1471,7 +1504,7 @@
     <t>Environmental Risk (E-Risk) Longitudinal Twin Study</t>
   </si>
   <si>
-    <t xml:space="preserve">E-Risk is a nationally representative twin cohort study that aims to build a knowledge about how environmental and genetic factors contribute to behaviours and the development of mental health problems from childhood through to young adulthood. Through the years, data have been collected about many different topics, including mental health, obesity, asthma, school performance, criminal offending, violence victimisation, neighbourhood conditions, the family environment, and also biomarkers to investigate inflammation, gene expression, epigenetic DNA methylation, telomeres, and neuropsychological functions. </t>
+    <t xml:space="preserve">Environmental Risk (E-Risk) Longitudinal Twin Study is a nationally representative twin cohort study that aims to build a knowledge about how environmental and genetic factors contribute to behaviours and the development of mental health problems from childhood through to young adulthood. Through the years, data have been collected about many different topics, including mental health, obesity, asthma, school performance, criminal offending, violence victimisation, neighbourhood conditions, the family environment, and also biomarkers to investigate inflammation, gene expression, epigenetic DNA methylation, telomeres, and neuropsychological functions. </t>
   </si>
   <si>
     <t xml:space="preserve">&lt;a href="http://eriskstudy.com/"&gt;eriskstudy.com&lt;/a&gt; </t>
@@ -1488,11 +1521,11 @@
     <t>2,232 individuals</t>
   </si>
   <si>
-    <t>2,066 (individuals) (2013 - 18 Years)</t>
-  </si>
-  <si>
-    <t>1.5 years - TEDS First Contact&lt;br&gt;
-5 years - E-Risk</t>
+    <t>2,066 individuals (2013 - 18 Years)</t>
+  </si>
+  <si>
+    <t>TEDS First Contact: 1.5 years&lt;br&gt;
+E-Risk: 5 years</t>
   </si>
   <si>
     <t>1994-95</t>
@@ -1546,9 +1579,13 @@
     <t>England, Wales, National</t>
   </si>
   <si>
-    <t>Genetic/genomic data,
+    <t>Linked administrative data,
+Genetic/genomic data,
 Mapping/spatial data,
 Observational/qualitative data</t>
+  </si>
+  <si>
+    <t>2,066 (individuals) (2013 - 18 Years)</t>
   </si>
   <si>
     <t>ESS</t>
@@ -1607,7 +1644,7 @@
     <t>The Edinburgh Study of Youth Transitions and Crime (ESYTC)</t>
   </si>
   <si>
-    <t>The Edinburgh Study of Youth Transitions and Crime is a prospective longitudinal cohort study aimed to examine criminal offending in young people by investigating the causes and consequences of young people’s involvement in crime and anti-social behaviour.&lt;br&gt;&lt;br&gt;
+    <t>The Edinburgh Study of Youth Transitions and Crime (ESYTC) is a prospective longitudinal cohort study aimed to examine criminal offending in young people by investigating the causes and consequences of young people’s involvement in crime and anti-social behaviour.&lt;br&gt;&lt;br&gt;
 The study follows a cohort of around 4,300 young people who started secondary school in the City of Edinburgh in the autumn of 1998. Data collection spans from their early adolescence (age 12) to adulthood (age 33) through self-report questionnaires as well as in-depth interviews with two cohort sub-samples at ages 24 and 35 years. The study also includes linked administrative data from official records, including education, social work, and criminal conviction records.</t>
   </si>
   <si>
@@ -1629,6 +1666,9 @@
   </si>
   <si>
     <t>4,098 (2012 - Phase 7)</t>
+  </si>
+  <si>
+    <t>12 years</t>
   </si>
   <si>
     <t>UK Data Service &lt;br&gt;
@@ -1684,12 +1724,11 @@
 Europe - 28 European Union Member States, the five candidate countries for EU membership (Albania, the former Yugoslav Republic of Macedonia, Montenegro, Serbia and Turkey) and Norway and Switzerland (EWCS 2015). </t>
   </si>
   <si>
-    <t xml:space="preserve">In each wave a new sample of the adult population is selected randomly for a face-to-face interview. In view of the growth of the EU and interest from the EFTA countries, the geographical coverage of the survey has expanded over time.
+    <t>In each wave a new sample of the adult population is selected randomly for a face-to-face interview. In view of the growth of the EU and interest from the EFTA countries, the geographical coverage of the survey has expanded over time.
 &lt;br&gt;&lt;br&gt;
 The target population for each survey consists of all persons aged 15 and above (for Bulgaria, Norway, Spain and the UK, this is anyone aged 16 and above) who are residents of the country and are employed or self-employed at the time of data collection. Those considered to be in employment are those who have worked for pay or profit for at least an hour in the week preceding the interview. For most countries, the target sample size is 1,000, but to reflect the larger workforce in bigger countries, the target was increased proportionately. 
 &lt;br&gt;&lt;br&gt;
-For the EWCS 2015, a stratified, multi-stage, random sampling method was used to select participants from the working population of each country. Depending on the availability of high-quality registers, sampling was carried out using individual-level, household-level and address-level registers, or through enumeration using a random-walk approach. Country-level samples were stratified by region and degree of urbanisation. In each stratum, primary sampling units (PSUs) were randomly selected proportional to size. Subsequently, a random sample of households was drawn in each PSU. Finally, unless individual-level registers were used, in each household the selected respondent was the person in work who would have their birthday next.
-</t>
+For the EWCS 2015, a stratified, multi-stage, random sampling method was used to select participants from the working population of each country. Depending on the availability of high-quality registers, sampling was carried out using individual-level, household-level and address-level registers, or through enumeration using a random-walk approach. Country-level samples were stratified by region and degree of urbanisation. In each stratum, primary sampling units (PSUs) were randomly selected proportional to size. Subsequently, a random sample of households was drawn in each PSU. Finally, unless individual-level registers were used, in each household the selected respondent was the person in work who would have their birthday next.</t>
   </si>
   <si>
     <t xml:space="preserve">1,000 (approx.) – UK sample, EWCS 1991
@@ -1779,7 +1818,7 @@
     <t>Generation Scotland: Scottish Family Health Study (GS:SFHS)</t>
   </si>
   <si>
-    <t>GS:SFHS is a family-based genetic epidemiology study with DNA and socio-demographic and clinical data from 24,000 volunteers across Scotland aged 18–98 years. The breadth and depth of phenotype information collected, participants’ mechanisms for linkage of all data to comprehensive routine health-care records, and ‘broad’ consent from participants to use their data and samples for a wide range of research were designed to maximize the power of the resource to identify, replicate or control for genetic factors associated with a wide spectrum of illnesses and risk factors, both now and in the future.</t>
+    <t>Generation Scotland: Scottish Family Health Study (GS:SFHS) is a family-based genetic epidemiology study with DNA and socio-demographic and clinical data from 24,000 volunteers across Scotland aged 18–98 years. The breadth and depth of phenotype information collected, participants’ mechanisms for linkage of all data to comprehensive routine health-care records, and ‘broad’ consent from participants to use their data and samples for a wide range of research were designed to maximize the power of the resource to identify, replicate or control for genetic factors associated with a wide spectrum of illnesses and risk factors, both now and in the future.</t>
   </si>
   <si>
     <t>University of Edinburgh</t>
@@ -1788,7 +1827,7 @@
     <t>&lt;a href="https://www.ed.ac.uk/generation-scotland"&gt;ed.ac.uk/generation-scotland&lt;/a&gt;</t>
   </si>
   <si>
-    <t>2006-10</t>
+    <t>2006-2010</t>
   </si>
   <si>
     <t>Potential participants were identified at random from those aged 18–65 years from the registered patient lists of collaborating general medical practices in the Glasgow and Tayside areas of Scotland, as well as in Ayrshire, Arran and Northeast Scotland. Individuals were invited to participate and also to identify at least one first-degree relative aged at least 18 years who would also participate. Besides recruitment by invitation, volunteers were welcomed if they met the criteria (&gt;18 years, with at least one first-degree relative who could participate). In total, 6,665 of invited participants completed appointments, along with an additional 1,288 individuals who volunteered without invitation, and 16,007 family members, giving a total of 23,960. &lt;br&gt;&lt;br&gt;
@@ -1802,7 +1841,7 @@
     <t>9,618 individuals (2019 - STRADL Phase 2)</t>
   </si>
   <si>
-    <t>18-100 years</t>
+    <t>18-98 years</t>
   </si>
   <si>
     <t>1909-92</t>
@@ -1873,17 +1912,17 @@
   </si>
   <si>
     <t>2,943 (2020 - BC1 Sweep 10)&lt;br&gt;
-2,669 (main sample)&lt;br&gt;
-274 (boost sample)</t>
+2,669 main sample&lt;br&gt;
+274 boost sample</t>
   </si>
   <si>
     <t>2004-05</t>
   </si>
   <si>
-    <t xml:space="preserve">UK Data Service &lt;br&gt;
-&lt;a href="https://growingupinscotland.org.uk/using-gus-data/accessing-gus-data/"&gt;growingupinscotland.org.uk/using-gus-data/accessing-gus-data/&lt;/a&gt;&lt;br&gt;
-&lt;a href="https://beta.ukdataservice.ac.uk/datacatalogue/series/series?id=200020#!/abstract"&gt;beta.ukdataservice.ac.uk/datacatalogue/series/series?id=200020#!&lt;/a&gt;
-</t>
+    <t xml:space="preserve">
+Data request - see data access guidance &lt;a href="https://growingupinscotland.org.uk/accessing-gus-data"&gt;growingupinscotland.org.uk/accessing-gus-data&lt;/a&gt;&lt;br&gt;&lt;br&gt;
+UK Data Service &lt;br&gt;
+&lt;a href="https://beta.ukdataservice.ac.uk/datacatalogue/series/series?id=200020#!/abstract"&gt;beta.ukdataservice.ac.uk/datacatalogue/series/series?id=200020#!&lt;/a&gt;</t>
   </si>
   <si>
     <t>Education data,
@@ -1922,6 +1961,11 @@
 Social care - need</t>
   </si>
   <si>
+    <t>2,943 (2020 - BC1 Sweep 10)&lt;br&gt;
+2,669 (main sample)&lt;br&gt;
+274 (boost sample)</t>
+  </si>
+  <si>
     <t>GUSBC2</t>
   </si>
   <si>
@@ -1931,7 +1975,7 @@
     <t>Growing Up in Scotland (GUS) is a longitudinal research study that tracks the lives of thousands of children and their families from the early years, through childhood and beyond. Launched in 2005, GUS has collected information on three nationally representative cohorts of children born in 2004-05 (Birth Cohort 1), 2002-03 (Child Cohort) and 2010-11 (Birth Cohort 2). &lt;b&gt;This page provides information about Birth Cohort 2 (BC2)&lt;/b&gt;. The main aim of the study is to provide new information to support policymaking in Scotland, but it is also intended to provide a resource for practitioners, academics, the voluntary sector and parents.</t>
   </si>
   <si>
-    <t>GUS comprises three cohorts of children: one child cohort and two birth cohorts. This page provides information about Birth Cohort 2. This cohort consists of around 6,000 children born between March 2010 and February 2011. who have been followed from when they were aged 10 months.&lt;br&gt;&lt;br&gt;
+    <t>GUS comprises three cohorts of children: one child cohort and two birth cohorts. This page provides information about Birth Cohort 2. This cohort consists of around 6,000 children born between March 2010 and February 2011, who have been followed from when they were aged 10 months.&lt;br&gt;&lt;br&gt;
 Nationally representative samples were achieved using a random sample of aggregated Data Zones, stratified by Local Authority Area and by Scottish Index of Multiple Deprivation. Families received a letter inviting them to take part in the study. In 2017 a further group of around 1,500 children born between June 2004 and May 2005 were recruited and invited to take part in interviews alongside Birth Cohort 1.</t>
   </si>
   <si>
@@ -1942,6 +1986,12 @@
   </si>
   <si>
     <t>2010-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UK Data Service &lt;br&gt;
+&lt;a href="https://growingupinscotland.org.uk/using-gus-data/accessing-gus-data/"&gt;growingupinscotland.org.uk/using-gus-data/accessing-gus-data/&lt;/a&gt;&lt;br&gt;
+&lt;a href="https://beta.ukdataservice.ac.uk/datacatalogue/series/series?id=200020#!/abstract"&gt;beta.ukdataservice.ac.uk/datacatalogue/series/series?id=200020#!&lt;/a&gt;
+</t>
   </si>
   <si>
     <t>Cognitive measures,
@@ -1985,6 +2035,9 @@
     <t>3 years</t>
   </si>
   <si>
+    <t>2002-03</t>
+  </si>
+  <si>
     <t>See &lt;a href="https://growingupinscotland.org.uk/publications"&gt;growingupinscotland.org.uk/publications&lt;/a&gt;</t>
   </si>
   <si>
@@ -2049,7 +2102,7 @@
   </si>
   <si>
     <t>Data request - contact study team&lt;br&gt;
-&lt;a href="https://www.mrc.soton.ac.uk/herts/contact/"&gt;mrc.soton.ac.uk/herts/contact&lt;/a&gt;</t>
+&lt;a href="https://generic.wordpress.soton.ac.uk/herts/contact/"&gt;generic.wordpress.soton.ac.uk/herts/contact/&lt;/a&gt;</t>
   </si>
   <si>
     <t>Cohort Profile: The Hertfordshire Cohort Study. &lt;br&gt;
@@ -2088,7 +2141,7 @@
     <t>Health and Employment After Fifty (HEAF)</t>
   </si>
   <si>
-    <t>HEAF is a prospective cohort study of adults in England aged 50 and over that aims to examine the relationship between extended working life and health and shed light on how to best to support the well-being of older workers. Main study questions focused on the impact of common health problems (especially musculoskeletal disorders) on work capability and participation; the social, occupational, personal and medical co-factors which influence vocational outcomes among older people, and the impact of job loss on physical and psychological health.</t>
+    <t>The Health and Employment After Fifty (HEAF) study is a prospective cohort study of adults in England aged 50 and over that aims to examine the relationship between extended working life and health and shed light on how to best to support the well-being of older workers. Main study questions focused on the impact of common health problems (especially musculoskeletal disorders) on work capability and participation; the social, occupational, personal and medical co-factors which influence vocational outcomes among older people, and the impact of job loss on physical and psychological health.</t>
   </si>
   <si>
     <t>University of Southampton</t>
@@ -2097,7 +2150,7 @@
     <t>&lt;a href="https://www.mrc.soton.ac.uk/heaf/"&gt;mrc.soton.ac.uk/heaf&lt;/a&gt;</t>
   </si>
   <si>
-    <t>2013-14</t>
+    <t>2013-2014</t>
   </si>
   <si>
     <t>Ageing cohort; Occupational cohort</t>
@@ -2118,7 +2171,7 @@
     <t>1948-62</t>
   </si>
   <si>
-    <t>Project proposal - contact study team &lt;br&gt; &lt;a href="https://www.mrc.soton.ac.uk/cmhw/southampton-hub/research-projects-led-by-the-southampton-hub/the-heaf-study/"&gt;https://www.mrc.soton.ac.uk/cmhw/southampton-hub/research-projects-led-by-the-southampton-hub/the-heaf-study/&lt;/a&gt;</t>
+    <t>Project proposal - contact study team</t>
   </si>
   <si>
     <t xml:space="preserve">Health and Employment after Fifty (HEAF): a new prospective cohort study. &lt;br&gt;
@@ -2238,6 +2291,62 @@
 Victimisation and life events</t>
   </si>
   <si>
+    <t>IMAGINE-ID</t>
+  </si>
+  <si>
+    <t>Intellectual Disability and Mental Health: Assessing the Genomic Impact on Neurodevelopment</t>
+  </si>
+  <si>
+    <t>The Intellectual Disability and Mental Health: Assessing the Genomic Impact on Neurodevelopment (IMAGINE ID) is a national longitudinal cohort study on the genetic causes of intellectual disability. The study aims to analyse how genetic changes affect children and young people's behaviour and to inform the care of families and children both now and in the future. &lt;br&gt;&lt;br&gt;
+IMAGINE ID encompasses IMAGINE-1 (2015-2020) and IMAGINE-2 (2020-2024), and follows two cohorts, one based in University College London and one based in Cardiff University.</t>
+  </si>
+  <si>
+    <t>University College London (UCL), Cardiff University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;a href="https://www.ucl.ac.uk/child-health/research/population-policy-and-practice-research-and-teaching-department/cenb-clinical-29"&gt;ucl.ac.uk/child-health/research/population-policy-and-practice-research-and-teaching-department/cenb-clinical-29&lt;/a&gt;  </t>
+  </si>
+  <si>
+    <t>Participants were between the ages of 4-19 years and had to meet the eligibility criteria. These criteria included: i) having an intellectual disability; ii) Having had had a diagnostic microarray by an accredited Regional Genetic Centre, or has had next-generation sequencing; iii) Having at least one Copy Number Variant or Single Nucleotide Variant reported as pathogenic; iv) Having a legal guardian available to consent and provide detailed medical and behavioural history. &lt;br&gt;&lt;br&gt;
+The UCL branch of the study follows 3,402 cohort members for longer while the Cardiff University branch follows 520 cohort members in greater depth.</t>
+  </si>
+  <si>
+    <t>3,402 (UCL sample) &lt;br&gt;
+520 (Cardiff University sample)</t>
+  </si>
+  <si>
+    <t>2,570 (UCL sample) &lt;br&gt;
+258 (Cardiff University sample)</t>
+  </si>
+  <si>
+    <t>4-19 years</t>
+  </si>
+  <si>
+    <t>Data request - contact study team
+&lt;a href="https://www.metadac.ac.uk/research-for-data-access-policy/"&gt;metadac.ac.uk/research-for-data-access-policy&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Health data,
+Education data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neuropsychiatric risk in children with intellectual disability of genetic origin: IMAGINE, a UK national cohort study. &lt;br&gt;
+&lt;a href="https://doi.org/10.1016/S2215-0366(22)00207-3"&gt;doi.org/10.1016/S2215-0366(22)00207-3&lt;/a&gt;&lt;br&gt;&lt;br&gt; 
+Genotype–phenotype associations in children with copy number variants associated with high neuropsychiatric risk in the UK (IMAGINE-ID): a case-control cohort study. &lt;br&gt;
+&lt;a href="https://doi.org/10.1016/S2215-0366(19)30123-3"&gt;doi.org/10.1016/S2215-0366(19)30123-3&lt;/a&gt;&lt;br&gt;&lt;br&gt; </t>
+  </si>
+  <si>
+    <t>Cognitive measures,
+Ethnicity and race,
+Migration and immigration,
+Parenting and family,
+Socioeconomic status and deprivation,
+Victimisation and life events</t>
+  </si>
+  <si>
+    <t>Cohort</t>
+  </si>
+  <si>
     <t>KCLMilitary</t>
   </si>
   <si>
@@ -2250,7 +2359,7 @@
     <t>King's Centre for Military Health Research (KCMHR), King's College London</t>
   </si>
   <si>
-    <t>&lt;a href="https://www.kcl.ac.uk/kcmhr/research/kcmhr/healthstudy"&gt;kcl.ac.uk/kcmhr/research/kcmhr/healthstudy&lt;/a&gt;</t>
+    <t>&lt;a href="https://www.kcl.ac.uk/research/health-and-wellbeing-cohort-study"&gt;kcl.ac.uk/research/health-and-wellbeing-cohort&lt;/a&gt;</t>
   </si>
   <si>
     <t>England, Scotland, Wales, Northern Ireland</t>
@@ -2300,7 +2409,7 @@
     <t>Lothian Birth Cohort 1921 (LBC1921)</t>
   </si>
   <si>
-    <t>The Lothian Birth Cohorts of 1921 and 1936 are follow-up studies of the Scottish Mental Surveys of 1932 and 1947. The surveys had, respectively, tested the intelligence of almost every child born in 1921 or 1936 and attending school in Scotland in those years. Therefore, tracing and re-testing people who had taken part in the Surveys much later in their lives offered a rare opportunity to examine the distribution and causes of cognitive ageing across most of the life course. The studies were initially set up to study the determinants of non-pathological cognitive ageing, rather than focussing principally on dementia or other pathological cognitive disorders. &lt;b&gt; This page provides information about the Lothian Birth Cohort 1921&lt;/b&gt;.</t>
+    <t>The Lothian Birth Cohorts (LBC) of 1921 and 1936 are follow-up studies of the Scottish Mental Surveys of 1932 and 1947. The surveys had, respectively, tested the intelligence of almost every child born in 1921 or 1936 and attending school in Scotland in those years. Therefore, tracing and re-testing people who had taken part in the Surveys much later in their lives offered a rare opportunity to examine the distribution and causes of cognitive ageing across most of the life course. The studies were initially set up to study the determinants of non-pathological cognitive ageing, rather than focussing principally on dementia or other pathological cognitive disorders. &lt;b&gt; This page provides information about LBC 1921&lt;/b&gt;.</t>
   </si>
   <si>
     <t>&lt;a href="https://www.ed.ac.uk/lothian-birth-cohorts/"&gt;ed.ac.uk/lothian-birth-cohorts&lt;/a&gt;</t>
@@ -2366,7 +2475,7 @@
     <t>Lothian Birth Cohort 1936 (LBC1936)</t>
   </si>
   <si>
-    <t>The Lothian Birth Cohorts of 1921 and 1936 are follow-up studies of the Scottish Mental Surveys of 1932 and 1947. The surveys had, respectively, tested the intelligence of almost every child born in 1921 or 1936 and attending school in Scotland in those years. Therefore, tracing and re-testing people who had taken part in the Surveys much later in their lives offered a rare opportunity to examine the distribution and causes of cognitive ageing across most of the life course. The studies were initially set up to study the determinants of non-pathological cognitive ageing, rather than focussing principally on dementia or other pathological cognitive disorders. &lt;b&gt; This page provides information about the Lothian Birth Cohort 1936&lt;/b&gt;.</t>
+    <t>The Lothian Birth Cohorts (LBC) of 1921 and 1936 are follow-up studies of the Scottish Mental Surveys of 1932 and 1947. The surveys had, respectively, tested the intelligence of almost every child born in 1921 or 1936 and attending school in Scotland in those years. Therefore, tracing and re-testing people who had taken part in the Surveys much later in their lives offered a rare opportunity to examine the distribution and causes of cognitive ageing across most of the life course. The studies were initially set up to study the determinants of non-pathological cognitive ageing, rather than focussing principally on dementia or other pathological cognitive disorders. &lt;b&gt; This page provides information about LBC 1936&lt;/b&gt;.</t>
   </si>
   <si>
     <t>The Scottish Mental Survey 1947 took place simultaneously across schools in Scotland on June 4, 1947, testing a total of 70,805 children aged 10/11. Between 2004 and 2007, individuals from Edinburgh and the Lothians who might have taken part in the 1947 Survey were invited to participate in the LBC1936. The Community Health Index (lists of individuals registered with a general practitioner) was used to identify 1936-born individuals, supplemented by media advertisements. In total, 1091 participants joined the LBC1936 and were assessed at Wave 1.</t>
@@ -2420,7 +2529,7 @@
     <t xml:space="preserve">Longitudinal Outcomes of Gender Identity in Children (LOGIC) </t>
   </si>
   <si>
-    <t xml:space="preserve">This study aims to investigate the outcomes of children and young people referred to the UK Gender Identity Development Service and the factors associated with these outcomes. Specifically, the study aims to establish: (1) the proportion of children and young people who experience ongoing gender dysphoria and access medical treatment; (2) factors that are associated with ongoing gender dysphoria and treatment choice; and (3) how (A) medical treatment, (B) social transition and (C) co-occurring autism impact physical health, well-being, quality of life, peer and family relationships and cost to the National Health Service (NHS) and other public services.  
+    <t xml:space="preserve">This Longitudinal Outcomes of Gender Identity in Children (LOGIC) study aims to investigate the outcomes of children and young people referred to the UK Gender Identity Development Service and the factors associated with these outcomes. Specifically, the study aims to establish: (1) the proportion of children and young people who experience ongoing gender dysphoria and access medical treatment; (2) factors that are associated with ongoing gender dysphoria and treatment choice; and (3) how (A) medical treatment, (B) social transition and (C) co-occurring autism impact physical health, well-being, quality of life, peer and family relationships and cost to the National Health Service (NHS) and other public services.  
 &lt;br&gt;&lt;br&gt;
 The study has recruited children, young people and parents/caregivers prior to being seen by the service and is committed to following them over time, regardless of whether families choose to remain in contact with clinical services or not. 
 &lt;br&gt;&lt;br&gt;
@@ -2499,6 +2608,9 @@
   </si>
   <si>
     <t>1989-90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UK Data Service &lt;br&gt; &lt;a href="https://cls.ucl.ac.uk/data-access-training/access-ukds/"&gt;https://cls.ucl.ac.uk/data-access-training/access-ukds/&lt;/a&gt; </t>
   </si>
   <si>
     <t>Education data,
@@ -2567,7 +2679,7 @@
 18,552 families</t>
   </si>
   <si>
-    <t>10,757 (Cohort members), 10,625 (families) (2019 - MCS7)</t>
+    <t>10,757 cohort members, 10,625 families (2019 - MCS7)</t>
   </si>
   <si>
     <t>Education data</t>
@@ -2622,6 +2734,9 @@
     <t>&lt;a href="https://web.www.healthdatagateway.org/dataset/2b09ea87-5b22-4049-b7dd-de0889699115"&gt;https://web.www.healthdatagateway.org/dataset/2b09ea87-5b22-4049-b7dd-de0889699115&lt;/a&gt;</t>
   </si>
   <si>
+    <t>10,757 (Cohort members), 10,625 (families) (2019 - MCS7)</t>
+  </si>
+  <si>
     <t>MHCYP</t>
   </si>
   <si>
@@ -2638,9 +2753,6 @@
   </si>
   <si>
     <t>England (all surveys), Scotland (1999, 2004), Wales (1999)</t>
-  </si>
-  <si>
-    <t>Repeated cross-sectional</t>
   </si>
   <si>
     <t xml:space="preserve">Each survey involved interviewing a large stratified probability sample of children and young people, and their parents and teachers. In the 2017 survey, children and young people were eligible if they were aged 2 to 19, they lived in England, and were registered with a GP. 
@@ -2654,7 +2766,7 @@
     <t>9,117 (2017 - MHCYP)</t>
   </si>
   <si>
-    <t>2 - 19 years (most recent survey)</t>
+    <t>2-19 years (most recent survey)</t>
   </si>
   <si>
     <t>UK Data Service &lt;br&gt;
@@ -2743,44 +2855,61 @@
     <t>The National Surveys of Sexual Attitudes and Lifestyles</t>
   </si>
   <si>
-    <t>The National Surveys of Sexual Attitudes and Lifestyles (NATSAL) aims to investigate sexual behaviour in Britain.  It is a repeated cross sectional study, with the objective of collecting data once every ten years. The project is intended to study a large representative sample of people who are living in the U.K., recruited with probability sampling, to understand more about their sexual behaviour, attitudes, health and wellbeing.</t>
-  </si>
-  <si>
-    <t>UCL, London School of Hygiene &amp; Tropical Medicine, NatCen Social Research</t>
+    <t>The National Surveys of Sexual Attitudes and Lifestyle (NATSAL) make up one of the world's largest studies on sexual behaviour. Initiated in 1990, NATSAL has been conducted every decade since, randomly selecting participants from across Britain, ensuring the findings reflect the broader British population. With over 45,000 participants, NATSAL employs face-to-face interviews conducted by trained interviewers in respondents' homes, utilising computer-assisted techniques alongside self-completion sections for sensitive topics. NATSAL has played a crucial role in informing public health policies, practices, and research by furnishing robust evidence. It has evolved into a globally respected authority in measuring the societal, behavioural, and biological dimensions of sexual health.
+As a series of longitudinal surveys, NATSAL offers a comprehensive understanding of the nation's sexual health landscape, tracking changes over time and across generations. Moreover, NATSAL informs major sexual health interventions and provides the necessary evidence base and facilitates the monitoring of their effectiveness.</t>
+  </si>
+  <si>
+    <t>University College London (UCL), &lt;br&gt;
+London School of Hygiene &amp; Tropical Medicine, &lt;br&gt;
+NatCen Social Research</t>
   </si>
   <si>
     <t>&lt;a href="https://www.natsal.ac.uk/"&gt;www.natsal.ac.uk&lt;/a&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Each wave of the study recruited their participants using probability sampling, to ensure that the study was nationally representative. A new sample is recruited every survey, thus ages vary between samples. However, the minimum age is always 16 years old.&lt;br&gt;&lt;br&gt;
-The first and third wave of the study (NATSAL-1, NATSAL-3) first employed a qualitative analysis to understand what the best way to ask the questions about sexual behaviour would be. The fourth wave of the study (NATSAL-4) involved two fieldwork pilots, which were delayed due to COVID-19. &lt;br&gt;&lt;br&gt;
+The first and third wave of the study (NATSAL 1, NATSAL 3) first employed a qualitative analysis to understand what the best way to ask the questions about sexual behaviour would be. The fourth wave of the study (NATSAL 4) involved two fieldwork pilots, which were delayed due to Covid-19. &lt;br&gt;&lt;br&gt;
 Participants are asked to complete a computer assisted personal interviewing questionnaire (CAPI), and a computer assisted self-interviewing questionnaire (CASI) at every wave. </t>
   </si>
   <si>
-    <t>NATSAL-1: 18,876&lt;br&gt;
-NATSAL-2: 12,110&lt;br&gt;
-NATSAL-3: 15,162
-NATSAL-COVID Study-1: 6,500</t>
+    <t>NATSAL 1: 18,876&lt;br&gt;
+NATSAL 2: 12,110&lt;br&gt;
+NATSAL 3: 15,162 &lt;br&gt;
+NATSAL 4 (COVID Study 1): 6,500</t>
+  </si>
+  <si>
+    <t>6,500 (2021 - NATSAL Covid Wave 2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sexual behaviour in Britain: partnerships, practices, and HIV risk behaviours 
+&lt;a href="https://doi.org/10.1016/S0140-6736(01)06883-0"&gt;doi.org/10.1016/S0140-6736(01)06883-04&lt;/a&gt; &lt;br&gt;
+Changes in sexual attitudes and lifestyles in Britain through the life course and over time: findings from the National Surveys of Sexual Attitudes and Lifestyles (Natsal) 
+&lt;a href="https://doi.org/10.1016/S0140-6736(13)62035-8"&gt;doi.org/10.1016/S0140-6736(13)62035-8&lt;/a&gt; &lt;br&gt; 
+Sexual behaviour in Britain: Early heterosexual experience 
+&lt;a href="https://doi.org/10.1016/s0140-6736(01)06885-4"&gt;doi.org/10.1016/s0140-6736(01)06885-4&lt;/a&gt; &lt;br&gt; </t>
+  </si>
+  <si>
+    <t>MRC Wellcome ESRC</t>
+  </si>
+  <si>
+    <t>Covid-19 data collection,
+Digital technology and social media,
+Education,
+Ethnicity and race,
+Housing,
+Loneliness and social isolation,
+Migration and immigration,
+Parenting and family,
+Political and social attitudes,
+Puberty,
+Reproductive health,
+Sexuality and gender identity,
+Socioeconomic status and deprivation,
+Victimisation and life events,
+Work and employment</t>
   </si>
   <si>
     <t>NATSAL-COVID Study-2: 6,500</t>
-  </si>
-  <si>
-    <t>UK Data Service &lt;a href="https://beta.ukdataservice.ac.uk/datacatalogue/studies/#!?Search=national%20survey%20of%20sexual%20attitudes%20and%20lifestyles&amp;amp;Rows=10&amp;amp;Sort=1&amp;amp;DateFrom=440&amp;amp;DateTo=2021&amp;amp;Page=1&amp;Page=1&amp;Rows=10&amp;Sort=1&amp;DateFrom=440&amp;DateTo=2023"&gt;beta.ukdataservice.ac.uk/datacatalogue/studies/#!?Search=national%20survey%20of%20sexual%20attitudes%20and%20lifestyles&amp;amp;Rows=10&amp;amp;Sort=1&amp;amp;DateFrom=440&amp;amp;DateTo=2021&amp;amp;Page=1&amp;Page=1&amp;Rows=10&amp;Sort=1&amp;DateFrom=440&amp;DateTo=2023&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sexual behaviour in Britain: partnerships, practices, and HIV risk behaviours &lt;br&gt;
-&lt;a href="https://doi.org/10.1016/S0140-6736(01)06883-0"&gt;doi.org/10.1016/S0140-6736(01)06883-04&lt;/a&gt; 
-Changes in sexual attitudes and lifestyles in Britain through the life course and over time: findings from the National Surveys of Sexual Attitudes and Lifestyles (Natsal) &lt;br&gt; 
-&lt;a href="https://doi.org/10.1016/S0140-6736(13)62035-8"&gt;doi.org/10.1016/S0140-6736(13)62035-8&lt;/a&gt; 
-Sexual behaviour in Britain: Early heterosexual experience &lt;br&gt; 
-&lt;a href="https://doi.org/10.1016/s0140-6736(01)06885-4"&gt;doi.org/10.1016/s0140-6736(01)06885-4&lt;/a&gt; </t>
-  </si>
-  <si>
-    <t>MRC Wellcome ESRC</t>
-  </si>
-  <si>
-    <t>Linked health data</t>
   </si>
   <si>
     <t>N85</t>
@@ -2819,7 +2948,7 @@
 &lt;a href="https://doi.org/10.1186/1471-2318-7-14"&gt;doi.org/10.1186/1471-2318-7-14&lt;/a&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">MRC BBSRC Dunhill NIHR </t>
+    <t>MRC BBSRC DMT NIHR BHF Unilever NewU Newcastle Primary Care Trust</t>
   </si>
   <si>
     <t>Biomarkers,
@@ -2842,7 +2971,7 @@
     <t>1958 National Child Development Study (NCDS)</t>
   </si>
   <si>
-    <t xml:space="preserve">The 1958 National Child Development Study is a multidisciplinary national longitudinal birth cohort study following the lives of over 17,000 people born in 1958. The study aims to improve understanding of the factors affecting human development over the whole lifespan. Follows histories of health, wealth, education, family and employment from early life with linked biomedical and examination performance data integrated into the study. </t>
+    <t xml:space="preserve">The 1958 National Child Development Study (NCDS) is a multidisciplinary national longitudinal birth cohort study following the lives of over 17,000 people born in 1958. The study aims to improve understanding of the factors affecting human development over the whole lifespan. Follows histories of health, wealth, education, family and employment from early life with linked biomedical and examination performance data integrated into the study. </t>
   </si>
   <si>
     <t xml:space="preserve">&lt;a href="https://cls.ucl.ac.uk/cls-studies/1958-national-child-development-study/"&gt;cls.ucl.ac.uk/cls-studies/1958-national-child-development-study&lt;/a&gt;  </t>
@@ -2855,7 +2984,7 @@
   </si>
   <si>
     <t>9,137 (2014 - NCDS9)&lt;br&gt;
-9,337 bio samples</t>
+9,337 with biological samples</t>
   </si>
   <si>
     <t>Environmental data,
@@ -2901,16 +3030,14 @@
 Social care - need</t>
   </si>
   <si>
-    <t>Linked administrative data,
-Genetic/genomic data,
-Mapping/spatial data,
-Observational/qualitative data</t>
-  </si>
-  <si>
     <t>&lt;a
 href="https://web.www.healthdatagateway.org/dataset/0ceaaedc-4904-4820-8b74-d6a8e679fb11"&gt;https://web.www.healthdatagateway.org/dataset/0ceaaedc-4904-4820-8b74-d6a8e679fb11&lt;/a&gt;</t>
   </si>
   <si>
+    <t>9,137 (2014 - NCDS9)&lt;br&gt;
+9,337 bio samples</t>
+  </si>
+  <si>
     <t>NICOLA</t>
   </si>
   <si>
@@ -2936,9 +3063,6 @@
     <t>6,152 (2019 - Wave 2)</t>
   </si>
   <si>
-    <t>50 years +</t>
-  </si>
-  <si>
     <t>1962 or earlier</t>
   </si>
   <si>
@@ -2946,7 +3070,8 @@
 &lt;a href="https://www.qub.ac.uk/sites/NICOLA/InformationforResearchers/"&gt;qub.ac.uk/sites/NICOLA/InformationforResearchers&lt;/a&gt;</t>
   </si>
   <si>
-    <t>Mortality data</t>
+    <t>Health data
+Mortality data</t>
   </si>
   <si>
     <t>NICOLA has been designed to maximise comparability with other well-established international longitudinal studies, in particular the English Longitudinal Study of Ageing (ELSA), the Irish Longitudinal Study on Ageing (TILDA) and the Health and Retirement Survey (HRS) in the United States.&lt;br&gt;&lt;br&gt;
@@ -2957,6 +3082,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
       <t>AtlPhil ESRC UKCRC_NI</t>
     </r>
     <r>
@@ -2966,7 +3097,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2976,7 +3106,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>CARDI OFMDFM_NI</t>
     </r>
@@ -2987,7 +3116,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2997,7 +3125,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t>HSC_RD Wellcome Wolfson</t>
     </r>
@@ -3008,7 +3135,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -3018,9 +3144,8 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
-      <t>QUB</t>
+      <t>QUB MRC</t>
     </r>
   </si>
   <si>
@@ -3064,10 +3189,10 @@
     <t>From an initial maternity survey of 13,687 of all births recorded in England, Scotland and Wales during one week of March, 1946, a class stratified sample of 5,362 singleton babies born to married parents was selected for follow-up. The sample was distributed geographically in proportion to the national population. The study population has not been augmented in any way and now aims to be as far as possible representative of single, native born individuals born to married mothers who are still resident in England, Wales, or Scotland; it cannot therefore be representative of immigrants.</t>
   </si>
   <si>
-    <t>2,648 (2014-16 Follow-Up)</t>
-  </si>
-  <si>
-    <t>Data request&lt;br&gt;
+    <t>2,648 (2016 - 2014-16 Follow-Up)</t>
+  </si>
+  <si>
+    <t>Data request - see data access guidance
 &lt;a href="https://skylark.ucl.ac.uk/NSHD/doku.php?id=nshd:data-access-requests"&gt;skylark.ucl.ac.uk/NSHD/doku.php?id=nshd:data-access-requests&lt;/a&gt;</t>
   </si>
   <si>
@@ -3114,13 +3239,16 @@
 href="https://web.www.healthdatagateway.org/dataset/a2017e30-5257-40ec-8bae-9b221724121e"&gt;https://web.www.healthdatagateway.org/dataset/a2017e30-5257-40ec-8bae-9b221724121e&lt;/a&gt;</t>
   </si>
   <si>
+    <t>2,648 (2014-16 Follow-Up)</t>
+  </si>
+  <si>
     <t>PROTECT</t>
   </si>
   <si>
     <t>The PROTECT Study (Platform for Research Online To Investigate Genetics and Cognition &amp; Ageing)</t>
   </si>
   <si>
-    <t>The PROTECT Study is an online-based study that aims to improve understanding of the ageing brain and why some people develop dementia. Participants in PROTECT provide information such as demographics and lifestyle and complete online assessments of cognitive abilities. By repeating these assessments each year, the study team are able to monitor change over the study. Participants also provide a sample of their DNA through a simple at-home kit.</t>
+    <t>The PROTECT Study is an online-based study via a Platform for Research Online To Investigate Genetics and Cognition &amp; Ageing. The study aims to improve understanding of the ageing brain and why some people develop dementia. Participants in PROTECT provide information such as demographics and lifestyle and complete online assessments of cognitive abilities. By repeating these assessments each year, the study team are able to monitor change over the study. Participants also provide a sample of their DNA through a simple at-home kit.</t>
   </si>
   <si>
     <t>University of Exeter Medical School &amp; Institute of Psychiatry, Psychology &amp; Neuroscience, King's College London</t>
@@ -3172,19 +3300,19 @@
     <t>Resilience, Ethnicity &amp; Adolescent Mental Health (REACH)</t>
   </si>
   <si>
-    <t xml:space="preserve">REACH aims to investigate the impact of social, psychological, and biological risk and protective factors on the occurrence and persistence of mental health problems over time in large, ethnically diverse cohorts of adolescents recruited from secondary schools in the London boroughs of Lambeth, Southwark and Croydon. The findings from this research will provide important information on how and when to intervene to improve mental health and wellbeing among young people during this critical period. </t>
+    <t xml:space="preserve">The Resilience, Ethnicity &amp; Adolescent Mental Health (REACH) study aims to investigate the impact of social, psychological, and biological risk and protective factors on the occurrence and persistence of mental health problems over time in large, ethnically diverse cohorts of adolescents recruited from secondary schools in the London boroughs of Lambeth, Southwark and Croydon. The findings from this research will provide important information on how and when to intervene to improve mental health and wellbeing among young people during this critical period. </t>
   </si>
   <si>
     <t>&lt;a href="https://www.thereachstudy.com/"&gt;thereachstudy.com&lt;/a&gt;</t>
   </si>
   <si>
-    <t>Accelerated Cohort study</t>
+    <t>Accelerated cohort study</t>
   </si>
   <si>
     <t xml:space="preserve">REACH has recruited and followed three cohorts of around 1,000 adolescents aged 11-12, 12-13, and 13-14 (around 3,000 participants in total) from around 12 secondary schools in the London boroughs of Lambeth and Southwark. All those who take part will complete a questionnaire at baseline, then again after one year (T2) and finally, after two years (T3) in class time. A sub-sample of around 180 from each cohort (total, around 540) were also recruited to complete more detailed interviews and assessments and provide biological samples at T1 and T2. </t>
   </si>
   <si>
-    <t>Approx 1,000</t>
+    <t>Approximately 1,000 participants</t>
   </si>
   <si>
     <t>4,000+ (2019 - Follow Up 2)</t>
@@ -3197,13 +3325,13 @@
   </si>
   <si>
     <t>Contact study team to express an interest in accessing the data &lt;br&gt;
-&lt;a href="https://www.thereachstudy.com/information-for-researchers.html"&gt;thereachstudy.com/information-for-researchers&lt;/a&gt;</t>
+&lt;a href="https://www.thereachstudy.com/contact-us.html"&gt;thereachstudy.com/contact-us.html&lt;/a&gt;</t>
   </si>
   <si>
     <t>See &lt;a href="https://www.thereachstudy.com/"&gt;thereachstudy.com&lt;/a&gt;</t>
   </si>
   <si>
-    <t>ERC</t>
+    <t>ERC UKRI ESRC</t>
   </si>
   <si>
     <t>Covid-19 data collection,
@@ -3224,9 +3352,6 @@
 Social care - need</t>
   </si>
   <si>
-    <t>Accelerated cohort study</t>
-  </si>
-  <si>
     <t>&lt;a
 href="https://web.www.healthdatagateway.org/dataset/0f754b8b-353e-4e8d-9ff0-03d5e0817e02"&gt;https://web.www.healthdatagateway.org/dataset/0f754b8b-353e-4e8d-9ff0-03d5e0817e02&lt;/a&gt;</t>
   </si>
@@ -3297,7 +3422,7 @@
     <t>Southall &amp; Brent Revisited (SABRE)</t>
   </si>
   <si>
-    <t xml:space="preserve">The Southall And Brent REvisited Study (SABRE) is the largest tri-ethnic population-based cohort in the UK, involving nearly 5000 European, Indian Asian and African Caribbean men and women. The study originally focused on the causes of diabetes and disorders of the heart and circulation, broadening this focus to include cognitive function in the follow up stages. The participants were aged 40-69 when first studied in the two Southall and Brent studies between 1989 and 1991. Over 2008-2011 participants were followed up in a comprehensive combined morbidity and mortality study. </t>
+    <t xml:space="preserve">The Southall And Brent Revisited Study (SABRE) is the largest tri-ethnic population-based cohort in the UK, involving nearly 5000 European, Indian Asian and African Caribbean men and women. The study originally focused on the causes of diabetes and disorders of the heart and circulation, broadening this focus to include cognitive function in the follow up stages. The participants were aged 40-69 when first studied in the two Southall and Brent studies between 1989 and 1991. Over 2008-2011 participants were followed up in a comprehensive combined morbidity and mortality study. </t>
   </si>
   <si>
     <t>Institute of Cardiovascular Science, University College London</t>
@@ -3372,11 +3497,13 @@
     <t>Greater London</t>
   </si>
   <si>
-    <t>Secondary school pupils from 39 eligible schools from within the Greater London area were invited to participate. Eligible schools were selected from the Department for Education’s register of educational establishments (EduBase) and from the January 2012 school census. Pupils completed computerised assessments at school, which were complemented by online questionnaires that could be completed in any environment by both and pupils and their parents.</t>
-  </si>
-  <si>
-    <t>5,023 (2015 - Wave 2)
-1328 (2020-2021 - Wave 3 and 4)</t>
+    <t>Secondary school pupils from 39 eligible schools from within the Greater London area were invited to participate. Eligible schools were selected from the Department for Education’s register of educational establishments (EduBase) and from the January 2012 school census. Pupils completed computerised assessments at school, which were complemented by online questionnaires that could be completed in any environment by both and pupils and their parents. The SCAMP cohort refers to 6,905 pupils in total.</t>
+  </si>
+  <si>
+    <t>6,616 (2014-2016 - Baseline asessment)</t>
+  </si>
+  <si>
+    <t>1,328 (2020-2021 - Wave 4)</t>
   </si>
   <si>
     <t>11-12 years</t>
@@ -3415,6 +3542,10 @@
 Sleep problems</t>
   </si>
   <si>
+    <t>5,023 (2015 - Wave 2)&lt;br&gt;
+1328 (2020-2021 - Wave 3 and 4)</t>
+  </si>
+  <si>
     <t>SELCoH</t>
   </si>
   <si>
@@ -3480,7 +3611,7 @@
     <t>Social and Economic Predictors of the Severe Mental Disorders Study (SEP-MD)</t>
   </si>
   <si>
-    <t>The SEP-MD Study is a large, linked cohort connecting individual data from the 2011 UK Census with clinical records from the South London &amp; Maudsley Trust and death registrations. The study aims to explore how neighbourhood and individual-level factors are related to mortality, in-patient admissions and long-term worklessness in people with severe mental health conditions. The study will also explore ethnic inequalities to deepen understanding of disparities in outcomes.</t>
+    <t>The Social and Economic Predictors of the Severe Mental Disorders Study (SEP-MD) is a large, linked cohort connecting individual data from the 2011 UK Census with clinical records from the South London &amp; Maudsley Trust and death registrations. SEP-MD aims to explore how neighbourhood and individual-level factors are related to mortality, in-patient admissions and long-term worklessness in people with severe mental health conditions. The study will also explore ethnic inequalities to deepen understanding of disparities in outcomes.</t>
   </si>
   <si>
     <t>&lt;a href="https://www.kcl.ac.uk/research/the-sep-md-data-linkage-study/"&gt;kcl.ac.uk/research/the-sep-md-data-linkage-study&lt;/a&gt;</t>
@@ -3550,11 +3681,11 @@
 2,567 babies</t>
   </si>
   <si>
-    <t>1,214 (Cohort members) (2014 - 8-9 Year Questionnaire)</t>
-  </si>
-  <si>
-    <t>20-34 years (women)
-Birth (babies)</t>
+    <t>1,214 cohort members (2014 - 8-9 Year Questionnaire)</t>
+  </si>
+  <si>
+    <t>Women: 20-34 years &lt;br&gt;
+Babies: Birth</t>
   </si>
   <si>
     <t>1964-82</t>
@@ -3613,16 +3744,21 @@
 Social care - need</t>
   </si>
   <si>
+    <t>1,214 (Cohort members) (2014 - 8-9 Year Questionnaire)</t>
+  </si>
+  <si>
     <t>TEDS</t>
   </si>
   <si>
     <t>Twins Early Development Study (TEDS)</t>
   </si>
   <si>
-    <t>The Twins Early Development Study aims to explore and gain greater understanding of how nature and nurture, our genes and our environment, influence learning abilities, cognitive abilities, and behaviour. In addition, the TEDS looks at how these abilities and behaviours relate to one another and change over time. The hope is that this research and the knowledge gained through it will go on to help us understand better the complexities of child and adolescent development and to inform and enable parents, teachers, policy makers and the general public to better manage and help with some of the challenges individuals face as they grow up.</t>
-  </si>
-  <si>
-    <t>&lt;a href="https://www.teds.ac.uk/"&gt;teds.ac.uk&lt;/a&gt;</t>
+    <t>The Twins Early Development Study (TEDS) aims to explore and gain greater understanding of how nature and nurture, our genes and our environment, influence learning abilities, cognitive abilities, and behaviour. In addition, the TEDS looks at how these abilities and behaviours relate to one another and change over time. The hope is that this research and the knowledge gained through it will go on to help us understand better the complexities of child and adolescent development and to inform and enable parents, teachers, policy makers and the general public to better manage and help with some of the challenges individuals face as they grow up.</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.teds.ac.uk/"&gt;teds.ac.uk&lt;/a&gt;
+&lt;br&gt;
+&lt;a href="https://www.teds.ac.uk/datadictionary/home.htm"&gt;.teds.ac.uk/datadictionary/&lt;/a&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">Twins born in England and Wales between January 1994 and December 1996 were identified through birth records. Twins’ parents were contacted on behalf of TEDS by the UK Office for National Statistics after screening for infant mortality. 16,810 parents of twins responded that they were interested in participating in TEDS, with almost 14,000 families providing data at first contact. Considerable effort has been expended in recruiting and retaining families such as extensive follow ups, sending certificates of enrolment, gifts, hand-written birthday cards, a yearly newsletter and a freephone line. Each year information is sought about friends and close relatives in order to facilitate tracing families who move house which happens frequently for families of twins.&lt;br&gt;&lt;br&gt;
@@ -3701,7 +3837,7 @@
     <t>Ongoing recruitment means that more than 15,000 twins over the age of 18 are now on the registry</t>
   </si>
   <si>
-    <t>5.364 (2022 - LCQ)&lt;br&gt;
+    <t>5,364 (2022 - LCQ)&lt;br&gt;
 15,000+ twins on the registry</t>
   </si>
   <si>
@@ -3775,7 +3911,8 @@
 Understanding Society is an annual survey. Each year, adult household members (age 16 or older) are interviewed and complete a self-completion questionnaire, whilst household members aged 10-15 years are asked to complete a short self-completion youth questionnaire. Children become eligible for a full interview once they reach the age of 16. Data is also collected on household members under the age of 10 from their parents or guardians. New household members at each wave are recruited to the study – detailed following rules are available in the UKHLS User Guide.</t>
   </si>
   <si>
-    <t>39,802 households (Wave 1 Understanding Society)</t>
+    <t>5,500 households (Wave 1 BHPS) &lt;br&gt;
+39,802 households (Wave 1 Understanding Society)</t>
   </si>
   <si>
     <t>21,161 (2022 - Wave 12)</t>
@@ -3796,7 +3933,7 @@
   <si>
     <t>Understanding Society: Design overview. &lt;br&gt;
 &lt;a href="http://dx.doi.org/10.14301/llcs.v3i1.159"&gt;doi.org/10.14301/llcs.v3i1.159&lt;/a&gt; &lt;br&gt;&lt;br&gt;
-&lt;a href="https://www.understandingsociety.ac.uk/documentation/mainstage/user-guide"&gt;User guides&lt;/a&gt; also available.</t>
+&lt;a href="https://www.understandingsociety.ac.uk/documentation/mainstage/user-guides/"&gt;User guides&lt;/a&gt; also available.</t>
   </si>
   <si>
     <t>ESRC DfWP DfT DoHSC DfE DCMS DCLG DEFRA Scot Welsh ONS FSA&lt;br&gt;
@@ -3859,13 +3996,13 @@
 Inter-partner psychological abuse reported by the women was used as the stratification variable because of its known association with a variety of risk factors for early development. All participants scoring above the threshold for psychological abuse towards themselves or their partners at 20 weeks gestation were eligible for inclusion in the intensive sample plus a random selection from those below the threshold. 51% of the intensive sample were drawn from the women with high psychosocial risk and 49% from those with low psychosocial risk.</t>
   </si>
   <si>
-    <t>1,233 infants</t>
-  </si>
-  <si>
-    <t>888 (Cohort members) (2020 - Phase 15)</t>
-  </si>
-  <si>
-    <t>Infants: 20 weeks gestation
+    <t>1,233 cohort members</t>
+  </si>
+  <si>
+    <t>888 cohort members (2020 - Phase 15)</t>
+  </si>
+  <si>
+    <t>Infants: 20 weeks gestation &lt;br&gt;
 Mothers: 18-51 years</t>
   </si>
   <si>
@@ -3873,12 +4010,20 @@
   </si>
   <si>
     <t>Project proposal - see data access guidance &lt;br&gt;
-&lt;a href="https://www.liverpool.ac.uk/media/livacuk/iphs/researchgroups/firststeps/WCHADS_Data_Access_Policy_v3_2018-10-15_FINAL.pdf"&gt;WCHADS Data Access Policy (pdf)&lt;/a&gt;&lt;br&gt;
+&lt;a href="https://www.liverpool.ac.uk/media/livacuk/iphs/researchgroups/firststeps/WCHADS_Data_Access_Policy_v3_2018-10-15_FINAL.pdf"&gt;WCHADS Data Access Policy (pdf)&lt;/a&gt;&lt;br&gt;&lt;br&gt;
 &lt;a href="https://www.liverpool.ac.uk/institute-of-life-and-human-sciences/schools-and-departments/department-of-psychological-sciences/research/first-steps/for-researchers/"&gt;liverpool.ac.uk/institute-of-life-and-human-sciences/schools-and-departments/department-of-psychological-sciences/research/first-steps/for-researchers/&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Education data,
+Environmental data,
+Health data</t>
   </si>
   <si>
     <t>Maternal antenatal anxiety, postnatal stroking and emotional problems in children: outcomes predicted from pre- and postnatal programming hypotheses. &lt;br&gt;
 &lt;a href="https://doi.org/10.1017/S0033291714001342"&gt;doi.org/10.1017/S0033291714001342&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>MRC NHS_CWP NIHR_HPRU ceidr Alder_Hey LHP ReadingUni TBA</t>
   </si>
   <si>
     <t>Covid-19 data collection,
@@ -3900,7 +4045,10 @@
   <si>
     <t>Linked administrative data,
 Genetic/genomic data,
-Observational/qualitative data,</t>
+Observational/qualitative data</t>
+  </si>
+  <si>
+    <t>888 (Cohort members) (2020 - Phase 15)</t>
   </si>
   <si>
     <t>Whitehall</t>
@@ -3924,9 +4072,7 @@
     <t>The target population for the Whitehall II study was all civil servants aged 35–55 years working in the London offices of 20 Whitehall departments in 1985–88. Members of the target population were invited to participate by letter. The achieved sample size was 10,308 people; 3413 women and 6895 men. The participants, who were from clerical and office support grades, middle-ranking executive grades, and senior administrative grades, differ widely in salary. Some have remained in the civil service. Many have retired, and others have taken employment elsewhere; some are unemployed. For more details see Marmot &amp; Brunner 2005.</t>
   </si>
   <si>
-    <t>6,318 (2013 - Phase 11)&lt;br&gt;
-5,632 (2016 - Phase 12)&lt;br&gt;
-4,307 (2022 - Phase 13)</t>
+    <t>4,307 (2022 - Phase 13)</t>
   </si>
   <si>
     <t>35-55 years</t>
@@ -3939,16 +4085,15 @@
 &lt;a href="https://portal.dementiasplatform.uk/Apply"&gt;portal.dementiasplatform.uk/Apply&lt;/a&gt;</t>
   </si>
   <si>
-    <t>Education data,
-Environmental data,
-Health data</t>
-  </si>
-  <si>
     <t>Also known as the Stress and Health Study</t>
   </si>
   <si>
     <t>Cohort Profile: The Whitehall II Study. &lt;br&gt;
 &lt;a href="https://doi.org/10.1093/ije/dyh372"&gt;doi.org/10.1093/ije/dyh372&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>MRC BHF NIA ESRC EU_flag ERC&lt;br&gt;
+National Heart, Lung &amp; Blood Institute</t>
   </si>
   <si>
     <t>Biomarkers,
@@ -3969,6 +4114,11 @@
 Social care - receipt,
 Social care - provision,
 Social care - need</t>
+  </si>
+  <si>
+    <t>6,318 (2013 - Phase 11)&lt;br&gt;
+5,632 (2016 - Phase 12)&lt;br&gt;
+4,307 (2022 - Phase 13)</t>
   </si>
   <si>
     <t>WOS</t>
@@ -4049,13 +4199,15 @@
     <t>COSMO</t>
   </si>
   <si>
-    <t>COVID Social Mobility &amp; Opportunities Study</t>
+    <t>COVID Social Mobility &amp; Opportunities Study (COSMO)</t>
   </si>
   <si>
     <t xml:space="preserve">The COVID Social Mobility &amp; Opportunities Study (COSMO) is a longitudinal youth cohort study that was initiated following the onset of the COVID-19 pandemic. The study is following the lives of over 13,000 young people in England who were in Year 11 during the 2020-21 academic year. The main aim of COSMO is to generate high-quality evidence for answering the question of how the pandemic affected socio-economic inequalities in life chances, including short-term educational attainment and wellbeing, and long-term educational and career outcomes. </t>
   </si>
   <si>
-    <t>The UCL Centre for Education Policy and Equalising Opportunities (CEPEO), the Sutton Trust &amp; the UCL Centre for Longitudinal Studies (CLS)</t>
+    <t>Centre for Education Policy and Equalising Opportunities (CEPEO), UCL; &lt;br&gt; 
+Sutton Trust; &lt;br&gt;
+Centre for Longitudinal Studies (CLS) - Institute of Education (IoE), UCL</t>
   </si>
   <si>
     <t>&lt;a href="https://cosmostudy.uk"&gt;cosmostudy.uk&lt;/a&gt;</t>
@@ -4101,34 +4253,78 @@
 Work and employment</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Covid-19 data collection,
-Digital technology and social media,
-Education,
+    <t>CRIS</t>
+  </si>
+  <si>
+    <t>Clinical Record Interactive Search (CRIS)</t>
+  </si>
+  <si>
+    <t>The Clinical Record Interactive Search (CRIS) system is a database and computer system that links administrative records of individuals who have accessed the South London and Maudsley (SLaM) NHS Foundation Trust, the largest provider of secondary mental healthcare in Europe, with other administrative data. &lt;br&gt;&lt;br&gt;
+This linkage generates a cohort with rich data and enables researchers at the NIHR Maudsley Biomedical Research Centre (BRC) to derive and analyse these data. To facilitate this, the CRIS team have also set up a Natural Language Processing (NLP) Service to support the use of free text responses in electronic health records to research.</t>
+  </si>
+  <si>
+    <t>NIHR Maudsley Biomedical Research Centre (BRC)</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://maudsleybrc.nihr.ac.uk/facilities/clinical-record-interactive-search-cris/"&gt;maudsleybrc.nihr.ac.uk/facilities/clinical-record-interactive-search-cris/&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>The sample captured in CRIS are individuals who have accessed the services of the South London and Maudsley (SLaM) NHS Foundation Trust in England. &lt;br&gt;&lt;br&gt;
+The CRIS database links their administrative records from the Hospital Episode Statistics (HES), the Office for National Statistics (ONS) Mortality, Lambeth DataNet (LDN), National Pupil Database (NPD), King's Health Partners, Early Lifecourse data Cross-Linkage in Research (eLIXIR), UK Census Data, National Cancer Registration and Analysis Service (NCRAS), Child and Family Court Advisory and Support Service (Cafcass), Department for Work and Pensions (DWP), HIV and AIDS Reporting System (HARS), and the Human Fertilisation and Embryology Authority (HFEA).</t>
+  </si>
+  <si>
+    <t>120,000 (at startup, 2008)</t>
+  </si>
+  <si>
+    <t>684,000 (as of March 2024)</t>
+  </si>
+  <si>
+    <t>Contact CRIS administrator for details and applications at cris.administrator@slam.nhs.uk</t>
+  </si>
+  <si>
+    <t>Health data
+Education data
+Crime and justice data
+Income/tax and benefits
+Mortality data</t>
+  </si>
+  <si>
+    <t>The South London and Maudsley NHS Foundation Trust Biomedical Research Centre (SLAM BRC) case register: development and descriptive data.&lt;br&gt; &lt;a href="https://doi.org/10.1186/1471-244X-9-51"&gt;doi.org/10.1186/1471-244X-9-51&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Education,
 Ethnicity and race,
 Housing,
-Loneliness and social isolation,
 Migration and immigration,
+Neighbourhood,
 Parenting and family,
-Political and social attitudes,
-Puberty,
+Physical health assessment,
 Reproductive health,
 Sexuality and gender identity,
+Social care - need, 
+Social care - receipt,
 Socioeconomic status and deprivation,
-Victimisation and life events,
-Work and employment,</t>
-  </si>
-  <si>
-    <t>MRC BHF NIA ESRC EU_flag ERC NIH_Heart_Lung_Blood</t>
+Work and employment</t>
+  </si>
+  <si>
+    <t>Patient and clinical cohort</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://web.www.healthdatagateway.org/dataset/a25a9892-9141-4e78-8415-945ba73da11e"&gt;healthdatagateway.org/dataset/a25a9892-9141-4e78-8415-945ba73da11e&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>UK Data Service &lt;br&gt; &lt;a href="https://beta.ukdataservice.ac.uk/datacatalogue/studies/study?id=3434#!/details"&gt;beta.ukdataservice.ac.uk/datacatalogue/studies/study?id=3434&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Linked administrative data,
+Observational/qualitative data</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -4184,12 +4380,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color rgb="FF444444"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -4209,14 +4399,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -4260,7 +4465,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -4306,12 +4511,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4420,45 +4634,75 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4547,9 +4791,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4587,7 +4831,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4693,7 +4937,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4835,7 +5079,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4843,13 +5087,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ88"/>
+  <dimension ref="A1:AMJ89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="S58" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="140" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="V35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="V1" sqref="V1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U58" sqref="U58"/>
+      <selection pane="bottomRight" activeCell="Z37" sqref="Z37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -4880,7 +5124,9 @@
     <col min="25" max="25" width="44" style="3" customWidth="1"/>
     <col min="26" max="26" width="24" style="4" customWidth="1"/>
     <col min="27" max="27" width="43.6640625" style="34" customWidth="1"/>
-    <col min="28" max="34" width="8.83203125" style="5"/>
+    <col min="28" max="28" width="8.83203125" style="5"/>
+    <col min="29" max="29" width="52.1640625" style="13" customWidth="1"/>
+    <col min="30" max="34" width="8.83203125" style="5"/>
     <col min="35" max="1023" width="8.83203125" style="6"/>
     <col min="1024" max="1024" width="9.1640625" style="6" customWidth="1"/>
     <col min="1025" max="16384" width="8.83203125" style="6"/>
@@ -4969,7 +5215,9 @@
         <v>26</v>
       </c>
       <c r="AB1" s="25"/>
-      <c r="AC1" s="25"/>
+      <c r="AC1" s="21" t="s">
+        <v>27</v>
+      </c>
       <c r="AD1" s="25"/>
       <c r="AE1" s="25"/>
       <c r="AF1" s="25"/>
@@ -4978,82 +5226,84 @@
     </row>
     <row r="2" spans="1:1024" s="11" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H2" s="2">
         <v>2015</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J2" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S2" s="2"/>
       <c r="T2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="X2" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Z2" s="4"/>
       <c r="AA2" s="34"/>
       <c r="AB2" s="5"/>
-      <c r="AC2" s="5"/>
+      <c r="AC2" s="13">
+        <v>20</v>
+      </c>
       <c r="AD2" s="5"/>
       <c r="AE2" s="5"/>
       <c r="AF2" s="5"/>
@@ -5063,84 +5313,86 @@
     </row>
     <row r="3" spans="1:1024" s="14" customFormat="1" ht="126.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H3" s="8">
         <v>2007</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S3" s="2"/>
       <c r="T3" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="W3" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="X3" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Z3" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AA3" s="33"/>
       <c r="AB3" s="8"/>
-      <c r="AC3" s="8"/>
+      <c r="AC3" s="13" t="s">
+        <v>59</v>
+      </c>
       <c r="AD3" s="8"/>
       <c r="AE3" s="8"/>
       <c r="AF3" s="8"/>
@@ -5150,86 +5402,88 @@
     </row>
     <row r="4" spans="1:1024" s="14" customFormat="1" ht="135.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H4" s="2">
         <v>2004</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K4" s="9">
         <v>53000</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S4" s="2"/>
       <c r="T4" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U4" s="36" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="W4" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="X4" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Z4" s="10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA4" s="35" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AB4" s="5"/>
-      <c r="AC4" s="5"/>
+      <c r="AC4" s="13" t="s">
+        <v>78</v>
+      </c>
       <c r="AD4" s="5"/>
       <c r="AE4" s="5"/>
       <c r="AF4" s="5"/>
@@ -5239,86 +5493,88 @@
     </row>
     <row r="5" spans="1:1024" s="2" customFormat="1" ht="110" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H5" s="8">
         <v>1990</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="P5" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="W5" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="L5" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="P5" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="W5" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="X5" s="4"/>
       <c r="Y5" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Z5" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AA5" s="34" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AB5" s="5"/>
-      <c r="AC5" s="5"/>
+      <c r="AC5" s="13" t="s">
+        <v>108</v>
+      </c>
       <c r="AD5" s="5"/>
       <c r="AE5" s="5"/>
       <c r="AF5" s="5"/>
@@ -5328,84 +5584,86 @@
     </row>
     <row r="6" spans="1:1024" s="14" customFormat="1" ht="247" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H6" s="8">
         <v>1993</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K6" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="W6" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="L6" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="V6" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="W6" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="X6" s="4"/>
       <c r="Y6" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Z6" s="10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AA6" s="34"/>
       <c r="AB6" s="5"/>
-      <c r="AC6" s="5"/>
+      <c r="AC6" s="13" t="s">
+        <v>117</v>
+      </c>
       <c r="AD6" s="5"/>
       <c r="AE6" s="5"/>
       <c r="AF6" s="5"/>
@@ -5415,82 +5673,84 @@
     </row>
     <row r="7" spans="1:1024" s="16" customFormat="1" ht="131" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L7" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S7" s="2"/>
       <c r="T7" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="V7" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="W7" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="X7" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Y7" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Z7" s="4"/>
       <c r="AA7" s="34"/>
       <c r="AB7" s="5"/>
-      <c r="AC7" s="5"/>
+      <c r="AC7" s="13" t="s">
+        <v>41</v>
+      </c>
       <c r="AD7" s="5"/>
       <c r="AE7" s="5"/>
       <c r="AF7" s="5"/>
@@ -5500,82 +5760,84 @@
     </row>
     <row r="8" spans="1:1024" s="14" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H8" s="2">
         <v>2006</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L8" s="13" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S8" s="2"/>
       <c r="T8" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="V8" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="W8" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="X8" s="4"/>
       <c r="Y8" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Z8" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AA8" s="34"/>
       <c r="AB8" s="5"/>
-      <c r="AC8" s="5"/>
+      <c r="AC8" s="13" t="s">
+        <v>148</v>
+      </c>
       <c r="AD8" s="5"/>
       <c r="AE8" s="5"/>
       <c r="AF8" s="5"/>
@@ -5585,86 +5847,88 @@
     </row>
     <row r="9" spans="1:1024" s="14" customFormat="1" ht="124" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H9" s="8">
         <v>1970</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L9" s="13" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O9" s="8">
         <v>1970</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="W9" s="10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="X9" s="10"/>
       <c r="Y9" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Z9" s="10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AA9" s="34" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AB9" s="2"/>
-      <c r="AC9" s="2"/>
+      <c r="AC9" s="13" t="s">
+        <v>163</v>
+      </c>
       <c r="AD9" s="2"/>
       <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
@@ -5674,86 +5938,88 @@
     </row>
     <row r="10" spans="1:1024" s="14" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H10" s="8">
         <v>2007</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L10" s="13" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="S10" s="2"/>
       <c r="T10" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="W10" s="10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="X10" s="10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Y10" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Z10" s="10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AA10" s="34" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AB10" s="2"/>
-      <c r="AC10" s="2"/>
+      <c r="AC10" s="13" t="s">
+        <v>180</v>
+      </c>
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
@@ -5763,84 +6029,86 @@
     </row>
     <row r="11" spans="1:1024" s="14" customFormat="1" ht="155" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H11" s="8">
         <v>2016</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L11" s="13" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O11" s="8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="S11" s="2"/>
       <c r="T11" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="V11" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="W11" s="10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="X11" s="10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Y11" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Z11" s="10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA11" s="34"/>
       <c r="AB11" s="2"/>
-      <c r="AC11" s="2"/>
+      <c r="AC11" s="13" t="s">
+        <v>195</v>
+      </c>
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
@@ -5850,86 +6118,88 @@
     </row>
     <row r="12" spans="1:1024" s="14" customFormat="1" ht="208" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C12" s="30" t="s">
+        <v>203</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>201</v>
-      </c>
       <c r="E12" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H12" s="8">
         <v>2006</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L12" s="13" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="O12" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="S12" s="2"/>
       <c r="T12" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="W12" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="X12" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Y12" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Z12" s="10" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AA12" s="35" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AB12" s="5"/>
-      <c r="AC12" s="5"/>
+      <c r="AC12" s="13" t="s">
+        <v>208</v>
+      </c>
       <c r="AD12" s="5"/>
       <c r="AE12" s="5"/>
       <c r="AF12" s="5"/>
@@ -5939,84 +6209,86 @@
     </row>
     <row r="13" spans="1:1024" s="14" customFormat="1" ht="142" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H13" s="8">
         <v>2008</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K13" s="13">
         <v>7762</v>
       </c>
       <c r="L13" s="13" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S13" s="2"/>
       <c r="T13" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="V13" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="W13" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="X13" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Y13" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Z13" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AA13" s="34"/>
       <c r="AB13" s="5"/>
-      <c r="AC13" s="5"/>
+      <c r="AC13" s="13" t="s">
+        <v>233</v>
+      </c>
       <c r="AD13" s="5"/>
       <c r="AE13" s="5"/>
       <c r="AF13" s="5"/>
@@ -6026,84 +6298,86 @@
     </row>
     <row r="14" spans="1:1024" s="16" customFormat="1" ht="162.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H14" s="8">
         <v>1989</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="K14" s="13">
-        <v>7365</v>
+        <v>239</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>240</v>
       </c>
       <c r="L14" s="13" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S14" s="2"/>
       <c r="T14" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="V14" s="3" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="W14" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="X14" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Y14" s="3" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Z14" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AA14" s="34"/>
       <c r="AB14" s="5"/>
-      <c r="AC14" s="5"/>
+      <c r="AC14" s="13" t="s">
+        <v>248</v>
+      </c>
       <c r="AD14" s="5"/>
       <c r="AE14" s="5"/>
       <c r="AF14" s="5"/>
@@ -6113,83 +6387,85 @@
     </row>
     <row r="15" spans="1:1024" s="2" customFormat="1" ht="130" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="H15" s="8">
         <v>2011</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="K15" s="13">
-        <v>2197</v>
+        <v>3593</v>
       </c>
       <c r="L15" s="13" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="V15" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="W15" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="X15" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Y15" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="Z15" s="4" t="s">
-        <v>153</v>
+        <v>262</v>
+      </c>
+      <c r="Z15" s="10" t="s">
+        <v>86</v>
       </c>
       <c r="AA15" s="34"/>
       <c r="AB15" s="5"/>
-      <c r="AC15" s="5"/>
+      <c r="AC15" s="13" t="s">
+        <v>263</v>
+      </c>
       <c r="AD15" s="5"/>
       <c r="AE15" s="5"/>
       <c r="AF15" s="5"/>
@@ -6199,84 +6475,86 @@
     </row>
     <row r="16" spans="1:1024" s="14" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="H16" s="2">
         <v>1961</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="K16" s="2">
         <v>411</v>
       </c>
       <c r="L16" s="13" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="W16" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="X16" s="4"/>
       <c r="Y16" s="3" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="Z16" s="10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AA16" s="34"/>
       <c r="AB16" s="5"/>
-      <c r="AC16" s="5"/>
+      <c r="AC16" s="13" t="s">
+        <v>271</v>
+      </c>
       <c r="AD16" s="5"/>
       <c r="AE16" s="5"/>
       <c r="AF16" s="5"/>
@@ -6286,84 +6564,86 @@
     </row>
     <row r="17" spans="1:1024" s="14" customFormat="1" ht="184" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="K17" s="13">
         <v>6643</v>
       </c>
       <c r="L17" s="13" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S17" s="2"/>
       <c r="T17" s="2" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="W17" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="X17" s="10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Y17" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Z17" s="10"/>
       <c r="AA17" s="34" t="s">
+        <v>295</v>
+      </c>
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="AB17" s="2"/>
-      <c r="AC17" s="2"/>
       <c r="AD17" s="2"/>
       <c r="AE17" s="2"/>
       <c r="AF17" s="2"/>
@@ -6373,86 +6653,88 @@
     </row>
     <row r="18" spans="1:1024" s="14" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H18" s="8">
         <v>2002</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="K18" s="13" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="L18" s="13" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="Q18" s="15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R18" s="15" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="S18" s="2"/>
       <c r="T18" s="2" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="V18" s="3" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="W18" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="X18" s="10" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Y18" s="3" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="Z18" s="10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AA18" s="34" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="AB18" s="2"/>
-      <c r="AC18" s="2"/>
+      <c r="AC18" s="13" t="s">
+        <v>313</v>
+      </c>
       <c r="AD18" s="2"/>
       <c r="AE18" s="2"/>
       <c r="AF18" s="2"/>
@@ -6462,84 +6744,86 @@
     </row>
     <row r="19" spans="1:1024" s="11" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="B19" s="48" t="s">
-        <v>308</v>
+        <v>314</v>
+      </c>
+      <c r="B19" s="46" t="s">
+        <v>315</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H19" s="2">
         <v>2007</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="W19" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="X19" s="4"/>
       <c r="Y19" s="3" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Z19" s="10" t="s">
-        <v>85</v>
+        <v>154</v>
       </c>
       <c r="AA19" s="34"/>
       <c r="AB19" s="5"/>
-      <c r="AC19" s="5"/>
+      <c r="AC19" s="2" t="s">
+        <v>328</v>
+      </c>
       <c r="AD19" s="5"/>
       <c r="AE19" s="5"/>
       <c r="AF19" s="5"/>
@@ -6549,82 +6833,84 @@
     </row>
     <row r="20" spans="1:1024" s="14" customFormat="1" ht="140" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="18" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H20" s="8">
         <v>2003</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="L20" s="13" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S20" s="5"/>
       <c r="T20" s="2" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="U20" s="2" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="V20" s="3" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="W20" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="X20" s="4" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="Y20" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Z20" s="4"/>
       <c r="AA20" s="34"/>
       <c r="AB20" s="5"/>
-      <c r="AC20" s="5"/>
+      <c r="AC20" s="13" t="s">
+        <v>337</v>
+      </c>
       <c r="AD20" s="5"/>
       <c r="AE20" s="5"/>
       <c r="AF20" s="5"/>
@@ -6634,82 +6920,84 @@
     </row>
     <row r="21" spans="1:1024" s="14" customFormat="1" ht="190" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="7" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H21" s="8">
         <v>1998</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="L21" s="13" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="S21" s="2"/>
       <c r="T21" s="2" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="U21" s="2" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="V21" s="3" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="W21" s="4" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="X21" s="4"/>
       <c r="Y21" s="3" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="Z21" s="10" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="AA21" s="34"/>
       <c r="AB21" s="5"/>
-      <c r="AC21" s="5"/>
+      <c r="AC21" s="13" t="s">
+        <v>362</v>
+      </c>
       <c r="AD21" s="5"/>
       <c r="AE21" s="5"/>
       <c r="AF21" s="5"/>
@@ -6719,82 +7007,84 @@
     </row>
     <row r="22" spans="1:1024" s="14" customFormat="1" ht="233" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="7" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H22" s="8">
         <v>2002</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="L22" s="13" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S22" s="2"/>
       <c r="T22" s="2" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="U22" s="2" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="V22" s="3" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="W22" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="X22" s="4" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="Y22" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Z22" s="4"/>
       <c r="AA22" s="34"/>
       <c r="AB22" s="5"/>
-      <c r="AC22" s="5"/>
+      <c r="AC22" s="13" t="s">
+        <v>371</v>
+      </c>
       <c r="AD22" s="5"/>
       <c r="AE22" s="5"/>
       <c r="AF22" s="5"/>
@@ -6804,305 +7094,316 @@
     </row>
     <row r="23" spans="1:1024" ht="199" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="7" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="E23" s="40" t="s">
-        <v>372</v>
+        <v>380</v>
+      </c>
+      <c r="E23" s="39" t="s">
+        <v>381</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="H23" s="2">
         <v>1998</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="K23" s="9">
         <v>4300</v>
       </c>
       <c r="L23" s="13" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N23" s="2">
-        <v>12</v>
+        <v>60</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>386</v>
       </c>
       <c r="O23" s="2">
         <v>1986</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="T23" s="2" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="U23" s="2" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="V23" s="3" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="W23" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Y23" s="3" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="Z23" s="10" t="s">
-        <v>382</v>
+        <v>392</v>
+      </c>
+      <c r="AC23" s="13" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="24" spans="1:1024" ht="153" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="7" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H24" s="2">
         <v>1990</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="J24" s="14" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="L24" s="13" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T24" s="8" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="U24" s="2" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="V24" s="3" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="W24" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="X24" s="4" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="Y24" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="AC24" s="13" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="25" spans="1:1024" ht="187" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="7" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H25" s="2">
         <v>2008</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="J25" s="39" t="s">
-        <v>398</v>
+        <v>348</v>
+      </c>
+      <c r="J25" s="38" t="s">
+        <v>408</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="L25" s="13" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="O25" s="2">
         <v>2007</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T25" s="2" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="U25" s="2" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="V25" s="3" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="W25" s="4" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="Y25" s="3" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="Z25" s="19" t="s">
-        <v>406</v>
+        <v>416</v>
+      </c>
+      <c r="AC25" s="13" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="26" spans="1:1024" ht="216" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="7" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="L26" s="13" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="O26" s="8" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="U26" s="2" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="V26" s="3" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="W26" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="X26" s="10"/>
       <c r="Y26" s="3" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="Z26" s="10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA26" s="34" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="AB26" s="2"/>
-      <c r="AC26" s="2"/>
+      <c r="AC26" s="13" t="s">
+        <v>425</v>
+      </c>
       <c r="AD26" s="2"/>
       <c r="AE26" s="2"/>
       <c r="AF26" s="2"/>
@@ -7111,83 +7412,85 @@
     </row>
     <row r="27" spans="1:1024" ht="228" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="7" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H27" s="8">
         <v>2005</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="L27" s="13" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O27" s="8" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="S27" s="2" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="T27" s="2" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="U27" s="2" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="V27" s="3" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="W27" s="10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="X27" s="10"/>
       <c r="Y27" s="3" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="Z27" s="10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AB27" s="2"/>
-      <c r="AC27" s="2"/>
+      <c r="AC27" s="13" t="s">
+        <v>449</v>
+      </c>
       <c r="AD27" s="2"/>
       <c r="AE27" s="2"/>
       <c r="AF27" s="2"/>
@@ -7196,160 +7499,165 @@
     </row>
     <row r="28" spans="1:1024" ht="202" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="7" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H28" s="8">
         <v>2005</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
       <c r="L28" s="13" t="s">
+        <v>455</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R28" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="M28" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N28" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="O28" s="2" t="s">
+      <c r="S28" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="P28" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="Q28" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="R28" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="S28" s="2" t="s">
-        <v>435</v>
-      </c>
       <c r="T28" s="2" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="U28" s="2" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="V28" s="3" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="W28" s="10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Y28" s="3" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="Z28" s="10" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="AC28" s="13" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="29" spans="1:1024" ht="215" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="7" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H29" s="8">
         <v>2005</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
       <c r="L29" s="13" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="O29" s="8" t="s">
-        <v>281</v>
+        <v>466</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>433</v>
+        <v>457</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R29" s="2" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="T29" s="2" t="s">
-        <v>454</v>
+        <v>467</v>
       </c>
       <c r="U29" s="2" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="V29" s="3" t="s">
-        <v>455</v>
+        <v>468</v>
       </c>
       <c r="W29" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="X29" s="10"/>
       <c r="Y29" s="3" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="Z29" s="10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AB29" s="2"/>
-      <c r="AC29" s="2"/>
+      <c r="AC29" s="13" t="s">
+        <v>464</v>
+      </c>
       <c r="AD29" s="2"/>
       <c r="AE29" s="2"/>
       <c r="AF29" s="2"/>
@@ -7358,2520 +7666,2755 @@
     </row>
     <row r="30" spans="1:1024" ht="221" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="18" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>457</v>
+        <v>470</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>458</v>
+        <v>471</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>459</v>
+        <v>472</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>460</v>
+        <v>473</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>463</v>
+        <v>476</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>464</v>
+        <v>477</v>
       </c>
       <c r="L30" s="13" t="s">
-        <v>465</v>
+        <v>478</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>466</v>
+        <v>479</v>
       </c>
       <c r="O30" s="8" t="s">
-        <v>467</v>
+        <v>480</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>468</v>
+        <v>481</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>469</v>
+        <v>482</v>
       </c>
       <c r="U30" s="2" t="s">
-        <v>470</v>
+        <v>483</v>
       </c>
       <c r="V30" s="3" t="s">
-        <v>471</v>
+        <v>484</v>
       </c>
       <c r="W30" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="X30" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Y30" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Z30" s="10" t="s">
-        <v>85</v>
+        <v>86</v>
+      </c>
+      <c r="AC30" s="13" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="31" spans="1:1024" s="2" customFormat="1" ht="140" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="7" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>473</v>
+        <v>486</v>
       </c>
       <c r="C31" s="30" t="s">
-        <v>474</v>
+        <v>487</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>476</v>
+        <v>489</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>477</v>
+        <v>490</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>478</v>
+        <v>491</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="L31" s="13" t="s">
-        <v>481</v>
+        <v>494</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>482</v>
+        <v>495</v>
       </c>
       <c r="O31" s="8" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>484</v>
+        <v>497</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>485</v>
+        <v>498</v>
       </c>
       <c r="U31" s="2" t="s">
-        <v>486</v>
+        <v>499</v>
       </c>
       <c r="V31" s="3" t="s">
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="W31" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="X31" s="10" t="s">
-        <v>488</v>
+        <v>501</v>
       </c>
       <c r="Y31" s="3" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="Z31" s="10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AA31" s="34" t="s">
-        <v>489</v>
+        <v>502</v>
+      </c>
+      <c r="AC31" s="13" t="s">
+        <v>494</v>
       </c>
       <c r="AMJ31" s="6"/>
     </row>
     <row r="32" spans="1:1024" ht="152" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="7" t="s">
-        <v>490</v>
+        <v>503</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>490</v>
+        <v>503</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>491</v>
+        <v>504</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>493</v>
+        <v>506</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>494</v>
+        <v>507</v>
       </c>
       <c r="H32" s="8">
         <v>2007</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>495</v>
+        <v>508</v>
       </c>
       <c r="K32" s="13">
         <v>2000</v>
       </c>
       <c r="L32" s="13" t="s">
-        <v>496</v>
+        <v>509</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>497</v>
+        <v>510</v>
       </c>
       <c r="O32" s="8">
         <v>1993</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>498</v>
+        <v>511</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>499</v>
+        <v>512</v>
       </c>
       <c r="U32" s="2" t="s">
-        <v>500</v>
+        <v>513</v>
       </c>
       <c r="V32" s="3" t="s">
-        <v>501</v>
+        <v>514</v>
       </c>
       <c r="W32" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="X32" s="10" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="Y32" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Z32" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AB32" s="2"/>
-      <c r="AC32" s="2"/>
+      <c r="AC32" s="13" t="s">
+        <v>509</v>
+      </c>
       <c r="AD32" s="2"/>
       <c r="AE32" s="2"/>
       <c r="AF32" s="2"/>
       <c r="AG32" s="2"/>
       <c r="AH32" s="2"/>
     </row>
-    <row r="33" spans="1:1024" s="2" customFormat="1" ht="294" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="7" t="s">
-        <v>502</v>
+    <row r="33" spans="1:1024" ht="152" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="18" t="s">
+        <v>515</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
       <c r="C33" s="30" t="s">
-        <v>504</v>
+        <v>517</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>505</v>
+        <v>518</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>506</v>
+        <v>519</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>507</v>
+        <v>237</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H33" s="8">
+        <v>2014</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="Q33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R33" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="T33" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="U33" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="V33" s="47" t="s">
+        <v>527</v>
+      </c>
+      <c r="W33" s="55" t="s">
+        <v>528</v>
+      </c>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="Z33" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB33" s="2"/>
+      <c r="AD33" s="2"/>
+      <c r="AE33" s="2"/>
+      <c r="AF33" s="2"/>
+      <c r="AG33" s="2"/>
+      <c r="AH33" s="2"/>
+    </row>
+    <row r="34" spans="1:1024" s="2" customFormat="1" ht="294" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>530</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>531</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H34" s="8">
         <v>2003</v>
       </c>
-      <c r="I33" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="K33" s="13">
+      <c r="I34" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="K34" s="13">
         <v>10272</v>
       </c>
-      <c r="L33" s="13" t="s">
-        <v>510</v>
-      </c>
-      <c r="M33" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N33" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="O33" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="P33" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="Q33" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="R33" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="T33" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="U33" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="V33" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="W33" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="X33" s="4" t="s">
+      <c r="L34" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="Q34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R34" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="T34" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="U34" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="V34" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="W34" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Y33" s="3" t="s">
+      <c r="X34" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="Z33" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA33" s="34"/>
-      <c r="AB33" s="5"/>
-      <c r="AC33" s="5"/>
-      <c r="AD33" s="5"/>
-      <c r="AE33" s="5"/>
-      <c r="AF33" s="5"/>
-      <c r="AG33" s="5"/>
-      <c r="AH33" s="5"/>
-      <c r="AMJ33" s="6"/>
+      <c r="Y34" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z34" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA34" s="34"/>
+      <c r="AB34" s="5"/>
+      <c r="AC34" s="13" t="s">
+        <v>537</v>
+      </c>
+      <c r="AD34" s="5"/>
+      <c r="AE34" s="5"/>
+      <c r="AF34" s="5"/>
+      <c r="AG34" s="5"/>
+      <c r="AH34" s="5"/>
+      <c r="AMJ34" s="6"/>
     </row>
-    <row r="34" spans="1:1024" ht="169" x14ac:dyDescent="0.15">
-      <c r="A34" s="7" t="s">
-        <v>517</v>
-      </c>
-      <c r="B34" s="20" t="s">
-        <v>518</v>
-      </c>
-      <c r="C34" s="30" t="s">
-        <v>519</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="H34" s="8">
+    <row r="35" spans="1:1024" ht="169" x14ac:dyDescent="0.15">
+      <c r="A35" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>545</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>546</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="H35" s="8">
         <v>1932</v>
       </c>
-      <c r="I34" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="L34" s="13" t="s">
-        <v>524</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N34" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="O34" s="8">
+      <c r="I35" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="L35" s="13" t="s">
+        <v>551</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="O35" s="8">
         <v>1921</v>
       </c>
-      <c r="P34" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="Q34" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="R34" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="S34" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="T34" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="U34" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="V34" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="W34" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="X34" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="Y34" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="Z34" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA34" s="34" t="s">
-        <v>532</v>
-      </c>
-      <c r="AB34" s="2"/>
-      <c r="AC34" s="2"/>
-      <c r="AD34" s="2"/>
-      <c r="AE34" s="2"/>
-      <c r="AF34" s="2"/>
-      <c r="AG34" s="2"/>
-      <c r="AH34" s="2"/>
-    </row>
-    <row r="35" spans="1:1024" ht="221" x14ac:dyDescent="0.15">
-      <c r="A35" s="7" t="s">
-        <v>533</v>
-      </c>
-      <c r="B35" s="20" t="s">
-        <v>534</v>
-      </c>
-      <c r="C35" s="30" t="s">
-        <v>535</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="H35" s="8">
-        <v>1947</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="L35" s="13" t="s">
-        <v>538</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N35" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="O35" s="8">
-        <v>1936</v>
-      </c>
       <c r="P35" s="2" t="s">
-        <v>526</v>
+        <v>553</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R35" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>539</v>
+        <v>554</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="U35" s="2" t="s">
-        <v>541</v>
+        <v>556</v>
       </c>
       <c r="V35" s="3" t="s">
-        <v>542</v>
+        <v>557</v>
       </c>
       <c r="W35" s="10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="X35" s="10" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Y35" s="3" t="s">
-        <v>531</v>
+        <v>558</v>
       </c>
       <c r="Z35" s="10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA35" s="34" t="s">
-        <v>543</v>
+        <v>559</v>
       </c>
       <c r="AB35" s="2"/>
-      <c r="AC35" s="2"/>
+      <c r="AC35" s="13" t="s">
+        <v>551</v>
+      </c>
       <c r="AD35" s="2"/>
       <c r="AE35" s="2"/>
       <c r="AF35" s="2"/>
       <c r="AG35" s="2"/>
       <c r="AH35" s="2"/>
     </row>
-    <row r="36" spans="1:1024" ht="356" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:1024" ht="221" x14ac:dyDescent="0.15">
       <c r="A36" s="7" t="s">
-        <v>544</v>
+        <v>560</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>545</v>
+        <v>561</v>
       </c>
       <c r="C36" s="30" t="s">
-        <v>546</v>
+        <v>562</v>
       </c>
       <c r="D36" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="E36" s="40" t="s">
+      <c r="F36" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G36" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="F36" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H36" s="2">
+      <c r="H36" s="8">
+        <v>1947</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="L36" s="13" t="s">
+        <v>565</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="O36" s="8">
+        <v>1936</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="Q36" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R36" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="S36" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="T36" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="U36" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="V36" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="W36" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="X36" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y36" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="Z36" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA36" s="34" t="s">
+        <v>570</v>
+      </c>
+      <c r="AB36" s="2"/>
+      <c r="AC36" s="13" t="s">
+        <v>565</v>
+      </c>
+      <c r="AD36" s="2"/>
+      <c r="AE36" s="2"/>
+      <c r="AF36" s="2"/>
+      <c r="AG36" s="2"/>
+      <c r="AH36" s="2"/>
+    </row>
+    <row r="37" spans="1:1024" ht="368" x14ac:dyDescent="0.15">
+      <c r="A37" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>572</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>573</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="E37" s="39" t="s">
+        <v>575</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H37" s="2">
         <v>2019</v>
       </c>
-      <c r="I36" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="K36" s="2">
+      <c r="I37" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="K37" s="2">
         <v>628</v>
       </c>
-      <c r="L36" s="13">
+      <c r="L37" s="13">
         <v>499</v>
       </c>
-      <c r="M36" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N36" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="O36" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="P36" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="Q36" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="R36" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="S36" s="38" t="s">
-        <v>553</v>
-      </c>
-      <c r="T36" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="U36" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="V36" s="3" t="s">
-        <v>555</v>
-      </c>
-      <c r="W36" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="X36" s="4" t="s">
-        <v>556</v>
-      </c>
-      <c r="Y36" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z36" s="4" t="s">
-        <v>124</v>
+      <c r="M37" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="Q37" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R37" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="S37" s="56" t="s">
+        <v>580</v>
+      </c>
+      <c r="T37" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="U37" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="V37" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="W37" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="X37" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="Y37" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z37" s="10" t="s">
+        <v>948</v>
+      </c>
+      <c r="AC37" s="13">
+        <v>499</v>
       </c>
     </row>
-    <row r="37" spans="1:1024" ht="296" x14ac:dyDescent="0.15">
-      <c r="A37" s="7" t="s">
-        <v>557</v>
-      </c>
-      <c r="B37" s="20" t="s">
-        <v>558</v>
-      </c>
-      <c r="C37" s="30" t="s">
-        <v>559</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H37" s="8">
+    <row r="38" spans="1:1024" ht="296" x14ac:dyDescent="0.15">
+      <c r="A38" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>585</v>
+      </c>
+      <c r="C38" s="30" t="s">
+        <v>586</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H38" s="8">
         <v>2004</v>
       </c>
-      <c r="I37" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="K37" s="13">
+      <c r="I38" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="K38" s="13">
         <v>15770</v>
       </c>
-      <c r="L37" s="13" t="s">
-        <v>562</v>
-      </c>
-      <c r="M37" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N37" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="O37" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="P37" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q37" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="R37" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="S37" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="T37" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="U37" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="V37" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="W37" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="X37" s="10"/>
-      <c r="Y37" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="Z37" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA37" s="35" t="s">
-        <v>570</v>
-      </c>
-      <c r="AB37" s="2"/>
-      <c r="AC37" s="2"/>
-      <c r="AD37" s="2"/>
-      <c r="AE37" s="2"/>
-      <c r="AF37" s="2"/>
-      <c r="AG37" s="2"/>
-      <c r="AH37" s="2"/>
+      <c r="L38" s="13" t="s">
+        <v>589</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="O38" s="8" t="s">
+        <v>591</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="S38" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="T38" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="U38" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="V38" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="W38" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="X38" s="10"/>
+      <c r="Y38" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="Z38" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA38" s="35" t="s">
+        <v>598</v>
+      </c>
+      <c r="AB38" s="2"/>
+      <c r="AC38" s="13" t="s">
+        <v>589</v>
+      </c>
+      <c r="AD38" s="2"/>
+      <c r="AE38" s="2"/>
+      <c r="AF38" s="2"/>
+      <c r="AG38" s="2"/>
+      <c r="AH38" s="2"/>
     </row>
-    <row r="38" spans="1:1024" ht="308" x14ac:dyDescent="0.15">
-      <c r="A38" s="7" t="s">
-        <v>571</v>
-      </c>
-      <c r="B38" s="20" t="s">
-        <v>572</v>
-      </c>
-      <c r="C38" s="30" t="s">
-        <v>573</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H38" s="8">
+    <row r="39" spans="1:1024" ht="308" x14ac:dyDescent="0.15">
+      <c r="A39" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>600</v>
+      </c>
+      <c r="C39" s="30" t="s">
+        <v>601</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H39" s="8">
         <v>2000</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="L38" s="13" t="s">
-        <v>577</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="O38" s="8">
+      <c r="I39" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="L39" s="13" t="s">
+        <v>605</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="O39" s="8">
         <v>2000</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q38" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="R38" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="S38" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="T38" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="U38" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="V38" s="3" t="s">
-        <v>582</v>
-      </c>
-      <c r="W38" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="X38" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="Y38" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z38" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="AA38" s="35" t="s">
-        <v>583</v>
-      </c>
-      <c r="AB38" s="12"/>
-      <c r="AC38" s="12"/>
-      <c r="AD38" s="12"/>
-      <c r="AE38" s="12"/>
-      <c r="AF38" s="12"/>
-      <c r="AG38" s="12"/>
-      <c r="AH38" s="12"/>
+      <c r="P39" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="Q39" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R39" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="S39" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="T39" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="U39" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="V39" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="W39" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="X39" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y39" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z39" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA39" s="35" t="s">
+        <v>611</v>
+      </c>
+      <c r="AB39" s="12"/>
+      <c r="AC39" s="13" t="s">
+        <v>612</v>
+      </c>
+      <c r="AD39" s="12"/>
+      <c r="AE39" s="12"/>
+      <c r="AF39" s="12"/>
+      <c r="AG39" s="12"/>
+      <c r="AH39" s="12"/>
     </row>
-    <row r="39" spans="1:1024" ht="156" x14ac:dyDescent="0.15">
-      <c r="A39" s="7" t="s">
-        <v>584</v>
-      </c>
-      <c r="B39" s="20" t="s">
-        <v>585</v>
-      </c>
-      <c r="C39" s="30" t="s">
-        <v>586</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H39" s="8">
+    <row r="40" spans="1:1024" ht="156" x14ac:dyDescent="0.15">
+      <c r="A40" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>614</v>
+      </c>
+      <c r="C40" s="30" t="s">
+        <v>615</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H40" s="8">
         <v>1999</v>
       </c>
-      <c r="I39" s="2" t="s">
-        <v>590</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="L39" s="13" t="s">
-        <v>593</v>
-      </c>
-      <c r="M39" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N39" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="O39" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="P39" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="Q39" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="R39" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="T39" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="U39" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="V39" s="3" t="s">
-        <v>598</v>
-      </c>
-      <c r="W39" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y39" s="3" t="s">
-        <v>84</v>
+      <c r="I40" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="L40" s="13" t="s">
+        <v>621</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="Q40" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R40" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T40" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="U40" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="V40" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="W40" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y40" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC40" s="13" t="s">
+        <v>621</v>
       </c>
     </row>
-    <row r="40" spans="1:1024" ht="130" x14ac:dyDescent="0.15">
-      <c r="A40" s="7" t="s">
-        <v>599</v>
-      </c>
-      <c r="B40" s="20" t="s">
-        <v>600</v>
-      </c>
-      <c r="C40" s="30" t="s">
-        <v>601</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H40" s="8">
+    <row r="41" spans="1:1024" ht="143" x14ac:dyDescent="0.15">
+      <c r="A41" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>628</v>
+      </c>
+      <c r="C41" s="30" t="s">
+        <v>629</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H41" s="8">
         <v>1996</v>
       </c>
-      <c r="I40" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J40" s="15" t="s">
-        <v>605</v>
-      </c>
-      <c r="K40" s="13">
+      <c r="I41" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J41" s="15" t="s">
+        <v>633</v>
+      </c>
+      <c r="K41" s="13">
         <v>1319475</v>
       </c>
-      <c r="L40" s="13" t="s">
-        <v>606</v>
-      </c>
-      <c r="M40" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="N40" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="O40" s="8" t="s">
-        <v>608</v>
-      </c>
-      <c r="P40" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="Q40" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="R40" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="T40" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="U40" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="V40" s="3" t="s">
-        <v>612</v>
-      </c>
-      <c r="W40" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="X40" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="Y40" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="Z40" s="10"/>
-      <c r="AA40" s="35" t="s">
-        <v>613</v>
-      </c>
-      <c r="AB40" s="8"/>
-      <c r="AC40" s="8"/>
-      <c r="AD40" s="8"/>
-      <c r="AE40" s="8"/>
-      <c r="AF40" s="8"/>
-      <c r="AG40" s="8"/>
-      <c r="AH40" s="8"/>
-    </row>
-    <row r="41" spans="1:1024" ht="240" x14ac:dyDescent="0.2">
-      <c r="A41" s="7" t="s">
-        <v>614</v>
-      </c>
-      <c r="B41" s="20" t="s">
-        <v>615</v>
-      </c>
-      <c r="C41" s="49" t="s">
-        <v>616</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>617</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>618</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H41" s="8">
-        <v>1990</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="K41" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="L41" s="2" t="s">
-        <v>621</v>
+      <c r="L41" s="13" t="s">
+        <v>634</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>59</v>
+        <v>635</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>132</v>
+        <v>495</v>
       </c>
       <c r="O41" s="8" t="s">
-        <v>40</v>
+        <v>636</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="Q41" s="2" t="s">
-        <v>42</v>
+        <v>637</v>
+      </c>
+      <c r="Q41" s="15" t="s">
+        <v>43</v>
       </c>
       <c r="R41" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="T41" s="50" t="s">
-        <v>623</v>
-      </c>
-      <c r="U41" s="46" t="s">
-        <v>624</v>
-      </c>
-      <c r="V41" s="51" t="s">
-        <v>900</v>
+        <v>81</v>
+      </c>
+      <c r="T41" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="U41" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="V41" s="3" t="s">
+        <v>640</v>
       </c>
       <c r="W41" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="X41" s="10"/>
+        <v>47</v>
+      </c>
+      <c r="X41" s="10" t="s">
+        <v>216</v>
+      </c>
       <c r="Y41" s="3" t="s">
-        <v>84</v>
+        <v>632</v>
       </c>
       <c r="Z41" s="10" t="s">
-        <v>625</v>
+        <v>125</v>
+      </c>
+      <c r="AA41" s="35" t="s">
+        <v>641</v>
       </c>
       <c r="AB41" s="8"/>
-      <c r="AC41" s="8"/>
+      <c r="AC41" s="13" t="s">
+        <v>634</v>
+      </c>
       <c r="AD41" s="8"/>
       <c r="AE41" s="8"/>
       <c r="AF41" s="8"/>
-      <c r="AG41" s="6"/>
-      <c r="AH41" s="6"/>
+      <c r="AG41" s="8"/>
+      <c r="AH41" s="8"/>
     </row>
-    <row r="42" spans="1:1024" ht="195" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:1024" ht="240" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>626</v>
-      </c>
-      <c r="B42" s="28" t="s">
-        <v>627</v>
+        <v>642</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>643</v>
       </c>
       <c r="C42" s="30" t="s">
-        <v>628</v>
+        <v>644</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>629</v>
+        <v>645</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>630</v>
+        <v>646</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>631</v>
-      </c>
-      <c r="H42" s="17">
+        <v>34</v>
+      </c>
+      <c r="H42" s="8">
+        <v>1990</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="O42" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P42" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="Q42" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R42" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="T42" s="57" t="s">
+        <v>650</v>
+      </c>
+      <c r="U42" s="44" t="s">
+        <v>651</v>
+      </c>
+      <c r="V42" s="47" t="s">
+        <v>652</v>
+      </c>
+      <c r="W42" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="X42" s="10"/>
+      <c r="Y42" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z42" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB42" s="8"/>
+      <c r="AC42" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="AD42" s="8"/>
+      <c r="AE42" s="8"/>
+      <c r="AF42" s="8"/>
+      <c r="AG42" s="6"/>
+      <c r="AH42" s="6"/>
+    </row>
+    <row r="43" spans="1:1024" ht="195" x14ac:dyDescent="0.15">
+      <c r="A43" s="7" t="s">
+        <v>654</v>
+      </c>
+      <c r="B43" s="28" t="s">
+        <v>655</v>
+      </c>
+      <c r="C43" s="30" t="s">
+        <v>656</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="H43" s="17">
         <v>2006</v>
       </c>
-      <c r="I42" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J42" s="15" t="s">
-        <v>632</v>
-      </c>
-      <c r="K42" s="2" t="s">
-        <v>633</v>
-      </c>
-      <c r="L42" s="13" t="s">
-        <v>633</v>
-      </c>
-      <c r="M42" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N42" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="O42" s="8">
+      <c r="I43" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J43" s="15" t="s">
+        <v>660</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="L43" s="13" t="s">
+        <v>661</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="O43" s="8">
         <v>1921</v>
       </c>
-      <c r="P42" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="Q42" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="R42" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="T42" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="U42" s="2" t="s">
-        <v>637</v>
-      </c>
-      <c r="V42" s="3" t="s">
-        <v>638</v>
-      </c>
-      <c r="W42" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="X42" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="Y42" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z42" s="4" t="s">
-        <v>153</v>
+      <c r="P43" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="Q43" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R43" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="T43" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="U43" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="V43" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="W43" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="X43" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y43" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z43" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC43" s="13" t="s">
+        <v>661</v>
       </c>
     </row>
-    <row r="43" spans="1:1024" ht="272" x14ac:dyDescent="0.15">
-      <c r="A43" s="7" t="s">
-        <v>639</v>
-      </c>
-      <c r="B43" s="20" t="s">
-        <v>640</v>
-      </c>
-      <c r="C43" s="30" t="s">
-        <v>641</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>642</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H43" s="8">
+    <row r="44" spans="1:1024" ht="272" x14ac:dyDescent="0.15">
+      <c r="A44" s="7" t="s">
+        <v>667</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>668</v>
+      </c>
+      <c r="C44" s="30" t="s">
+        <v>669</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H44" s="8">
         <v>1958</v>
       </c>
-      <c r="I43" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>644</v>
-      </c>
-      <c r="L43" s="13" t="s">
-        <v>645</v>
-      </c>
-      <c r="M43" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N43" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="O43" s="8">
+      <c r="I44" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="L44" s="13" t="s">
+        <v>673</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N44" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="O44" s="8">
         <v>1958</v>
       </c>
-      <c r="P43" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q43" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="R43" s="2" t="s">
-        <v>646</v>
-      </c>
-      <c r="S43" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="T43" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="U43" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="V43" s="3" t="s">
-        <v>650</v>
-      </c>
-      <c r="W43" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="X43" s="10"/>
-      <c r="Y43" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z43" s="10" t="s">
-        <v>651</v>
-      </c>
-      <c r="AA43" s="35" t="s">
-        <v>652</v>
-      </c>
-      <c r="AB43" s="2"/>
-      <c r="AC43" s="2"/>
-      <c r="AD43" s="2"/>
-      <c r="AE43" s="2"/>
-      <c r="AF43" s="2"/>
-      <c r="AG43" s="2"/>
-      <c r="AH43" s="2"/>
+      <c r="P44" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="Q44" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R44" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="S44" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="T44" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="U44" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="V44" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="W44" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="X44" s="10"/>
+      <c r="Y44" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z44" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="AA44" s="35" t="s">
+        <v>679</v>
+      </c>
+      <c r="AB44" s="2"/>
+      <c r="AC44" s="13" t="s">
+        <v>680</v>
+      </c>
+      <c r="AD44" s="2"/>
+      <c r="AE44" s="2"/>
+      <c r="AF44" s="2"/>
+      <c r="AG44" s="2"/>
+      <c r="AH44" s="2"/>
     </row>
-    <row r="44" spans="1:1024" ht="221" x14ac:dyDescent="0.15">
-      <c r="A44" s="18" t="s">
-        <v>653</v>
-      </c>
-      <c r="B44" s="20" t="s">
-        <v>654</v>
-      </c>
-      <c r="C44" s="30" t="s">
-        <v>655</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>656</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H44" s="8">
+    <row r="45" spans="1:1024" ht="221" x14ac:dyDescent="0.15">
+      <c r="A45" s="18" t="s">
+        <v>681</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>682</v>
+      </c>
+      <c r="C45" s="30" t="s">
+        <v>683</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H45" s="8">
         <v>2014</v>
       </c>
-      <c r="I44" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>659</v>
-      </c>
-      <c r="K44" s="13">
+      <c r="I45" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="K45" s="13">
         <v>8504</v>
       </c>
-      <c r="L44" s="13" t="s">
-        <v>660</v>
-      </c>
-      <c r="M44" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N44" s="2" t="s">
-        <v>661</v>
-      </c>
-      <c r="O44" s="8" t="s">
-        <v>662</v>
-      </c>
-      <c r="P44" s="2" t="s">
-        <v>663</v>
-      </c>
-      <c r="Q44" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="R44" s="2" t="s">
-        <v>664</v>
-      </c>
-      <c r="S44" s="2" t="s">
-        <v>665</v>
-      </c>
-      <c r="T44" s="2" t="s">
-        <v>666</v>
-      </c>
-      <c r="U44" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="V44" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="W44" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="X44" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="Y44" s="3" t="s">
-        <v>669</v>
-      </c>
-      <c r="Z44" s="10" t="s">
+      <c r="L45" s="13" t="s">
+        <v>688</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N45" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="O45" s="8" t="s">
+        <v>689</v>
+      </c>
+      <c r="P45" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="Q45" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R45" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="S45" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="T45" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="U45" s="56" t="s">
+        <v>694</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="W45" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="X45" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y45" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="Z45" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC45" s="13" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1024" ht="153" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="18" t="s">
+        <v>697</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>698</v>
+      </c>
+      <c r="C46" s="30" t="s">
+        <v>699</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H46" s="8">
+        <v>1946</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="K46" s="13">
+        <v>5362</v>
+      </c>
+      <c r="L46" s="13" t="s">
+        <v>703</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="O46" s="8">
+        <v>1946</v>
+      </c>
+      <c r="P46" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="Q46" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R46" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="S46" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="T46" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="U46" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="V46" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="W46" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="X46" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y46" s="3" t="s">
         <v>85</v>
       </c>
+      <c r="Z46" s="10" t="s">
+        <v>708</v>
+      </c>
+      <c r="AA46" s="35" t="s">
+        <v>709</v>
+      </c>
+      <c r="AC46" s="13" t="s">
+        <v>710</v>
+      </c>
     </row>
-    <row r="45" spans="1:1024" ht="153" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="18" t="s">
-        <v>670</v>
-      </c>
-      <c r="B45" s="20" t="s">
-        <v>671</v>
-      </c>
-      <c r="C45" s="30" t="s">
-        <v>672</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>673</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>674</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H45" s="8">
-        <v>1946</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>675</v>
-      </c>
-      <c r="K45" s="13">
-        <v>5362</v>
-      </c>
-      <c r="L45" s="13" t="s">
-        <v>676</v>
-      </c>
-      <c r="M45" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N45" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="O45" s="8">
-        <v>1946</v>
-      </c>
-      <c r="P45" s="2" t="s">
-        <v>677</v>
-      </c>
-      <c r="Q45" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="R45" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="S45" s="2" t="s">
-        <v>678</v>
-      </c>
-      <c r="T45" s="2" t="s">
-        <v>679</v>
-      </c>
-      <c r="U45" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="V45" s="3" t="s">
-        <v>680</v>
-      </c>
-      <c r="W45" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="X45" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="Y45" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z45" s="10" t="s">
-        <v>681</v>
-      </c>
-      <c r="AA45" s="35" t="s">
-        <v>682</v>
+    <row r="47" spans="1:1024" ht="195" x14ac:dyDescent="0.15">
+      <c r="A47" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>712</v>
+      </c>
+      <c r="C47" s="30" t="s">
+        <v>713</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H47" s="8">
+        <v>2014</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="K47" s="13">
+        <v>14000</v>
+      </c>
+      <c r="L47" s="13">
+        <v>25000</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="O47" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="P47" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="Q47" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R47" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T47" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="U47" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="V47" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="W47" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="X47" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y47" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z47" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="AC47" s="13">
+        <v>25000</v>
       </c>
     </row>
-    <row r="46" spans="1:1024" ht="195" x14ac:dyDescent="0.15">
-      <c r="A46" s="7" t="s">
-        <v>683</v>
-      </c>
-      <c r="B46" s="20" t="s">
-        <v>684</v>
-      </c>
-      <c r="C46" s="30" t="s">
-        <v>685</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>687</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H46" s="8">
+    <row r="48" spans="1:1024" ht="208" x14ac:dyDescent="0.15">
+      <c r="A48" s="7" t="s">
+        <v>723</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>724</v>
+      </c>
+      <c r="C48" s="30" t="s">
+        <v>725</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="H48" s="8">
+        <v>2015</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="L48" s="13" t="s">
+        <v>730</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N48" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="O48" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="P48" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="Q48" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R48" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="T48" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="U48" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="V48" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="W48" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="X48" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y48" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z48" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA48" s="35" t="s">
+        <v>737</v>
+      </c>
+      <c r="AB48" s="2"/>
+      <c r="AC48" s="13" t="s">
+        <v>730</v>
+      </c>
+      <c r="AD48" s="2"/>
+      <c r="AE48" s="2"/>
+      <c r="AF48" s="2"/>
+      <c r="AG48" s="2"/>
+      <c r="AH48" s="2"/>
+    </row>
+    <row r="49" spans="1:34" ht="169" x14ac:dyDescent="0.15">
+      <c r="A49" s="18" t="s">
+        <v>738</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>739</v>
+      </c>
+      <c r="C49" s="30" t="s">
+        <v>740</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="E49" s="58" t="s">
+        <v>742</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="H49" s="8">
+        <v>2006</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="K49" s="13" t="s">
+        <v>745</v>
+      </c>
+      <c r="L49" s="13" t="s">
+        <v>746</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N49" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="O49" s="8" t="s">
+        <v>747</v>
+      </c>
+      <c r="P49" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="Q49" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R49" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S49" s="5"/>
+      <c r="T49" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="U49" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="V49" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="W49" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y49" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z49" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="AC49" s="13" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="50" spans="1:34" ht="332" x14ac:dyDescent="0.15">
+      <c r="A50" s="7" t="s">
+        <v>752</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>753</v>
+      </c>
+      <c r="C50" s="30" t="s">
+        <v>754</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="H50" s="8">
+        <v>1988</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="K50" s="13">
+        <v>4858</v>
+      </c>
+      <c r="L50" s="13" t="s">
+        <v>759</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N50" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="O50" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="P50" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="Q50" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R50" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="T50" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="U50" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="V50" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="W50" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="X50" s="10" t="s">
+        <v>766</v>
+      </c>
+      <c r="Y50" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z50" s="10" t="s">
+        <v>708</v>
+      </c>
+      <c r="AC50" s="13" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="51" spans="1:34" ht="182" x14ac:dyDescent="0.15">
+      <c r="A51" s="7" t="s">
+        <v>767</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>768</v>
+      </c>
+      <c r="C51" s="30" t="s">
+        <v>769</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="H51" s="2">
         <v>2014</v>
       </c>
-      <c r="I46" s="2" t="s">
-        <v>688</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="K46" s="13">
-        <v>14000</v>
-      </c>
-      <c r="L46" s="13">
-        <v>25000</v>
-      </c>
-      <c r="M46" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N46" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="O46" s="2" t="s">
-        <v>690</v>
-      </c>
-      <c r="P46" s="2" t="s">
-        <v>691</v>
-      </c>
-      <c r="Q46" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="R46" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="T46" s="2" t="s">
-        <v>692</v>
-      </c>
-      <c r="U46" s="2" t="s">
-        <v>693</v>
-      </c>
-      <c r="V46" s="3" t="s">
-        <v>694</v>
-      </c>
-      <c r="W46" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="X46" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="Y46" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z46" s="4" t="s">
-        <v>153</v>
+      <c r="I51" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="K51" s="9" t="s">
+        <v>773</v>
+      </c>
+      <c r="L51" s="13" t="s">
+        <v>774</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N51" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="O51" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="P51" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="Q51" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R51" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="T51" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="U51" s="36" t="s">
+        <v>779</v>
+      </c>
+      <c r="V51" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="W51" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y51" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z51" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC51" s="13" t="s">
+        <v>781</v>
       </c>
     </row>
-    <row r="47" spans="1:1024" ht="208" x14ac:dyDescent="0.15">
-      <c r="A47" s="7" t="s">
-        <v>695</v>
-      </c>
-      <c r="B47" s="20" t="s">
-        <v>696</v>
-      </c>
-      <c r="C47" s="30" t="s">
-        <v>697</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>698</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="H47" s="8">
-        <v>2015</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>699</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>700</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>701</v>
-      </c>
-      <c r="L47" s="13" t="s">
-        <v>702</v>
-      </c>
-      <c r="M47" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N47" s="2" t="s">
-        <v>703</v>
-      </c>
-      <c r="O47" s="8" t="s">
-        <v>704</v>
-      </c>
-      <c r="P47" s="2" t="s">
-        <v>705</v>
-      </c>
-      <c r="Q47" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="R47" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="T47" s="2" t="s">
-        <v>706</v>
-      </c>
-      <c r="U47" s="2" t="s">
-        <v>707</v>
-      </c>
-      <c r="V47" s="3" t="s">
-        <v>708</v>
-      </c>
-      <c r="W47" s="10" t="s">
-        <v>709</v>
-      </c>
-      <c r="X47" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="Y47" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z47" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="AA47" s="35" t="s">
-        <v>710</v>
-      </c>
-      <c r="AB47" s="2"/>
-      <c r="AC47" s="2"/>
-      <c r="AD47" s="2"/>
-      <c r="AE47" s="2"/>
-      <c r="AF47" s="2"/>
-      <c r="AG47" s="2"/>
-      <c r="AH47" s="2"/>
+    <row r="52" spans="1:34" ht="117" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="7" t="s">
+        <v>782</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>783</v>
+      </c>
+      <c r="C52" s="30" t="s">
+        <v>784</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="H52" s="8">
+        <v>2008</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="L52" s="13" t="s">
+        <v>788</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N52" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="O52" s="8" t="s">
+        <v>789</v>
+      </c>
+      <c r="P52" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="Q52" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R52" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="T52" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="U52" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="V52" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="W52" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="X52" s="10" t="s">
+        <v>794</v>
+      </c>
+      <c r="Y52" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z52" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA52" s="35" t="s">
+        <v>795</v>
+      </c>
+      <c r="AB52" s="2"/>
+      <c r="AC52" s="13" t="s">
+        <v>788</v>
+      </c>
+      <c r="AD52" s="2"/>
+      <c r="AE52" s="2"/>
+      <c r="AF52" s="2"/>
+      <c r="AG52" s="2"/>
+      <c r="AH52" s="2"/>
     </row>
-    <row r="48" spans="1:1024" ht="169" x14ac:dyDescent="0.15">
-      <c r="A48" s="18" t="s">
-        <v>711</v>
-      </c>
-      <c r="B48" s="20" t="s">
-        <v>712</v>
-      </c>
-      <c r="C48" s="30" t="s">
-        <v>713</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>714</v>
-      </c>
-      <c r="E48" s="45" t="s">
-        <v>715</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>716</v>
-      </c>
-      <c r="H48" s="8">
-        <v>2006</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>717</v>
-      </c>
-      <c r="K48" s="13" t="s">
-        <v>718</v>
-      </c>
-      <c r="L48" s="13" t="s">
-        <v>719</v>
-      </c>
-      <c r="M48" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N48" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="O48" s="8" t="s">
-        <v>720</v>
-      </c>
-      <c r="P48" s="2" t="s">
-        <v>721</v>
-      </c>
-      <c r="Q48" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="R48" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="S48" s="5"/>
-      <c r="T48" s="2" t="s">
-        <v>722</v>
-      </c>
-      <c r="U48" s="2" t="s">
-        <v>723</v>
-      </c>
-      <c r="V48" s="3" t="s">
-        <v>724</v>
-      </c>
-      <c r="W48" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y48" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z48" s="10" t="s">
-        <v>216</v>
+    <row r="53" spans="1:34" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="7" t="s">
+        <v>796</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="C53" s="30" t="s">
+        <v>798</v>
+      </c>
+      <c r="D53" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="E53" s="44" t="s">
+        <v>799</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="H53" s="2">
+        <v>2018</v>
+      </c>
+      <c r="I53" s="41" t="s">
+        <v>801</v>
+      </c>
+      <c r="J53" s="42" t="s">
+        <v>802</v>
+      </c>
+      <c r="K53" s="43" t="s">
+        <v>803</v>
+      </c>
+      <c r="L53" s="13" t="s">
+        <v>803</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N53" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O53" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P53" s="41" t="s">
+        <v>804</v>
+      </c>
+      <c r="Q53" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R53" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="T53" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="U53" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="V53" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="W53" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="X53" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="Y53" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z53" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA53" s="2"/>
+      <c r="AC53" s="13" t="s">
+        <v>803</v>
       </c>
     </row>
-    <row r="49" spans="1:34" ht="332" x14ac:dyDescent="0.15">
-      <c r="A49" s="7" t="s">
-        <v>725</v>
-      </c>
-      <c r="B49" s="20" t="s">
-        <v>726</v>
-      </c>
-      <c r="C49" s="30" t="s">
-        <v>727</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>728</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>729</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>730</v>
-      </c>
-      <c r="H49" s="8">
-        <v>1988</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>731</v>
-      </c>
-      <c r="K49" s="13">
-        <v>4858</v>
-      </c>
-      <c r="L49" s="13" t="s">
-        <v>732</v>
-      </c>
-      <c r="M49" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N49" s="2" t="s">
-        <v>733</v>
-      </c>
-      <c r="O49" s="2" t="s">
-        <v>734</v>
-      </c>
-      <c r="P49" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="Q49" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="R49" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="T49" s="2" t="s">
-        <v>736</v>
-      </c>
-      <c r="U49" s="2" t="s">
-        <v>737</v>
-      </c>
-      <c r="V49" s="3" t="s">
-        <v>738</v>
-      </c>
-      <c r="W49" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="X49" s="10" t="s">
-        <v>739</v>
-      </c>
-      <c r="Y49" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z49" s="10" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="50" spans="1:34" ht="182" x14ac:dyDescent="0.15">
-      <c r="A50" s="7" t="s">
-        <v>740</v>
-      </c>
-      <c r="B50" s="20" t="s">
-        <v>741</v>
-      </c>
-      <c r="C50" s="30" t="s">
-        <v>742</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>743</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>744</v>
-      </c>
-      <c r="H50" s="2">
-        <v>2014</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>745</v>
-      </c>
-      <c r="K50" s="9">
-        <v>6616</v>
-      </c>
-      <c r="L50" s="13" t="s">
-        <v>746</v>
-      </c>
-      <c r="M50" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N50" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="O50" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="P50" s="2" t="s">
-        <v>748</v>
-      </c>
-      <c r="Q50" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="R50" s="2" t="s">
-        <v>749</v>
-      </c>
-      <c r="T50" s="2" t="s">
-        <v>750</v>
-      </c>
-      <c r="U50" s="36" t="s">
-        <v>751</v>
-      </c>
-      <c r="V50" s="3" t="s">
-        <v>752</v>
-      </c>
-      <c r="W50" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y50" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z50" s="10" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="51" spans="1:34" ht="117" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="7" t="s">
-        <v>753</v>
-      </c>
-      <c r="B51" s="20" t="s">
-        <v>754</v>
-      </c>
-      <c r="C51" s="30" t="s">
-        <v>755</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>756</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="H51" s="8">
-        <v>2008</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J51" s="2" t="s">
-        <v>757</v>
-      </c>
-      <c r="K51" s="2" t="s">
-        <v>758</v>
-      </c>
-      <c r="L51" s="13" t="s">
-        <v>759</v>
-      </c>
-      <c r="M51" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N51" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="O51" s="8" t="s">
-        <v>760</v>
-      </c>
-      <c r="P51" s="2" t="s">
-        <v>761</v>
-      </c>
-      <c r="Q51" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="R51" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="T51" s="2" t="s">
-        <v>762</v>
-      </c>
-      <c r="U51" s="2" t="s">
-        <v>763</v>
-      </c>
-      <c r="V51" s="3" t="s">
-        <v>764</v>
-      </c>
-      <c r="W51" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="X51" s="10" t="s">
-        <v>765</v>
-      </c>
-      <c r="Y51" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z51" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA51" s="35" t="s">
-        <v>766</v>
-      </c>
-      <c r="AB51" s="2"/>
-      <c r="AC51" s="2"/>
-      <c r="AD51" s="2"/>
-      <c r="AE51" s="2"/>
-      <c r="AF51" s="2"/>
-      <c r="AG51" s="2"/>
-      <c r="AH51" s="2"/>
-    </row>
-    <row r="52" spans="1:34" ht="78" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="7" t="s">
-        <v>767</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>768</v>
-      </c>
-      <c r="C52" s="30" t="s">
-        <v>769</v>
-      </c>
-      <c r="D52" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="E52" s="46" t="s">
-        <v>770</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>771</v>
-      </c>
-      <c r="H52" s="2">
-        <v>2018</v>
-      </c>
-      <c r="I52" s="42" t="s">
-        <v>772</v>
-      </c>
-      <c r="J52" s="43" t="s">
-        <v>773</v>
-      </c>
-      <c r="K52" s="44" t="s">
-        <v>774</v>
-      </c>
-      <c r="L52" s="13" t="s">
-        <v>774</v>
-      </c>
-      <c r="M52" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N52" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="O52" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="P52" s="42" t="s">
-        <v>775</v>
-      </c>
-      <c r="Q52" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="R52" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="T52" s="2" t="s">
-        <v>776</v>
-      </c>
-      <c r="U52" s="2" t="s">
-        <v>777</v>
-      </c>
-      <c r="V52" s="3" t="s">
-        <v>778</v>
-      </c>
-      <c r="W52" s="3" t="s">
-        <v>772</v>
-      </c>
-      <c r="X52" s="3" t="s">
-        <v>779</v>
-      </c>
-      <c r="Y52" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z52" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA52" s="2"/>
-    </row>
-    <row r="53" spans="1:34" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="18" t="s">
-        <v>780</v>
-      </c>
-      <c r="B53" s="20" t="s">
-        <v>781</v>
-      </c>
-      <c r="C53" s="30" t="s">
-        <v>782</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>783</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>784</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>785</v>
-      </c>
-      <c r="H53" s="8">
+    <row r="54" spans="1:34" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="18" t="s">
+        <v>809</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>810</v>
+      </c>
+      <c r="C54" s="30" t="s">
+        <v>811</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="H54" s="8">
         <v>1998</v>
       </c>
-      <c r="I53" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>786</v>
-      </c>
-      <c r="K53" s="2" t="s">
-        <v>787</v>
-      </c>
-      <c r="L53" s="13" t="s">
-        <v>788</v>
-      </c>
-      <c r="M53" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N53" s="2" t="s">
-        <v>789</v>
-      </c>
-      <c r="O53" s="8" t="s">
-        <v>790</v>
-      </c>
-      <c r="P53" s="2" t="s">
-        <v>791</v>
-      </c>
-      <c r="Q53" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="R53" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="S53" s="5"/>
-      <c r="T53" s="2" t="s">
-        <v>792</v>
-      </c>
-      <c r="U53" s="2" t="s">
-        <v>793</v>
-      </c>
-      <c r="V53" s="3" t="s">
-        <v>794</v>
-      </c>
-      <c r="W53" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y53" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z53" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="54" spans="1:34" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="18" t="s">
-        <v>795</v>
-      </c>
-      <c r="B54" s="20" t="s">
-        <v>796</v>
-      </c>
-      <c r="C54" s="30" t="s">
-        <v>797</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>798</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H54" s="8">
-        <v>1994</v>
-      </c>
       <c r="I54" s="2" t="s">
-        <v>340</v>
+        <v>47</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>799</v>
+        <v>815</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>800</v>
+        <v>816</v>
       </c>
       <c r="L54" s="13" t="s">
-        <v>801</v>
+        <v>817</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>97</v>
+        <v>818</v>
       </c>
       <c r="O54" s="8" t="s">
-        <v>802</v>
+        <v>819</v>
       </c>
       <c r="P54" s="2" t="s">
-        <v>803</v>
+        <v>820</v>
       </c>
       <c r="Q54" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R54" s="2" t="s">
-        <v>804</v>
+        <v>81</v>
       </c>
       <c r="S54" s="5"/>
       <c r="T54" s="2" t="s">
-        <v>805</v>
+        <v>821</v>
       </c>
       <c r="U54" s="2" t="s">
-        <v>806</v>
+        <v>822</v>
       </c>
       <c r="V54" s="3" t="s">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="W54" s="4" t="s">
-        <v>351</v>
+        <v>94</v>
       </c>
       <c r="Y54" s="3" t="s">
-        <v>352</v>
+        <v>69</v>
       </c>
       <c r="Z54" s="10" t="s">
-        <v>353</v>
+        <v>86</v>
+      </c>
+      <c r="AC54" s="13" t="s">
+        <v>824</v>
       </c>
     </row>
-    <row r="55" spans="1:34" ht="113.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:34" ht="146.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="18" t="s">
-        <v>808</v>
+        <v>825</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>809</v>
+        <v>826</v>
       </c>
       <c r="C55" s="30" t="s">
-        <v>810</v>
+        <v>827</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>811</v>
+        <v>53</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>812</v>
+        <v>828</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>507</v>
+        <v>237</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H55" s="8">
-        <v>1992</v>
+        <v>1994</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>813</v>
+        <v>348</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>814</v>
+        <v>829</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>815</v>
+        <v>830</v>
       </c>
       <c r="L55" s="13" t="s">
-        <v>816</v>
+        <v>831</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>817</v>
-      </c>
-      <c r="O55" s="2" t="s">
-        <v>40</v>
+        <v>98</v>
+      </c>
+      <c r="O55" s="8" t="s">
+        <v>832</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>818</v>
+        <v>833</v>
       </c>
       <c r="Q55" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R55" s="2" t="s">
-        <v>80</v>
+        <v>834</v>
       </c>
       <c r="S55" s="5"/>
       <c r="T55" s="2" t="s">
-        <v>819</v>
+        <v>835</v>
       </c>
       <c r="U55" s="2" t="s">
-        <v>820</v>
+        <v>836</v>
       </c>
       <c r="V55" s="3" t="s">
-        <v>821</v>
+        <v>837</v>
       </c>
       <c r="W55" s="4" t="s">
-        <v>822</v>
+        <v>359</v>
       </c>
       <c r="Y55" s="3" t="s">
-        <v>48</v>
+        <v>360</v>
       </c>
       <c r="Z55" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="AA55" s="34" t="s">
-        <v>823</v>
+        <v>361</v>
+      </c>
+      <c r="AC55" s="13" t="s">
+        <v>831</v>
       </c>
     </row>
-    <row r="56" spans="1:34" ht="308" x14ac:dyDescent="0.15">
-      <c r="A56" s="7" t="s">
-        <v>824</v>
+    <row r="56" spans="1:34" ht="113.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="18" t="s">
+        <v>838</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>825</v>
+        <v>839</v>
       </c>
       <c r="C56" s="30" t="s">
-        <v>826</v>
+        <v>840</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>827</v>
+        <v>841</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>828</v>
+        <v>842</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>507</v>
+        <v>534</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H56" s="8" t="s">
-        <v>829</v>
+        <v>34</v>
+      </c>
+      <c r="H56" s="8">
+        <v>1992</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>830</v>
+        <v>843</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>831</v>
+        <v>844</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>832</v>
+        <v>845</v>
       </c>
       <c r="L56" s="13" t="s">
-        <v>833</v>
+        <v>846</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="O56" s="8" t="s">
-        <v>40</v>
+        <v>847</v>
+      </c>
+      <c r="O56" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>834</v>
+        <v>848</v>
       </c>
       <c r="Q56" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R56" s="2" t="s">
-        <v>835</v>
-      </c>
-      <c r="S56" s="2" t="s">
-        <v>836</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="S56" s="5"/>
       <c r="T56" s="2" t="s">
-        <v>837</v>
+        <v>849</v>
       </c>
       <c r="U56" s="2" t="s">
-        <v>838</v>
+        <v>850</v>
       </c>
       <c r="V56" s="3" t="s">
-        <v>839</v>
-      </c>
-      <c r="W56" s="10" t="s">
-        <v>840</v>
-      </c>
-      <c r="X56" s="10" t="s">
-        <v>765</v>
+        <v>851</v>
+      </c>
+      <c r="W56" s="4" t="s">
+        <v>852</v>
       </c>
       <c r="Y56" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Z56" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="AA56" s="35" t="s">
-        <v>841</v>
-      </c>
-      <c r="AB56" s="2"/>
-      <c r="AC56" s="2"/>
-      <c r="AD56" s="2"/>
-      <c r="AE56" s="2"/>
-      <c r="AF56" s="2"/>
-      <c r="AG56" s="2"/>
-      <c r="AH56" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="AA56" s="34" t="s">
+        <v>853</v>
+      </c>
+      <c r="AC56" s="13" t="s">
+        <v>846</v>
+      </c>
     </row>
     <row r="57" spans="1:34" ht="308" x14ac:dyDescent="0.15">
-      <c r="A57" s="18" t="s">
-        <v>842</v>
+      <c r="A57" s="7" t="s">
+        <v>854</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>843</v>
+        <v>855</v>
       </c>
       <c r="C57" s="30" t="s">
-        <v>844</v>
+        <v>856</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>845</v>
+        <v>857</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>846</v>
+        <v>858</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>54</v>
+        <v>534</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>847</v>
-      </c>
-      <c r="H57" s="8">
+        <v>34</v>
+      </c>
+      <c r="H57" s="8" t="s">
+        <v>859</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="L57" s="13" t="s">
+        <v>863</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N57" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O57" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P57" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="Q57" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R57" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="S57" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="T57" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="U57" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="V57" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="W57" s="10" t="s">
+        <v>870</v>
+      </c>
+      <c r="X57" s="10" t="s">
+        <v>794</v>
+      </c>
+      <c r="Y57" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z57" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA57" s="35" t="s">
+        <v>871</v>
+      </c>
+      <c r="AB57" s="2"/>
+      <c r="AC57" s="13" t="s">
+        <v>863</v>
+      </c>
+      <c r="AD57" s="2"/>
+      <c r="AE57" s="2"/>
+      <c r="AF57" s="2"/>
+      <c r="AG57" s="2"/>
+      <c r="AH57" s="2"/>
+    </row>
+    <row r="58" spans="1:34" ht="308" x14ac:dyDescent="0.15">
+      <c r="A58" s="18" t="s">
+        <v>872</v>
+      </c>
+      <c r="B58" s="20" t="s">
+        <v>873</v>
+      </c>
+      <c r="C58" s="30" t="s">
+        <v>874</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="H58" s="8">
         <v>2007</v>
       </c>
-      <c r="I57" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="J57" s="2" t="s">
-        <v>848</v>
-      </c>
-      <c r="K57" s="13" t="s">
-        <v>849</v>
-      </c>
-      <c r="L57" s="13" t="s">
-        <v>850</v>
-      </c>
-      <c r="M57" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N57" s="2" t="s">
-        <v>851</v>
-      </c>
-      <c r="O57" s="8" t="s">
-        <v>852</v>
-      </c>
-      <c r="P57" s="2" t="s">
-        <v>853</v>
-      </c>
-      <c r="Q57" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="R57" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="T57" s="2" t="s">
-        <v>854</v>
-      </c>
-      <c r="U57" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="V57" s="3" t="s">
-        <v>855</v>
-      </c>
-      <c r="W57" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y57" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z57" s="10" t="s">
-        <v>856</v>
+      <c r="I58" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="K58" s="13" t="s">
+        <v>879</v>
+      </c>
+      <c r="L58" s="13" t="s">
+        <v>880</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N58" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="O58" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="P58" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="Q58" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R58" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="T58" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="U58" s="2" t="s">
+        <v>886</v>
+      </c>
+      <c r="V58" s="3" t="s">
+        <v>887</v>
+      </c>
+      <c r="W58" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y58" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z58" s="10" t="s">
+        <v>888</v>
+      </c>
+      <c r="AC58" s="13" t="s">
+        <v>889</v>
       </c>
     </row>
-    <row r="58" spans="1:34" s="5" customFormat="1" ht="234" x14ac:dyDescent="0.2">
-      <c r="A58" s="7" t="s">
-        <v>857</v>
-      </c>
-      <c r="B58" s="20" t="s">
-        <v>858</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>859</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>860</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>861</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="H58" s="8">
+    <row r="59" spans="1:34" s="5" customFormat="1" ht="234" x14ac:dyDescent="0.2">
+      <c r="A59" s="7" t="s">
+        <v>890</v>
+      </c>
+      <c r="B59" s="20" t="s">
+        <v>891</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="H59" s="8">
         <v>1985</v>
       </c>
-      <c r="I58" s="2" t="s">
-        <v>862</v>
-      </c>
-      <c r="J58" s="2" t="s">
-        <v>863</v>
-      </c>
-      <c r="K58" s="13">
+      <c r="I59" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="K59" s="13">
         <v>10308</v>
       </c>
-      <c r="L58" s="13" t="s">
-        <v>864</v>
-      </c>
-      <c r="M58" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N58" s="2" t="s">
-        <v>865</v>
-      </c>
-      <c r="O58" s="2" t="s">
-        <v>866</v>
-      </c>
-      <c r="P58" s="2" t="s">
-        <v>867</v>
-      </c>
-      <c r="Q58" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="R58" s="2" t="s">
-        <v>868</v>
-      </c>
-      <c r="S58" s="2" t="s">
-        <v>869</v>
-      </c>
-      <c r="T58" s="2" t="s">
-        <v>870</v>
-      </c>
-      <c r="U58" s="2" t="s">
+      <c r="L59" s="13" t="s">
+        <v>897</v>
+      </c>
+      <c r="M59" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N59" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="O59" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="P59" s="2" t="s">
+        <v>900</v>
+      </c>
+      <c r="Q59" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R59" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="S59" s="2" t="s">
         <v>901</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>871</v>
-      </c>
-      <c r="W58" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="X58" s="4" t="s">
-        <v>488</v>
-      </c>
-      <c r="Y58" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z58" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="AA58" s="34"/>
+      <c r="T59" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="U59" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="V59" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="W59" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="X59" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="Y59" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z59" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA59" s="34"/>
+      <c r="AC59" s="13" t="s">
+        <v>905</v>
+      </c>
     </row>
-    <row r="59" spans="1:34" ht="272" x14ac:dyDescent="0.15">
-      <c r="A59" s="7" t="s">
-        <v>872</v>
-      </c>
-      <c r="B59" s="20" t="s">
-        <v>873</v>
-      </c>
-      <c r="C59" s="30" t="s">
-        <v>874</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>875</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>876</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>877</v>
-      </c>
-      <c r="H59" s="8">
+    <row r="60" spans="1:34" ht="272" x14ac:dyDescent="0.15">
+      <c r="A60" s="7" t="s">
+        <v>906</v>
+      </c>
+      <c r="B60" s="20" t="s">
+        <v>907</v>
+      </c>
+      <c r="C60" s="30" t="s">
+        <v>908</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="H60" s="8">
         <v>1986</v>
       </c>
-      <c r="I59" s="2" t="s">
-        <v>709</v>
-      </c>
-      <c r="J59" s="2" t="s">
-        <v>878</v>
-      </c>
-      <c r="K59" s="2" t="s">
-        <v>879</v>
-      </c>
-      <c r="L59" s="13" t="s">
-        <v>880</v>
-      </c>
-      <c r="M59" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N59" s="2" t="s">
-        <v>881</v>
-      </c>
-      <c r="O59" s="2" t="s">
-        <v>882</v>
-      </c>
-      <c r="P59" s="2" t="s">
-        <v>883</v>
-      </c>
-      <c r="Q59" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="R59" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="T59" s="2" t="s">
-        <v>884</v>
-      </c>
-      <c r="U59" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="V59" s="3" t="s">
-        <v>885</v>
-      </c>
-      <c r="W59" s="4" t="s">
-        <v>709</v>
-      </c>
-      <c r="Y59" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="Z59" s="4" t="s">
-        <v>153</v>
+      <c r="I60" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="L60" s="13" t="s">
+        <v>914</v>
+      </c>
+      <c r="M60" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N60" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="O60" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="P60" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="Q60" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R60" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T60" s="2" t="s">
+        <v>918</v>
+      </c>
+      <c r="U60" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="V60" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="W60" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="Y60" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="Z60" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="AC60" s="13" t="s">
+        <v>914</v>
       </c>
     </row>
-    <row r="60" spans="1:34" ht="182" x14ac:dyDescent="0.15">
-      <c r="A60" s="7" t="s">
-        <v>886</v>
-      </c>
-      <c r="B60" s="47" t="s">
-        <v>887</v>
-      </c>
-      <c r="C60" s="47" t="s">
-        <v>888</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>889</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>890</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="H60" s="2">
+    <row r="61" spans="1:34" ht="182" x14ac:dyDescent="0.15">
+      <c r="A61" s="7" t="s">
+        <v>920</v>
+      </c>
+      <c r="B61" s="45" t="s">
+        <v>921</v>
+      </c>
+      <c r="C61" s="45" t="s">
+        <v>922</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H61" s="2">
         <v>2021</v>
       </c>
-      <c r="I60" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="J60" s="2" t="s">
-        <v>891</v>
-      </c>
-      <c r="K60" s="2" t="s">
-        <v>892</v>
-      </c>
-      <c r="L60" s="2" t="s">
-        <v>893</v>
-      </c>
-      <c r="M60" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N60" s="2" t="s">
-        <v>894</v>
-      </c>
-      <c r="O60" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="P60" s="2" t="s">
-        <v>895</v>
-      </c>
-      <c r="Q60" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="R60" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="T60" s="2" t="s">
-        <v>896</v>
-      </c>
-      <c r="U60" s="2" t="s">
-        <v>897</v>
-      </c>
-      <c r="V60" s="10" t="s">
-        <v>898</v>
-      </c>
-      <c r="W60" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y60" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z60" s="4" t="s">
-        <v>124</v>
+      <c r="I61" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>926</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="M61" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N61" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="O61" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="P61" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="Q61" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R61" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="T61" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="U61" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="V61" s="10" t="s">
+        <v>932</v>
+      </c>
+      <c r="W61" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y61" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z61" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC61" s="2" t="s">
+        <v>927</v>
       </c>
     </row>
-    <row r="61" spans="1:34" ht="13" x14ac:dyDescent="0.15">
-      <c r="A61" s="2"/>
-      <c r="C61" s="30" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A62" s="7"/>
+    <row r="62" spans="1:34" s="49" customFormat="1" ht="195" x14ac:dyDescent="0.2">
+      <c r="A62" s="48" t="s">
+        <v>933</v>
+      </c>
+      <c r="B62" s="54" t="s">
+        <v>934</v>
+      </c>
+      <c r="C62" s="49" t="s">
+        <v>935</v>
+      </c>
+      <c r="D62" s="49" t="s">
+        <v>936</v>
+      </c>
+      <c r="E62" s="49" t="s">
+        <v>937</v>
+      </c>
+      <c r="F62" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="G62" s="49" t="s">
+        <v>269</v>
+      </c>
+      <c r="H62" s="50">
+        <v>2007</v>
+      </c>
+      <c r="I62" s="51" t="s">
+        <v>801</v>
+      </c>
+      <c r="J62" s="49" t="s">
+        <v>938</v>
+      </c>
+      <c r="K62" s="52" t="s">
+        <v>939</v>
+      </c>
+      <c r="L62" s="51" t="s">
+        <v>940</v>
+      </c>
+      <c r="M62" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="N62" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="O62" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="P62" s="51" t="s">
+        <v>941</v>
+      </c>
+      <c r="Q62" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="R62" s="49" t="s">
+        <v>942</v>
+      </c>
+      <c r="T62" s="49" t="s">
+        <v>943</v>
+      </c>
+      <c r="U62" s="49" t="s">
+        <v>185</v>
+      </c>
+      <c r="V62" s="59" t="s">
+        <v>944</v>
+      </c>
+      <c r="W62" s="59" t="s">
+        <v>801</v>
+      </c>
+      <c r="X62" s="60" t="s">
+        <v>945</v>
+      </c>
+      <c r="Y62" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z62" s="59" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA62" s="61" t="s">
+        <v>946</v>
+      </c>
     </row>
     <row r="63" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A63" s="7"/>
@@ -9951,25 +10494,19 @@
     <row r="88" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A88" s="7"/>
     </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A89" s="7"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AH61" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AH62" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006651BF32B521A046AF14BF632D6B295F" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="55423843e2650ade946de227fdfd3c86">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b67f489d-6419-4cb0-8238-506a3a8f1300" xmlns:ns3="0ce01a67-a604-4be1-a4ca-c8b766b5a068" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b15cf6a4d7b0b7ca33e0fb73ec1791d3" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006651BF32B521A046AF14BF632D6B295F" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e687cc8bfaac909e05f4176cb548ff64">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b67f489d-6419-4cb0-8238-506a3a8f1300" xmlns:ns3="0ce01a67-a604-4be1-a4ca-c8b766b5a068" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a69ac97e46fed597af44404b7c53e36d" ns2:_="" ns3:_="">
     <xsd:import namespace="b67f489d-6419-4cb0-8238-506a3a8f1300"/>
     <xsd:import namespace="0ce01a67-a604-4be1-a4ca-c8b766b5a068"/>
     <xsd:element name="properties">
@@ -9991,6 +10528,7 @@
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -10053,6 +10591,11 @@
     <xsd:element name="MediaServiceLocation" ma:index="21" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="22" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -10196,7 +10739,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="b67f489d-6419-4cb0-8238-506a3a8f1300">
@@ -10207,16 +10750,17 @@
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C8B3C7C-6A2F-4690-AF82-2D0388819DFC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B6E6444-F52A-4A7D-907E-4485397AB440}">
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6034AC88-A724-4D6C-810A-3CFE5A229381}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -10234,7 +10778,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A888961D-86EF-4E4E-8A38-F33DFFA3A067}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -10243,4 +10787,12 @@
     <ds:schemaRef ds:uri="0ce01a67-a604-4be1-a4ca-c8b766b5a068"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C8B3C7C-6A2F-4690-AF82-2D0388819DFC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>